--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1198.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1198.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.7580781044003323</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.03790390522001662</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.03790390522001662</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06064624835202659</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06023405440940448</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01023405440940448</v>
+        <v>0.0249158559708786</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008521982390497855</v>
+        <v>0.0207476408990837</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0008328808861466155</v>
+        <v>0.001648806652795716</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007726548217990298</v>
+        <v>0.0008171477034415216</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001726907201291136</v>
+        <v>0.005890324409079356</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007804504256063368</v>
+        <v>0.0008008095239540746</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005063793464315181</v>
+        <v>0.006000000000000005</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0008081502096068884</v>
+        <v>0.0006117857142857148</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.008488312368587991</v>
+        <v>0.001648806652795716</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007278185794493523</v>
+        <v>0.0008171477034415216</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001528466719990025</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00154530964359806</v>
+        <v>0.001998499999999998</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003916629904082043</v>
+        <v>0.01287486471243407</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001560900851212674</v>
+        <v>0.001601619047908149</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01073162374146194</v>
+        <v>0.01322401770566672</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001616300419213777</v>
+        <v>0.001592048056136906</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01708202972413392</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001455637158898705</v>
+        <v>0.001998499999999998</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004949462449227011</v>
+        <v>0.0045933094233164</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002317964465397089</v>
+        <v>0.002451443110324565</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005953051392181434</v>
+        <v>0.0188849672317068</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.00234135127681901</v>
+        <v>0.002402428571862224</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01499999999999999</v>
+        <v>0.01867728245113642</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002334696261682241</v>
+        <v>0.002388072084205359</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02432189461556789</v>
+        <v>0.0045933094233164</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002183455738348057</v>
+        <v>0.002451443110324565</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005685585783002489</v>
+        <v>0.005498476122971538</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002840660796832619</v>
+        <v>0.003268590813766086</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.00752005494939801</v>
+        <v>0.02485197828854038</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003121801702425347</v>
+        <v>0.003203238095816298</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01817040092396036</v>
+        <v>0.024409887958035</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003232600838427553</v>
+        <v>0.003184096112273813</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03134864959182027</v>
+        <v>0.005498476122971538</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002911274317797409</v>
+        <v>0.003268590813766086</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002840660796832619</v>
+        <v>0.001998499999999998</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005685585783002489</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.005799452364259675</v>
+        <v>0.006948330213974868</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003863274108995149</v>
+        <v>0.004085738517207609</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.009601523859540502</v>
+        <v>0.02990724420457758</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003902252128031684</v>
+        <v>0.004004047619770373</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02201433235797765</v>
+        <v>0.02973051644549018</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004040751048034442</v>
+        <v>0.003980120140342266</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03850303720182136</v>
+        <v>0.006948330213974868</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003639092897246762</v>
+        <v>0.004085738517207609</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.005510293458992448</v>
+        <v>0.007746855501904987</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004635928930794178</v>
+        <v>0.00490288622064913</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.0108813414064176</v>
+        <v>0.03558211130146111</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.00468270255363802</v>
+        <v>0.004804857143724447</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02439563934231737</v>
+        <v>0.03424785013262993</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00484890125764133</v>
+        <v>0.004776144168410719</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04432579999450137</v>
+        <v>0.007746855501904987</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004366911476696113</v>
+        <v>0.00490288622064913</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007134073253013358</v>
+        <v>0.008998035792340445</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005408583752593208</v>
+        <v>0.005720033924090651</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01274339087383805</v>
+        <v>0.0399079259008337</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005463152979244358</v>
+        <v>0.005605666667678521</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02735304337439415</v>
+        <v>0.04017057123858192</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005657051467248219</v>
+        <v>0.005572168196479172</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05299999999999999</v>
+        <v>0.008998035792340445</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005404107142857142</v>
+        <v>0.005720033924090651</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.00769380450230446</v>
+        <v>0.01010585489085979</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006181238574392238</v>
+        <v>0.006537181627532172</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01397155554561054</v>
+        <v>0.04291603432433824</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006243603404850694</v>
+        <v>0.006406476191632596</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03012526595162285</v>
+        <v>0.04430736198247387</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006465201676855107</v>
+        <v>0.006368192224547625</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05395815941742604</v>
+        <v>0.01010585489085979</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005822548635594818</v>
+        <v>0.006537181627532172</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.008212499962847827</v>
+        <v>0.01077429660304163</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006953893396191267</v>
+        <v>0.007354329330973694</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01514971870554378</v>
+        <v>0.04643778289361736</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007024053830457032</v>
+        <v>0.007207285715586671</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03265102857141816</v>
+        <v>0.04846690458343372</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007273351886461996</v>
+        <v>0.007164216252616078</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.0570998716206354</v>
+        <v>0.01077429660304163</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006550367215044171</v>
+        <v>0.007354329330973694</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009713172390625517</v>
+        <v>0.01180734473446448</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007726548217990298</v>
+        <v>0.008171477034415217</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01666176363744649</v>
+        <v>0.04850451793031382</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007804504256063368</v>
+        <v>0.008008095239540746</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03556905273119493</v>
+        <v>0.05355788126058914</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008081502096068885</v>
+        <v>0.007960240280684532</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06021624772005796</v>
+        <v>0.01180734473446448</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007278185794493523</v>
+        <v>0.008171477034415217</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01023405440940448</v>
+        <v>0.01290898309070694</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008521982390497855</v>
+        <v>0.008988624737856736</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01759157362512741</v>
+        <v>0.05099999999999999</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008584954681669704</v>
+        <v>0.008847526041666663</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03751805992836785</v>
+        <v>0.0588889742330681</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008889652305675773</v>
+        <v>0.008756264308752985</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.06308288303330256</v>
+        <v>0.01290898309070694</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008006004373942876</v>
+        <v>0.008988624737856736</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01074436536596098</v>
+        <v>0.01388319547734754</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009271857861588356</v>
+        <v>0.009805772441298259</v>
       </c>
       <c r="J77" t="n">
-        <v>0.018</v>
+        <v>0.05181371028164825</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008993250000000001</v>
+        <v>0.009609714287448895</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03973677166035161</v>
+        <v>0.06156886571999826</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00969780251528266</v>
+        <v>0.009552288336821438</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06717537287797809</v>
+        <v>0.01388319547734754</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008733822953392227</v>
+        <v>0.009805772441298259</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.009286261848424925</v>
+        <v>0.01453396569996487</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01004451268338739</v>
+        <v>0.01062292014473978</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01874941590090155</v>
+        <v>0.0520861390540851</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01014585553288238</v>
+        <v>0.01041052381140297</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04286390942456114</v>
+        <v>0.06560623794050741</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01050595272488955</v>
+        <v>0.01034831236488989</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0679693125716932</v>
+        <v>0.01453396569996487</v>
       </c>
       <c r="O78" t="n">
-        <v>0.00946164153284158</v>
+        <v>0.01062292014473978</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01184066774484717</v>
+        <v>0.0155652775641375</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01081716750518642</v>
+        <v>0.0114400678481813</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01946839334611497</v>
+        <v>0.05251005863355465</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01092630595848872</v>
+        <v>0.01121133333535704</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04473819471841103</v>
+        <v>0.07020977311372334</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01131410293449644</v>
+        <v>0.01114433639295834</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07114029743205691</v>
+        <v>0.0155652775641375</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01018946011229093</v>
+        <v>0.0114400678481813</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01240373042505759</v>
+        <v>0.01608111487544396</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01158982232698545</v>
+        <v>0.01225721555162282</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01960750027682122</v>
+        <v>0.0530298896477138</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01170675638409505</v>
+        <v>0.01201214285931112</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04759834903931609</v>
+        <v>0.07358815345877384</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01212225314410333</v>
+        <v>0.0119403604210268</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07266392277667771</v>
+        <v>0.01608111487544396</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01091727869174028</v>
+        <v>0.01225721555162282</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0109715972588861</v>
+        <v>0.01708546143946284</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01236247714878448</v>
+        <v>0.01307436325506434</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01998413833039552</v>
+        <v>0.05429005272421936</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01248720680970139</v>
+        <v>0.01281295238326519</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04928309388469113</v>
+        <v>0.07785006119478693</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01293040335371021</v>
+        <v>0.01273638444909525</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07481578392316457</v>
+        <v>0.01708546143946284</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01164509727118964</v>
+        <v>0.01307436325506434</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01254041561616259</v>
+        <v>0.0177823010617727</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01313513197058351</v>
+        <v>0.01389151095850587</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0206157091442131</v>
+        <v>0.05473496849072823</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01326765723530773</v>
+        <v>0.01361376190721927</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05203115075195086</v>
+        <v>0.08070417854089007</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0137385535633171</v>
+        <v>0.01353240847716371</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07807147618912619</v>
+        <v>0.0177823010617727</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01237291585063899</v>
+        <v>0.01389151095850587</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01410633286671691</v>
+        <v>0.01867561754795209</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01390778679238253</v>
+        <v>0.01470865866194739</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02061961435564923</v>
+        <v>0.05410905757489728</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01404810766091406</v>
+        <v>0.01441457143117334</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05682838506193275</v>
+        <v>0.08495918771621125</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01474189090683704</v>
+        <v>0.01432843250523216</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0798065948921714</v>
+        <v>0.01867561754795209</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01310073443008834</v>
+        <v>0.01470865866194739</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01366549638037901</v>
+        <v>0.01936939470357961</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01468044161418157</v>
+        <v>0.01552580636538891</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02081325560207907</v>
+        <v>0.05465674060438333</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0148285580865204</v>
+        <v>0.01521538095512742</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05907446818502543</v>
+        <v>0.08874091415298685</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01535485398253088</v>
+        <v>0.01508067320873675</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08209673534990902</v>
+        <v>0.01936939470357961</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01382855300953769</v>
+        <v>0.01552580636538891</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01421405352697874</v>
+        <v>0.0200676163342338</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0154530964359806</v>
+        <v>0.01634295406883043</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02141403452087788</v>
+        <v>0.05642243820684323</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01560900851212674</v>
+        <v>0.01601619047908149</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06221179245630601</v>
+        <v>0.09117496148715848</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01616300419213777</v>
+        <v>0.01592048056136906</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08591749287994777</v>
+        <v>0.0200676163342338</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01455637158898705</v>
+        <v>0.01634295406883043</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01374815167634601</v>
+        <v>0.0210742662454932</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01622575125777962</v>
+        <v>0.01716010177227195</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02143935274942091</v>
+        <v>0.05682838506193275</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01638945893773307</v>
+        <v>0.01643106590657879</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06698681101435608</v>
+        <v>0.0956640813931427</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01697115440174465</v>
+        <v>0.01671650458943752</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08874091415298685</v>
+        <v>0.0210742662454932</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01508067320873675</v>
+        <v>0.01716010177227195</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01626393819831071</v>
+        <v>0.02169332824293642</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01699840607957865</v>
+        <v>0.01797724947571347</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02220661192508336</v>
+        <v>0.05747217938310029</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01716990936333941</v>
+        <v>0.01761780952698964</v>
       </c>
       <c r="L87" t="n">
-        <v>0.07208121281295041</v>
+        <v>0.09858346472302087</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01777930461135155</v>
+        <v>0.01751252861750597</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09389549623663535</v>
+        <v>0.02169332824293642</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01601200874788575</v>
+        <v>0.01797724947571347</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01675756046270273</v>
+        <v>0.02252878613214199</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01777106090137769</v>
+        <v>0.018794397179155</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02233321368524047</v>
+        <v>0.059474887939651</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01795035978894574</v>
+        <v>0.01841861905094372</v>
       </c>
       <c r="L88" t="n">
-        <v>0.07667668680586368</v>
+        <v>0.1022252514192749</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01858745482095843</v>
+        <v>0.01830855264557442</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09801129390269347</v>
+        <v>0.02252878613214199</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0167398273273351</v>
+        <v>0.018794397179155</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01722516583935195</v>
+        <v>0.02328462371868847</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01854371572317671</v>
+        <v>0.01961154488259652</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02283655966726743</v>
+        <v>0.06024607892103259</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01873081021455208</v>
+        <v>0.01921942857489779</v>
       </c>
       <c r="L89" t="n">
-        <v>0.08155492194687064</v>
+        <v>0.1059815814243866</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01939560503056532</v>
+        <v>0.01910457667364288</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1040473313560648</v>
+        <v>0.02328462371868847</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01746764590678445</v>
+        <v>0.01961154488259652</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01566290169808828</v>
+        <v>0.0249158559708786</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01931637054497574</v>
+        <v>0.0207476408990837</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02333405150853954</v>
+        <v>0.06127230978631251</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01951126064015842</v>
+        <v>0.02002023809885187</v>
       </c>
       <c r="L90" t="n">
-        <v>0.08659760718974602</v>
+        <v>0.1077445946808377</v>
       </c>
       <c r="M90" t="n">
-        <v>0.02020375524017221</v>
+        <v>0.01990060070171133</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1108347804139765</v>
+        <v>0.0249158559708786</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01819546448623381</v>
+        <v>0.0207476408990837</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0180669154087416</v>
+        <v>0.02507925708822785</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02008902536677477</v>
+        <v>0.02124584028947956</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02444309084643197</v>
+        <v>0.06334013799455848</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02029171106576476</v>
+        <v>0.02082104762280594</v>
       </c>
       <c r="L91" t="n">
-        <v>0.09118643148826455</v>
+        <v>0.11250643113111</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0210119054497791</v>
+        <v>0.02069662472977978</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1176048128936558</v>
+        <v>0.02507925708822785</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01892328306568316</v>
+        <v>0.02124584028947956</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.0174333543411418</v>
+        <v>0.02645054487934946</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02086168018857381</v>
+        <v>0.02206298799292108</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0249158559708786</v>
+        <v>0.06493612100483814</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0207476408990837</v>
+        <v>0.02162185714676001</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0950030837962009</v>
+        <v>0.1158592307176855</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02182005565938598</v>
+        <v>0.02149264875784824</v>
       </c>
       <c r="N92" t="n">
-        <v>0.12418860061233</v>
+        <v>0.02645054487934946</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01965110164513251</v>
+        <v>0.02206298799292108</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01775836586511877</v>
+        <v>0.02737442576738568</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02163433501037283</v>
+        <v>0.0228801356963626</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02725605335754017</v>
+        <v>0.06674681627621915</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02185261191697743</v>
+        <v>0.02242266667071409</v>
       </c>
       <c r="L93" t="n">
-        <v>0.09862925306732989</v>
+        <v>0.1188951333830457</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02262820586899288</v>
+        <v>0.02228867278591669</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1322173153872264</v>
+        <v>0.02737442576738568</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02037892022458187</v>
+        <v>0.0228801356963626</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01803809735050241</v>
+        <v>0.02814394811015601</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02240698983217186</v>
+        <v>0.02369728339980412</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03054830036793756</v>
+        <v>0.06935878126776912</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02263306234258377</v>
+        <v>0.02322347619466816</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1032466282554262</v>
+        <v>0.1232062790696726</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02343635607859976</v>
+        <v>0.02308469681398514</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1392221290355723</v>
+        <v>0.02814394811015601</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02110673880403122</v>
+        <v>0.02369728339980412</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01726869616712261</v>
+        <v>0.02925216026547998</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02317964465397089</v>
+        <v>0.02451443110324565</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03416432233591579</v>
+        <v>0.07115857343855569</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0234135127681901</v>
+        <v>0.02402428571862224</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1050368983142645</v>
+        <v>0.1249848077200479</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02424450628820665</v>
+        <v>0.02388072084205359</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1452342133745949</v>
+        <v>0.02925216026547998</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02183455738348057</v>
+        <v>0.02451443110324565</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01744630968480926</v>
+        <v>0.03039211059117708</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02395229947576992</v>
+        <v>0.02533157880668717</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0385867698941713</v>
+        <v>0.07363275024764651</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02419396319379644</v>
+        <v>0.02482509524257631</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1077817521976197</v>
+        <v>0.1284228592766536</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02505265649781354</v>
+        <v>0.02467674487012205</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1518847402215215</v>
+        <v>0.03039211059117708</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02256237596292992</v>
+        <v>0.02533157880668717</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.01956708527339226</v>
+        <v>0.03185684744506685</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02472495429756895</v>
+        <v>0.02614872651012869</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04219829367540065</v>
+        <v>0.07576786915410924</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02497441361940278</v>
+        <v>0.02562590476653039</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1088628788592663</v>
+        <v>0.1327125736819713</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02586080670742043</v>
+        <v>0.0254727688981905</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1581048813935794</v>
+        <v>0.03185684744506685</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02329019454237927</v>
+        <v>0.02614872651012869</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.01762717030270147</v>
+        <v>0.03303941918496876</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02549760911936798</v>
+        <v>0.02696587421357021</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04558154431230031</v>
+        <v>0.07835048761701149</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02575486404500911</v>
+        <v>0.02642671429048446</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1090817807799918</v>
+        <v>0.1362460908784829</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02666895691702732</v>
+        <v>0.02626879292625895</v>
       </c>
       <c r="N98" t="n">
-        <v>0.161525808707996</v>
+        <v>0.03303941918496876</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02401801312182862</v>
+        <v>0.02696587421357021</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.01862423677792514</v>
+        <v>0.03423287416870237</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02627026394116701</v>
+        <v>0.02778302191701174</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04761917243756686</v>
+        <v>0.07986716309542091</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02653531447061545</v>
+        <v>0.02722752381443853</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1094387484224223</v>
+        <v>0.1386155508086702</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0274771071266342</v>
+        <v>0.02706481695432741</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1657786939819983</v>
+        <v>0.03423287416870237</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02474583170127798</v>
+        <v>0.02778302191701174</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.01756574283331153</v>
+        <v>0.03523026075408715</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02704291876296604</v>
+        <v>0.02860016962045326</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04800350559957386</v>
+        <v>0.0824044530484051</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02731576489622179</v>
+        <v>0.02802833333839261</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1089112078953367</v>
+        <v>0.1424130934150148</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02828525733624109</v>
+        <v>0.02786084098239586</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1686947090328138</v>
+        <v>0.03523026075408715</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02547365028072733</v>
+        <v>0.02860016962045326</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.01745866347467422</v>
+        <v>0.03672462729894263</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02781557358476507</v>
+        <v>0.02941731732389478</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04793934405619441</v>
+        <v>0.08534891493503174</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02809621532182813</v>
+        <v>0.02882914286234668</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1085194411950881</v>
+        <v>0.1453308586399989</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02909340754584798</v>
+        <v>0.02865686501046431</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1697050256776697</v>
+        <v>0.03672462729894263</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02620146886017669</v>
+        <v>0.02941731732389478</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.01930939177507115</v>
+        <v>0.03780902216108831</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0285882284065641</v>
+        <v>0.0302344650273363</v>
       </c>
       <c r="J102" t="n">
-        <v>0.047878524563318</v>
+        <v>0.0867871062143685</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02887666574743446</v>
+        <v>0.02962995238630076</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1071837303180297</v>
+        <v>0.148060986426104</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02990155775545487</v>
+        <v>0.02945288903853277</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1708416117424135</v>
+        <v>0.03780902216108831</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02692928743962604</v>
+        <v>0.0302344650273363</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.01812432080756022</v>
+        <v>0.03897649369834372</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02936088322836313</v>
+        <v>0.03105161273077782</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0479337417933003</v>
+        <v>0.09010558434548296</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0296571161730408</v>
+        <v>0.03043076191025483</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1070243572605147</v>
+        <v>0.1512956167158121</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03070970796506176</v>
+        <v>0.03024891306660122</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1704511536316367</v>
+        <v>0.03897649369834372</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02765710601907538</v>
+        <v>0.03105161273077782</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01690984364519936</v>
+        <v>0.04002009026852835</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03013353805016216</v>
+        <v>0.03186876043421934</v>
       </c>
       <c r="J104" t="n">
-        <v>0.047317690418497</v>
+        <v>0.09209090678744275</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03043756659864713</v>
+        <v>0.03123157143420891</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1063616040188964</v>
+        <v>0.1534268894516048</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03151785817466865</v>
+        <v>0.03104493709466967</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1700906442751762</v>
+        <v>0.04002009026852835</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02838492459852474</v>
+        <v>0.03186876043421934</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.01667235336104649</v>
+        <v>0.04123286022946171</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03090619287196119</v>
+        <v>0.03268590813766087</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04714306511126372</v>
+        <v>0.09452963099931561</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03121801702425347</v>
+        <v>0.03203238095816299</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1053157525895281</v>
+        <v>0.156846944575964</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03232600838427554</v>
+        <v>0.03184096112273813</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1686740440450211</v>
+        <v>0.04123286022946171</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02911274317797409</v>
+        <v>0.03268590813766087</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01841824302815956</v>
+        <v>0.04240785193896333</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03167884769376023</v>
+        <v>0.03350305584110238</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04672256054395611</v>
+        <v>0.09640831444016909</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03199846744985981</v>
+        <v>0.03283319048211706</v>
       </c>
       <c r="L106" t="n">
-        <v>0.103907084968763</v>
+        <v>0.1591479220313716</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03313415859388243</v>
+        <v>0.03263698515080658</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1681153133131605</v>
+        <v>0.04240785193896333</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02984056175742344</v>
+        <v>0.03350305584110238</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01715390571959645</v>
+        <v>0.04323811375485272</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03245150251555925</v>
+        <v>0.0343202035445439</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04636887138892987</v>
+        <v>0.09811351456907086</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03277891787546614</v>
+        <v>0.03363400000607113</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1029558831529543</v>
+        <v>0.1615219617603093</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03394230880348931</v>
+        <v>0.03343300917887503</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1686284124515837</v>
+        <v>0.04323811375485272</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0305683803368728</v>
+        <v>0.0343202035445439</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.0158857345084151</v>
+        <v>0.04421669403494936</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03322415733735828</v>
+        <v>0.03513735124798543</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04589469231854063</v>
+        <v>0.1006317888450885</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03355936830107248</v>
+        <v>0.03443480953002521</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1023824291384554</v>
+        <v>0.1639612037052588</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0347504590130962</v>
+        <v>0.03422903320694349</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1665273018322796</v>
+        <v>0.04421669403494936</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03129619891632215</v>
+        <v>0.03513735124798543</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01662012246767344</v>
+        <v>0.04503664113707283</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03399681215915731</v>
+        <v>0.03595449895142695</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04541271800514403</v>
+        <v>0.1029496947272897</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03433981872667882</v>
+        <v>0.03523561905397928</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1012070049216192</v>
+        <v>0.1651577878087022</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03555860922270309</v>
+        <v>0.03502505723501194</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1658259418272375</v>
+        <v>0.04503664113707283</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0320240174957715</v>
+        <v>0.03595449895142695</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01636346267042939</v>
+        <v>0.04619100341904256</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03476946698095634</v>
+        <v>0.03677164665486847</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04493564312109576</v>
+        <v>0.1045537896747422</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03512026915228515</v>
+        <v>0.03603642857793336</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09944989249879932</v>
+        <v>0.166403854013121</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03636675943230998</v>
+        <v>0.03582108126308039</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1644382928084464</v>
+        <v>0.04619100341904256</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03275183607522086</v>
+        <v>0.03677164665486847</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01512214818974086</v>
+        <v>0.04697282923867811</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03554212180275537</v>
+        <v>0.03758879435830999</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04417616233875146</v>
+        <v>0.1058306311465134</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03590071957789149</v>
+        <v>0.03683723810188743</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09913137386634877</v>
+        <v>0.1696915422609972</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03717490964191687</v>
+        <v>0.03661710529114885</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1635783151478955</v>
+        <v>0.04697282923867811</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0334796546546702</v>
+        <v>0.03758879435830999</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01490257209866579</v>
+        <v>0.04757516695379897</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0363147766245544</v>
+        <v>0.03840594206175151</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04364697033046677</v>
+        <v>0.1070667766016711</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03668117000349783</v>
+        <v>0.0376380476258415</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09787173102062086</v>
+        <v>0.1707129924948125</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03798305985152375</v>
+        <v>0.0374131293192173</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1631599692175739</v>
+        <v>0.04757516695379897</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03420747323411956</v>
+        <v>0.03840594206175151</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0167111274702621</v>
+        <v>0.04829106492222467</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03708743144635342</v>
+        <v>0.03922308976519304</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04336076176859741</v>
+        <v>0.108848783499283</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03746162042910416</v>
+        <v>0.03843885714979558</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09649124595796879</v>
+        <v>0.1713603446570488</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03879121006113064</v>
+        <v>0.03820915334728575</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1606972153894708</v>
+        <v>0.04829106492222467</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03493529181356891</v>
+        <v>0.03922308976519304</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.0155542073775877</v>
+        <v>0.04851357150177468</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03786008626815246</v>
+        <v>0.04004023746863455</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04303023132549895</v>
+        <v>0.1098632092984167</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0382420708547105</v>
+        <v>0.03923966667374965</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09571020067474587</v>
+        <v>0.1730257386901878</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03959936027073754</v>
+        <v>0.0390051773753542</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1602040140355754</v>
+        <v>0.04851357150177468</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03566311039301826</v>
+        <v>0.04004023746863455</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01643820489370053</v>
+        <v>0.04903573505026855</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03863274108995149</v>
+        <v>0.04085738517207608</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0426680736735271</v>
+        <v>0.1111966114581397</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03902252128031684</v>
+        <v>0.04004047619770373</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09604887716730526</v>
+        <v>0.1738013145367114</v>
       </c>
       <c r="M115" t="n">
-        <v>0.04040751048034442</v>
+        <v>0.03980120140342266</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1591943255278765</v>
+        <v>0.04903573505026855</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03639092897246762</v>
+        <v>0.04085738517207608</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01536951309165849</v>
+        <v>0.0493506039255258</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03940539591175052</v>
+        <v>0.0416745328755176</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04248698348503753</v>
+        <v>0.1120355474375198</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03980297170592317</v>
+        <v>0.04084128572165781</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09492755743200029</v>
+        <v>0.1758792121391013</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04121566068995131</v>
+        <v>0.04059722543149111</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1576821102383637</v>
+        <v>0.0493506039255258</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03711874755191696</v>
+        <v>0.0416745328755176</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01435377715789423</v>
+        <v>0.04983171194175721</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04017805073354955</v>
+        <v>0.04249168057895912</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04269965543238585</v>
+        <v>0.1122665746956244</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04058342213152951</v>
+        <v>0.04164209524561188</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09526652346518413</v>
+        <v>0.1759515714398394</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04202381089955819</v>
+        <v>0.04139324945955956</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1558813285390257</v>
+        <v>0.04983171194175721</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03784656613136632</v>
+        <v>0.04249168057895912</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01437687164407651</v>
+        <v>0.04973065108760839</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04095070555534858</v>
+        <v>0.04330882828240065</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04280695409417162</v>
+        <v>0.1136567701238655</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04136387255713585</v>
+        <v>0.04244290476956596</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09438605726321006</v>
+        <v>0.1771105323814075</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04283196110916508</v>
+        <v>0.04218927348762801</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1555059408018519</v>
+        <v>0.04973065108760839</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03857438471081567</v>
+        <v>0.04330882828240065</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01642944903931402</v>
+        <v>0.04972212359649347</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04172336037714761</v>
+        <v>0.04412597598584217</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04257506042565258</v>
+        <v>0.1129511328842785</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04214432298274219</v>
+        <v>0.04324371429352002</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09480707578982639</v>
+        <v>0.1774818283059737</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04364011131877197</v>
+        <v>0.04298529751569647</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1537699073988313</v>
+        <v>0.04972212359649347</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03930220329026503</v>
+        <v>0.04412597598584217</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01450916404041963</v>
+        <v>0.0496883088152829</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04249601519894664</v>
+        <v>0.04494312368928369</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04269666446271643</v>
+        <v>0.1132509630444953</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04292477340834853</v>
+        <v>0.0440445238174741</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09473566038921066</v>
+        <v>0.1758795244059486</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04444826152837886</v>
+        <v>0.04378132154376493</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1530871887019531</v>
+        <v>0.0496883088152829</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04003002186971438</v>
+        <v>0.04494312368928369</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01561367134420621</v>
+        <v>0.04973143804679082</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04326867002074566</v>
+        <v>0.0457602713927252</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04286709770831325</v>
+        <v>0.11252708191086</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04370522383395486</v>
+        <v>0.04484533334142817</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09505358902437092</v>
+        <v>0.1771588692975067</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04525641173798575</v>
+        <v>0.04457734557183338</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1505717450832064</v>
+        <v>0.04973143804679082</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04075784044916373</v>
+        <v>0.0457602713927252</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01674062564748661</v>
+        <v>0.04935289352530799</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04404132484254469</v>
+        <v>0.04657741909616673</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04308169166539305</v>
+        <v>0.1129851195780611</v>
       </c>
       <c r="K122" t="n">
-        <v>0.0444856742595612</v>
+        <v>0.04564614286538225</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09564123900581373</v>
+        <v>0.1757170729331816</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04606456194759264</v>
+        <v>0.04537336959990183</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1508375369145803</v>
+        <v>0.04935289352530799</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04148565902861308</v>
+        <v>0.04657741909616673</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01688768164707369</v>
+        <v>0.04915405748512508</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04481397966434373</v>
+        <v>0.04739456679960825</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04353577783690589</v>
+        <v>0.1127254938874484</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04526612468516753</v>
+        <v>0.04644695238933633</v>
       </c>
       <c r="L123" t="n">
-        <v>0.09687898764404559</v>
+        <v>0.1770544921262111</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04687271215719953</v>
+        <v>0.04616939362797028</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1494985245680641</v>
+        <v>0.04915405748512508</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04221347760806243</v>
+        <v>0.04739456679960825</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01705249403978035</v>
+        <v>0.04923631216053283</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04558663448614276</v>
+        <v>0.04821171450304977</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04392468772580183</v>
+        <v>0.1129486226803714</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04604657511077387</v>
+        <v>0.0472477619132904</v>
       </c>
       <c r="L124" t="n">
-        <v>0.097247212249573</v>
+        <v>0.176571483689833</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04768086236680642</v>
+        <v>0.04696541765603873</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1488686684156466</v>
+        <v>0.04923631216053283</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04294129618751179</v>
+        <v>0.04821171450304977</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01723271752241942</v>
+        <v>0.04920103978582198</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04635928930794179</v>
+        <v>0.0490288622064913</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04394375283503088</v>
+        <v>0.11275492379818</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04682702553638021</v>
+        <v>0.04804857143724447</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09852629013290248</v>
+        <v>0.176968404437285</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0484890125764133</v>
+        <v>0.04776144168410719</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1474619288293172</v>
+        <v>0.04920103978582198</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04366911476696114</v>
+        <v>0.0490288622064913</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01742600679180378</v>
+        <v>0.04874962259528325</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04713194412974081</v>
+        <v>0.04984600990993281</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04428830466754309</v>
+        <v>0.1124448150822236</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04760747596198654</v>
+        <v>0.04884938096119855</v>
       </c>
       <c r="L126" t="n">
-        <v>0.09979659860454057</v>
+        <v>0.1769456111818049</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04929716278602019</v>
+        <v>0.04855746571217565</v>
       </c>
       <c r="N126" t="n">
-        <v>0.147492266181065</v>
+        <v>0.04874962259528325</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04439693334641049</v>
+        <v>0.04984600990993281</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01763001654474629</v>
+        <v>0.04868344282320736</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04790459895153985</v>
+        <v>0.05066315761337434</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04455367472628853</v>
+        <v>0.1121187143738519</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04838792638759288</v>
+        <v>0.04965019048515262</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1002385149749938</v>
+        <v>0.1758034607366304</v>
       </c>
       <c r="M127" t="n">
-        <v>0.05010531299562708</v>
+        <v>0.0493534897402441</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1471736408428791</v>
+        <v>0.04868344282320736</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04512475192585984</v>
+        <v>0.05066315761337434</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01684240147805981</v>
+        <v>0.048803882703885</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04867725377333888</v>
+        <v>0.05148030531681586</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04493519451421721</v>
+        <v>0.1121770395144145</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04916837681319922</v>
+        <v>0.0504510000091067</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1023324165547686</v>
+        <v>0.1752423099149995</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05091346320523397</v>
+        <v>0.05014951376831255</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1471200131867486</v>
+        <v>0.048803882703885</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0458525705053092</v>
+        <v>0.05148030531681586</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01806081628855721</v>
+        <v>0.04831232447160694</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0494499085951379</v>
+        <v>0.05229745302025738</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04552819553427918</v>
+        <v>0.1122202083452613</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04994882723880555</v>
+        <v>0.05125180953306077</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1028586806543716</v>
+        <v>0.1752625155301499</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05172161341484086</v>
+        <v>0.050945537796381</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1471463765744057</v>
+        <v>0.04831232447160694</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04658038908475855</v>
+        <v>0.05229745302025738</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01828291567305137</v>
+        <v>0.04831015036066386</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05022256341693693</v>
+        <v>0.0531146007236989</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04612800928942451</v>
+        <v>0.1117486387077417</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05072927766441189</v>
+        <v>0.05205261905701485</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1046976845843092</v>
+        <v>0.1760644343953193</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05252976362444774</v>
+        <v>0.05174156182444946</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1463755301547816</v>
+        <v>0.04831015036066386</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0473082076642079</v>
+        <v>0.0531146007236989</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01650635432835512</v>
+        <v>0.04779874260534653</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05099521823873596</v>
+        <v>0.05393174842714042</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04652996728260322</v>
+        <v>0.1119627484432054</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05150972809001823</v>
+        <v>0.05285342858096892</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1053298056550879</v>
+        <v>0.1749484233237455</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05333791383405463</v>
+        <v>0.05253758585251791</v>
       </c>
       <c r="N131" t="n">
-        <v>0.148158940129161</v>
+        <v>0.04779874260534653</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04803602624365725</v>
+        <v>0.05393174842714042</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01672878695128136</v>
+        <v>0.04797948343994562</v>
       </c>
       <c r="G132" t="n">
-        <v>0.051767873060535</v>
+        <v>0.05474889613058195</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04672940101676536</v>
+        <v>0.1112629553930021</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05229017851562456</v>
+        <v>0.05365423810492299</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1065354211772143</v>
+        <v>0.1757148391286664</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05414606404366153</v>
+        <v>0.05333360988058636</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1490598687191509</v>
+        <v>0.04797948343994562</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0487638448231066</v>
+        <v>0.05474889613058195</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01894786823864293</v>
+        <v>0.0474537550987519</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05254052788233402</v>
+        <v>0.05556604383402347</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04732164199486098</v>
+        <v>0.1111496773984813</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05307062894123091</v>
+        <v>0.05445504762887707</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1080949084611949</v>
+        <v>0.1749640386233197</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05495421425326841</v>
+        <v>0.05412963390865482</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1496415781463578</v>
+        <v>0.0474537550987519</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04949166340255596</v>
+        <v>0.05556604383402347</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01816125288725271</v>
+        <v>0.04752293981605606</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05331318270413305</v>
+        <v>0.05638319153746499</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04740202171984012</v>
+        <v>0.1112233323009928</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05385107936683724</v>
+        <v>0.05525585715283114</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1085886448175362</v>
+        <v>0.1738963786209431</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0557623644628753</v>
+        <v>0.05492565793672326</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1502673306323884</v>
+        <v>0.04752293981605606</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05021948198200531</v>
+        <v>0.05638319153746499</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01836659559392356</v>
+        <v>0.04718841982614883</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05408583752593209</v>
+        <v>0.05720033924090651</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0479658716946528</v>
+        <v>0.1104843379418863</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05463152979244358</v>
+        <v>0.05605666667678522</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1102970075567448</v>
+        <v>0.1744122159347745</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05657051467248218</v>
+        <v>0.05572168196479171</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1525003883988496</v>
+        <v>0.04718841982614883</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05094730056145466</v>
+        <v>0.05720033924090651</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01856155105546833</v>
+        <v>0.04685157736332093</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05485849234773112</v>
+        <v>0.05801748694434803</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0482085234222491</v>
+        <v>0.1110331121625112</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05541198021804992</v>
+        <v>0.05685747620073929</v>
       </c>
       <c r="L136" t="n">
-        <v>0.110800373989327</v>
+        <v>0.1732119073780517</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05737866488208908</v>
+        <v>0.05651770599286017</v>
       </c>
       <c r="N136" t="n">
-        <v>0.154804013667348</v>
+        <v>0.04685157736332093</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05167511914090402</v>
+        <v>0.05801748694434803</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01774377396869991</v>
+        <v>0.0467137946618631</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05563114716953014</v>
+        <v>0.05883463464778955</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04842530840557906</v>
+        <v>0.1104700728042173</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05619243064365625</v>
+        <v>0.05765828572469336</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1112791214257894</v>
+        <v>0.1743958097640124</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05818681509169597</v>
+        <v>0.05731373002092863</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1555414686594904</v>
+        <v>0.0467137946618631</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05240293772035337</v>
+        <v>0.05883463464778955</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01791091903043115</v>
+        <v>0.04637645395606603</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05640380199132917</v>
+        <v>0.05965178235123108</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04871155814759269</v>
+        <v>0.1098956377083543</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05697288106926259</v>
+        <v>0.05845909524864744</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1117136271766387</v>
+        <v>0.1730642799058943</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05899496530130286</v>
+        <v>0.05810975404899708</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1581760155968834</v>
+        <v>0.04637645395606603</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05313075629980272</v>
+        <v>0.05965178235123108</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02006064093747492</v>
+        <v>0.04614093748022048</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0571764568131282</v>
+        <v>0.0604689300546726</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04926260415124004</v>
+        <v>0.1105102247162718</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05775333149486892</v>
+        <v>0.05925990477260151</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1127842685523812</v>
+        <v>0.1723176746169354</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05980311551090974</v>
+        <v>0.05890577807706553</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1596709167011338</v>
+        <v>0.04614093748022048</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05385857487925207</v>
+        <v>0.0604689300546726</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01819059438664408</v>
+        <v>0.04580862746861715</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05794911163492724</v>
+        <v>0.06128607775811412</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04907377791947118</v>
+        <v>0.1101142516693194</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05853378192047526</v>
+        <v>0.06006071429655559</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1136567701238655</v>
+        <v>0.1728563507103734</v>
       </c>
       <c r="M140" t="n">
-        <v>0.06061126572051662</v>
+        <v>0.05970180210513399</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1621894341938482</v>
+        <v>0.04580862746861715</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05458639345870142</v>
+        <v>0.06128607775811412</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01929843407475149</v>
+        <v>0.04578090615554677</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05872176645672626</v>
+        <v>0.06210322546155565</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04964041095523614</v>
+        <v>0.1096081364088467</v>
       </c>
       <c r="K141" t="n">
-        <v>0.0593142323460816</v>
+        <v>0.06086152382050967</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1129566404154639</v>
+        <v>0.171680664999446</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06141941593012352</v>
+        <v>0.06049782613320245</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1649948302966336</v>
+        <v>0.04578090615554677</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05531421203815077</v>
+        <v>0.06210322546155565</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01838181469861003</v>
+        <v>0.04545915577530003</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05949442127852528</v>
+        <v>0.06292037316499717</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04965783476148494</v>
+        <v>0.1092922967762034</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06009468277168793</v>
+        <v>0.06166233334446374</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1132434742861352</v>
+        <v>0.1725909742973911</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06222756613973041</v>
+        <v>0.0612938501612709</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1673503672310965</v>
+        <v>0.04545915577530003</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05604203061760012</v>
+        <v>0.06292037316499717</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02043839095503255</v>
+        <v>0.04544475856216772</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06026707610032432</v>
+        <v>0.06373752086843869</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04983171194175721</v>
+        <v>0.1090671506127393</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06087513319729427</v>
+        <v>0.06246314286841782</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1127095431450073</v>
+        <v>0.1715876354174465</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0630357163493373</v>
+        <v>0.06208987418933934</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1679193072188437</v>
+        <v>0.04544475856216772</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05676984919704949</v>
+        <v>0.06373752086843869</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02046810881880896</v>
+        <v>0.04503909675044049</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06103973092212335</v>
+        <v>0.06455466857188021</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04963164749782036</v>
+        <v>0.1079331157598039</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06165558362290061</v>
+        <v>0.06326395239237188</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1133560320976665</v>
+        <v>0.1711710051728498</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06384386655894418</v>
+        <v>0.0628858982174078</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1696649124814819</v>
+        <v>0.04503909675044049</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05749766777649884</v>
+        <v>0.06455466857188021</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01846752546763205</v>
+        <v>0.0448435525744091</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06181238574392239</v>
+        <v>0.06537181627532174</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04973096544058939</v>
+        <v>0.1083906100587468</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06243603404850694</v>
+        <v>0.06406476191632597</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1128841262496991</v>
+        <v>0.1702414403768389</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06465201676855108</v>
+        <v>0.06368192224547625</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1718504452406178</v>
+        <v>0.0448435525744091</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05822548635594819</v>
+        <v>0.06537181627532174</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01946419487489157</v>
+        <v>0.04485950826836428</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06258504056572141</v>
+        <v>0.06618896397876324</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04962954561457293</v>
+        <v>0.1082400513509177</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06321648447411328</v>
+        <v>0.06486557144028005</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1123950107066914</v>
+        <v>0.1693992978426516</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06546016697815796</v>
+        <v>0.06447794627354471</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1729391677178582</v>
+        <v>0.04485950826836428</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05895330493539754</v>
+        <v>0.06618896397876324</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01945801818497928</v>
+        <v>0.04458834606659674</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06335769538752045</v>
+        <v>0.06700611168220476</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04962739644629624</v>
+        <v>0.1078818574776663</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06399693489971962</v>
+        <v>0.06566638096423412</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1129898705742299</v>
+        <v>0.1698449343835257</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06626831718776485</v>
+        <v>0.06527397030161315</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1753943421348096</v>
+        <v>0.04458834606659674</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05968112351484689</v>
+        <v>0.06700611168220476</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01944911467364636</v>
+        <v>0.04423144820339719</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06413035020931947</v>
+        <v>0.06782325938564629</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04942452636228456</v>
+        <v>0.1075164462803422</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06477738532532595</v>
+        <v>0.06646719048818819</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1121698909579009</v>
+        <v>0.1689787068126988</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06707646739737173</v>
+        <v>0.06606999432968161</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1750792307130791</v>
+        <v>0.04423144820339719</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06040894209429624</v>
+        <v>0.06782325938564629</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01943760361664401</v>
+        <v>0.04439019691305637</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0649030050311185</v>
+        <v>0.06864040708908781</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04962094378906313</v>
+        <v>0.106744235600295</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06555783575093228</v>
+        <v>0.06726800001214227</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1122362569632906</v>
+        <v>0.168500971943409</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06788461760697861</v>
+        <v>0.06686601835775006</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1774818283059737</v>
+        <v>0.04439019691305637</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06113676067374559</v>
+        <v>0.06864040708908781</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01842360428972341</v>
+        <v>0.04416596205879711</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06567565985291753</v>
+        <v>0.06945755479252932</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04941665715315721</v>
+        <v>0.1064656432788744</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06633828617653863</v>
+        <v>0.06806880953609634</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1118901536959855</v>
+        <v>0.1683120865888937</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06869276781658551</v>
+        <v>0.06766204238581852</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1761857544581842</v>
+        <v>0.04416596205879711</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06186457925319494</v>
+        <v>0.06945755479252932</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02040723596863574</v>
+        <v>0.04405295470235483</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06644831467471655</v>
+        <v>0.07027470249597086</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04941167488109205</v>
+        <v>0.10558108715743</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06711873660214496</v>
+        <v>0.06886961906005042</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1117327662615719</v>
+        <v>0.1683124075623911</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0695009180261924</v>
+        <v>0.06845806641388698</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1778923034715552</v>
+        <v>0.04405295470235483</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06259239783264429</v>
+        <v>0.07027470249597086</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01938861792913219</v>
+        <v>0.04364536199672166</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0672209694965156</v>
+        <v>0.07109185019941237</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04970600539939288</v>
+        <v>0.1051909850773116</v>
       </c>
       <c r="K152" t="n">
-        <v>0.0678991870277513</v>
+        <v>0.06967042858400449</v>
       </c>
       <c r="L152" t="n">
-        <v>0.111765279765636</v>
+        <v>0.1667022916771387</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0703090682357993</v>
+        <v>0.06925409044195542</v>
       </c>
       <c r="N152" t="n">
-        <v>0.177388681535209</v>
+        <v>0.04364536199672166</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06332021641209366</v>
+        <v>0.07109185019941237</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02036786944696394</v>
+        <v>0.04394290478775419</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06799362431831461</v>
+        <v>0.07190899790285389</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04939965713458498</v>
+        <v>0.1053957548798687</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06867963745335763</v>
+        <v>0.07047123810795856</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1113888793137644</v>
+        <v>0.1664820957463743</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07111721844540618</v>
+        <v>0.07005011447002388</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1786746040382369</v>
+        <v>0.04394290478775419</v>
       </c>
       <c r="O153" t="n">
-        <v>0.064048034991543</v>
+        <v>0.07190899790285389</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01934510979788218</v>
+        <v>0.04344530392130901</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06876627914011366</v>
+        <v>0.07272614560629542</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04959263851319359</v>
+        <v>0.1048958144064508</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06946008787896397</v>
+        <v>0.07127204763191264</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1111047500115432</v>
+        <v>0.1657521765833358</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07192536865501307</v>
+        <v>0.07084613849809233</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1780497863697306</v>
+        <v>0.04344530392130901</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06477585357099236</v>
+        <v>0.07272614560629542</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01932045825763808</v>
+        <v>0.04335228024324266</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06953893396191269</v>
+        <v>0.07354329330973694</v>
       </c>
       <c r="J155" t="n">
-        <v>0.04958495796174393</v>
+        <v>0.1043915814984079</v>
       </c>
       <c r="K155" t="n">
-        <v>0.0702405383045703</v>
+        <v>0.07207285715586671</v>
       </c>
       <c r="L155" t="n">
-        <v>0.111914076964559</v>
+        <v>0.1654128910012609</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07273351886461996</v>
+        <v>0.07164216252616078</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1780139439187813</v>
+        <v>0.04335228024324266</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06550367215044171</v>
+        <v>0.07354329330973694</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01829403410198284</v>
+        <v>0.04356355459941175</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0703115887837117</v>
+        <v>0.07436044101317846</v>
       </c>
       <c r="J156" t="n">
-        <v>0.0494766239067613</v>
+        <v>0.1039834739970894</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07102098873017665</v>
+        <v>0.07287366667982079</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1109180452783978</v>
+        <v>0.1643645958133875</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07354166907422685</v>
+        <v>0.07243818655422923</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1792667920744807</v>
+        <v>0.04356355459941175</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06623149072989105</v>
+        <v>0.07436044101317846</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01826595660666764</v>
+        <v>0.04347884783567285</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07108424360551074</v>
+        <v>0.07517758871661999</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04966764477477092</v>
+        <v>0.1037719097438451</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07180143915578298</v>
+        <v>0.07367447620377486</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1106178400586463</v>
+        <v>0.1646076478329531</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07434981928383373</v>
+        <v>0.07323421058229769</v>
       </c>
       <c r="N157" t="n">
-        <v>0.17960804622592</v>
+        <v>0.04347884783567285</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06695930930934041</v>
+        <v>0.07517758871661999</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01823634504744365</v>
+        <v>0.04339788079788251</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07185689842730976</v>
+        <v>0.07599473642006151</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04955802899229801</v>
+        <v>0.1028573065800245</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07258188958138932</v>
+        <v>0.07447528572772893</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1107146464108905</v>
+        <v>0.1645424038731958</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07515796949344061</v>
+        <v>0.07403023461036615</v>
       </c>
       <c r="N158" t="n">
-        <v>0.179237421762191</v>
+        <v>0.04339788079788251</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06768712788878976</v>
+        <v>0.07599473642006151</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01920531870006208</v>
+        <v>0.04342037433189734</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0726295532491088</v>
+        <v>0.07681188412350302</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04954778498586788</v>
+        <v>0.1030400823469773</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07336234000699565</v>
+        <v>0.07527609525168301</v>
       </c>
       <c r="L159" t="n">
-        <v>0.110409649440717</v>
+        <v>0.1635692207473533</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07596611970304751</v>
+        <v>0.0748262586384346</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1795546340723851</v>
+        <v>0.04342037433189734</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06841494646823912</v>
+        <v>0.07681188412350302</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.0191729968402741</v>
+        <v>0.04314604928357391</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07340220807090783</v>
+        <v>0.07762903182694454</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04963692118200576</v>
+        <v>0.1019206548860531</v>
       </c>
       <c r="K160" t="n">
-        <v>0.074142790432602</v>
+        <v>0.07607690477563708</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1102040342537121</v>
+        <v>0.1636884552686632</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07677426991265439</v>
+        <v>0.07562228266650306</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1796593985455937</v>
+        <v>0.04314604928357391</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06914276504768846</v>
+        <v>0.07762903182694454</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0201394987438309</v>
+        <v>0.0432746264987688</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07417486289270685</v>
+        <v>0.07844617953038607</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04942544600723686</v>
+        <v>0.1015994420386017</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07492324085820833</v>
+        <v>0.07687771429959116</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1099989859554619</v>
+        <v>0.1631004642503635</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07758242012226128</v>
+        <v>0.0764183066945715</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1811514305709083</v>
+        <v>0.0432746264987688</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06987058362713781</v>
+        <v>0.07844617953038607</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01810494368648365</v>
+        <v>0.04290582682333854</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07494751771450589</v>
+        <v>0.07926332723382759</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04941336788808647</v>
+        <v>0.1014768616459726</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07570369128381467</v>
+        <v>0.07767852382354523</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1103956896515531</v>
+        <v>0.1621056045056918</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07839057033186818</v>
+        <v>0.07721433072263995</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1818304455374204</v>
+        <v>0.04290582682333854</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07059840220658718</v>
+        <v>0.07926332723382759</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01806945094398354</v>
+        <v>0.04313937110313977</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07572017253630492</v>
+        <v>0.08008047493726911</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04940069525107983</v>
+        <v>0.1004533315495154</v>
       </c>
       <c r="K163" t="n">
-        <v>0.076484141709421</v>
+        <v>0.07847933334749931</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1101953304475719</v>
+        <v>0.1606042328478861</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07919872054147507</v>
+        <v>0.0780103547507084</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1805961588342215</v>
+        <v>0.04313937110313977</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07132622078603652</v>
+        <v>0.08008047493726911</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01803313979208177</v>
+        <v>0.04267498018402903</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07649282735810395</v>
+        <v>0.08089762264071064</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04938743652274218</v>
+        <v>0.09992926959057996</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07726459213502734</v>
+        <v>0.07928014287145339</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1091990934491045</v>
+        <v>0.1610967060901841</v>
       </c>
       <c r="M164" t="n">
-        <v>0.08000687075108195</v>
+        <v>0.07880637877877686</v>
       </c>
       <c r="N164" t="n">
-        <v>0.182448285850403</v>
+        <v>0.04267498018402903</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07205403936548588</v>
+        <v>0.08089762264071064</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01899612950652951</v>
+        <v>0.0426123749118629</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07726548217990298</v>
+        <v>0.08171477034415216</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04957360012959876</v>
+        <v>0.09990509361051578</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07804504256063367</v>
+        <v>0.08008095239540747</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1091081637617374</v>
+        <v>0.1595833810458235</v>
       </c>
       <c r="M165" t="n">
-        <v>0.08081502096068885</v>
+        <v>0.07960240280684532</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1813865419750564</v>
+        <v>0.0426123749118629</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07278185794493523</v>
+        <v>0.08171477034415216</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01895853936307794</v>
+        <v>0.04255127613249796</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07803813700170201</v>
+        <v>0.08253191804759367</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04935919449817486</v>
+        <v>0.09958122145067255</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07882549298624002</v>
+        <v>0.08088176191936154</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1095237264910568</v>
+        <v>0.1590646145280421</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08162317117029573</v>
+        <v>0.08039842683491377</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1821106425972733</v>
+        <v>0.04255127613249796</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07350967652438459</v>
+        <v>0.08253191804759367</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01892048863747826</v>
+        <v>0.04289140469179079</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07881079182350104</v>
+        <v>0.08334906575103521</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04934422805499569</v>
+        <v>0.09975807095239983</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07960594341184635</v>
+        <v>0.08168257144331562</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1095469667426493</v>
+        <v>0.1591407633500777</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08243132137990261</v>
+        <v>0.08119445086298223</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1831203031061452</v>
+        <v>0.04289140469179079</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07423749510383393</v>
+        <v>0.08334906575103521</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01988209660548164</v>
+        <v>0.04283248143559795</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07958344664530007</v>
+        <v>0.08416621345447672</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04942870922658651</v>
+        <v>0.09893596411219621</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08038639383745268</v>
+        <v>0.08248338096726969</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1091774391309705</v>
+        <v>0.1582121843251682</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08323947158950951</v>
+        <v>0.08199047489105067</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1826152388907634</v>
+        <v>0.04283248143559795</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07496531368328328</v>
+        <v>0.08416621345447672</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01884348254283927</v>
+        <v>0.04237422720977604</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08035610146709909</v>
+        <v>0.08498336115791824</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04961264643947258</v>
+        <v>0.09779487476168014</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08116684426305902</v>
+        <v>0.08328419049122376</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1089109394306708</v>
+        <v>0.1565792342665512</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08404762179911639</v>
+        <v>0.08278649891911913</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1819951653402194</v>
+        <v>0.04237422720977604</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07569313226273264</v>
+        <v>0.08498336115791824</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01780476572530233</v>
+        <v>0.04271636286018163</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08112875628889812</v>
+        <v>0.08580050886135977</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04929604812017914</v>
+        <v>0.09762078210315461</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08194729468866535</v>
+        <v>0.08408500001517784</v>
       </c>
       <c r="L170" t="n">
-        <v>0.108146854379099</v>
+        <v>0.1574422699874646</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08485577200872328</v>
+        <v>0.08358252294718758</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1821597978436047</v>
+        <v>0.04271636286018163</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07642095084218199</v>
+        <v>0.08580050886135977</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01876606542862201</v>
+        <v>0.04255860923267127</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08190141111069715</v>
+        <v>0.08661765656480129</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04947892269523144</v>
+        <v>0.09731560612929685</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08272774511427169</v>
+        <v>0.08488580953913191</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1084848340328242</v>
+        <v>0.1555016483011461</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08566392221833016</v>
+        <v>0.08437854697525603</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1828088517900109</v>
+        <v>0.04255860923267127</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07714876942163135</v>
+        <v>0.08661765656480129</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01772750092854949</v>
+        <v>0.04220068717310158</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08267406593249618</v>
+        <v>0.08743480426824281</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0493612785911547</v>
+        <v>0.09718126683278397</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08350819553987804</v>
+        <v>0.08568661906308597</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1083245284484152</v>
+        <v>0.1552577260208336</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08647207242793706</v>
+        <v>0.08517457100332448</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1837420425685295</v>
+        <v>0.04220068717310158</v>
       </c>
       <c r="O172" t="n">
-        <v>0.0778765880010807</v>
+        <v>0.08743480426824281</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01968919150083597</v>
+        <v>0.04224231752732911</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08344672075429523</v>
+        <v>0.08825195197168434</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04924312423447424</v>
+        <v>0.0968196842062933</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08428864596548438</v>
+        <v>0.08648742858704005</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1077655876824412</v>
+        <v>0.1553076755173048</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08728022263754394</v>
+        <v>0.08597059503139294</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1830590855682518</v>
+        <v>0.04224231752732911</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07860440658053006</v>
+        <v>0.08825195197168434</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01765125642123262</v>
+        <v>0.04208322114121041</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08421937557609424</v>
+        <v>0.08906909967512586</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04912446805171525</v>
+        <v>0.095332778242502</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08506909639109071</v>
+        <v>0.08728823811099412</v>
       </c>
       <c r="L174" t="n">
-        <v>0.107407661791471</v>
+        <v>0.1544039066732682</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08808837284715083</v>
+        <v>0.0867666190594614</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1825596961782694</v>
+        <v>0.04208322114121041</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0793322251599794</v>
+        <v>0.08906909967512586</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01861381496549061</v>
+        <v>0.04222311886060211</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08499203039789327</v>
+        <v>0.08988624737856737</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04940531846940299</v>
+        <v>0.09552246893408722</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08584954681669706</v>
+        <v>0.08808904763494819</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1080504008320737</v>
+        <v>0.1529327586606652</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08889652305675773</v>
+        <v>0.08756264308752985</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1827435897876737</v>
+        <v>0.04222311886060211</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08006004373942875</v>
+        <v>0.08988624737856737</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01957698640936115</v>
+        <v>0.04206173153136078</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08576468521969231</v>
+        <v>0.09070339508200891</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04918568391406274</v>
+        <v>0.09389067627372616</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08662999724230339</v>
+        <v>0.08888985715890227</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1080934548608184</v>
+        <v>0.1529973115868941</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08970467326636461</v>
+        <v>0.0883586671155983</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1838104817855563</v>
+        <v>0.04206173153136078</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08078786231887811</v>
+        <v>0.09070339508200891</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01753980770932873</v>
+        <v>0.04219877999934295</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08653734004149133</v>
+        <v>0.09152054278545041</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0490655728122197</v>
+        <v>0.09383932025409608</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08741044766790973</v>
+        <v>0.08969066668285634</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1069364739342739</v>
+        <v>0.1514006455593532</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0905128234759715</v>
+        <v>0.08915469114366675</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1835600875610084</v>
+        <v>0.04219877999934295</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08151568089832746</v>
+        <v>0.09152054278545041</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01750103294249279</v>
+        <v>0.04213398511040521</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08730999486329037</v>
+        <v>0.09233769048889193</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04914499359039916</v>
+        <v>0.09317032086787416</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08819089809351606</v>
+        <v>0.09049147620681042</v>
       </c>
       <c r="L178" t="n">
-        <v>0.107779108109009</v>
+        <v>0.1512458406854408</v>
       </c>
       <c r="M178" t="n">
-        <v>0.09132097368557839</v>
+        <v>0.08995071517173521</v>
       </c>
       <c r="N178" t="n">
-        <v>0.183492122503122</v>
+        <v>0.04213398511040521</v>
       </c>
       <c r="O178" t="n">
-        <v>0.0822434994777768</v>
+        <v>0.09233769048889193</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01746072691281659</v>
+        <v>0.04186706771040419</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08808264968508939</v>
+        <v>0.09315483819233346</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04932395467512635</v>
+        <v>0.09198559810773752</v>
       </c>
       <c r="K179" t="n">
-        <v>0.0889713485191224</v>
+        <v>0.09129228573076449</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1067210074415931</v>
+        <v>0.1504359770725553</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09212912389518528</v>
+        <v>0.09074673919980367</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1842063020009881</v>
+        <v>0.04186706771040419</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08297131805722616</v>
+        <v>0.09315483819233346</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01841895792774428</v>
+        <v>0.04189774864519639</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08885530450688843</v>
+        <v>0.09397198589577498</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04920246449292651</v>
+        <v>0.09168707196636347</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08975179894472873</v>
+        <v>0.09209309525471858</v>
       </c>
       <c r="L180" t="n">
-        <v>0.107361821988595</v>
+        <v>0.148674134828095</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09293727410479216</v>
+        <v>0.09154276322787211</v>
       </c>
       <c r="N180" t="n">
-        <v>0.183183295788336</v>
+        <v>0.04189774864519639</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08369913663667553</v>
+        <v>0.09397198589577498</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01737579429472004</v>
+        <v>0.04162574876063845</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08962795932868746</v>
+        <v>0.09478913359921649</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04907379235900872</v>
+        <v>0.09077666243642915</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09053224937033506</v>
+        <v>0.09289390477867265</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1069012018065836</v>
+        <v>0.1476633940594581</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09374542431439906</v>
+        <v>0.09233878725594057</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1831730661169772</v>
+        <v>0.04162574876063845</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08442695521612487</v>
+        <v>0.09478913359921649</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01833130432118805</v>
+        <v>0.0419507889025869</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09040061415048647</v>
+        <v>0.09560628130265802</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04923168564788614</v>
+        <v>0.09005628951061173</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09131269979594141</v>
+        <v>0.09369471430262673</v>
       </c>
       <c r="L182" t="n">
-        <v>0.106138796952128</v>
+        <v>0.1471068348740429</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09455357452400594</v>
+        <v>0.09313481128400902</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1837772545877113</v>
+        <v>0.0419507889025869</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08515477379557422</v>
+        <v>0.09560628130265802</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01728555631459248</v>
+        <v>0.04157258991689834</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09117326897228552</v>
+        <v>0.09642342900609954</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04887692482137682</v>
+        <v>0.08922787318158848</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09209315022154774</v>
+        <v>0.0944955238265808</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1070742574817972</v>
+        <v>0.1442075373792477</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09536172473361283</v>
+        <v>0.09393083531207747</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1832005557633343</v>
+        <v>0.04157258991689834</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08588259237502358</v>
+        <v>0.09642342900609954</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0172386185823775</v>
+        <v>0.04139087264942932</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09194592379408455</v>
+        <v>0.09724057670954106</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04881029035350744</v>
+        <v>0.08879333344203658</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09287360064715408</v>
+        <v>0.09529633335053488</v>
       </c>
       <c r="L184" t="n">
-        <v>0.10690723345216</v>
+        <v>0.1431685816824709</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09616987494321971</v>
+        <v>0.09472685934014592</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1819476642066422</v>
+        <v>0.04139087264942932</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08661041095447293</v>
+        <v>0.09724057670954106</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01719055943198729</v>
+        <v>0.04140535794603648</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09271857861588358</v>
+        <v>0.09805772441298259</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04903256271830478</v>
+        <v>0.08795459028463318</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09365405107276041</v>
+        <v>0.09609714287448895</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1059373749197856</v>
+        <v>0.1422930478911109</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09697802515282661</v>
+        <v>0.09552288336821438</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1828232744804312</v>
+        <v>0.04140535794603648</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08733822953392227</v>
+        <v>0.09805772441298259</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01714144717086605</v>
+        <v>0.04141576665257631</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09349123343768261</v>
+        <v>0.09887487211642411</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04884452238979557</v>
+        <v>0.0879135637020555</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09443450149836675</v>
+        <v>0.09689795239844302</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1064643319412429</v>
+        <v>0.1417840161125657</v>
       </c>
       <c r="M186" t="n">
-        <v>0.0977861753624335</v>
+        <v>0.09631890739628284</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1818320811474974</v>
+        <v>0.04141576665257631</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08806604811337163</v>
+        <v>0.09887487211642411</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01909135010645793</v>
+        <v>0.04112181961490546</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09426388825948162</v>
+        <v>0.09969201981986563</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0486469498420066</v>
+        <v>0.08627217368698076</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09521495192397308</v>
+        <v>0.0976987619223971</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1060877545731008</v>
+        <v>0.1391445664542338</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09859432557204038</v>
+        <v>0.09711493142435129</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1802787787706369</v>
+        <v>0.04112181961490546</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08879386669282098</v>
+        <v>0.09969201981986563</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01704033654620712</v>
+        <v>0.04112323767888044</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09503654308128066</v>
+        <v>0.1005091675233071</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04864062554896459</v>
+        <v>0.08563234023208618</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09599540234957943</v>
+        <v>0.09849957144635117</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1051072928719285</v>
+        <v>0.1390777790235135</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09940247578164728</v>
+        <v>0.09791095545241975</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1796680619126457</v>
+        <v>0.04112323767888044</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08952168527227033</v>
+        <v>0.1005091675233071</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01698847479755781</v>
+        <v>0.04121974169035789</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09580919790307969</v>
+        <v>0.1013263152267487</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0483263299846963</v>
+        <v>0.08569598333004888</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09677585277518576</v>
+        <v>0.09930038097030525</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1059225968942948</v>
+        <v>0.1373867339278032</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1002106259912542</v>
+        <v>0.09870697948048819</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1801046251363201</v>
+        <v>0.04121974169035789</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09024950385171969</v>
+        <v>0.1013263152267487</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01693583316795413</v>
+        <v>0.04081105249519436</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09658185272487872</v>
+        <v>0.1021434629301902</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04840484362322847</v>
+        <v>0.08386502297354612</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0975563032007921</v>
+        <v>0.1001011904942593</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1049333166967688</v>
+        <v>0.135374511274501</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1010187762008611</v>
+        <v>0.09950300350855663</v>
       </c>
       <c r="N190" t="n">
-        <v>0.178893163004456</v>
+        <v>0.04081105249519436</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09097732243116904</v>
+        <v>0.1021434629301902</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.0178824799648403</v>
+        <v>0.0406968909392464</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09735450754667775</v>
+        <v>0.1029606106336317</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04817694693858789</v>
+        <v>0.08374137915525506</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09833675362639843</v>
+        <v>0.1009020000182134</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1055391023359193</v>
+        <v>0.1335441911710052</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1018269264104679</v>
+        <v>0.1002990275366251</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1785383700798496</v>
+        <v>0.0406968909392464</v>
       </c>
       <c r="O191" t="n">
-        <v>0.0917051410106184</v>
+        <v>0.1029606106336317</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01882848349566049</v>
+        <v>0.04067697786837063</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09812716236847678</v>
+        <v>0.1037777583370732</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04824342040480126</v>
+        <v>0.08292697186785297</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09911720405200478</v>
+        <v>0.1017028095421675</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1053396038683155</v>
+        <v>0.1336988537247144</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1026350766200748</v>
+        <v>0.1010950515646935</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1779449409252969</v>
+        <v>0.04067697786837063</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09243295959006774</v>
+        <v>0.1037777583370732</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01877391206785886</v>
+        <v>0.04085103412842359</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09889981719027581</v>
+        <v>0.1045949060405148</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04800504449589535</v>
+        <v>0.08222372110401696</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09989765447761111</v>
+        <v>0.1025036190661215</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1049344713505263</v>
+        <v>0.1320415790430266</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1034432268296817</v>
+        <v>0.101891075592762</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1763175701035942</v>
+        <v>0.04085103412842359</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09316077816951709</v>
+        <v>0.1045949060405148</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0187188339888796</v>
+        <v>0.04041878056526187</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09967247201207484</v>
+        <v>0.1054120537439563</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04786259968589693</v>
+        <v>0.08173354685642426</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1006781049032174</v>
+        <v>0.1033044285900756</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1048233548391207</v>
+        <v>0.1299754472333401</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1042513770392886</v>
+        <v>0.1026870996208305</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1755609521775375</v>
+        <v>0.04041878056526187</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09388859674896645</v>
+        <v>0.1054120537439563</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01766331756616689</v>
+        <v>0.04017993802474207</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1004451268338739</v>
+        <v>0.1062292014473978</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04761686644883273</v>
+        <v>0.08125836911775208</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1014585553288238</v>
+        <v>0.1041052381140297</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1048059043906676</v>
+        <v>0.1289035384030535</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1050595272488955</v>
+        <v>0.1034831236488989</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1741797817099228</v>
+        <v>0.04017993802474207</v>
       </c>
       <c r="O195" t="n">
-        <v>0.0946164153284158</v>
+        <v>0.1062292014473978</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01660743110716489</v>
+        <v>0.04003422735272073</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1012177816556729</v>
+        <v>0.1070463491508393</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04766862525872952</v>
+        <v>0.08019625039402914</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1022390057544301</v>
+        <v>0.1049060476379838</v>
       </c>
       <c r="L196" t="n">
-        <v>0.103881770061736</v>
+        <v>0.1266289326595648</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1058676774585024</v>
+        <v>0.1042791476769674</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1739787532635463</v>
+        <v>0.04003422735272073</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09534423390786514</v>
+        <v>0.1070463491508393</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01755124291931778</v>
+        <v>0.03997328442830995</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1019904364774719</v>
+        <v>0.1078634968542808</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04741865658961401</v>
+        <v>0.07932089349193791</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1030194561800365</v>
+        <v>0.1057068571619378</v>
       </c>
       <c r="L197" t="n">
-        <v>0.103550601908895</v>
+        <v>0.1257547101102724</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1066758276681093</v>
+        <v>0.1050751717050358</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1726625614012041</v>
+        <v>0.03997328442830995</v>
       </c>
       <c r="O197" t="n">
-        <v>0.0960720524873145</v>
+        <v>0.1078634968542808</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01849482131006976</v>
+        <v>0.03964938936212484</v>
       </c>
       <c r="G198" t="n">
-        <v>0.102763091299271</v>
+        <v>0.1086806445577224</v>
       </c>
       <c r="J198" t="n">
-        <v>0.04716774091551301</v>
+        <v>0.07922870959581166</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1037999066056428</v>
+        <v>0.1065076666858919</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1034120499887136</v>
+        <v>0.1248839508625748</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1074839778777162</v>
+        <v>0.1058711957331043</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1731359006856922</v>
+        <v>0.03964938936212484</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09679987106676387</v>
+        <v>0.1086806445577224</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01743823458686498</v>
+        <v>0.03955990292251831</v>
       </c>
       <c r="G199" t="n">
-        <v>0.10353574612107</v>
+        <v>0.1094977922611639</v>
       </c>
       <c r="J199" t="n">
-        <v>0.04711665871045323</v>
+        <v>0.07862180794578019</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1045803570312491</v>
+        <v>0.107308476209846</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1030657643577606</v>
+        <v>0.12261973502387</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1082921280873231</v>
+        <v>0.1066672197611727</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1718034656798069</v>
+        <v>0.03955990292251831</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09752768964621321</v>
+        <v>0.1094977922611639</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01838155105714764</v>
+        <v>0.03911099307033196</v>
       </c>
       <c r="G200" t="n">
-        <v>0.104308400942869</v>
+        <v>0.1103149399646054</v>
       </c>
       <c r="J200" t="n">
-        <v>0.04686619044846144</v>
+        <v>0.07700229778197326</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1053608074568555</v>
+        <v>0.1081092857338001</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1036113950726051</v>
+        <v>0.1207651427015565</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1091002782969299</v>
+        <v>0.1074632437892412</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1709699509463441</v>
+        <v>0.03911099307033196</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09825550822566256</v>
+        <v>0.1103149399646054</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01632483902836189</v>
+        <v>0.03900882776640731</v>
       </c>
       <c r="G201" t="n">
-        <v>0.105081055764668</v>
+        <v>0.1111320876680469</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04691711660356436</v>
+        <v>0.07657228834452079</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1061412578824618</v>
+        <v>0.1089100952577541</v>
       </c>
       <c r="L201" t="n">
-        <v>0.103048592189816</v>
+        <v>0.1201232540030325</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1099084285065368</v>
+        <v>0.1082592678173096</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1702400510481</v>
+        <v>0.03900882776640731</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09898332680511192</v>
+        <v>0.1111320876680469</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01826816680795193</v>
+        <v>0.03825957497158594</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1058537105864671</v>
+        <v>0.1119492353714885</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04677021764978878</v>
+        <v>0.07653388887355267</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1069217083080681</v>
+        <v>0.1097109047817082</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1019770057659625</v>
+        <v>0.1187726308022504</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1107165787161437</v>
+        <v>0.1090552918453781</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1680184605478707</v>
+        <v>0.03825957497158594</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09971114538456127</v>
+        <v>0.1119492353714885</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01821160270336192</v>
+        <v>0.03776940264670939</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1066263654082661</v>
+        <v>0.11276638307493</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04652627406116143</v>
+        <v>0.07488920860919854</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1077021587336745</v>
+        <v>0.1105117143056623</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1022962858576134</v>
+        <v>0.1157630849911078</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1115247289257506</v>
+        <v>0.1098513158734465</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1672098740084523</v>
+        <v>0.03776940264670939</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1004389639640106</v>
+        <v>0.11276638307493</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01715521502203605</v>
+        <v>0.03754447875261925</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1073990202300651</v>
+        <v>0.1135835307783715</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0462860663117091</v>
+        <v>0.07464035679158842</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1084826091592808</v>
+        <v>0.1113125238296164</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1021055216197372</v>
+        <v>0.114493663157977</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1123328791353575</v>
+        <v>0.110647339901515</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1665189859926409</v>
+        <v>0.03754447875261925</v>
       </c>
       <c r="O204" t="n">
-        <v>0.10116678254346</v>
+        <v>0.1135835307783715</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01709907207141848</v>
+        <v>0.03669097125015706</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1081716750518642</v>
+        <v>0.114400678481813</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04625037487545847</v>
+        <v>0.07318944266085212</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1092630595848872</v>
+        <v>0.1121133333535704</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1011979583884507</v>
+        <v>0.1137947204621845</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1131410293449644</v>
+        <v>0.1114433639295834</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1653504910632325</v>
+        <v>0.03669097125015706</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1018946011229093</v>
+        <v>0.114400678481813</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01804324215895341</v>
+        <v>0.03621504810016436</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1089443298736632</v>
+        <v>0.1152178261852545</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04611998022643633</v>
+        <v>0.07313857545711935</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1100435100104935</v>
+        <v>0.1129141428775245</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1015718512913638</v>
+        <v>0.1105966120630568</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1139491795545712</v>
+        <v>0.1122393879576519</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1656090837830234</v>
+        <v>0.03621504810016436</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1026224197023587</v>
+        <v>0.1152178261852545</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01798767264124122</v>
+        <v>0.03572287726348276</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1097169846954622</v>
+        <v>0.1160349738886961</v>
       </c>
       <c r="J207" t="n">
-        <v>0.04619566283866944</v>
+        <v>0.07268986442052008</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1108239604360998</v>
+        <v>0.1137149524014786</v>
       </c>
       <c r="L207" t="n">
-        <v>0.1013273812079558</v>
+        <v>0.1097296931199202</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1147573297641782</v>
+        <v>0.1130354119857203</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1649994587148095</v>
+        <v>0.03572287726348276</v>
       </c>
       <c r="O207" t="n">
-        <v>0.103350238281808</v>
+        <v>0.1160349738886961</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01693194425250871</v>
+        <v>0.03512062670095378</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1104896395172612</v>
+        <v>0.1168521215921376</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04567820318618454</v>
+        <v>0.07154541879118409</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1116044108617062</v>
+        <v>0.1145157619254327</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1001647290177059</v>
+        <v>0.1066243187921014</v>
       </c>
       <c r="M208" t="n">
-        <v>0.115565479973785</v>
+        <v>0.1138314360137888</v>
       </c>
       <c r="N208" t="n">
-        <v>0.162926310421387</v>
+        <v>0.03512062670095378</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1040780568612574</v>
+        <v>0.1168521215921376</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01787601345253529</v>
+        <v>0.03431446437341899</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1112622943390603</v>
+        <v>0.1176692692955791</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04576838174300837</v>
+        <v>0.07030734780924119</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1123848612873125</v>
+        <v>0.1153165714493867</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1002840756000934</v>
+        <v>0.1044108442389268</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1163736301833919</v>
+        <v>0.1146274600418573</v>
       </c>
       <c r="N209" t="n">
-        <v>0.162394333465552</v>
+        <v>0.03431446437341899</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1048058754407067</v>
+        <v>0.1176692692955791</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01581987913692007</v>
+        <v>0.03371055824171998</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1120349491608593</v>
+        <v>0.1184864169990206</v>
       </c>
       <c r="J210" t="n">
-        <v>0.04586697898316773</v>
+        <v>0.06997776071482129</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1131653117129188</v>
+        <v>0.1161173809733408</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1000856018345976</v>
+        <v>0.1020196246197229</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1171817803929988</v>
+        <v>0.1154234840699257</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1613082224101006</v>
+        <v>0.03371055824171998</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1055336940201561</v>
+        <v>0.1184864169990206</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01676354020126217</v>
+        <v>0.03331507626669825</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1128076039826583</v>
+        <v>0.1193035647024622</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0456747753806893</v>
+        <v>0.06895876674805412</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1139457621385252</v>
+        <v>0.1169181904972949</v>
       </c>
       <c r="L211" t="n">
-        <v>0.09926948860069776</v>
+        <v>0.101281015093816</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1179899306026057</v>
+        <v>0.1162195080979942</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1618726718178289</v>
+        <v>0.03331507626669825</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1062615125996054</v>
+        <v>0.1193035647024622</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01670699554116069</v>
+        <v>0.03273418640919538</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1135802588044574</v>
+        <v>0.1201207124059037</v>
       </c>
       <c r="J212" t="n">
-        <v>0.0452925514095999</v>
+        <v>0.0682524751490696</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1147262125641315</v>
+        <v>0.117719000021249</v>
       </c>
       <c r="L212" t="n">
-        <v>0.09933591677787312</v>
+        <v>0.09802537082053264</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1187980808122126</v>
+        <v>0.1170155321260626</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1615923762515329</v>
+        <v>0.03273418640919538</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1069893311790548</v>
+        <v>0.1201207124059037</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01765024405221472</v>
+        <v>0.03227405663005295</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1143529136262564</v>
+        <v>0.1209378601093452</v>
       </c>
       <c r="J213" t="n">
-        <v>0.04522016340512629</v>
+        <v>0.06796099515799756</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1155066629897378</v>
+        <v>0.118519809545203</v>
       </c>
       <c r="L213" t="n">
-        <v>0.09908506724560301</v>
+        <v>0.09668304695919933</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1196062310218195</v>
+        <v>0.1178115561541311</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1606720302740088</v>
+        <v>0.03227405663005295</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1077171497585041</v>
+        <v>0.1209378601093452</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01559328463002337</v>
+        <v>0.03164085489011248</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1151255684480554</v>
+        <v>0.1217550078127867</v>
       </c>
       <c r="J214" t="n">
-        <v>0.04544984308680969</v>
+        <v>0.0675864360149678</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1162871134153442</v>
+        <v>0.1193206190691571</v>
       </c>
       <c r="L214" t="n">
-        <v>0.09751712088336664</v>
+        <v>0.09478439866914251</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1204143812314264</v>
+        <v>0.1186075801821995</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1603163284480527</v>
+        <v>0.03164085489011248</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1084449683379535</v>
+        <v>0.1217550078127867</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01753611617018577</v>
+        <v>0.03114074915021557</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1158982232698545</v>
+        <v>0.1225721555162282</v>
       </c>
       <c r="J215" t="n">
-        <v>0.04537970057473537</v>
+        <v>0.06603090696011016</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1170675638409505</v>
+        <v>0.1201214285931112</v>
       </c>
       <c r="L215" t="n">
-        <v>0.09743225857064333</v>
+        <v>0.0926597811096887</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1212225314410332</v>
+        <v>0.119403604210268</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1590299653364607</v>
+        <v>0.03114074915021557</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1091727869174028</v>
+        <v>0.1225721555162282</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01647873756830098</v>
+        <v>0.03067990737120378</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1166708780916535</v>
+        <v>0.1233893032196698</v>
       </c>
       <c r="J216" t="n">
-        <v>0.04520977872317861</v>
+        <v>0.0663965172335545</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1178480142665568</v>
+        <v>0.1209222381170653</v>
       </c>
       <c r="L216" t="n">
-        <v>0.09743066118691227</v>
+        <v>0.09163954944016417</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1220306816506402</v>
+        <v>0.1201996282383364</v>
       </c>
       <c r="N216" t="n">
-        <v>0.159517635502029</v>
+        <v>0.03067990737120378</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1099006054968522</v>
+        <v>0.1233893032196698</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01542114771996813</v>
+        <v>0.03036449751391863</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1174435329134525</v>
+        <v>0.1242064509231113</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04504012038641471</v>
+        <v>0.06518537607543062</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1186284646921632</v>
+        <v>0.1217230476410193</v>
       </c>
       <c r="L217" t="n">
-        <v>0.09681250961165283</v>
+        <v>0.09115405881989569</v>
       </c>
       <c r="M217" t="n">
-        <v>0.122838831860247</v>
+        <v>0.1209956522664049</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1585840335075535</v>
+        <v>0.03036449751391863</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1106284240763015</v>
+        <v>0.1242064509231113</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01636334552078633</v>
+        <v>0.02990068753920172</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1182161877352516</v>
+        <v>0.1250235986265528</v>
       </c>
       <c r="J218" t="n">
-        <v>0.04517076841871893</v>
+        <v>0.06509959272586838</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1194089151177695</v>
+        <v>0.1225238571649734</v>
       </c>
       <c r="L218" t="n">
-        <v>0.09647798472434424</v>
+        <v>0.09113366440820952</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1236469820698539</v>
+        <v>0.1217916762944733</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1580338539158304</v>
+        <v>0.02990068753920172</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1113562426557509</v>
+        <v>0.1250235986265528</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01630532986635468</v>
+        <v>0.0295946454078946</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1189888425570506</v>
+        <v>0.1258407463299943</v>
       </c>
       <c r="J219" t="n">
-        <v>0.04490176567436661</v>
+        <v>0.06364127642499762</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1201893655433759</v>
+        <v>0.1233246666889275</v>
       </c>
       <c r="L219" t="n">
-        <v>0.09562726740446567</v>
+        <v>0.09050872136443217</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1244551322794608</v>
+        <v>0.1225877003225418</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1578717912896557</v>
+        <v>0.0295946454078946</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1120840612352002</v>
+        <v>0.1258407463299943</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01624709965227227</v>
+        <v>0.02905253908083881</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1197614973788496</v>
+        <v>0.1266578940334359</v>
       </c>
       <c r="J220" t="n">
-        <v>0.04493315500763301</v>
+        <v>0.06361253641294815</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1209698159689822</v>
+        <v>0.1241254762128816</v>
       </c>
       <c r="L220" t="n">
-        <v>0.09516053853149656</v>
+        <v>0.08978347337677606</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1252632824890677</v>
+        <v>0.1233837243506102</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1581713343318161</v>
+        <v>0.02905253908083881</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1128118798146496</v>
+        <v>0.1266578940334359</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01618865377413822</v>
+        <v>0.02917932783319527</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1205341522006486</v>
+        <v>0.1274750417368774</v>
       </c>
       <c r="J221" t="n">
-        <v>0.04476497927279346</v>
+        <v>0.06261548192984981</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1217502663945885</v>
+        <v>0.1249262857368356</v>
       </c>
       <c r="L221" t="n">
-        <v>0.09407797898491604</v>
+        <v>0.09002492643521709</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1260714326986746</v>
+        <v>0.1241797483786787</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1584755534575037</v>
+        <v>0.02917932783319527</v>
       </c>
       <c r="O221" t="n">
-        <v>0.113539698394099</v>
+        <v>0.1274750417368774</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01612999112755163</v>
+        <v>0.02903229742975784</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1213068070224477</v>
+        <v>0.1282921894403189</v>
       </c>
       <c r="J222" t="n">
-        <v>0.04489728132412321</v>
+        <v>0.06285222221583245</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1225307168201949</v>
+        <v>0.1257270952607897</v>
       </c>
       <c r="L222" t="n">
-        <v>0.09417976964420349</v>
+        <v>0.0898709525019068</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1268795829082815</v>
+        <v>0.1249757724067471</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1580836490630038</v>
+        <v>0.02903229742975784</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1142675169735483</v>
+        <v>0.1282921894403189</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0160711106081116</v>
+        <v>0.02888769258674707</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1220794618442467</v>
+        <v>0.1291093371437604</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04453010401589759</v>
+        <v>0.0628248665110259</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1233111672458012</v>
+        <v>0.1265279047847438</v>
       </c>
       <c r="L223" t="n">
-        <v>0.09326609138883807</v>
+        <v>0.08912150789247747</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1276877331178884</v>
+        <v>0.1257717964348156</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1594962307041108</v>
+        <v>0.02888769258674707</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1149953355529977</v>
+        <v>0.1291093371437604</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01701201111141724</v>
+        <v>0.02884556313680561</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1228521166660457</v>
+        <v>0.1299264848472019</v>
       </c>
       <c r="J224" t="n">
-        <v>0.04446349020239186</v>
+        <v>0.06213552405556003</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1240916176714075</v>
+        <v>0.1273287143086979</v>
       </c>
       <c r="L224" t="n">
-        <v>0.09253712509829917</v>
+        <v>0.08907654892256123</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1284958833274953</v>
+        <v>0.126567820462884</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1594139079366196</v>
+        <v>0.02884556313680561</v>
       </c>
       <c r="O224" t="n">
-        <v>0.115723154132447</v>
+        <v>0.1299264848472019</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01695269153306765</v>
+        <v>0.02840595891257595</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1236247714878448</v>
+        <v>0.1307436325506435</v>
       </c>
       <c r="J225" t="n">
-        <v>0.04449748273788132</v>
+        <v>0.06177434861137682</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1248720680970139</v>
+        <v>0.1281295238326519</v>
       </c>
       <c r="L225" t="n">
-        <v>0.09159305165206594</v>
+        <v>0.0886360319077904</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1293040335371022</v>
+        <v>0.1273638444909525</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1580372903163249</v>
+        <v>0.02840595891257595</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1164509727118964</v>
+        <v>0.1307436325506435</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01589315076866194</v>
+        <v>0.02846892974670069</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1243974263096438</v>
+        <v>0.131560780254085</v>
       </c>
       <c r="J226" t="n">
-        <v>0.04463212447664128</v>
+        <v>0.06071465811085314</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1256525185226202</v>
+        <v>0.128930333356606</v>
       </c>
       <c r="L226" t="n">
-        <v>0.0914340519296177</v>
+        <v>0.08869991316379722</v>
       </c>
       <c r="M226" t="n">
-        <v>0.130112183746709</v>
+        <v>0.1281598685190209</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1590669873990213</v>
+        <v>0.02846892974670069</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1171787912913457</v>
+        <v>0.131560780254085</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01483338771379921</v>
+        <v>0.02803452547182239</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1251700811314428</v>
+        <v>0.1323779279575265</v>
       </c>
       <c r="J227" t="n">
-        <v>0.04446745827294703</v>
+        <v>0.06025577370725982</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1264329689482266</v>
+        <v>0.1297311428805601</v>
       </c>
       <c r="L227" t="n">
-        <v>0.09026030681043373</v>
+        <v>0.087668149006214</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1309203339563159</v>
+        <v>0.1289558925470894</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1583036087405035</v>
+        <v>0.02803452547182239</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1179066098707951</v>
+        <v>0.1323779279575265</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01477340126407857</v>
+        <v>0.02800279592058361</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1259427359532418</v>
+        <v>0.133195075660968</v>
       </c>
       <c r="J228" t="n">
-        <v>0.04420352698107387</v>
+        <v>0.06069815070759568</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1272134193738329</v>
+        <v>0.1305319524045142</v>
       </c>
       <c r="L228" t="n">
-        <v>0.08977199717399334</v>
+        <v>0.08774069575067295</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1317284841659228</v>
+        <v>0.1297519165751579</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1592477638965664</v>
+        <v>0.02800279592058361</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1186344284502444</v>
+        <v>0.133195075660968</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0167131903150991</v>
+        <v>0.02817379092562693</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1267153907750409</v>
+        <v>0.1340122233644095</v>
       </c>
       <c r="J229" t="n">
-        <v>0.04454037345529707</v>
+        <v>0.05964224441885971</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1279938697994392</v>
+        <v>0.1313327619284682</v>
       </c>
       <c r="L229" t="n">
-        <v>0.08946930389977564</v>
+        <v>0.08841750971280626</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1325366343755297</v>
+        <v>0.1305479406032263</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1581000624230047</v>
+        <v>0.02817379092562693</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1193622470296938</v>
+        <v>0.1340122233644095</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01665275376245995</v>
+        <v>0.02774756031959491</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1274880455968399</v>
+        <v>0.1348293710678511</v>
       </c>
       <c r="J230" t="n">
-        <v>0.04437804054989193</v>
+        <v>0.05978851014805076</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1287743202250456</v>
+        <v>0.1321335714524223</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0882524078672601</v>
+        <v>0.08779854720824626</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1333447845851366</v>
+        <v>0.1313439646312948</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1594611138756128</v>
+        <v>0.02774756031959491</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1200900656091431</v>
+        <v>0.1348293710678511</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01659209050176019</v>
+        <v>0.02752415393513009</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1282607004186389</v>
+        <v>0.1356465187712926</v>
       </c>
       <c r="J231" t="n">
-        <v>0.04431657111913376</v>
+        <v>0.05963740320216782</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1295547706506519</v>
+        <v>0.1329343809763764</v>
       </c>
       <c r="L231" t="n">
-        <v>0.08792148995592591</v>
+        <v>0.08768376455262505</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1341529347947435</v>
+        <v>0.1321399886593632</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1583315278101857</v>
+        <v>0.02752415393513009</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1208178841885925</v>
+        <v>0.1356465187712926</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01653119942859894</v>
+        <v>0.02740362160487507</v>
       </c>
       <c r="G232" t="n">
-        <v>0.129033355240438</v>
+        <v>0.1364636664747341</v>
       </c>
       <c r="J232" t="n">
-        <v>0.04415600801729784</v>
+        <v>0.05958937888820964</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1303352210762582</v>
+        <v>0.1337351905003304</v>
       </c>
       <c r="L232" t="n">
-        <v>0.08657673104525226</v>
+        <v>0.08847311806157504</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1349610850043504</v>
+        <v>0.1329360126874317</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1600119137825181</v>
+        <v>0.02740362160487507</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1215457027680418</v>
+        <v>0.1364636664747341</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01647007943857529</v>
+        <v>0.02728601316147242</v>
       </c>
       <c r="G233" t="n">
-        <v>0.129806010062237</v>
+        <v>0.1372808141781756</v>
       </c>
       <c r="J233" t="n">
-        <v>0.04419639409865946</v>
+        <v>0.05884489251317523</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1311156715018646</v>
+        <v>0.1345360000242845</v>
       </c>
       <c r="L233" t="n">
-        <v>0.08601831201471852</v>
+        <v>0.08806656405072849</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1357692352139572</v>
+        <v>0.1337320367155001</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1585028813484047</v>
+        <v>0.02728601316147242</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1222735213474912</v>
+        <v>0.1372808141781756</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01540872942728836</v>
+        <v>0.02747137843756468</v>
       </c>
       <c r="G234" t="n">
-        <v>0.130578664884036</v>
+        <v>0.1380979618816171</v>
       </c>
       <c r="J234" t="n">
-        <v>0.04393777221749393</v>
+        <v>0.05790439938406344</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1318961219274709</v>
+        <v>0.1353368095482386</v>
       </c>
       <c r="L234" t="n">
-        <v>0.08564641374380397</v>
+        <v>0.08796405883571751</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1365773854235642</v>
+        <v>0.1345280607435686</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1600050400636401</v>
+        <v>0.02747137843756468</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1230013399269406</v>
+        <v>0.1380979618816171</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01434714829033724</v>
+        <v>0.02715976726579443</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1313513197058351</v>
+        <v>0.1389151095850586</v>
       </c>
       <c r="J235" t="n">
-        <v>0.04378018522807656</v>
+        <v>0.0580683548078732</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1326765723530773</v>
+        <v>0.1361376190721927</v>
       </c>
       <c r="L235" t="n">
-        <v>0.08436121711198777</v>
+        <v>0.08816555873217446</v>
       </c>
       <c r="M235" t="n">
-        <v>0.137385535633171</v>
+        <v>0.135324084771637</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1600189994840189</v>
+        <v>0.02715976726579443</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1237291585063899</v>
+        <v>0.1389151095850586</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01428533492332105</v>
+        <v>0.02725122947880423</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1321239745276341</v>
+        <v>0.1397322572885002</v>
       </c>
       <c r="J236" t="n">
-        <v>0.04372367598468258</v>
+        <v>0.05743721409160341</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1334570227786836</v>
+        <v>0.1369384285961467</v>
       </c>
       <c r="L236" t="n">
-        <v>0.08366290299874926</v>
+        <v>0.08687102005573155</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1381936858427779</v>
+        <v>0.1361201087997055</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1591453691653362</v>
+        <v>0.02725122947880423</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1244569770858392</v>
+        <v>0.1397322572885002</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01422328822183888</v>
+        <v>0.02684581490923665</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1328966293494331</v>
+        <v>0.1405494049919417</v>
       </c>
       <c r="J237" t="n">
-        <v>0.04386828734158731</v>
+        <v>0.05731143254225296</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1342374732042899</v>
+        <v>0.1377392381201008</v>
       </c>
       <c r="L237" t="n">
-        <v>0.08265165228356774</v>
+        <v>0.08708039912202109</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1390018360523848</v>
+        <v>0.136916132827774</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1597847586633864</v>
+        <v>0.02684581490923665</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1251847956652886</v>
+        <v>0.1405494049919417</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01516100708148985</v>
+        <v>0.02704357338973427</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1336692841712321</v>
+        <v>0.1413665526953832</v>
       </c>
       <c r="J238" t="n">
-        <v>0.04391406215306606</v>
+        <v>0.05699146546682071</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1350179236298963</v>
+        <v>0.1385400476440549</v>
       </c>
       <c r="L238" t="n">
-        <v>0.08212764584592244</v>
+        <v>0.08769365224667519</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1398099862619917</v>
+        <v>0.1377121568558424</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1607377775339643</v>
+        <v>0.02704357338973427</v>
       </c>
       <c r="O238" t="n">
-        <v>0.125912614244738</v>
+        <v>0.1413665526953832</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01509849039787304</v>
+        <v>0.02704455475293965</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1344419389930312</v>
+        <v>0.1421837003988247</v>
       </c>
       <c r="J239" t="n">
-        <v>0.04386104327339413</v>
+        <v>0.0571777681723056</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1357983740555026</v>
+        <v>0.139340857168009</v>
       </c>
       <c r="L239" t="n">
-        <v>0.08129106456529264</v>
+        <v>0.08741073574532626</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1406181364715986</v>
+        <v>0.1385081808839108</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1594050353328647</v>
+        <v>0.02704455475293965</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1266404328241873</v>
+        <v>0.1421837003988247</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01603573706658758</v>
+        <v>0.02684880883149533</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1352145938148302</v>
+        <v>0.1430008481022663</v>
       </c>
       <c r="J240" t="n">
-        <v>0.0439092735568468</v>
+        <v>0.05607079596570652</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1365788244811089</v>
+        <v>0.140141666691963</v>
       </c>
       <c r="L240" t="n">
-        <v>0.08034208932115755</v>
+        <v>0.0872316059336064</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1414262866812055</v>
+        <v>0.1393042049119793</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1600871416158822</v>
+        <v>0.02684880883149533</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1273682514036366</v>
+        <v>0.1430008481022663</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01597274598323256</v>
+        <v>0.0268563854580439</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1359872486366292</v>
+        <v>0.1438179958057078</v>
       </c>
       <c r="J241" t="n">
-        <v>0.04345879585769936</v>
+        <v>0.05577100415402236</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1373592749067153</v>
+        <v>0.1409424762159171</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07948090099299651</v>
+        <v>0.08625621912714804</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1422344368908124</v>
+        <v>0.1401002289400478</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1604847059388115</v>
+        <v>0.0268563854580439</v>
       </c>
       <c r="O241" t="n">
-        <v>0.128096069983086</v>
+        <v>0.1438179958057078</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01390951604340709</v>
+        <v>0.02666733446522791</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1367599034584283</v>
+        <v>0.1446351435091493</v>
       </c>
       <c r="J242" t="n">
-        <v>0.04350965303022712</v>
+        <v>0.05547884804425207</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1381397253323216</v>
+        <v>0.1417432857398712</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07910768046028879</v>
+        <v>0.08748453164158315</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1430425871004192</v>
+        <v>0.1408962529681162</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1609983378574474</v>
+        <v>0.02666733446522791</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1288238885625353</v>
+        <v>0.1446351435091493</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01384604614271027</v>
+        <v>0.02638170568568998</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1375325582802273</v>
+        <v>0.1454522912125908</v>
       </c>
       <c r="J243" t="n">
-        <v>0.04376188792870535</v>
+        <v>0.05509478294339451</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1389201757579279</v>
+        <v>0.1425440952638253</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07842260860251365</v>
+        <v>0.08651649979254428</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1438507373100261</v>
+        <v>0.1416922769961847</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1604286469275845</v>
+        <v>0.02638170568568998</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1295517071419847</v>
+        <v>0.1454522912125908</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01578233517674121</v>
+        <v>0.02629954895207261</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1383052131020263</v>
+        <v>0.1462694389160324</v>
       </c>
       <c r="J244" t="n">
-        <v>0.04351554340740935</v>
+        <v>0.05491926415844856</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1397006261835343</v>
+        <v>0.1433449047877794</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07732586629915031</v>
+        <v>0.0870520798956636</v>
       </c>
       <c r="M244" t="n">
-        <v>0.144658887519633</v>
+        <v>0.1424883010242531</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1603762427050176</v>
+        <v>0.02629954895207261</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1302795257214341</v>
+        <v>0.1462694389160324</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01571838204109901</v>
+        <v>0.02612091409701837</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1390778679238254</v>
+        <v>0.1470865866194739</v>
       </c>
       <c r="J245" t="n">
-        <v>0.04347066232061442</v>
+        <v>0.05515274699641315</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1404810766091406</v>
+        <v>0.1441457143117334</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07591763442967814</v>
+        <v>0.08649122826657324</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1454670377292399</v>
+        <v>0.1432843250523216</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1620417347455414</v>
+        <v>0.02612091409701837</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1310073443008834</v>
+        <v>0.1470865866194739</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01565418563138277</v>
+        <v>0.02614585095316986</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1398505227456244</v>
+        <v>0.1479037343229154</v>
       </c>
       <c r="J246" t="n">
-        <v>0.04342728752259584</v>
+        <v>0.05499568676428718</v>
       </c>
       <c r="K246" t="n">
-        <v>0.141261527034747</v>
+        <v>0.1449465238356875</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07539809387357632</v>
+        <v>0.0869339012209055</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1462751879388468</v>
+        <v>0.14408034908039</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1615257326049506</v>
+        <v>0.02614585095316986</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1317351628803328</v>
+        <v>0.1479037343229154</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01458974484319162</v>
+        <v>0.02607440935316964</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1406231775674234</v>
+        <v>0.1487208820263569</v>
       </c>
       <c r="J247" t="n">
-        <v>0.04318546186762894</v>
+        <v>0.0541485387690695</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1420419774603533</v>
+        <v>0.1457473333596416</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07426742551032411</v>
+        <v>0.08678005507429259</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1470833381484537</v>
+        <v>0.1448763731084585</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1619288458390399</v>
+        <v>0.02607440935316964</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1324629814597821</v>
+        <v>0.1487208820263569</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01452505857212463</v>
+        <v>0.02630663912966025</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1413958323892225</v>
+        <v>0.1495380297297984</v>
       </c>
       <c r="J248" t="n">
-        <v>0.04354522820998895</v>
+        <v>0.05431175831775911</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1428224278859596</v>
+        <v>0.1465481428835957</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07342581021940084</v>
+        <v>0.08692964614236692</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1478914883580606</v>
+        <v>0.1456723971365269</v>
       </c>
       <c r="N248" t="n">
-        <v>0.161551684003604</v>
+        <v>0.02630663912966025</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1331908000392315</v>
+        <v>0.1495380297297984</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01446012571378093</v>
+        <v>0.02624259011528428</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1421684872110215</v>
+        <v>0.15035517743324</v>
       </c>
       <c r="J249" t="n">
-        <v>0.04350662940395124</v>
+        <v>0.05348580071735481</v>
       </c>
       <c r="K249" t="n">
-        <v>0.143602878311566</v>
+        <v>0.1473489524075497</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07277342888028576</v>
+        <v>0.08698263074076057</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1486996385676675</v>
+        <v>0.1464684211645954</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1623948566544376</v>
+        <v>0.02624259011528428</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1339186186186808</v>
+        <v>0.15035517743324</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.0143949451637596</v>
+        <v>0.02578231214268431</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1429411420328205</v>
+        <v>0.1511723251366815</v>
       </c>
       <c r="J250" t="n">
-        <v>0.04316970830379105</v>
+        <v>0.05407112127485555</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1443833287371723</v>
+        <v>0.1481497619315038</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07091046237245813</v>
+        <v>0.08583896518510592</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1495077887772744</v>
+        <v>0.1472644451926638</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1633589733473356</v>
+        <v>0.02578231214268431</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1346464371981302</v>
+        <v>0.1511723251366815</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01332951581765977</v>
+        <v>0.02572585504450288</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1437137968546195</v>
+        <v>0.151989472840123</v>
       </c>
       <c r="J251" t="n">
-        <v>0.04313450776378366</v>
+        <v>0.05386817529726021</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1451637791627786</v>
+        <v>0.1489505714554579</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07093709157539727</v>
+        <v>0.0857986057910351</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1503159389868812</v>
+        <v>0.1480604692207323</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1635446436380924</v>
+        <v>0.02572585504450288</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1353742557775795</v>
+        <v>0.151989472840123</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01526383657108053</v>
+        <v>0.02567326865338256</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1444864516764185</v>
+        <v>0.1528066205435645</v>
       </c>
       <c r="J252" t="n">
-        <v>0.04340107063820442</v>
+        <v>0.05397741809156767</v>
       </c>
       <c r="K252" t="n">
-        <v>0.145944229588385</v>
+        <v>0.149751380979412</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06925349736858233</v>
+        <v>0.08646150887418041</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1511240891964881</v>
+        <v>0.1488564932488007</v>
       </c>
       <c r="N252" t="n">
-        <v>0.164452477082503</v>
+        <v>0.02567326865338256</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1361020743570289</v>
+        <v>0.1528066205435645</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01319790631962099</v>
+        <v>0.02592460280196589</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1452591064982176</v>
+        <v>0.153623768247006</v>
       </c>
       <c r="J253" t="n">
-        <v>0.04316943978132858</v>
+        <v>0.05379930496477686</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1467246800139913</v>
+        <v>0.150552190503366</v>
       </c>
       <c r="L253" t="n">
-        <v>0.0689598606314927</v>
+        <v>0.08732763075017413</v>
       </c>
       <c r="M253" t="n">
-        <v>0.151932239406095</v>
+        <v>0.1496525172768692</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1648830832363619</v>
+        <v>0.02592460280196589</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1368298929364782</v>
+        <v>0.153623768247006</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01413172395888025</v>
+        <v>0.02577990732289551</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1460317613200166</v>
+        <v>0.1544409159504476</v>
       </c>
       <c r="J254" t="n">
-        <v>0.04303965804743147</v>
+        <v>0.0527342912238867</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1475051304395976</v>
+        <v>0.1513530000273201</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06685636224360755</v>
+        <v>0.08629692773464848</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1527403896157019</v>
+        <v>0.1504485413049376</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1649370716554638</v>
+        <v>0.02577990732289551</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1375577115159276</v>
+        <v>0.1544409159504476</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01306528838445741</v>
+        <v>0.02573923204881391</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1468044161418157</v>
+        <v>0.1552580636538891</v>
       </c>
       <c r="J255" t="n">
-        <v>0.04311176829078833</v>
+        <v>0.05258283217589607</v>
       </c>
       <c r="K255" t="n">
-        <v>0.148285580865204</v>
+        <v>0.1521538095512742</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06624318308440624</v>
+        <v>0.08586935614323571</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1535485398253088</v>
+        <v>0.1512445653330061</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1655150518956036</v>
+        <v>0.02573923204881391</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1382855300953769</v>
+        <v>0.1552580636538891</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01299859849195159</v>
+        <v>0.02580262681236371</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1475770709636147</v>
+        <v>0.1560752113573306</v>
       </c>
       <c r="J256" t="n">
-        <v>0.04308581336567451</v>
+        <v>0.05284538312780387</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1490660312908103</v>
+        <v>0.1529546190752283</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06552050403336801</v>
+        <v>0.08724487229156808</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1543566900349157</v>
+        <v>0.1520405893610746</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1649176335125759</v>
+        <v>0.02580262681236371</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1390133486748263</v>
+        <v>0.1560752113573306</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01393165317696188</v>
+        <v>0.02547014144618745</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1483497257854137</v>
+        <v>0.1568923590607721</v>
       </c>
       <c r="J257" t="n">
-        <v>0.04326183612636526</v>
+        <v>0.05242239938660898</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1498464817164167</v>
+        <v>0.1537554285991823</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06438850596997212</v>
+        <v>0.08642343249527773</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1551648402445226</v>
+        <v>0.152836613389143</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1668454260621754</v>
+        <v>0.02547014144618745</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1397411672542756</v>
+        <v>0.1568923590607721</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.0138644513350874</v>
+        <v>0.02554182578292769</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1491223806072128</v>
+        <v>0.1577095067642137</v>
       </c>
       <c r="J258" t="n">
-        <v>0.04283987942713591</v>
+        <v>0.0522143362593103</v>
       </c>
       <c r="K258" t="n">
-        <v>0.150626932142023</v>
+        <v>0.1545562381231364</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06374736977369785</v>
+        <v>0.08630499306999712</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1559729904541295</v>
+        <v>0.1536326374172114</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1671990391001968</v>
+        <v>0.02554182578292769</v>
       </c>
       <c r="O258" t="n">
-        <v>0.140468985833725</v>
+        <v>0.1577095067642137</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01479699186192723</v>
+        <v>0.025517729655227</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1498950354290118</v>
+        <v>0.1585266544676552</v>
       </c>
       <c r="J259" t="n">
-        <v>0.04301998612226171</v>
+        <v>0.05272164905290674</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1514073825676293</v>
+        <v>0.1553570476470905</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06229727632402443</v>
+        <v>0.08598951033135843</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1567811406637364</v>
+        <v>0.1544286614452799</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1671790821824349</v>
+        <v>0.025517729655227</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1411968044131744</v>
+        <v>0.1585266544676552</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0137292736530805</v>
+        <v>0.02549790289572797</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1506676902508108</v>
+        <v>0.1593438021710967</v>
       </c>
       <c r="J260" t="n">
-        <v>0.04320219906601799</v>
+        <v>0.05184479307439727</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1521878329932357</v>
+        <v>0.1561578571710446</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06163840650043118</v>
+        <v>0.08637694059499368</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1575892908733432</v>
+        <v>0.1552246854733484</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1681861648646844</v>
+        <v>0.02549790289572797</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1419246229926237</v>
+        <v>0.1593438021710967</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0146612956041463</v>
+        <v>0.02568239533707314</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1514403450726098</v>
+        <v>0.1601609498745382</v>
       </c>
       <c r="J261" t="n">
-        <v>0.04318656111268004</v>
+        <v>0.05188422363078063</v>
       </c>
       <c r="K261" t="n">
-        <v>0.152968283418842</v>
+        <v>0.1569586666949986</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06007094118239731</v>
+        <v>0.08606724017653544</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1583974410829501</v>
+        <v>0.1560207095014168</v>
       </c>
       <c r="N261" t="n">
-        <v>0.16852089670274</v>
+        <v>0.02568239533707314</v>
       </c>
       <c r="O261" t="n">
-        <v>0.142652441572073</v>
+        <v>0.1601609498745382</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01459305661072372</v>
+        <v>0.02577125681190508</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1522129998944089</v>
+        <v>0.1609780975779798</v>
       </c>
       <c r="J262" t="n">
-        <v>0.04297311511652313</v>
+        <v>0.05274039602905584</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1537487338444483</v>
+        <v>0.1577594762189527</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05959506124940214</v>
+        <v>0.08646036539161583</v>
       </c>
       <c r="M262" t="n">
-        <v>0.159205591292557</v>
+        <v>0.1568167335294853</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1693838872523963</v>
+        <v>0.02577125681190508</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1433802601515224</v>
+        <v>0.1609780975779798</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01252455556841191</v>
+        <v>0.02576453715286636</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1529856547162079</v>
+        <v>0.1617952452814213</v>
       </c>
       <c r="J263" t="n">
-        <v>0.04276190393182258</v>
+        <v>0.05191376557622177</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1545291842700547</v>
+        <v>0.1585602857429068</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05831094758092495</v>
+        <v>0.08645627255586713</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1600137415021639</v>
+        <v>0.1576127575575537</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1707757460694481</v>
+        <v>0.02576453715286636</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1441080787309718</v>
+        <v>0.1617952452814213</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01445579137280993</v>
+        <v>0.02546228619259956</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1537583095380069</v>
+        <v>0.1626123929848628</v>
       </c>
       <c r="J264" t="n">
-        <v>0.04315297041285367</v>
+        <v>0.05270478757927732</v>
       </c>
       <c r="K264" t="n">
-        <v>0.155309634695661</v>
+        <v>0.1593610952668608</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05691878105644496</v>
+        <v>0.08575491798492135</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1608218917117708</v>
+        <v>0.1584087815856222</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1704970827096901</v>
+        <v>0.02546228619259956</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1448358973104211</v>
+        <v>0.1626123929848628</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1198.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1198.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.7580781044003323</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.03790390522001662</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.03790390522001662</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06064624835202659</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08774234313200997</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0249158559708786</v>
+        <v>0.03774234313200997</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0207476408990837</v>
+        <v>0.0219594943227754</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001648806652795716</v>
+        <v>0.001432681332325762</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008171477034415216</v>
+        <v>0.0006255504477048019</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.005890324409079356</v>
+        <v>0.001775679280509326</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0008008095239540746</v>
+        <v>0.0008171477034415216</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.006000000000000005</v>
+        <v>0.007074767186741271</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0006117857142857148</v>
+        <v>0.0007990114491721519</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001648806652795716</v>
+        <v>0.006991056201468004</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0008171477034415216</v>
+        <v>0.0008007345596354661</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.002846969744631792</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001998499999999998</v>
+        <v>0.001251100895409604</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01287486471243407</v>
+        <v>0.003532620570337708</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001601619047908149</v>
+        <v>0.001634295406883043</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01322401770566672</v>
+        <v>0.01312168066723926</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001592048056136906</v>
+        <v>0.001598022898344304</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.01521809719485906</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001998499999999998</v>
+        <v>0.001601469119270932</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0045933094233164</v>
+        <v>0.004242372358576746</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002451443110324565</v>
+        <v>0.001876651343114406</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.0188849672317068</v>
+        <v>0.005129464912227502</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002402428571862224</v>
+        <v>0.002451443110324565</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01867728245113642</v>
+        <v>0.01996543413645574</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002388072084205359</v>
+        <v>0.002397034347516456</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.0045933094233164</v>
+        <v>0.02414551154458033</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002451443110324565</v>
+        <v>0.002402203678906398</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005498476122971538</v>
+        <v>0.005618396295819277</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003268590813766086</v>
+        <v>0.002502201790819208</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02485197828854038</v>
+        <v>0.007124853348921031</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003203238095816298</v>
+        <v>0.003268590813766086</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.024409887958035</v>
+        <v>0.02613072128935273</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003184096112273813</v>
+        <v>0.003196045796688608</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.005498476122971538</v>
+        <v>0.0302376878150391</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003268590813766086</v>
+        <v>0.003202938238541864</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.001998499999999998</v>
+        <v>0.01136264318733048</v>
       </c>
       <c r="B70" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.02274234313200997</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006948330213974868</v>
+        <v>0.006974548678018042</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004085738517207609</v>
+        <v>0.00312775223852401</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02990724420457758</v>
+        <v>0.008577426923160651</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004004047619770373</v>
+        <v>0.004085738517207609</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02973051644549018</v>
+        <v>0.03154223582089208</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003980120140342266</v>
+        <v>0.003995057245860759</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.006948330213974868</v>
+        <v>0.03695901457064249</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004085738517207609</v>
+        <v>0.00400367279817733</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007746855501904987</v>
+        <v>0.008310336626831671</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00490288622064913</v>
+        <v>0.003753302686228812</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.03558211130146111</v>
+        <v>0.01004582667768873</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004804857143724447</v>
+        <v>0.00490288622064913</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03424785013262993</v>
+        <v>0.03662467142603568</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004776144168410719</v>
+        <v>0.004794068695032912</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.007746855501904987</v>
+        <v>0.04299999999999998</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00490288622064913</v>
+        <v>0.004774194444444442</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008998035792340445</v>
+        <v>0.009625267263918838</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005720033924090651</v>
+        <v>0.004378853133933614</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0399079259008337</v>
+        <v>0.011</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005605666667678521</v>
+        <v>0.005495874999999997</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04017057123858192</v>
+        <v>0.04160272179974553</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005572168196479172</v>
+        <v>0.005593080144205063</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.008998035792340445</v>
+        <v>0.04691263367265797</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005720033924090651</v>
+        <v>0.005605141917448262</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01010585489085979</v>
+        <v>0.01091884771093819</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006537181627532172</v>
+        <v>0.005004403581638416</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.04291603432433824</v>
+        <v>0.01222366052971602</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006406476191632596</v>
+        <v>0.006537181627532172</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04430736198247387</v>
+        <v>0.04550108063698344</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006368192224547625</v>
+        <v>0.006392091593377215</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01010585489085979</v>
+        <v>0.05051153290945665</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006537181627532172</v>
+        <v>0.006405876477083729</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01077429660304163</v>
+        <v>0.01219058508954836</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007354329330973694</v>
+        <v>0.005629954029343217</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.04643778289361736</v>
+        <v>0.01328051937615936</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007207285715586671</v>
+        <v>0.007354329330973694</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04846690458343372</v>
+        <v>0.04894444163271142</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007164216252616078</v>
+        <v>0.007191103042549368</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01077429660304163</v>
+        <v>0.05520654407599729</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007354329330973694</v>
+        <v>0.007206611036719195</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01180734473446448</v>
+        <v>0.013439986521408</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008171477034415217</v>
+        <v>0.006255504477048019</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.04850451793031382</v>
+        <v>0.01417303669757748</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.008008095239540746</v>
+        <v>0.008171477034415217</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05355788126058914</v>
+        <v>0.05055749848189131</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007960240280684532</v>
+        <v>0.007990114491721519</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01180734473446448</v>
+        <v>0.05783294922870147</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008171477034415217</v>
+        <v>0.008007345596354661</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01290898309070694</v>
+        <v>0.01466655912817578</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008988624737856736</v>
+        <v>0.006881054924752821</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.05099999999999999</v>
+        <v>0.01490821792179839</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008847526041666663</v>
+        <v>0.008988624737856736</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0588889742330681</v>
+        <v>0.05299999999999999</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008756264308752985</v>
+        <v>0.008915867003367</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01290898309070694</v>
+        <v>0.06092603042398992</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008988624737856736</v>
+        <v>0.008808080155990128</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01388319547734754</v>
+        <v>0.01586981003151034</v>
       </c>
       <c r="G77" t="n">
+        <v>0.007506605372457624</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01549306847665015</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009805772441298259</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.05181371028164825</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009609714287448895</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.06156886571999826</v>
+        <v>0.05258532918092471</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009552288336821438</v>
+        <v>0.009588137390065823</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01388319547734754</v>
+        <v>0.06542106971828376</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009805772441298259</v>
+        <v>0.009608814715625594</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01453396569996487</v>
+        <v>0.01704924635307033</v>
       </c>
       <c r="G78" t="n">
+        <v>0.008132155820162426</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01653459378996076</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01062292014473978</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.0520861390540851</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01041052381140297</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.06560623794050741</v>
+        <v>0.05393464693502464</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01034831236488989</v>
+        <v>0.01038714883923797</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01453396569996487</v>
+        <v>0.06685334916800434</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01062292014473978</v>
+        <v>0.01040954927526106</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0155652775641375</v>
+        <v>0.0182043752145144</v>
       </c>
       <c r="G79" t="n">
+        <v>0.008757706267867227</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01703979928955829</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.0114400678481813</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.05251005863355465</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01121133333535704</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.07020977311372334</v>
+        <v>0.05346328863995692</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01114433639295834</v>
+        <v>0.01118616028841013</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0155652775641375</v>
+        <v>0.07115815082957261</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0114400678481813</v>
+        <v>0.01121028383489652</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01608111487544396</v>
+        <v>0.0193347037375012</v>
       </c>
       <c r="G80" t="n">
+        <v>0.00938325671557203</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01771569040327073</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01225721555162282</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.0530298896477138</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01201214285931112</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.07358815345877384</v>
+        <v>0.05481168584217816</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0119403604210268</v>
+        <v>0.01198517173758228</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01608111487544396</v>
+        <v>0.07267075675940976</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01225721555162282</v>
+        <v>0.01201101839453199</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01708546143946284</v>
+        <v>0.02043973904368938</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01000880716327683</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01836927255892613</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01307436325506434</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.05429005272421936</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01281295238326519</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.07785006119478693</v>
+        <v>0.05422027008814514</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01273638444909525</v>
+        <v>0.01278418318675443</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01708546143946284</v>
+        <v>0.07512644901393672</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01307436325506434</v>
+        <v>0.01281175295416746</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0177823010617727</v>
+        <v>0.02151898825473761</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01063435761098163</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01890755118435254</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01389151095850587</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.05473496849072823</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01361376190721927</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.08070417854089007</v>
+        <v>0.05482947292431459</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01353240847716371</v>
+        <v>0.01358319463592658</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0177823010617727</v>
+        <v>0.07866050964957488</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01389151095850587</v>
+        <v>0.01361248751380293</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01867561754795209</v>
+        <v>0.02274234313200997</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01136264318733048</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01953753170737793</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01470865866194739</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.05410905757489728</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01441457143117334</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.08495918771621125</v>
+        <v>0.05487972589714316</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01432843250523216</v>
+        <v>0.01438220608509874</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01867561754795209</v>
+        <v>0.08120822072274519</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01470865866194739</v>
+        <v>0.01441322207343839</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01936939470357961</v>
+        <v>0.02359884866011641</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01188545850639124</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.0203662195558304</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01552580636538891</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.05465674060438333</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01521538095512742</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.08874091415298685</v>
+        <v>0.05561146055308766</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01508067320873675</v>
+        <v>0.01518121753427089</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01936939470357961</v>
+        <v>0.08280486428986866</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01552580636538891</v>
+        <v>0.01521395663307386</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0200676163342338</v>
+        <v>0.02460147139042013</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01251100895409604</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.02090062015753792</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01634295406883043</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.05642243820684323</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01601619047908149</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.09117496148715848</v>
+        <v>0.05682838506193275</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01592048056136906</v>
+        <v>0.01593315481850064</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0200676163342338</v>
+        <v>0.08628572240736665</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01634295406883043</v>
+        <v>0.01601469119270932</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0210742662454932</v>
+        <v>0.0255812095880109</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01313655940180084</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.02164773894032855</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01716010177227195</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.05682838506193275</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01643106590657879</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.0956640813931427</v>
+        <v>0.05710199386859813</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01671650458943752</v>
+        <v>0.01677924043261519</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0210742662454932</v>
+        <v>0.08874091415298685</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01716010177227195</v>
+        <v>0.0164211774939578</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02169332824293642</v>
+        <v>0.02653942779515106</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01376210984950564</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.02241458133203034</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01797724947571347</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.05747217938310029</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01761780952698964</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.09858346472302087</v>
+        <v>0.05774066439704365</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01751252861750597</v>
+        <v>0.01757825188178734</v>
       </c>
       <c r="N87" t="n">
-        <v>0.02169332824293642</v>
+        <v>0.09250032293690047</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01797724947571347</v>
+        <v>0.01761616031198026</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02252878613214199</v>
+        <v>0.02747749055410294</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01438766029721044</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.02300815276047126</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.018794397179155</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.059474887939651</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01841861905094372</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.1022252514192749</v>
+        <v>0.05856759154579072</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01830855264557442</v>
+        <v>0.01837726333095949</v>
       </c>
       <c r="N88" t="n">
-        <v>0.02252878613214199</v>
+        <v>0.09532290579365021</v>
       </c>
       <c r="O88" t="n">
-        <v>0.018794397179155</v>
+        <v>0.01841689487161572</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02328462371868847</v>
+        <v>0.02839676240712885</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01501321074491525</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.02383545865347939</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01961154488259652</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.06024607892103259</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01921942857489779</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.1059815814243866</v>
+        <v>0.06066915089054475</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01910457667364288</v>
+        <v>0.01917627478013165</v>
       </c>
       <c r="N89" t="n">
-        <v>0.02328462371868847</v>
+        <v>0.09803881749653015</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01961154488259652</v>
+        <v>0.01921762943125119</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
+        <v>0.02929860789649115</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.01563876119262005</v>
+      </c>
+      <c r="J90" t="n">
         <v>0.0249158559708786</v>
       </c>
-      <c r="G90" t="n">
+      <c r="K90" t="n">
         <v>0.0207476408990837</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.06127230978631251</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.02002023809885187</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.1077445946808377</v>
+        <v>0.06163171800701128</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01990060070171133</v>
+        <v>0.0199752862293038</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0249158559708786</v>
+        <v>0.102635570295975</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0207476408990837</v>
+        <v>0.02001836399088665</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02507925708822785</v>
+        <v>0.03018439156445213</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01626431164032485</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02522376323207019</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02124584028947956</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.06334013799455848</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02082104762280594</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.11250643113111</v>
+        <v>0.06384166847089578</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02069662472977978</v>
+        <v>0.02077429767847595</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02507925708822785</v>
+        <v>0.10450067644242</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02124584028947956</v>
+        <v>0.02081909855052212</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02645054487934946</v>
+        <v>0.03105547795327412</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01688986208802966</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02591463240409639</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02206298799292108</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.06493612100483814</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02162185714676001</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.1158592307176855</v>
+        <v>0.06568537785790382</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02149264875784824</v>
+        <v>0.0215733091276481</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02645054487934946</v>
+        <v>0.1085216481863001</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02206298799292108</v>
+        <v>0.02161983311015759</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02737442576738568</v>
+        <v>0.03191323160521947</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01751541253573445</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02707062259498268</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.0228801356963626</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.06674681627621915</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02242266667071409</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.1188951333830457</v>
+        <v>0.06654922174374076</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02228867278591669</v>
+        <v>0.02237232057682025</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02737442576738568</v>
+        <v>0.11248599777805</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0228801356963626</v>
+        <v>0.02242056766979305</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02814394811015601</v>
+        <v>0.03275901706255049</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01814096298343926</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02818404009064912</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02369728339980412</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.06935878126776912</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02322347619466816</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.1232062790696726</v>
+        <v>0.06881957570411212</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02308469681398514</v>
+        <v>0.02317133202599241</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02814394811015601</v>
+        <v>0.1149812374681051</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02369728339980412</v>
+        <v>0.02322130222942852</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02925216026547998</v>
+        <v>0.03359419886752954</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01876651343114406</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02894719117701586</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02451443110324565</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.07115857343855569</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02402428571862224</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.1249848077200479</v>
+        <v>0.07168281531472348</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02388072084205359</v>
+        <v>0.02397034347516456</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02925216026547998</v>
+        <v>0.1184948795069001</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02451443110324565</v>
+        <v>0.02402203678906398</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03039211059117708</v>
+        <v>0.0344201415624189</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01939206387884886</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.03005238214000296</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02533157880668717</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.07363275024764651</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02482509524257631</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1284228592766536</v>
+        <v>0.07382531615128021</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02467674487012205</v>
+        <v>0.02476935492433671</v>
       </c>
       <c r="N96" t="n">
-        <v>0.03039211059117708</v>
+        <v>0.1234144361448702</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02533157880668717</v>
+        <v>0.02482277134869945</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03185684744506685</v>
+        <v>0.03523820968948095</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02001761432655366</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.03139191926553048</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02614872651012869</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.07576786915410924</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02562590476653039</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.1327125736819713</v>
+        <v>0.07533345378948786</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0254727688981905</v>
+        <v>0.02556836637350886</v>
       </c>
       <c r="N97" t="n">
-        <v>0.03185684744506685</v>
+        <v>0.1257274196324502</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02614872651012869</v>
+        <v>0.02562350590833492</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03303941918496876</v>
+        <v>0.03604976779097796</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02064316477425846</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.03235810883951855</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02696587421357021</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.07835048761701149</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02642671429048446</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1362460908784829</v>
+        <v>0.07799360380505191</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02626879292625895</v>
+        <v>0.02636737782268101</v>
       </c>
       <c r="N98" t="n">
-        <v>0.03303941918496876</v>
+        <v>0.1294213422200752</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02696587421357021</v>
+        <v>0.02642424046797038</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03423287416870237</v>
+        <v>0.0368561804091723</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02126871522196327</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.03384325714788729</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02778302191701174</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.07986716309542091</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02722752381443853</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1386155508086702</v>
+        <v>0.07989214177367784</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02706481695432741</v>
+        <v>0.02716638927185317</v>
       </c>
       <c r="N99" t="n">
-        <v>0.03423287416870237</v>
+        <v>0.1339837161581801</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02778302191701174</v>
+        <v>0.02722497502760585</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03523026075408715</v>
+        <v>0.03774234313200997</v>
       </c>
       <c r="G100" t="n">
+        <v>0.0219594943227754</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.03503967047655672</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02860016962045326</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.0824044530484051</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02802833333839261</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1424130934150148</v>
+        <v>0.08281544327107113</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02786084098239586</v>
+        <v>0.02796540072102531</v>
       </c>
       <c r="N100" t="n">
-        <v>0.03523026075408715</v>
+        <v>0.1371020536972001</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02860016962045326</v>
+        <v>0.02802570958724131</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03672462729894263</v>
+        <v>0.03847469340355383</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02251981611737287</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.036339655111447</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02941731732389478</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.08534891493503174</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02882914286234668</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1453308586399989</v>
+        <v>0.0845498838729373</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02865686501046431</v>
+        <v>0.02876441217019747</v>
       </c>
       <c r="N101" t="n">
-        <v>0.03672462729894263</v>
+        <v>0.1401638670875699</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02941731732389478</v>
+        <v>0.02882644414687678</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03780902216108831</v>
+        <v>0.03932175064082215</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02314536656507767</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.03743551733847816</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.0302344650273363</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.0867871062143685</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02962995238630076</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.148060986426104</v>
+        <v>0.08708183915498183</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02945288903853277</v>
+        <v>0.02956342361936962</v>
       </c>
       <c r="N102" t="n">
-        <v>0.03780902216108831</v>
+        <v>0.1424566685797248</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0302344650273363</v>
+        <v>0.02962717870651225</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03897649369834372</v>
+        <v>0.04019054236995868</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02377091701278248</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.03851956344357034</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.03105161273077782</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.09010558434548296</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.03043076191025483</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1512956167158121</v>
+        <v>0.08919768469291017</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03024891306660122</v>
+        <v>0.03036243506854177</v>
       </c>
       <c r="N103" t="n">
-        <v>0.03897649369834372</v>
+        <v>0.1461679704240995</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03105161273077782</v>
+        <v>0.03042791326614771</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04002009026852835</v>
+        <v>0.04107139485408701</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02439646746048728</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.03988409971264363</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03186876043421934</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.09209090678744275</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03123157143420891</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1534268894516048</v>
+        <v>0.0918837960624278</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03104493709466967</v>
+        <v>0.03116144651771393</v>
       </c>
       <c r="N104" t="n">
-        <v>0.04002009026852835</v>
+        <v>0.1499852848711292</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03186876043421934</v>
+        <v>0.03122864782578318</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04123286022946171</v>
+        <v>0.04195463435633069</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02502201790819208</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.04082143243161809</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03268590813766087</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.09452963099931561</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03203238095816299</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.156846944575964</v>
+        <v>0.09362654883924026</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03184096112273813</v>
+        <v>0.03196045796688608</v>
       </c>
       <c r="N105" t="n">
-        <v>0.04123286022946171</v>
+        <v>0.1527961241712489</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03268590813766087</v>
+        <v>0.03202938238541864</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04240785193896333</v>
+        <v>0.04283058713981333</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02564756835589688</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.04182386788641385</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03350305584110238</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.09640831444016909</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03283319048211706</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1591479220313716</v>
+        <v>0.09561231859905303</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03263698515080658</v>
+        <v>0.03275946941605823</v>
       </c>
       <c r="N106" t="n">
-        <v>0.04240785193896333</v>
+        <v>0.1553880005748934</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03350305584110238</v>
+        <v>0.03283011694505411</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04323811375485272</v>
+        <v>0.04368957946765847</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02627311880360168</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.04308371236295097</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.0343202035445439</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.09811351456907086</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03363400000607113</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1615219617603093</v>
+        <v>0.09822748091757158</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03343300917887503</v>
+        <v>0.03355848086523038</v>
       </c>
       <c r="N107" t="n">
-        <v>0.04323811375485272</v>
+        <v>0.1586484263324979</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0343202035445439</v>
+        <v>0.03363085150468958</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04421669403494936</v>
+        <v>0.04452193760298968</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02689866925130649</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.04399327214714956</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03513735124798543</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.1006317888450885</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03443480953002521</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1639612037052588</v>
+        <v>0.1004584113705014</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03422903320694349</v>
+        <v>0.03435749231440253</v>
       </c>
       <c r="N108" t="n">
-        <v>0.04421669403494936</v>
+        <v>0.1604649136944972</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03513735124798543</v>
+        <v>0.03443158606432504</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04503664113707283</v>
+        <v>0.04531798780893058</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02752421969901129</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.04504485352492969</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03595449895142695</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.1029496947272897</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03523561905397928</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1651577878087022</v>
+        <v>0.102191485533548</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03502505723501194</v>
+        <v>0.03515650376357469</v>
       </c>
       <c r="N109" t="n">
-        <v>0.04503664113707283</v>
+        <v>0.1625249749113264</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03595449895142695</v>
+        <v>0.03523232062396051</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04619100341904256</v>
+        <v>0.04606805634860468</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02814977014671609</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.0456307627822115</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03677164665486847</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.1045537896747422</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03603642857793336</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.166403854013121</v>
+        <v>0.1042130789824168</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03582108126308039</v>
+        <v>0.03595551521274683</v>
       </c>
       <c r="N110" t="n">
-        <v>0.04619100341904256</v>
+        <v>0.1654161222334206</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03677164665486847</v>
+        <v>0.03603305518359597</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04697282923867811</v>
+        <v>0.04676246948513559</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02877532059442089</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.04664330620491502</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03758879435830999</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.1058306311465134</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03683723810188743</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1696915422609972</v>
+        <v>0.1057095672928134</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03661710529114885</v>
+        <v>0.03675452666191899</v>
       </c>
       <c r="N111" t="n">
-        <v>0.04697282923867811</v>
+        <v>0.1683258679112145</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03758879435830999</v>
+        <v>0.03683378974323144</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04757516695379897</v>
+        <v>0.04739155348164685</v>
       </c>
       <c r="G112" t="n">
+        <v>0.0294008710421257</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.0474747900789604</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03840594206175151</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.1070667766016711</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.0376380476258415</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1707129924948125</v>
+        <v>0.1070673260404432</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0374131293192173</v>
+        <v>0.03755353811109114</v>
       </c>
       <c r="N112" t="n">
-        <v>0.04757516695379897</v>
+        <v>0.1700417241951434</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03840594206175151</v>
+        <v>0.03763452430286691</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04829106492222467</v>
+        <v>0.04794563460126208</v>
       </c>
       <c r="G113" t="n">
+        <v>0.0300264214898305</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.04801752069026768</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03922308976519304</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.108848783499283</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03843885714979558</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1713603446570488</v>
+        <v>0.1086727308010116</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03820915334728575</v>
+        <v>0.03835254956026329</v>
       </c>
       <c r="N113" t="n">
-        <v>0.04829106492222467</v>
+        <v>0.171651203335642</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03922308976519304</v>
+        <v>0.03843525886250237</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04851357150177468</v>
+        <v>0.04841503910710482</v>
       </c>
       <c r="G114" t="n">
+        <v>0.0306519719375353</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.04876380432475701</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.04004023746863455</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.1098632092984167</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03923966667374965</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1730257386901878</v>
+        <v>0.1097121571502244</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0390051773753542</v>
+        <v>0.03915156100943545</v>
       </c>
       <c r="N114" t="n">
-        <v>0.04851357150177468</v>
+        <v>0.1725418175831456</v>
       </c>
       <c r="O114" t="n">
-        <v>0.04004023746863455</v>
+        <v>0.03923599342213784</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04903573505026855</v>
+        <v>0.04879009326229865</v>
       </c>
       <c r="G115" t="n">
+        <v>0.0312775223852401</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.04880594726834844</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.04085738517207608</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.1111966114581397</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.04004047619770373</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1738013145367114</v>
+        <v>0.1111719806637867</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03980120140342266</v>
+        <v>0.03995057245860759</v>
       </c>
       <c r="N115" t="n">
-        <v>0.04903573505026855</v>
+        <v>0.174401079188089</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04085738517207608</v>
+        <v>0.0400367279817733</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0493506039255258</v>
+        <v>0.04908752894381066</v>
       </c>
       <c r="G116" t="n">
+        <v>0.0319030728329449</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.04953625580696207</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.0416745328755176</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.1120355474375198</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.04084128572165781</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1758792121391013</v>
+        <v>0.1117385769174042</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04059722543149111</v>
+        <v>0.04074958390777975</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0493506039255258</v>
+        <v>0.1749165004009072</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0416745328755176</v>
+        <v>0.04083746254140877</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
+        <v>0.04937608948955063</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.0325286232806497</v>
+      </c>
+      <c r="J117" t="n">
         <v>0.04983171194175721</v>
       </c>
-      <c r="G117" t="n">
+      <c r="K117" t="n">
         <v>0.04249168057895912</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.1122665746956244</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04164209524561188</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1759515714398394</v>
+        <v>0.1121983214867824</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04139324945955956</v>
+        <v>0.0415485953569519</v>
       </c>
       <c r="N117" t="n">
-        <v>0.04983171194175721</v>
+        <v>0.1764755934720352</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04249168057895912</v>
+        <v>0.04163819710104424</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04973065108760839</v>
+        <v>0.04965994891375443</v>
       </c>
       <c r="G118" t="n">
+        <v>0.0331541737283545</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.04973059481293629</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04330882828240065</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.1136567701238655</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04244290476956596</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1771105323814075</v>
+        <v>0.1130375899476268</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04218927348762801</v>
+        <v>0.04234760680612405</v>
       </c>
       <c r="N118" t="n">
-        <v>0.04973065108760839</v>
+        <v>0.1774818283059737</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04330882828240065</v>
+        <v>0.0424389316606797</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04972212359649347</v>
+        <v>0.04993904812441527</v>
       </c>
       <c r="G119" t="n">
+        <v>0.03377972417605931</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.04952628424054693</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04412597598584217</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.1129511328842785</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04324371429352002</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.1774818283059737</v>
+        <v>0.1136567701238655</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04298529751569647</v>
+        <v>0.04314661825529621</v>
       </c>
       <c r="N119" t="n">
-        <v>0.04972212359649347</v>
+        <v>0.1769748441909607</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04412597598584217</v>
+        <v>0.04323966622031517</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0496883088152829</v>
+        <v>0.05021332802952647</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03440527462376411</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.04950702684805977</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04494312368928369</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.1132509630444953</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.0440445238174741</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.1758795244059486</v>
+        <v>0.113550668826967</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04378132154376493</v>
+        <v>0.04394562970446836</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0496883088152829</v>
+        <v>0.1773651213277626</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04494312368928369</v>
+        <v>0.04404040077995064</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04973143804679082</v>
+        <v>0.05048272953708122</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03503082507146891</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.04957440458194244</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.0457602713927252</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.11252708191086</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04484533334142817</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1771588692975067</v>
+        <v>0.1127189886935302</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04457734557183338</v>
+        <v>0.0447446411536405</v>
       </c>
       <c r="N121" t="n">
-        <v>0.04973143804679082</v>
+        <v>0.1758961435195993</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0457602713927252</v>
+        <v>0.0448411353395861</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04935289352530799</v>
+        <v>0.05074719355507286</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03565637551917372</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.04962900160129302</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04657741909616673</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.1129851195780611</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04564614286538225</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1757170729331816</v>
+        <v>0.1129610787198946</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04537336959990183</v>
+        <v>0.04554365260281266</v>
       </c>
       <c r="N122" t="n">
-        <v>0.04935289352530799</v>
+        <v>0.1758754680307874</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04657741909616673</v>
+        <v>0.04564186989922157</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04915405748512508</v>
+        <v>0.05100666099149462</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03628192596687851</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.04947140206520949</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04739456679960825</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.1127254938874484</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04644695238933633</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1770544921262111</v>
+        <v>0.1126778434160903</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04616939362797028</v>
+        <v>0.04634266405198481</v>
       </c>
       <c r="N123" t="n">
-        <v>0.04915405748512508</v>
+        <v>0.1770049717248717</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04739456679960825</v>
+        <v>0.04644260445885703</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04923631216053283</v>
+        <v>0.05126107275433976</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03690747641458331</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.04950219013278989</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04821171450304977</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.1129486226803714</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.0472477619132904</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.176571483689833</v>
+        <v>0.1130701872921476</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04696541765603873</v>
+        <v>0.04714167550115696</v>
       </c>
       <c r="N124" t="n">
-        <v>0.04923631216053283</v>
+        <v>0.1756865314653968</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04821171450304977</v>
+        <v>0.0472433390184925</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04920103978582198</v>
+        <v>0.05151036975160156</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03753302686228812</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.04922194996313226</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.0490288622064913</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.11275492379818</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04804857143724447</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.176968404437285</v>
+        <v>0.1123390148580967</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04776144168410719</v>
+        <v>0.04794068695032912</v>
       </c>
       <c r="N125" t="n">
-        <v>0.04920103978582198</v>
+        <v>0.174922024115907</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0490288622064913</v>
+        <v>0.04804407357812797</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04874962259528325</v>
+        <v>0.05175449289127329</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03815857730999293</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.04933126571533457</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04984600990993281</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.1124448150822236</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04884938096119855</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1769456111818049</v>
+        <v>0.1125852306239677</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04855746571217565</v>
+        <v>0.04873969839950126</v>
       </c>
       <c r="N126" t="n">
-        <v>0.04874962259528325</v>
+        <v>0.1762133265399472</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04984600990993281</v>
+        <v>0.04884480813776343</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04868344282320736</v>
+        <v>0.0519933830813482</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03878412775769773</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.0493307215484949</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.05066315761337434</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.1121187143738519</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04965019048515262</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1758034607366304</v>
+        <v>0.1126097390997909</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0493534897402441</v>
+        <v>0.04953870984867342</v>
       </c>
       <c r="N127" t="n">
-        <v>0.04868344282320736</v>
+        <v>0.1748623156010618</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05066315761337434</v>
+        <v>0.0496455426973989</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.048803882703885</v>
+        <v>0.05222698122981954</v>
       </c>
       <c r="G128" t="n">
+        <v>0.03940967820540252</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.04882090162171124</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.05148030531681586</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.1121770395144145</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.0504510000091067</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1752423099149995</v>
+        <v>0.1126134447955967</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05014951376831255</v>
+        <v>0.05033772129784557</v>
       </c>
       <c r="N128" t="n">
-        <v>0.048803882703885</v>
+        <v>0.1741708681627955</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05148030531681586</v>
+        <v>0.05044627725703436</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04831232447160694</v>
+        <v>0.05245522824468062</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04003522865310732</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.04870239009408163</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05229745302025738</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.1122202083452613</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.05125180953306077</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1752625155301499</v>
+        <v>0.111597252221415</v>
       </c>
       <c r="M129" t="n">
-        <v>0.050945537796381</v>
+        <v>0.05113673274701772</v>
       </c>
       <c r="N129" t="n">
-        <v>0.04831232447160694</v>
+        <v>0.1744408610886929</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05229745302025738</v>
+        <v>0.05124701181666983</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04831015036066386</v>
+        <v>0.05267806503392469</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04066077910081213</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.04897577112470405</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.0531146007236989</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.1117486387077417</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05205261905701485</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1760644343953193</v>
+        <v>0.1117620658872763</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05174156182444946</v>
+        <v>0.05193574419618988</v>
       </c>
       <c r="N130" t="n">
-        <v>0.04831015036066386</v>
+        <v>0.1739741712422985</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0531146007236989</v>
+        <v>0.0520477463763053</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04779874260534653</v>
+        <v>0.052895432505545</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04128632954851693</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.04844162887267658</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05393174842714042</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.1119627484432054</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05285342858096892</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1749484233237455</v>
+        <v>0.1111087903032106</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05253758585251791</v>
+        <v>0.05273475564536203</v>
       </c>
       <c r="N131" t="n">
-        <v>0.04779874260534653</v>
+        <v>0.1740726754871571</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05393174842714042</v>
+        <v>0.05284848093594077</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04797948343994562</v>
+        <v>0.05310727156753484</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04191187999622173</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.04860054749709722</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05474889613058195</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.1112629553930021</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05365423810492299</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1757148391286664</v>
+        <v>0.1115383299792482</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05333360988058636</v>
+        <v>0.05353376709453418</v>
       </c>
       <c r="N132" t="n">
-        <v>0.04797948343994562</v>
+        <v>0.1719382506868131</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05474889613058195</v>
+        <v>0.05364921549557623</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0474537550987519</v>
+        <v>0.05331352312788744</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04253743044392654</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.04835311115706398</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05556604383402347</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.1111496773984813</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05445504762887707</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1749640386233197</v>
+        <v>0.1112515894254194</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05412963390865482</v>
+        <v>0.05433277854370634</v>
       </c>
       <c r="N133" t="n">
-        <v>0.0474537550987519</v>
+        <v>0.1714727737048111</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05556604383402347</v>
+        <v>0.0544499500552117</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04752293981605606</v>
+        <v>0.0535141280945961</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04316298089163134</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.04799990401167491</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05638319153746499</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.1112233323009928</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05525585715283114</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1738963786209431</v>
+        <v>0.1103494731517543</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05492565793672326</v>
+        <v>0.05513178999287849</v>
       </c>
       <c r="N134" t="n">
-        <v>0.04752293981605606</v>
+        <v>0.1724781214046958</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05638319153746499</v>
+        <v>0.05525068461484716</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04718841982614883</v>
+        <v>0.05370902737565407</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04378853133933614</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.047841510220028</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05720033924090651</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.1104843379418863</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05605666667678522</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1744122159347745</v>
+        <v>0.1101328856682831</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05572168196479171</v>
+        <v>0.05593080144205063</v>
       </c>
       <c r="N135" t="n">
-        <v>0.04718841982614883</v>
+        <v>0.1704561706500117</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05720033924090651</v>
+        <v>0.05605141917448262</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04685157736332093</v>
+        <v>0.05389816187905462</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04441408178704094</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.04797851394122128</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05801748694434803</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.1110331121625112</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05685747620073929</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1732119073780517</v>
+        <v>0.1096027314850361</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05651770599286017</v>
+        <v>0.05672981289122279</v>
       </c>
       <c r="N136" t="n">
-        <v>0.04685157736332093</v>
+        <v>0.1701087983043034</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05801748694434803</v>
+        <v>0.0568521537341181</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0467137946618631</v>
+        <v>0.05408147251279101</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04503963223474574</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.04771149933435279</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05883463464778955</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.1104700728042173</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05765828572469336</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1743958097640124</v>
+        <v>0.1091599151120435</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05731373002092863</v>
+        <v>0.05752882434039494</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0467137946618631</v>
+        <v>0.1688378812311157</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05883463464778955</v>
+        <v>0.05765288829375356</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04637645395606603</v>
+        <v>0.0542589001848565</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04566518268245055</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.04754105055852054</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05965178235123108</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.1098956377083543</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05845909524864744</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1730642799058943</v>
+        <v>0.1094053410593355</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05810975404899708</v>
+        <v>0.05832783578956709</v>
       </c>
       <c r="N138" t="n">
-        <v>0.04637645395606603</v>
+        <v>0.1686452962939929</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05965178235123108</v>
+        <v>0.05845362285338902</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04614093748022048</v>
+        <v>0.05443038580324437</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04629073313015535</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.04736775177282256</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.0604689300546726</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.1105102247162718</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05925990477260151</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1723176746169354</v>
+        <v>0.1086399138369424</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05890577807706553</v>
+        <v>0.05912684723873925</v>
       </c>
       <c r="N139" t="n">
-        <v>0.04614093748022048</v>
+        <v>0.1676329203564797</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0604689300546726</v>
+        <v>0.0592543574130245</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04580862746861715</v>
+        <v>0.05459587027594788</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04691628357786015</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.04739218713635686</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.06128607775811412</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.1101142516693194</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.06006071429655559</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1728563507103734</v>
+        <v>0.1083645379548943</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05970180210513399</v>
+        <v>0.05992585868791139</v>
       </c>
       <c r="N140" t="n">
-        <v>0.04580862746861715</v>
+        <v>0.1680026302821208</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06128607775811412</v>
+        <v>0.06005509197265996</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04578090615554677</v>
+        <v>0.05475529451096031</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04754183402556495</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.04721494080822146</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.06210322546155565</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.1096081364088467</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.06086152382050967</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.171680664999446</v>
+        <v>0.1085801179232215</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06049782613320245</v>
+        <v>0.06072487013708355</v>
       </c>
       <c r="N141" t="n">
-        <v>0.04578090615554677</v>
+        <v>0.1661563029344607</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06210322546155565</v>
+        <v>0.06085582653229542</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04545915577530003</v>
+        <v>0.05490859941627489</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04816738447326976</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.04683659694751441</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06292037316499717</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.1092922967762034</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.06166233334446374</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1725909742973911</v>
+        <v>0.1080875582519542</v>
       </c>
       <c r="M142" t="n">
-        <v>0.0612938501612709</v>
+        <v>0.0615238815862557</v>
       </c>
       <c r="N142" t="n">
-        <v>0.04545915577530003</v>
+        <v>0.166095815177044</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06292037316499717</v>
+        <v>0.06165656109193089</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04544475856216772</v>
+        <v>0.05505572589988492</v>
       </c>
       <c r="G143" t="n">
+        <v>0.04879293492097456</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.04685773971333369</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06373752086843869</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.1090671506127393</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06246314286841782</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1715876354174465</v>
+        <v>0.1071877634511225</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06208987418933934</v>
+        <v>0.06232289303542785</v>
       </c>
       <c r="N143" t="n">
-        <v>0.04544475856216772</v>
+        <v>0.1661230438734154</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06373752086843869</v>
+        <v>0.06245729565156636</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04503909675044049</v>
+        <v>0.05519661486978365</v>
       </c>
       <c r="G144" t="n">
+        <v>0.04941848536867936</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.04667895326477736</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06455466857188021</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.1079331157598039</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06326395239237188</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1711710051728498</v>
+        <v>0.1068816380307567</v>
       </c>
       <c r="M144" t="n">
-        <v>0.0628858982174078</v>
+        <v>0.06312190448460001</v>
       </c>
       <c r="N144" t="n">
-        <v>0.04503909675044049</v>
+        <v>0.1652398658871193</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06455466857188021</v>
+        <v>0.06325803021120183</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0448435525744091</v>
+        <v>0.05533120723396437</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05004403581638416</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.04620082176094345</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06537181627532174</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.1083906100587468</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06406476191632597</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1702414403768389</v>
+        <v>0.1059700865008871</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06368192224547625</v>
+        <v>0.06392091593377215</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0448435525744091</v>
+        <v>0.1644481580817004</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06537181627532174</v>
+        <v>0.06405876477083729</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04485950826836428</v>
+        <v>0.0554594439004203</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05066958626408896</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.04632392936092992</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06618896397876324</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.1082400513509177</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06486557144028005</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1693992978426516</v>
+        <v>0.1064540133715439</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06447794627354471</v>
+        <v>0.0647199273829443</v>
       </c>
       <c r="N146" t="n">
-        <v>0.04485950826836428</v>
+        <v>0.1635497973207034</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06618896397876324</v>
+        <v>0.06485949933047276</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04458834606659674</v>
+        <v>0.05558126577714474</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05129513671179377</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.04574886022383487</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06700611168220476</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.1078818574776663</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06566638096423412</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1698449343835257</v>
+        <v>0.1060343231527573</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06527397030161315</v>
+        <v>0.06551893883211646</v>
       </c>
       <c r="N147" t="n">
-        <v>0.04458834606659674</v>
+        <v>0.1628466604676727</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06700611168220476</v>
+        <v>0.06566023389010822</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04423144820339719</v>
+        <v>0.05569661377213093</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05192068715949857</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.04577619850875626</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06782325938564629</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.1075164462803422</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06646719048818819</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1689787068126988</v>
+        <v>0.1058119203545574</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06606999432968161</v>
+        <v>0.06631795028128862</v>
       </c>
       <c r="N148" t="n">
-        <v>0.04423144820339719</v>
+        <v>0.1607406243861529</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06782325938564629</v>
+        <v>0.06646096844974368</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04439019691305637</v>
+        <v>0.05580542879337216</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05254623760720337</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.04580652837479214</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06864040708908781</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.106744235600295</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06726800001214227</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.168500971943409</v>
+        <v>0.1050877094869745</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06686601835775006</v>
+        <v>0.06711696173046076</v>
       </c>
       <c r="N149" t="n">
-        <v>0.04439019691305637</v>
+        <v>0.1598335659396888</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06864040708908781</v>
+        <v>0.06726170300937916</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04416596205879711</v>
+        <v>0.05590765174886168</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05317178805490817</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.04534043398104055</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06945755479252932</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.1064656432788744</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06806880953609634</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1683120865888937</v>
+        <v>0.1047625950600389</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06766204238581852</v>
+        <v>0.06791597317963291</v>
       </c>
       <c r="N150" t="n">
-        <v>0.04416596205879711</v>
+        <v>0.1600273619918249</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06945755479252932</v>
+        <v>0.06806243756901462</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04405295470235483</v>
+        <v>0.05600322354659276</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05379733850261297</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.04517849948659948</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.07027470249597086</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.10558108715743</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06886961906005042</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1683124075623911</v>
+        <v>0.1041374815837807</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06845806641388698</v>
+        <v>0.06871498462880506</v>
       </c>
       <c r="N151" t="n">
-        <v>0.04405295470235483</v>
+        <v>0.1593238894061058</v>
       </c>
       <c r="O151" t="n">
-        <v>0.07027470249597086</v>
+        <v>0.06886317212865008</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04364536199672166</v>
+        <v>0.05609208509455869</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05442288895031777</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.04522130905056695</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.07109185019941237</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.1051909850773116</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06967042858400449</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1667022916771387</v>
+        <v>0.1032132735682302</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06925409044195542</v>
+        <v>0.06951399607797722</v>
       </c>
       <c r="N152" t="n">
-        <v>0.04364536199672166</v>
+        <v>0.157925025046076</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07109185019941237</v>
+        <v>0.06966390668828555</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04394290478775419</v>
+        <v>0.05617417730075271</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05504843939802257</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.04506944683204103</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.07190899790285389</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.1053957548798687</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.07047123810795856</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1664820957463743</v>
+        <v>0.1036908755234176</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07005011447002388</v>
+        <v>0.07031300752714938</v>
       </c>
       <c r="N153" t="n">
-        <v>0.04394290478775419</v>
+        <v>0.1564326457752802</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07190899790285389</v>
+        <v>0.07046464124792103</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04344530392130901</v>
+        <v>0.05624944107316808</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05567398984572738</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.04462349699011969</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07272614560629542</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.1048958144064508</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.07127204763191264</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1657521765833358</v>
+        <v>0.1028711919593731</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07084613849809233</v>
+        <v>0.07111201897632152</v>
       </c>
       <c r="N154" t="n">
-        <v>0.04344530392130901</v>
+        <v>0.1572486284572629</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07272614560629542</v>
+        <v>0.07126537580755649</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04335228024324266</v>
+        <v>0.05631781731979807</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05629954029343218</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.04448404368390099</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07354329330973694</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.1043915814984079</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07207285715586671</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1654128910012609</v>
+        <v>0.1022551273861269</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07164216252616078</v>
+        <v>0.07191103042549367</v>
       </c>
       <c r="N155" t="n">
-        <v>0.04335228024324266</v>
+        <v>0.1558748499555688</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07354329330973694</v>
+        <v>0.07206611036719195</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04356355459941175</v>
+        <v>0.05637924694863596</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05692509074113698</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.04445167107248292</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07436044101317846</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.1039834739970894</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07287366667982079</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1643645958133875</v>
+        <v>0.1016435863137092</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07243818655422923</v>
+        <v>0.07271004187466583</v>
       </c>
       <c r="N156" t="n">
-        <v>0.04356355459941175</v>
+        <v>0.1549131871337424</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07436044101317846</v>
+        <v>0.07286684492682742</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04347884783567285</v>
+        <v>0.05643367086767499</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05755064118884178</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.04462696331496352</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07517758871661999</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.1037719097438451</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07367447620377486</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1646076478329531</v>
+        <v>0.1013374732521503</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07323421058229769</v>
+        <v>0.07350905332383798</v>
       </c>
       <c r="N157" t="n">
-        <v>0.04347884783567285</v>
+        <v>0.1538655168553285</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07517758871661999</v>
+        <v>0.07366757948646288</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04339788079788251</v>
+        <v>0.05648102998490845</v>
       </c>
       <c r="G158" t="n">
+        <v>0.05817619163654659</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.04450899473047175</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07599473642006151</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.1028573065800245</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07447528572772893</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1645424038731958</v>
+        <v>0.1011284547027481</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07403023461036615</v>
+        <v>0.07430806477301014</v>
       </c>
       <c r="N158" t="n">
-        <v>0.04339788079788251</v>
+        <v>0.1531153070371469</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07599473642006151</v>
+        <v>0.07446831404609834</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04342037433189734</v>
+        <v>0.0565212652083296</v>
       </c>
       <c r="G159" t="n">
+        <v>0.05880174208425139</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.04399531144970505</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07681188412350302</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.1030400823469773</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07527609525168301</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1635692207473533</v>
+        <v>0.100701297492638</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0748262586384346</v>
+        <v>0.07510707622218228</v>
       </c>
       <c r="N159" t="n">
-        <v>0.04342037433189734</v>
+        <v>0.1524322908557419</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07681188412350302</v>
+        <v>0.07526904860573382</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04314604928357391</v>
+        <v>0.0565543174459317</v>
       </c>
       <c r="G160" t="n">
+        <v>0.05942729253195619</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.04408554317307982</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07762903182694454</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.1019206548860531</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07607690477563708</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1636884552686632</v>
+        <v>0.100456529787902</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07562228266650306</v>
+        <v>0.07590608767135443</v>
       </c>
       <c r="N160" t="n">
-        <v>0.04314604928357391</v>
+        <v>0.1521177697934398</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07762903182694454</v>
+        <v>0.07606978316536928</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0432746264987688</v>
+        <v>0.05658012760570802</v>
       </c>
       <c r="G161" t="n">
+        <v>0.06005284297966099</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.04407935474633604</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07844617953038607</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.1015994420386017</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07687771429959116</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1631004642503635</v>
+        <v>0.0997949705572389</v>
       </c>
       <c r="M161" t="n">
-        <v>0.0764183066945715</v>
+        <v>0.07670509912052659</v>
       </c>
       <c r="N161" t="n">
-        <v>0.0432746264987688</v>
+        <v>0.1517736328398614</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07844617953038607</v>
+        <v>0.07687051772500475</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04290582682333854</v>
+        <v>0.05659863659565181</v>
       </c>
       <c r="G162" t="n">
+        <v>0.06067839342736579</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.04407641101521352</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07926332723382759</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.1014768616459726</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07767852382354523</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1621056045056918</v>
+        <v>0.0989174387693473</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07721433072263995</v>
+        <v>0.07750411056969873</v>
       </c>
       <c r="N162" t="n">
-        <v>0.04290582682333854</v>
+        <v>0.1500017689846277</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07926332723382759</v>
+        <v>0.07767125228464022</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04313937110313977</v>
+        <v>0.05660978532375638</v>
       </c>
       <c r="G163" t="n">
+        <v>0.0613039438750706</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.04367637682545224</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.08008047493726911</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.1004533315495154</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07847933334749931</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1606042328478861</v>
+        <v>0.09912475339292576</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0780103547507084</v>
+        <v>0.07830312201887089</v>
       </c>
       <c r="N163" t="n">
-        <v>0.04313937110313977</v>
+        <v>0.1487040672173595</v>
       </c>
       <c r="O163" t="n">
-        <v>0.08008047493726911</v>
+        <v>0.07847198684427568</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04267498018402903</v>
+        <v>0.05661351469801496</v>
       </c>
       <c r="G164" t="n">
+        <v>0.0619294943227754</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.04367891702279203</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.08089762264071064</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.09992926959057996</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07928014287145339</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1610967060901841</v>
+        <v>0.09781773339667285</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07880637877877686</v>
+        <v>0.07910213346804304</v>
       </c>
       <c r="N164" t="n">
-        <v>0.04267498018402903</v>
+        <v>0.1476824165276778</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08089762264071064</v>
+        <v>0.07927272140391114</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.0426123749118629</v>
+        <v>0.05661351469801496</v>
       </c>
       <c r="G165" t="n">
+        <v>0.0619294943227754</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.04338369645297287</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.08171477034415216</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.09990509361051578</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.08008095239540747</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1595833810458235</v>
+        <v>0.09809719774928721</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07960240280684532</v>
+        <v>0.07990114491721519</v>
       </c>
       <c r="N165" t="n">
-        <v>0.0426123749118629</v>
+        <v>0.1476387059052033</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08171477034415216</v>
+        <v>0.08007345596354661</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04255127613249796</v>
+        <v>0.05568519095505471</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06192922579431138</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.04339037996173459</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.08253191804759367</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.09958122145067255</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.08088176191936154</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1590646145280421</v>
+        <v>0.0966639654194674</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08039842683491377</v>
+        <v>0.08070015636638735</v>
       </c>
       <c r="N166" t="n">
-        <v>0.04255127613249796</v>
+        <v>0.1471748243395572</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08253191804759367</v>
+        <v>0.08087419052318208</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04289140469179079</v>
+        <v>0.05476702180639993</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06192895726584737</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.04339863239481712</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08334906575103521</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.09975807095239983</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.08168257144331562</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1591407633500777</v>
+        <v>0.09621885537591199</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08119445086298223</v>
+        <v>0.08149916781555949</v>
       </c>
       <c r="N167" t="n">
-        <v>0.04289140469179079</v>
+        <v>0.1450926608203602</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08334906575103521</v>
+        <v>0.08167492508281754</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04283248143559795</v>
+        <v>0.0538594410500743</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06192868873738334</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.04330811859796035</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08416621345447672</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.09893596411219621</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08248338096726969</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.1582121843251682</v>
+        <v>0.09606268658731967</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08199047489105067</v>
+        <v>0.08229817926473165</v>
       </c>
       <c r="N168" t="n">
-        <v>0.04283248143559795</v>
+        <v>0.1441941043372332</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08416621345447672</v>
+        <v>0.082475659642453</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04237422720977604</v>
+        <v>0.05296288248421978</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06192842020891933</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.04341850341690423</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08498336115791824</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.09779487476168014</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08328419049122376</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1565792342665512</v>
+        <v>0.09529627802238896</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08278649891911913</v>
+        <v>0.0830971907139038</v>
       </c>
       <c r="N169" t="n">
-        <v>0.04237422720977604</v>
+        <v>0.1433810438797973</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08498336115791824</v>
+        <v>0.08327639420208847</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04271636286018163</v>
+        <v>0.05207777990685962</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06192815168045531</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.04292945169738861</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08580050886135977</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.09762078210315461</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08408500001517784</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1574422699874646</v>
+        <v>0.09442044864981852</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08358252294718758</v>
+        <v>0.08389620216307594</v>
       </c>
       <c r="N170" t="n">
-        <v>0.04271636286018163</v>
+        <v>0.1419553684376731</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08580050886135977</v>
+        <v>0.08407712876172395</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04255860923267127</v>
+        <v>0.0512045671160568</v>
       </c>
       <c r="G171" t="n">
+        <v>0.0619278831519913</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.04294062828515342</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08661765656480129</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.09731560612929685</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08488580953913191</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1555016483011461</v>
+        <v>0.09443601743830685</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08437854697525603</v>
+        <v>0.0846952136122481</v>
       </c>
       <c r="N171" t="n">
-        <v>0.04255860923267127</v>
+        <v>0.1421189670004818</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08661765656480129</v>
+        <v>0.08487786332135941</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04220068717310158</v>
+        <v>0.05034367790983708</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06192761462352727</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.04305169802593851</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08743480426824281</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.09718126683278397</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08568661906308597</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.1552577260208336</v>
+        <v>0.09434380335655262</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08517457100332448</v>
+        <v>0.08549422506142025</v>
       </c>
       <c r="N172" t="n">
-        <v>0.04220068717310158</v>
+        <v>0.1399737285578442</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08743480426824281</v>
+        <v>0.08567859788099488</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04224231752732911</v>
+        <v>0.0494955460863384</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06192734609506326</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.04296232576548385</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08825195197168434</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.0968196842062933</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08648742858704005</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.1553076755173048</v>
+        <v>0.09304462537325439</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08597059503139294</v>
+        <v>0.08629323651059241</v>
       </c>
       <c r="N173" t="n">
-        <v>0.04224231752732911</v>
+        <v>0.1391215420993812</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08825195197168434</v>
+        <v>0.08647933244063034</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04208322114121041</v>
+        <v>0.04866060544358596</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06192707756659924</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.04267217634952931</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08906909967512586</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.095332778242502</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08728823811099412</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.1544039066732682</v>
+        <v>0.09213930245711086</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0867666190594614</v>
+        <v>0.08709224795976456</v>
       </c>
       <c r="N174" t="n">
-        <v>0.04208322114121041</v>
+        <v>0.1377642966147136</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08906909967512586</v>
+        <v>0.0872800670002658</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04222311886060211</v>
+        <v>0.04783928977964275</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06192680903813523</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.04268091462381478</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08988624737856737</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.09552246893408722</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08808904763494819</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1529327586606652</v>
+        <v>0.09182865357682043</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08756264308752985</v>
+        <v>0.08789125940893672</v>
       </c>
       <c r="N175" t="n">
-        <v>0.04222311886060211</v>
+        <v>0.1377038810934624</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08988624737856737</v>
+        <v>0.08808080155990128</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04206173153136078</v>
+        <v>0.04703203289253689</v>
       </c>
       <c r="G176" t="n">
+        <v>0.0619265405096712</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.04278820543408017</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.09070339508200891</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.09389067627372616</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08888985715890227</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1529973115868941</v>
+        <v>0.09081349770108191</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0883586671155983</v>
+        <v>0.08869027085810886</v>
       </c>
       <c r="N176" t="n">
-        <v>0.04206173153136078</v>
+        <v>0.1368421845252485</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09070339508200891</v>
+        <v>0.08888153611953674</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04219877999934295</v>
+        <v>0.04623926858040167</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06192627198120719</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.04259371362606541</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.09152054278545041</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.09383932025409608</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08969066668285634</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1514006455593532</v>
+        <v>0.09089465379859371</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08915469114366675</v>
+        <v>0.08948928230728101</v>
       </c>
       <c r="N177" t="n">
-        <v>0.04219877999934295</v>
+        <v>0.1343810958996929</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09152054278545041</v>
+        <v>0.0896822706791722</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04213398511040521</v>
+        <v>0.04546143064126458</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06192600345274318</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.04219710404551036</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.09233769048889193</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.09317032086787416</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.09049147620681042</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.1512458406854408</v>
+        <v>0.09047294083805457</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08995071517173521</v>
+        <v>0.09028829375645317</v>
       </c>
       <c r="N178" t="n">
-        <v>0.04213398511040521</v>
+        <v>0.1344225042064163</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09233769048889193</v>
+        <v>0.09048300523880766</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04186706771040419</v>
+        <v>0.0446989528731886</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06192573492427916</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.04249804153815494</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.09315483819233346</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.09198559810773752</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.09129228573076449</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.1504359770725553</v>
+        <v>0.08984917778816301</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09074673919980367</v>
+        <v>0.09108730520562532</v>
       </c>
       <c r="N179" t="n">
-        <v>0.04186706771040419</v>
+        <v>0.1333682984350398</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09315483819233346</v>
+        <v>0.09128373979844313</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04189774864519639</v>
+        <v>0.04395226907420456</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06192546639581514</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.04229619094973905</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09397198589577498</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.09168707196636347</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.09209309525471858</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.148674134828095</v>
+        <v>0.08942418361761761</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09154276322787211</v>
+        <v>0.09188631665479748</v>
       </c>
       <c r="N180" t="n">
-        <v>0.04189774864519639</v>
+        <v>0.1326203675751843</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09397198589577498</v>
+        <v>0.09208447435807861</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04162574876063845</v>
+        <v>0.04322181304244044</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06192519786735112</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.04199121712600259</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09478913359921649</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.09077666243642915</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09289390477867265</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.1476633940594581</v>
+        <v>0.08799877729511704</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09233878725594057</v>
+        <v>0.09268532810396962</v>
       </c>
       <c r="N181" t="n">
-        <v>0.04162574876063845</v>
+        <v>0.1314806006164705</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09478913359921649</v>
+        <v>0.09288520891771407</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0419507889025869</v>
+        <v>0.04250801857592634</v>
       </c>
       <c r="G182" t="n">
+        <v>0.0619249293388871</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.04188278491268548</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09560628130265802</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.09005628951061173</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09369471430262673</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.1471068348740429</v>
+        <v>0.08717377778935984</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09313481128400902</v>
+        <v>0.09348433955314177</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0419507889025869</v>
+        <v>0.1290508865485195</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09560628130265802</v>
+        <v>0.09368594347734954</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04157258991689834</v>
+        <v>0.04181131947272525</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06192466081042309</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.04177055915552758</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09642342900609954</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.08922787318158848</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.0944955238265808</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.1442075373792477</v>
+        <v>0.08715000406904463</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09393083531207747</v>
+        <v>0.09428335100231393</v>
       </c>
       <c r="N183" t="n">
-        <v>0.04157258991689834</v>
+        <v>0.1293331143609521</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09642342900609954</v>
+        <v>0.094486678036985</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04139087264942932</v>
+        <v>0.04113214953087095</v>
       </c>
       <c r="G184" t="n">
+        <v>0.06192439228195906</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.04165420470026882</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09724057670954106</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.08879333344203658</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09529633335053488</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.1431685816824709</v>
+        <v>0.08602827510287001</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09472685934014592</v>
+        <v>0.09508236245148609</v>
       </c>
       <c r="N184" t="n">
-        <v>0.04139087264942932</v>
+        <v>0.1277291730433893</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09724057670954106</v>
+        <v>0.09528741259662046</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04140535794603648</v>
+        <v>0.04047094254848554</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06192412375349505</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.0415333863926491</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09805772441298259</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.08795459028463318</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09609714287448895</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.1422930478911109</v>
+        <v>0.08590940985953455</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09552288336821438</v>
+        <v>0.09588137390065823</v>
       </c>
       <c r="N185" t="n">
-        <v>0.04140535794603648</v>
+        <v>0.1275409515854519</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09805772441298259</v>
+        <v>0.09608814715625594</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04141576665257631</v>
+        <v>0.03982813232360209</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06192385522503104</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.0413077690784083</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09887487211642411</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.0879135637020555</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09689795239844302</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.1417840161125657</v>
+        <v>0.0854942273077369</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09631890739628284</v>
+        <v>0.09668038534983038</v>
       </c>
       <c r="N186" t="n">
-        <v>0.04141576665257631</v>
+        <v>0.1254703389767609</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09887487211642411</v>
+        <v>0.0968888817158914</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.04112181961490546</v>
+        <v>0.03920415265428351</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06192358669656702</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.04157701760328637</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09969201981986563</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.08627217368698076</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.0976987619223971</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.1391445664542338</v>
+        <v>0.08488354641617554</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09711493142435129</v>
+        <v>0.09747939679900253</v>
       </c>
       <c r="N187" t="n">
-        <v>0.04112181961490546</v>
+        <v>0.1245192242069371</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09969201981986563</v>
+        <v>0.09768961627552686</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.04112323767888044</v>
+        <v>0.03859943733856691</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06192331816810299</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.04124079681302316</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.1005091675233071</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.08563234023208618</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09849957144635117</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.1390777790235135</v>
+        <v>0.0835781861535492</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09791095545241975</v>
+        <v>0.09827840824817469</v>
       </c>
       <c r="N188" t="n">
-        <v>0.04112323767888044</v>
+        <v>0.1240894962656016</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1005091675233071</v>
+        <v>0.09849035083516233</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.04121974169035789</v>
+        <v>0.0380144201745679</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06192304963963898</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.04129877155335861</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.1013263152267487</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.08569598333004888</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09930038097030525</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.1373867339278032</v>
+        <v>0.08277896548855643</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09870697948048819</v>
+        <v>0.09907741969734685</v>
       </c>
       <c r="N189" t="n">
-        <v>0.04121974169035789</v>
+        <v>0.122483044142375</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1013263152267487</v>
+        <v>0.09929108539479781</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.04081105249519436</v>
+        <v>0.03744776361823236</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06192278111117497</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.0409506066700326</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.1021434629301902</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.08386502297354612</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.1001011904942593</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.135374511274501</v>
+        <v>0.0822867033898958</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09950300350855663</v>
+        <v>0.09987643114651899</v>
       </c>
       <c r="N190" t="n">
-        <v>0.04081105249519436</v>
+        <v>0.1224017568268784</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1021434629301902</v>
+        <v>0.1000918199544333</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.0406968909392464</v>
+        <v>0.03688927341508044</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06192251258271095</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.04099596700878504</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.1029606106336317</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.08374137915525506</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.1009020000182134</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.1335441911710052</v>
+        <v>0.08220221882626594</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1002990275366251</v>
+        <v>0.1006754425956911</v>
       </c>
       <c r="N191" t="n">
-        <v>0.0406968909392464</v>
+        <v>0.1206475233087327</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1029606106336317</v>
+        <v>0.1008925545140687</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.04067697786837063</v>
+        <v>0.03633761202106064</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06192224405424693</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.04083451741535581</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.1037777583370732</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.08292697186785297</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.1017028095421675</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.1336988537247144</v>
+        <v>0.08192633076636538</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1010950515646935</v>
+        <v>0.1014744540448633</v>
       </c>
       <c r="N192" t="n">
-        <v>0.04067697786837063</v>
+        <v>0.1211222325775589</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1037777583370732</v>
+        <v>0.1016932890737042</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.04085103412842359</v>
+        <v>0.03579321323428396</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06192197552578291</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.04055378345559542</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1045949060405148</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.08222372110401696</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.1025036190661215</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.1320415790430266</v>
+        <v>0.08114429940524534</v>
       </c>
       <c r="M193" t="n">
-        <v>0.101891075592762</v>
+        <v>0.1022734654940354</v>
       </c>
       <c r="N193" t="n">
-        <v>0.04085103412842359</v>
+        <v>0.1195135601485501</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1045949060405148</v>
+        <v>0.1024940236333397</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.04041878056526187</v>
+        <v>0.03525651085278918</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06192170699731889</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.04044035218975942</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1054120537439563</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.08173354685642426</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1033044285900756</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.1299754472333401</v>
+        <v>0.08033873424913307</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1026870996208305</v>
+        <v>0.1030724769432076</v>
       </c>
       <c r="N194" t="n">
-        <v>0.04041878056526187</v>
+        <v>0.1186042104566186</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1054120537439563</v>
+        <v>0.1032947581929751</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.04017993802474207</v>
+        <v>0.0347279386746393</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06192143846885488</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.04009612397050398</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1062292014473978</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.08125836911775208</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1041052381140297</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.1289035384030535</v>
+        <v>0.08001160529452572</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1034831236488989</v>
+        <v>0.1038714883923798</v>
       </c>
       <c r="N195" t="n">
-        <v>0.04017993802474207</v>
+        <v>0.1177946980715828</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1062292014473978</v>
+        <v>0.1040954927526106</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.04003422735272073</v>
+        <v>0.03420793049787481</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06192116994039085</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.03972302841206239</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1070463491508393</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.08019625039402914</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1049060476379838</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.1266289326595648</v>
+        <v>0.07906492849015601</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1042791476769674</v>
+        <v>0.1046704998415519</v>
       </c>
       <c r="N196" t="n">
-        <v>0.04003422735272073</v>
+        <v>0.1176856100333051</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1070463491508393</v>
+        <v>0.1048962273122461</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03997328442830995</v>
+        <v>0.033696920120604</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06192090141192684</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.03922299512866789</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1078634968542808</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.07932089349193791</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1057068571619378</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.1257547101102724</v>
+        <v>0.07800071978475648</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1050751717050358</v>
+        <v>0.1054695112907241</v>
       </c>
       <c r="N197" t="n">
-        <v>0.03997328442830995</v>
+        <v>0.1161775333816479</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1078634968542808</v>
+        <v>0.1056969618718815</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03964938936212484</v>
+        <v>0.033195341340867</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06192063288346283</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.03909795373455374</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1086806445577224</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.07922870959581166</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1065076666858919</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.1248839508625748</v>
+        <v>0.07732099512705984</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1058711957331043</v>
+        <v>0.1062685227398962</v>
       </c>
       <c r="N198" t="n">
-        <v>0.03964938936212484</v>
+        <v>0.1155710551564732</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1086806445577224</v>
+        <v>0.106497696431517</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03955990292251831</v>
+        <v>0.03270362795672681</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06192036435499881</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.03864983384395321</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1094977922611639</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.07862180794578019</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.107308476209846</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.12261973502387</v>
+        <v>0.07662777046579877</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1066672197611727</v>
+        <v>0.1070675341890684</v>
       </c>
       <c r="N199" t="n">
-        <v>0.03955990292251831</v>
+        <v>0.1150667623976435</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1094977922611639</v>
+        <v>0.1072984309911525</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03911099307033196</v>
+        <v>0.03222221376622562</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06192009582653479</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.03828056507109952</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1103149399646054</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.07700229778197326</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1081092857338001</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.1207651427015565</v>
+        <v>0.0765230617497058</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1074632437892412</v>
+        <v>0.1078665456382405</v>
       </c>
       <c r="N200" t="n">
-        <v>0.03911099307033196</v>
+        <v>0.1138652421450208</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1103149399646054</v>
+        <v>0.1080991655507879</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03900882776640731</v>
+        <v>0.03175153256746836</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06191982729807077</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.03779207703022591</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1111320876680469</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.07657228834452079</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1089100952577541</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.1201232540030325</v>
+        <v>0.07600888492751365</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1082592678173096</v>
+        <v>0.1086655570874127</v>
       </c>
       <c r="N201" t="n">
-        <v>0.03900882776640731</v>
+        <v>0.1138670814384675</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1111320876680469</v>
+        <v>0.1088999001104234</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03825957497158594</v>
+        <v>0.03129201815849679</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06191955876960676</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.03768629933556568</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1119492353714885</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.07653388887355267</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1097109047817082</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.1187726308022504</v>
+        <v>0.07538725594795498</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1090552918453781</v>
+        <v>0.1094645685365848</v>
       </c>
       <c r="N202" t="n">
-        <v>0.03825957497158594</v>
+        <v>0.1120728673178458</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1119492353714885</v>
+        <v>0.1097006346700589</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03776940264670939</v>
+        <v>0.03084410433737393</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06191929024114275</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.03706516160135209</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.11276638307493</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.07488920860919854</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1105117143056623</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.1157630849911078</v>
+        <v>0.07466019075976235</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1098513158734465</v>
+        <v>0.110263579985757</v>
       </c>
       <c r="N203" t="n">
-        <v>0.03776940264670939</v>
+        <v>0.112483186823018</v>
       </c>
       <c r="O203" t="n">
-        <v>0.11276638307493</v>
+        <v>0.1105013692296943</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03754447875261925</v>
+        <v>0.03040822490214401</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06191902171267872</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.03653059344181833</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1135835307783715</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.07464035679158842</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1113125238296164</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.114493663157977</v>
+        <v>0.07292970531166845</v>
       </c>
       <c r="M204" t="n">
-        <v>0.110647339901515</v>
+        <v>0.1110625914349291</v>
       </c>
       <c r="N204" t="n">
-        <v>0.03754447875261925</v>
+        <v>0.1099986269938463</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1135835307783715</v>
+        <v>0.1113021037893298</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03669097125015706</v>
+        <v>0.02998481365090795</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06191875318421471</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.03618452447119772</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.114400678481813</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.07318944266085212</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1121133333535704</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.1137947204621845</v>
+        <v>0.0721978155524059</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1114433639295834</v>
+        <v>0.1118616028841013</v>
       </c>
       <c r="N205" t="n">
-        <v>0.03669097125015706</v>
+        <v>0.110319774870193</v>
       </c>
       <c r="O205" t="n">
-        <v>0.114400678481813</v>
+        <v>0.1121028383489652</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03621504810016436</v>
+        <v>0.02957430438170952</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06191848465575069</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.03572888430372348</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1152178261852545</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.07313857545711935</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1129141428775245</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.1105966120630568</v>
+        <v>0.07146653743070736</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1122393879576519</v>
+        <v>0.1126606143332734</v>
       </c>
       <c r="N206" t="n">
-        <v>0.03621504810016436</v>
+        <v>0.1091472174919203</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1152178261852545</v>
+        <v>0.1129035729086007</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03572287726348276</v>
+        <v>0.02917713089261165</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06191821612728667</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.03556560255362887</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1160349738886961</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.07268986442052008</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1137149524014786</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.1097296931199202</v>
+        <v>0.07073788689530547</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1130354119857203</v>
+        <v>0.1134596257824456</v>
       </c>
       <c r="N207" t="n">
-        <v>0.03572287726348276</v>
+        <v>0.1086815418988906</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1160349738886961</v>
+        <v>0.1137043074682362</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03512062670095378</v>
+        <v>0.02879372698166094</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06191794759882265</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.03499660883514712</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1168521215921376</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.07154541879118409</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1145157619254327</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.1066243187921014</v>
+        <v>0.07091387989493284</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1138314360137888</v>
+        <v>0.1142586372316177</v>
       </c>
       <c r="N208" t="n">
-        <v>0.03512062670095378</v>
+        <v>0.1076233351309658</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1168521215921376</v>
+        <v>0.1145050420278717</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03431446437341899</v>
+        <v>0.02842452644695376</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06191767907035863</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.03442383276251153</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1176692692955791</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.07030734780924119</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1153165714493867</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.1044108442389268</v>
+        <v>0.07029653237832215</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1146274600418573</v>
+        <v>0.1150576486807899</v>
       </c>
       <c r="N209" t="n">
-        <v>0.03431446437341899</v>
+        <v>0.1072731842280086</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1176692692955791</v>
+        <v>0.1153057765875071</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03371055824171998</v>
+        <v>0.02806996308653609</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06191741054189462</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.03394920394995532</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1184864169990206</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.06997776071482129</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1161173809733408</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.1020196246197229</v>
+        <v>0.06958786029420602</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1154234840699257</v>
+        <v>0.115856660129962</v>
       </c>
       <c r="N210" t="n">
-        <v>0.03371055824171998</v>
+        <v>0.105431676229881</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1184864169990206</v>
+        <v>0.1161065111471426</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03331507626669825</v>
+        <v>0.02773047069847087</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06191714201343061</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.03327465201171174</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1193035647024622</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.06895876674805412</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1169181904972949</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.101281015093816</v>
+        <v>0.06798987959131714</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1162195080979942</v>
+        <v>0.1166556715791342</v>
       </c>
       <c r="N211" t="n">
-        <v>0.03331507626669825</v>
+        <v>0.1046993981764453</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1193035647024622</v>
+        <v>0.116907245706778</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03273418640919538</v>
+        <v>0.02740648308080737</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06191687348496658</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.03300210656201406</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1201207124059037</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.0682524751490696</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.117719000021249</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.09802537082053264</v>
+        <v>0.06790460621838804</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1170155321260626</v>
+        <v>0.1174546830283063</v>
       </c>
       <c r="N212" t="n">
-        <v>0.03273418640919538</v>
+        <v>0.1047769371075638</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1201207124059037</v>
+        <v>0.1177079802664135</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03227405663005295</v>
+        <v>0.02709843403163673</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06191660495650256</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.03263349721509556</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1209378601093452</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.06796099515799756</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.118519809545203</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.09668304695919933</v>
+        <v>0.06743405612415146</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1178115561541311</v>
+        <v>0.1182536944774785</v>
       </c>
       <c r="N213" t="n">
-        <v>0.03227405663005295</v>
+        <v>0.1042648800630985</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1209378601093452</v>
+        <v>0.118508714826049</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03164085489011248</v>
+        <v>0.02680675734900748</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06191633642803855</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.03207075358518943</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1217550078127867</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.0675864360149678</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1193206190691571</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.09478439866914251</v>
+        <v>0.06658024525733999</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1186075801821995</v>
+        <v>0.1190527059266506</v>
       </c>
       <c r="N214" t="n">
-        <v>0.03164085489011248</v>
+        <v>0.103763814082912</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1217550078127867</v>
+        <v>0.1193094493856845</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03114074915021557</v>
+        <v>0.02680675734900748</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06191633642803855</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.03151580528652898</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1225721555162282</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.06603090696011016</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1201214285931112</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.0926597811096887</v>
+        <v>0.06584518956668631</v>
       </c>
       <c r="M215" t="n">
-        <v>0.119403604210268</v>
+        <v>0.1198517173758228</v>
       </c>
       <c r="N215" t="n">
-        <v>0.03114074915021557</v>
+        <v>0.1025743262068664</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1225721555162282</v>
+        <v>0.1201101839453199</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03067990737120378</v>
+        <v>0.02614552119757725</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06182785396373137</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.03097058193334744</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1233893032196698</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.0663965172335545</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1209222381170653</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.09163954944016417</v>
+        <v>0.06543090500092305</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1201996282383364</v>
+        <v>0.1206507288249949</v>
       </c>
       <c r="N216" t="n">
-        <v>0.03067990737120378</v>
+        <v>0.1015970034748239</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1233893032196698</v>
+        <v>0.1209109185049554</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03036449751391863</v>
+        <v>0.02549130816616807</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06173937149942418</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.03073701313987803</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1242064509231113</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.06518537607543062</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1217230476410193</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.09115405881989569</v>
+        <v>0.06433940750878281</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1209956522664049</v>
+        <v>0.1214497402741671</v>
       </c>
       <c r="N217" t="n">
-        <v>0.03036449751391863</v>
+        <v>0.1014324329266469</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1242064509231113</v>
+        <v>0.1217116530645908</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02990068753920172</v>
+        <v>0.02484438909555693</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06165088903511701</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.03031702852035405</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1250235986265528</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.06509959272586838</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1225238571649734</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.09113366440820952</v>
+        <v>0.06377271303899826</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1217916762944733</v>
+        <v>0.1222487517233393</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02990068753920172</v>
+        <v>0.1007812016021975</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1250235986265528</v>
+        <v>0.1225123876242263</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0295946454078946</v>
+        <v>0.02420503482652059</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06156240657080982</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.03001255768900876</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1258407463299943</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.06364127642499762</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1233246666889275</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.09050872136443217</v>
+        <v>0.06313283754030202</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1225877003225418</v>
+        <v>0.1230477631725114</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0295946454078946</v>
+        <v>0.1009438965413381</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1258407463299943</v>
+        <v>0.1233131221838618</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02905253908083881</v>
+        <v>0.02357351619983587</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06147392410650265</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.02972553026007538</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1266578940334359</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.06361253641294815</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1241254762128816</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.08978347337677606</v>
+        <v>0.0627217969614268</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1233837243506102</v>
+        <v>0.1238467746216835</v>
       </c>
       <c r="N220" t="n">
-        <v>0.02905253908083881</v>
+        <v>0.09892110478393079</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1266578940334359</v>
+        <v>0.1241138567434973</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02917932783319527</v>
+        <v>0.02295010405627961</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06138544164219547</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.02935787584778719</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1274750417368774</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.06261548192984981</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1249262857368356</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.09002492643521709</v>
+        <v>0.06264160725110515</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1241797483786787</v>
+        <v>0.1246457860708557</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02917932783319527</v>
+        <v>0.09821341336983797</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1274750417368774</v>
+        <v>0.1249145913031327</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02903229742975784</v>
+        <v>0.02233506923662856</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06129695917788828</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.0290115240663774</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1282921894403189</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.06285222221583245</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1257270952607897</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.0898709525019068</v>
+        <v>0.06239428435806976</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1249757724067471</v>
+        <v>0.1254447975200279</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02903229742975784</v>
+        <v>0.09832140933892169</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1282921894403189</v>
+        <v>0.1257153258627682</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02888769258674707</v>
+        <v>0.02172868258165971</v>
       </c>
       <c r="G223" t="n">
+        <v>0.0612084767135811</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.02838840453007933</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1291093371437604</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.0628248665110259</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1265279047847438</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.08912150789247747</v>
+        <v>0.06178184423105326</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1257717964348156</v>
+        <v>0.1262438089692</v>
       </c>
       <c r="N223" t="n">
-        <v>0.02888769258674707</v>
+        <v>0.09774567973104442</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1291093371437604</v>
+        <v>0.1265160604224037</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02884556313680561</v>
+        <v>0.02113121493214981</v>
       </c>
       <c r="G224" t="n">
+        <v>0.06111999424927392</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.02829044685312618</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1299264848472019</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.06213552405556003</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1273287143086979</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.08907654892256123</v>
+        <v>0.06120630281878836</v>
       </c>
       <c r="M224" t="n">
-        <v>0.126567820462884</v>
+        <v>0.1270428204183721</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02884556313680561</v>
+        <v>0.09678681158606833</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1299264848472019</v>
+        <v>0.1273167949820391</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02840595891257595</v>
+        <v>0.02054293712887569</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06103151178496674</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.02811958064975122</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1307436325506435</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.06177434861137682</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1281295238326519</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.0886360319077904</v>
+        <v>0.06056967607000754</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1273638444909525</v>
+        <v>0.1278418318675443</v>
       </c>
       <c r="N225" t="n">
-        <v>0.02840595891257595</v>
+        <v>0.09664539194385563</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1307436325506435</v>
+        <v>0.1281175295416746</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02846892974670069</v>
+        <v>0.01996412001261412</v>
       </c>
       <c r="G226" t="n">
+        <v>0.06094302932065956</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.02787773553418771</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.131560780254085</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.06071465811085314</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.128930333356606</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.08869991316379722</v>
+        <v>0.06037397993344362</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1281598685190209</v>
+        <v>0.1286408433167165</v>
       </c>
       <c r="N226" t="n">
-        <v>0.02846892974670069</v>
+        <v>0.09692200784426863</v>
       </c>
       <c r="O226" t="n">
-        <v>0.131560780254085</v>
+        <v>0.12891826410131</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02803452547182239</v>
+        <v>0.01939503442414207</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06085454685635237</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.0276668411206689</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1323779279575265</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.06025577370725982</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1297311428805601</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.087668149006214</v>
+        <v>0.05992123035782909</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1289558925470894</v>
+        <v>0.1294398547658886</v>
       </c>
       <c r="N227" t="n">
-        <v>0.02803452547182239</v>
+        <v>0.09621724632716966</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1323779279575265</v>
+        <v>0.1297189986609455</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02800279592058361</v>
+        <v>0.01883595120423631</v>
       </c>
       <c r="G228" t="n">
+        <v>0.0607660643920452</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.02718882702342805</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.133195075660968</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.06069815070759568</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1305319524045142</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.08774069575067295</v>
+        <v>0.06061344329189669</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1297519165751579</v>
+        <v>0.1302388662150608</v>
       </c>
       <c r="N228" t="n">
-        <v>0.02800279592058361</v>
+        <v>0.09513169443242075</v>
       </c>
       <c r="O228" t="n">
-        <v>0.133195075660968</v>
+        <v>0.130519733220581</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02817379092562693</v>
+        <v>0.01828714119367365</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06067758192773802</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.02734562285669838</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1340122233644095</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.05964224441885971</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1313327619284682</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.08841750971280626</v>
+        <v>0.06005263468437902</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1305479406032263</v>
+        <v>0.1310378776642329</v>
       </c>
       <c r="N229" t="n">
-        <v>0.02817379092562693</v>
+        <v>0.09466593919988436</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1340122233644095</v>
+        <v>0.1313204677802164</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02774756031959491</v>
+        <v>0.01774887523323086</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06058909946343083</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.02683889809715831</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1348293710678511</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.05978851014805076</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1321335714524223</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.08779854720824626</v>
+        <v>0.06034051374820285</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1313439646312948</v>
+        <v>0.131836889113405</v>
       </c>
       <c r="N230" t="n">
-        <v>0.02774756031959491</v>
+        <v>0.09362048229923603</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1348293710678511</v>
+        <v>0.1321212023398519</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02752415393513009</v>
+        <v>0.01722142416368493</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06050061699912365</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.02704774927295599</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1356465187712926</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.05963740320216782</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1329343809763764</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.08768376455262505</v>
+        <v>0.05974932047271658</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1321399886593632</v>
+        <v>0.1326359005625772</v>
       </c>
       <c r="N231" t="n">
-        <v>0.02752415393513009</v>
+        <v>0.09328541123563361</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1356465187712926</v>
+        <v>0.1329219368994874</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02740362160487507</v>
+        <v>0.0167050588258126</v>
       </c>
       <c r="G232" t="n">
+        <v>0.06041213453481648</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.02685805846539095</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1364636664747341</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.05958937888820964</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1337351905003304</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.08847311806157504</v>
+        <v>0.06026003791895493</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1329360126874317</v>
+        <v>0.1334349120117494</v>
       </c>
       <c r="N232" t="n">
-        <v>0.02740362160487507</v>
+        <v>0.09345385753816826</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1364636664747341</v>
+        <v>0.1337226714591228</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02728601316147242</v>
+        <v>0.01620005006039071</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06032365207050929</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.02696990339387562</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1372808141781756</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.05884489251317523</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1345360000242845</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.08806656405072849</v>
+        <v>0.05977271602708509</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1337320367155001</v>
+        <v>0.1342339234609215</v>
       </c>
       <c r="N233" t="n">
-        <v>0.02728601316147242</v>
+        <v>0.09362613466611147</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1372808141781756</v>
+        <v>0.1345234060187583</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02747137843756468</v>
+        <v>0.01570666870819602</v>
       </c>
       <c r="G234" t="n">
+        <v>0.0602351696062021</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.02668336177782249</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1380979618816171</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.05790439938406344</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1353368095482386</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.08796405883571751</v>
+        <v>0.06008740473727434</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1345280607435686</v>
+        <v>0.1350329349100937</v>
       </c>
       <c r="N234" t="n">
-        <v>0.02747137843756468</v>
+        <v>0.09170255607873495</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1380979618816171</v>
+        <v>0.1353241405783938</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02715976726579443</v>
+        <v>0.01522518561000551</v>
       </c>
       <c r="G235" t="n">
+        <v>0.06014668714189492</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.02669851133664403</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1389151095850586</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.0580683548078732</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1361376190721927</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.08816555873217446</v>
+        <v>0.05970415398968995</v>
       </c>
       <c r="M235" t="n">
-        <v>0.135324084771637</v>
+        <v>0.1358319463592658</v>
       </c>
       <c r="N235" t="n">
-        <v>0.02715976726579443</v>
+        <v>0.09168343523531042</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1389151095850586</v>
+        <v>0.1361248751380292</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02725122947880423</v>
+        <v>0.01475587160659593</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06005820467758775</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.0264154297897527</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1397322572885002</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.05743721409160341</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1369384285961467</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.08687102005573155</v>
+        <v>0.05932301372449922</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1361201087997055</v>
+        <v>0.136630957808438</v>
       </c>
       <c r="N236" t="n">
-        <v>0.02725122947880423</v>
+        <v>0.09126908559510938</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1397322572885002</v>
+        <v>0.1369256096976647</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02684581490923665</v>
+        <v>0.01429899753874412</v>
       </c>
       <c r="G237" t="n">
+        <v>0.05996972221328057</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.02623419485656095</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1405494049919417</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.05731143254225296</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1377392381201008</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.08708039912202109</v>
+        <v>0.05984403388186929</v>
       </c>
       <c r="M237" t="n">
-        <v>0.136916132827774</v>
+        <v>0.1374299692576101</v>
       </c>
       <c r="N237" t="n">
-        <v>0.02684581490923665</v>
+        <v>0.09085982061740366</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1405494049919417</v>
+        <v>0.1377263442573002</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02704357338973427</v>
+        <v>0.01385483424722685</v>
       </c>
       <c r="G238" t="n">
+        <v>0.05988123974897338</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.02625488425648127</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1413665526953832</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.05699146546682071</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1385400476440549</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.08769365224667519</v>
+        <v>0.05976726440196756</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1377121568558424</v>
+        <v>0.1382289807067823</v>
       </c>
       <c r="N238" t="n">
-        <v>0.02704357338973427</v>
+        <v>0.0904559537614647</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1413665526953832</v>
+        <v>0.1385270788169356</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02704455475293965</v>
+        <v>0.01342365257282107</v>
       </c>
       <c r="G239" t="n">
+        <v>0.0597927572846662</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.02607757570892615</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1421837003988247</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.0571777681723056</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.139340857168009</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.08741073574532626</v>
+        <v>0.05959275522496121</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1385081808839108</v>
+        <v>0.1390279921559544</v>
       </c>
       <c r="N239" t="n">
-        <v>0.02704455475293965</v>
+        <v>0.08985779848656422</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1421837003988247</v>
+        <v>0.1393278133765711</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02684880883149533</v>
+        <v>0.01300461742313148</v>
       </c>
       <c r="G240" t="n">
+        <v>0.05970427482035903</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.02600234693330802</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1430008481022663</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.05607079596570652</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.140141666691963</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.0872316059336064</v>
+        <v>0.05862055629101753</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1393042049119793</v>
+        <v>0.1398270036051266</v>
       </c>
       <c r="N240" t="n">
-        <v>0.02684880883149533</v>
+        <v>0.09016566825197392</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1430008481022663</v>
+        <v>0.1401285479362066</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0268563854580439</v>
+        <v>0.01259136403990255</v>
       </c>
       <c r="G241" t="n">
+        <v>0.05961579235605184</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.02612927564903939</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1438179958057078</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.05577100415402236</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1409424762159171</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.08625621912714804</v>
+        <v>0.05935071754030377</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1401002289400478</v>
+        <v>0.1406260150542988</v>
       </c>
       <c r="N241" t="n">
-        <v>0.0268563854580439</v>
+        <v>0.08917987651696535</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1438179958057078</v>
+        <v>0.1409292824958421</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02666733446522791</v>
+        <v>0.01218305733073898</v>
       </c>
       <c r="G242" t="n">
+        <v>0.05952730989174465</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.02595843957553272</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1446351435091493</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.05547884804425207</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1417432857398712</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.08748453164158315</v>
+        <v>0.0592832889129872</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1408962529681162</v>
+        <v>0.1414250265034709</v>
       </c>
       <c r="N242" t="n">
-        <v>0.02666733446522791</v>
+        <v>0.08990073674081028</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1446351435091493</v>
+        <v>0.1417300170554775</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02638170568568998</v>
+        <v>0.01177996813641772</v>
       </c>
       <c r="G243" t="n">
+        <v>0.05943882742743747</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.02598991643220043</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1454522912125908</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.05509478294339451</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1425440952638253</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.08651649979254428</v>
+        <v>0.05921832034923508</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1416922769961847</v>
+        <v>0.142224037952643</v>
       </c>
       <c r="N243" t="n">
-        <v>0.02638170568568998</v>
+        <v>0.08882856238278014</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1454522912125908</v>
+        <v>0.142530751615113</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02629954895207261</v>
+        <v>0.01138236729771554</v>
       </c>
       <c r="G244" t="n">
+        <v>0.0593503449631303</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.02612378393845508</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1462694389160324</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.05491926415844856</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1433449047877794</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.0870520798956636</v>
+        <v>0.05855586178921474</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1424883010242531</v>
+        <v>0.1430230494018152</v>
       </c>
       <c r="N244" t="n">
-        <v>0.02629954895207261</v>
+        <v>0.08806366690214679</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1462694389160324</v>
+        <v>0.1433314861747484</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02612091409701837</v>
+        <v>0.01099052565540927</v>
       </c>
       <c r="G245" t="n">
+        <v>0.05926186249882312</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.02586011981370906</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1470865866194739</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.05515274699641315</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1441457143117334</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.08649122826657324</v>
+        <v>0.0592959631730933</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1432843250523216</v>
+        <v>0.1438220608509873</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02612091409701837</v>
+        <v>0.08740636375818184</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1470865866194739</v>
+        <v>0.1441322207343839</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02614585095316986</v>
+        <v>0.01060471405027569</v>
       </c>
       <c r="G246" t="n">
+        <v>0.05917338003451593</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.02579900177737486</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1479037343229154</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.05499568676428718</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1449465238356875</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.0869339012209055</v>
+        <v>0.05873867444103814</v>
       </c>
       <c r="M246" t="n">
-        <v>0.14408034908039</v>
+        <v>0.1446210723001595</v>
       </c>
       <c r="N246" t="n">
-        <v>0.02614585095316986</v>
+        <v>0.08845696641015682</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1479037343229154</v>
+        <v>0.1449329552940194</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02607440935316964</v>
+        <v>0.01022520332309174</v>
       </c>
       <c r="G247" t="n">
+        <v>0.05908489757020875</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.02584050754886498</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1487208820263569</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.0541485387690695</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1457473333596416</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.08678005507429259</v>
+        <v>0.05888404553321649</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1448763731084585</v>
+        <v>0.1454200837493317</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02607440935316964</v>
+        <v>0.08701578831734347</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1487208820263569</v>
+        <v>0.1457336898536548</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02630663912966025</v>
+        <v>0.009852264314634207</v>
       </c>
       <c r="G248" t="n">
+        <v>0.05899641510590157</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.02558471484759185</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1495380297297984</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.05431175831775911</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1465481428835957</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.08692964614236692</v>
+        <v>0.05843212638979559</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1456723971365269</v>
+        <v>0.1462190951985038</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02630663912966025</v>
+        <v>0.0862831429390134</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1495380297297984</v>
+        <v>0.1465344244132903</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02624259011528428</v>
+        <v>0.009486167865679913</v>
       </c>
       <c r="G249" t="n">
+        <v>0.05890793264159439</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.02583170139296796</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.15035517743324</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.05348580071735481</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1473489524075497</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.08698263074076057</v>
+        <v>0.05858296695094273</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1464684211645954</v>
+        <v>0.147018106647676</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02624259011528428</v>
+        <v>0.08655934373443824</v>
       </c>
       <c r="O249" t="n">
-        <v>0.15035517743324</v>
+        <v>0.1473351589729258</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02578231214268431</v>
+        <v>0.009127184817005647</v>
       </c>
       <c r="G250" t="n">
+        <v>0.0588194501772872</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.02578154490440579</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1511723251366815</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.05407112127485555</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1481497619315038</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.08583896518510592</v>
+        <v>0.05873661715682518</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1472644451926638</v>
+        <v>0.1478171180968481</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02578231214268431</v>
+        <v>0.08604470416288956</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1511723251366815</v>
+        <v>0.1481358935325612</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02572585504450288</v>
+        <v>0.008775586009388332</v>
       </c>
       <c r="G251" t="n">
+        <v>0.05873096771298002</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.0254343231013178</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.151989472840123</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.05386817529726021</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1489505714554579</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.0857986057910351</v>
+        <v>0.05789312694761012</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1480604692207323</v>
+        <v>0.1486161295460203</v>
       </c>
       <c r="N251" t="n">
-        <v>0.02572585504450288</v>
+        <v>0.08633953768363922</v>
       </c>
       <c r="O251" t="n">
-        <v>0.151989472840123</v>
+        <v>0.1489366280921967</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02567326865338256</v>
+        <v>0.008431642283604761</v>
       </c>
       <c r="G252" t="n">
+        <v>0.05864248524867285</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.02549011370311643</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1528066205435645</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.05397741809156767</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.149751380979412</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.08646150887418041</v>
+        <v>0.05825254626346493</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1488564932488007</v>
+        <v>0.1494151409951924</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02567326865338256</v>
+        <v>0.08674415775595862</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1528066205435645</v>
+        <v>0.1497373626518322</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02592460280196589</v>
+        <v>0.008095624480431746</v>
       </c>
       <c r="G253" t="n">
+        <v>0.05855400278436567</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.0255489944292142</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.153623768247006</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.05379930496477686</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.150552190503366</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.08732763075017413</v>
+        <v>0.05891492504455681</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1496525172768692</v>
+        <v>0.1502141524443646</v>
       </c>
       <c r="N253" t="n">
-        <v>0.02592460280196589</v>
+        <v>0.0859588778391196</v>
       </c>
       <c r="O253" t="n">
-        <v>0.153623768247006</v>
+        <v>0.1505380972114676</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02577990732289551</v>
+        <v>0.007767803440646093</v>
       </c>
       <c r="G254" t="n">
+        <v>0.05846552032005848</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.02541104299902354</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1544409159504476</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.0527342912238867</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1513530000273201</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.08629692773464848</v>
+        <v>0.05788031323105303</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1504485413049376</v>
+        <v>0.1510131638935367</v>
       </c>
       <c r="N254" t="n">
-        <v>0.02577990732289551</v>
+        <v>0.08578401139239367</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1544409159504476</v>
+        <v>0.1513388317711031</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02573923204881391</v>
+        <v>0.007448450005024712</v>
       </c>
       <c r="G255" t="n">
+        <v>0.0583770378557513</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.02537633713195696</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1552580636538891</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.05258283217589607</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1521538095512742</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.08586935614323571</v>
+        <v>0.05854876076312088</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1512445653330061</v>
+        <v>0.1518121753427089</v>
       </c>
       <c r="N255" t="n">
-        <v>0.02573923204881391</v>
+        <v>0.08431987187505258</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1552580636538891</v>
+        <v>0.1521395663307386</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02580262681236371</v>
+        <v>0.007137835014344403</v>
       </c>
       <c r="G256" t="n">
+        <v>0.05828855539144412</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.02524495454742688</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1560752113573306</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.05284538312780387</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1529546190752283</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.08724487229156808</v>
+        <v>0.05852031758092757</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1520405893610746</v>
+        <v>0.152611186791881</v>
       </c>
       <c r="N256" t="n">
-        <v>0.02580262681236371</v>
+        <v>0.08506677274636792</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1560752113573306</v>
+        <v>0.152940300890374</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02547014144618745</v>
+        <v>0.006836229309381985</v>
       </c>
       <c r="G257" t="n">
+        <v>0.05820007292713694</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.0254169729648458</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1568923590607721</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.05242239938660898</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1537554285991823</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.08642343249527773</v>
+        <v>0.05839503362464038</v>
       </c>
       <c r="M257" t="n">
-        <v>0.152836613389143</v>
+        <v>0.1534101982410532</v>
       </c>
       <c r="N257" t="n">
-        <v>0.02547014144618745</v>
+        <v>0.08462502746561124</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1568923590607721</v>
+        <v>0.1537410354500095</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02554182578292769</v>
+        <v>0.006543903730914263</v>
       </c>
       <c r="G258" t="n">
+        <v>0.05811159046282975</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.02539247010362619</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1577095067642137</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.0522143362593103</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1545562381231364</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.08630499306999712</v>
+        <v>0.0579729588344266</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1536326374172114</v>
+        <v>0.1542092096902253</v>
       </c>
       <c r="N258" t="n">
-        <v>0.02554182578292769</v>
+        <v>0.08499494949205433</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1577095067642137</v>
+        <v>0.1545417700096449</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.025517729655227</v>
+        <v>0.006261129119718142</v>
       </c>
       <c r="G259" t="n">
+        <v>0.05802310799852257</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.02527152368318052</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1585266544676552</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.05272164905290674</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1553570476470905</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.08598951033135843</v>
+        <v>0.0579541431504535</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1544286614452799</v>
+        <v>0.1550082211393975</v>
       </c>
       <c r="N259" t="n">
-        <v>0.025517729655227</v>
+        <v>0.08417685228496863</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1585266544676552</v>
+        <v>0.1553425045692804</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02549790289572797</v>
+        <v>0.005988176316570407</v>
       </c>
       <c r="G260" t="n">
+        <v>0.0579346255342154</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.02545421142292123</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1593438021710967</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.05184479307439727</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1561578571710446</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.08637694059499368</v>
+        <v>0.05793863651288828</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1552246854733484</v>
+        <v>0.1558072325885696</v>
       </c>
       <c r="N260" t="n">
-        <v>0.02549790289572797</v>
+        <v>0.08407104930362613</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1593438021710967</v>
+        <v>0.1561432391289159</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02568239533707314</v>
+        <v>0.005725316162247897</v>
       </c>
       <c r="G261" t="n">
+        <v>0.05784614306990822</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.02504061104226084</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1601609498745382</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.05188422363078063</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1569586666949986</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.08606724017653544</v>
+        <v>0.05822648886189827</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1560207095014168</v>
+        <v>0.1566062440377418</v>
       </c>
       <c r="N261" t="n">
-        <v>0.02568239533707314</v>
+        <v>0.08367785400729805</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1601609498745382</v>
+        <v>0.1569439736885514</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02577125681190508</v>
+        <v>0.005472819497527405</v>
       </c>
       <c r="G262" t="n">
+        <v>0.05775766060560103</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.02533080026061177</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1609780975779798</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.05274039602905584</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1577594762189527</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.08646036539161583</v>
+        <v>0.05821775013765068</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1568167335294853</v>
+        <v>0.1574052554869139</v>
       </c>
       <c r="N262" t="n">
-        <v>0.02577125681190508</v>
+        <v>0.08379757985525643</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1609780975779798</v>
+        <v>0.1577447082481868</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02576453715286636</v>
+        <v>0.005230957163185841</v>
       </c>
       <c r="G263" t="n">
+        <v>0.05766917814129385</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.02502485679738653</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1617952452814213</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.05191376557622177</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1585602857429068</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.08645627255586713</v>
+        <v>0.05781247028031278</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1576127575575537</v>
+        <v>0.1582042669360861</v>
       </c>
       <c r="N263" t="n">
-        <v>0.02576453715286636</v>
+        <v>0.08423054030677263</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1617952452814213</v>
+        <v>0.1585454428078223</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02546228619259956</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05758069567698667</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.02522285837199757</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1626123929848628</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.05270478757927732</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1593610952668608</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.08575491798492135</v>
+        <v>0.0584106992300519</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1584087815856222</v>
+        <v>0.1590032783852582</v>
       </c>
       <c r="N264" t="n">
-        <v>0.02546228619259956</v>
+        <v>0.08257704882111844</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1626123929848628</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1593461773674577</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05756753778224982</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005700897623526033</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05756780631071384</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006398205280249543</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05756807483917786</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007091886377591179</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05756834336764188</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007781904322881082</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.0575686118961059</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008468222523540042</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05756888042456991</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009150804386958603</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05756914895303392</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009829613320556721</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05756941748149795</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01050461273166587</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05756968600996196</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01117576602770618</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05756995453842598</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.0118430366160682</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05757022306688999</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01250638790417122</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05757049159535402</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01316578329934803</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05757076012381803</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01382118620901813</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05757102865228205</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01447256004057202</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05757129718074606</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01511986820142833</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05757156570921009</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01576307409892123</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0575718342376741</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01640214114046951</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05757210276613812</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01703703273346372</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05757237129460213</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01766771228532171</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05757263982306616</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01829414320337912</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05757290835153017</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01891628889505403</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05757317687999419</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01953411276773695</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.0575734454084582</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02014757822884503</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05757371393692223</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02075664868571538</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05757398246538624</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02136143696558732</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05757425099385025</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.0219628029947835</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05757451952231427</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02256085960054241</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05757478805077829</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02315557019020252</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05757505657924231</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02374689817118047</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05757532510770633</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02433480695086677</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05757559363617034</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02491925993667732</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05757586216463437</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02550022053595176</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05757613069309838</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02607765215610615</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05757639922156239</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02665151820453102</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05757666775002641</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02722178208864159</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05757693627849043</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02778840721577878</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05757720480695445</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02835135699335806</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05757747333541846</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02891059482876987</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05757774186388248</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02946608412942889</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.0575780103923465</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03001778830267726</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05757827892081052</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03056567075592978</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05757854744927453</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03110969489657701</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05757881597773855</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03164982413203285</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05757908450620258</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03218602186964083</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05757935303466659</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03271825151681507</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.0575796215631306</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03324647648094609</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05757989009159462</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03377066016944713</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05758015862005864</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03429076598966312</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05758042714852266</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03480675734900747</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05758069567698667</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03480675734900748</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05756753778224982</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03534354480779477</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05765655730348505</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.0358756329939032</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05774557682472025</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03640290943716655</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05783459634595547</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03692526166741845</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05792361586719069</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03744257721449254</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05801263538842591</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03795474360822244</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05810165490966111</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.0384616483784419</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05819067443089634</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03896317905498457</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05827969395213155</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03945922316768408</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05836871347336677</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03994966824637405</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05845773299460198</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04043440182088825</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.0585467525158372</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04091331142106029</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05863577203707242</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.04138628457672384</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05872479155830763</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04185320881771251</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05881381107954285</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04231397167386004</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05890283060077806</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04276846067500008</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05899185012201328</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04321656335096623</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05908086964324849</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04365816723159224</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05916988916448371</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04409315984671174</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05925890868571893</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04452142872615839</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05934792820695414</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04494286139976579</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05943694772818935</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04535734539736772</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05952596724942457</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.0457647682487978</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05961498677065979</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04616501748388967</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05970400629189501</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04655843988565615</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05979302581313022</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04694767850300628</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05988204533436543</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04733308011895286</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05997106485560065</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04771453226332957</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06006008437683587</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04809192246596999</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06014910389807108</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04846513825670791</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.0602381234193063</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04883406716537694</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06032714294054151</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04919859672181073</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06041616246177674</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04955861445584293</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06050518198301194</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04991400789730728</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06059420150424716</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.05026466457603736</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06068322102548238</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.05061047202186683</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06077224054671759</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.05095131776462945</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.0608612600679528</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.05128708933415881</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06095027958918803</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.05161767426028858</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06103929911042325</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0519429600728524</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06112831863165845</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.05226283430168398</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06121733815289367</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.05257718447661698</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06130635767412889</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05288589812748505</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06139537719536411</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.0531888627841218</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06148439671659931</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.053485965976361</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06157341623783454</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05377709523403626</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06166243575906975</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05406213808698118</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06175145528030496</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05434098206502955</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06184047480154018</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05461351469801494</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.0619294943227754</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.05274234313200997</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.0619294943227754</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.0548328512573841</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06363380907071355</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05503553518719391</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06533812381865167</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05522222392980834</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06704243856658981</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05539357492759139</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06874675331452795</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0555502456229071</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07045106806246611</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05569289345811941</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07215538281040423</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05582217587559236</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07385969755834237</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05593875031768994</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07556401230628051</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05604327422677614</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07726832705421866</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05613640504521501</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.0789726418021568</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05621880021537047</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08067695655009494</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05629111717960658</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08238127129803308</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05635401338028732</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08408558604597122</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05640814625977669</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08578990079390936</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05645417326043869</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.0874942155418475</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05649275182463732</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08919853028978564</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05652453939473658</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09090284503772378</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05655019341310046</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09260715978566192</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05657037132209299</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.09431147453360006</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05658573056407812</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.0960157892815382</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.0565969285814199</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09772010402947634</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05660462281648232</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09942441877741448</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05660947071162935</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1011287335253526</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05661212970922502</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1028330482732908</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05661325725163331</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1045373630212289</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05661351078121825</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.106241677769167</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05659076344879164</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1079459925171052</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05647576200000529</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1096503072650433</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05627029678693836</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1113546220129814</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05598177835067888</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1130589367609196</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05561761723231484</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1147632515088577</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05518522397293428</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1164675662567959</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05469200911362515</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.118171881004734</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.0541453831954755</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1198761957526722</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05355275675957334</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1215805105006103</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.05292154034700663</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1232848252485484</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.05225914449886342</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1249891399964866</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.05157297975623171</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1266934547444247</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.05087045666019949</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1283977694923629</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.05015898575185475</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.130102084240301</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04944597757228554</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1318063989882391</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04873884266257984</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1335107137361773</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04804499156382568</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1352150284841154</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04737183481711103</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1369193432320536</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04672678296352391</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1386236579799917</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04611724654415235</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1403279727279298</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04555063610008431</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.142032287475868</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04503436217240783</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1437366022238061</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.0445758353022109</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1454409169717443</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04418246603058155</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1471452317196824</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.04382666882981975</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1488495464676205</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04346583453431987</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04310133360836967</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1522581759634968</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.04273475525123333</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.153962490711435</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.042367688662175</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1556668054593731</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.04200172304045885</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1573711202073112</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04163844758534908</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1590754349552494</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.0412794514961098</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1607797497031875</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.04092632397200521</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1624840644511256</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.04058065421229948</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1641883791990638</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.04024403141625675</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1658926939470019</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.0399180447831412</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1675970086949401</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.039604283512217</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1693013234428782</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03930433680274829</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1710056381908164</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03901979385399927</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1727099529387545</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03875224386523408</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1744142676866927</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.0385032760357169</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1761185824346308</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03827447956471189</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1778228971825689</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03806744365148321</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1795272119305071</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03788375749529502</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1812315266784452</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03772501029541152</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1829358414263834</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03759279125109682</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1846401561743215</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03748868956161513</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1863444709222596</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03741429442623059</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1880487856701978</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.0373711950442074</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1897531004181359</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03736031627227596</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.191457415166074</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03736031885754788</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1931617299140122</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.0373603323187582</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1948660446619503</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03736036574252391</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1965703594098885</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03736042821546205</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1982746741578266</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03736052882418966</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1999789889057647</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03736067665532378</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2016833036537029</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03736088079548139</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.203387618401641</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03736115033127956</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2050919331495792</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03736149434933528</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2067962478975173</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03736192193626561</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2085005626454554</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03736244217868756</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2102048773933936</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03736306416321816</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2119091921413317</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03736379697647445</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2136135068892699</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03736464970507344</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.215317821637208</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03736563143563217</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2170221363851461</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03736675125476764</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2187264511330843</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03736801824909691</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2204307658810224</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03736944150523698</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2221350806289606</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.0373710301098049</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2238393953768987</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03737279314941769</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2255437101248368</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03737473971069237</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.227248024872775</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03737687888024598</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2289523396207131</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03737921974469553</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2306566543686513</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1198.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1198.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08774234313200997</v>
+        <v>0.06023405440940448</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03774234313200997</v>
+        <v>0.01023405440940448</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0219594943227754</v>
+        <v>0.008521982390497855</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001432681332325762</v>
+        <v>0.00269015354390241</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006255504477048019</v>
+        <v>0.001625046185466072</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001775679280509326</v>
+        <v>0.002771107787323306</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0008171477034415216</v>
+        <v>0.001638712417172113</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.007074767186741271</v>
+        <v>0.009588038762720463</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007990114491721519</v>
+        <v>0.001640459538733528</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.006991056201468004</v>
+        <v>0.0172401091413058</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0008007345596354661</v>
+        <v>0.001634527953185513</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002846969744631792</v>
+        <v>0.005685585783002489</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001251100895409604</v>
+        <v>0.002840660796832619</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003532620570337708</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001634295406883043</v>
+        <v>0.003747187499999996</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01312168066723926</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001598022898344304</v>
+        <v>0.003863079896907215</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01521809719485906</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001601469119270932</v>
+        <v>0.003469618055555553</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004242372358576746</v>
+        <v>0.007764969447511066</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001876651343114406</v>
+        <v>0.004875138556398215</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005129464912227502</v>
+        <v>0.01009595109630643</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002451443110324565</v>
+        <v>0.004916137251516339</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01996543413645574</v>
+        <v>0.02750960828761601</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002397034347516456</v>
+        <v>0.004921378616200584</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02414551154458033</v>
+        <v>0.04969996337123511</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002402203678906398</v>
+        <v>0.00490358385955654</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005618396295819277</v>
+        <v>0.007007232700125564</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002502201790819208</v>
+        <v>0.006500184741864287</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.007124853348921031</v>
+        <v>0.01430665843427488</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003268590813766086</v>
+        <v>0.006554849668688452</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02613072128935273</v>
+        <v>0.03522436491254605</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003196045796688608</v>
+        <v>0.006561838154934113</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0302376878150391</v>
+        <v>0.06255659004836039</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003202938238541864</v>
+        <v>0.006538111812742053</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01136264318733048</v>
+        <v>0.002840660796832619</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02274234313200997</v>
+        <v>0.005685585783002489</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006974548678018042</v>
+        <v>0.01023405440940448</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00312775223852401</v>
+        <v>0.008521982390497855</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.008577426923160651</v>
+        <v>0.01845732741636454</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004085738517207609</v>
+        <v>0.008193562085860565</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03154223582089208</v>
+        <v>0.04344500597298256</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003995057245860759</v>
+        <v>0.008202297693667641</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03695901457064249</v>
+        <v>0.07446664843542744</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00400367279817733</v>
+        <v>0.008172639765927567</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008310336626831671</v>
+        <v>0.008906841420772985</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003753302686228812</v>
+        <v>0.00975027711279643</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01004582667768873</v>
+        <v>0.02203543390245072</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.00490288622064913</v>
+        <v>0.009832274503032678</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03662467142603568</v>
+        <v>0.04994639120441857</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004794068695032912</v>
+        <v>0.009842757232401168</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04299999999999998</v>
+        <v>0.08874091415298685</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004774194444444442</v>
+        <v>0.01040885416666666</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009625267263918838</v>
+        <v>0.009769108874715868</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004378853133933614</v>
+        <v>0.0113753232982625</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.011</v>
+        <v>0.0249158559708786</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005495874999999997</v>
+        <v>0.01124156249999999</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04160272179974553</v>
+        <v>0.05682838506193275</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005593080144205063</v>
+        <v>0.01158923969072164</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04691263367265797</v>
+        <v>0.0922260960117956</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005605141917448262</v>
+        <v>0.01144169567229859</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01091884771093819</v>
+        <v>0.01259657697374254</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005004403581638416</v>
+        <v>0.01300036948372857</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01222366052971602</v>
+        <v>0.02740489684472937</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006537181627532172</v>
+        <v>0.0131096993373769</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04550108063698344</v>
+        <v>0.06092253535179215</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006392091593377215</v>
+        <v>0.01312367630986823</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05051153290945665</v>
+        <v>0.1006621745330439</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006405876477083729</v>
+        <v>0.01307622362548411</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01219058508954836</v>
+        <v>0.01338587950143709</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005629954029343217</v>
+        <v>0.01462541566919465</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01328051937615936</v>
+        <v>0.02955430405049884</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007354329330973694</v>
+        <v>0.01474841175454902</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04894444163271142</v>
+        <v>0.06537736347705156</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007191103042549368</v>
+        <v>0.01476413584860175</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05520654407599729</v>
+        <v>0.1083656980987069</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007206611036719195</v>
+        <v>0.01471075157866962</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.013439986521408</v>
+        <v>0.01213365024138359</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006255504477048019</v>
+        <v>0.01625046185466072</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01417303669757748</v>
+        <v>0.03148582904782983</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.008171477034415217</v>
+        <v>0.01638712417172113</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05055749848189131</v>
+        <v>0.0696488210114948</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007990114491721519</v>
+        <v>0.01640459538733528</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05783294922870147</v>
+        <v>0.1147113768265037</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008007345596354661</v>
+        <v>0.01634527953185513</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01466655912817578</v>
+        <v>0.01483652297716616</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.006881054924752821</v>
+        <v>0.01787550804012679</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01490821792179839</v>
+        <v>0.03329549076671666</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008988624737856736</v>
+        <v>0.01802583658889324</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05299999999999999</v>
+        <v>0.07421505951235169</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008915867003367</v>
+        <v>0.01804505492606881</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.06092603042398992</v>
+        <v>0.1219739208341534</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008808080155990128</v>
+        <v>0.01797980748504065</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01586981003151034</v>
+        <v>0.01549113149236888</v>
       </c>
       <c r="G77" t="n">
-        <v>0.007506605372457624</v>
+        <v>0.01950055422559286</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01549306847665015</v>
+        <v>0.03527930813715362</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009805772441298259</v>
+        <v>0.01966454900606536</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05258532918092471</v>
+        <v>0.07905423053685195</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009588137390065823</v>
+        <v>0.01968551446480234</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06542106971828376</v>
+        <v>0.1274280402393748</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009608814715625594</v>
+        <v>0.01961433543822616</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01704924635307033</v>
+        <v>0.01609410957057585</v>
       </c>
       <c r="G78" t="n">
-        <v>0.008132155820162426</v>
+        <v>0.02112560041105893</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01653459378996076</v>
+        <v>0.03693330008913503</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01062292014473978</v>
+        <v>0.02130326142323747</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05393464693502464</v>
+        <v>0.08244448564222545</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01038714883923797</v>
+        <v>0.02132597400353587</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06685334916800434</v>
+        <v>0.1337484451598872</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01040954927526106</v>
+        <v>0.02124886339141167</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0182043752145144</v>
+        <v>0.01564209099537115</v>
       </c>
       <c r="G79" t="n">
-        <v>0.008757706267867227</v>
+        <v>0.02275064659652501</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01703979928955829</v>
+        <v>0.0385534855526552</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0114400678481813</v>
+        <v>0.02294197384040958</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05346328863995692</v>
+        <v>0.0860639763857019</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01118616028841013</v>
+        <v>0.02296643354226939</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07115815082957261</v>
+        <v>0.1388098457134094</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01121028383489652</v>
+        <v>0.02288339134459719</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0193347037375012</v>
+        <v>0.01613170955033889</v>
       </c>
       <c r="G80" t="n">
-        <v>0.00938325671557203</v>
+        <v>0.02437569278199108</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01771569040327073</v>
+        <v>0.03973588345770843</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01225721555162282</v>
+        <v>0.02458068625758169</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05481168584217816</v>
+        <v>0.08909085432451111</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01198517173758228</v>
+        <v>0.02460689308100292</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07267075675940976</v>
+        <v>0.1437869520176606</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01201101839453199</v>
+        <v>0.0245179192977827</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02043973904368938</v>
+        <v>0.01655959901906315</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01000880716327683</v>
+        <v>0.02600073896745715</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01836927255892613</v>
+        <v>0.04107651273428904</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01307436325506434</v>
+        <v>0.02621939867475381</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05422027008814514</v>
+        <v>0.09310327101588287</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01278418318675443</v>
+        <v>0.02624735261973645</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07512644901393672</v>
+        <v>0.1482544741903598</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01281175295416746</v>
+        <v>0.02615244725096821</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02151898825473761</v>
+        <v>0.01592239318512802</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01063435761098163</v>
+        <v>0.02762578515292322</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01890755118435254</v>
+        <v>0.04207139231239132</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01389151095850587</v>
+        <v>0.02785811109192592</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05482947292431459</v>
+        <v>0.09477937801704697</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01358319463592658</v>
+        <v>0.02788781215846998</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07866050964957488</v>
+        <v>0.1503871223492261</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01361248751380293</v>
+        <v>0.02778697520415373</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02274234313200997</v>
+        <v>0.01621672583211761</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01136264318733048</v>
+        <v>0.02925083133838929</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01953753170737793</v>
+        <v>0.04291654112200963</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01470865866194739</v>
+        <v>0.02949682350909803</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05487972589714316</v>
+        <v>0.09729732688523321</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01438220608509874</v>
+        <v>0.02952827169720351</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08120822072274519</v>
+        <v>0.1540596066119784</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01441322207343839</v>
+        <v>0.02942150315733924</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02359884866011641</v>
+        <v>0.01646162051226284</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01188545850639124</v>
+        <v>0.03087587752385537</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0203662195558304</v>
+        <v>0.04370797809313821</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01552580636538891</v>
+        <v>0.03113553592627015</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05561146055308766</v>
+        <v>0.09923526917767131</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01518121753427089</v>
+        <v>0.03116873123593704</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08280486428986866</v>
+        <v>0.1562466370963357</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01521395663307386</v>
+        <v>0.03105603111052475</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02460147139042013</v>
+        <v>0.01669874783274562</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01251100895409604</v>
+        <v>0.03250092370932144</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02090062015753792</v>
+        <v>0.04434861250375965</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01634295406883043</v>
+        <v>0.03277424834344226</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05682838506193275</v>
+        <v>0.1007739426963525</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01593315481850064</v>
+        <v>0.03280919077467057</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08628572240736665</v>
+        <v>0.1591905169553184</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01601469119270932</v>
+        <v>0.03269055906371027</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0255812095880109</v>
+        <v>0.01692770292371854</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01313655940180084</v>
+        <v>0.03412596989478751</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02164773894032855</v>
+        <v>0.04493938389031485</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01716010177227195</v>
+        <v>0.03441296076061438</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05710199386859813</v>
+        <v>0.10182975981463</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01677924043261519</v>
+        <v>0.03444965031340409</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08874091415298685</v>
+        <v>0.1609613347558358</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0164211774939578</v>
+        <v>0.03432508701689578</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02653942779515106</v>
+        <v>0.01814691954267879</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01376210984950564</v>
+        <v>0.03575101608025358</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02241458133203034</v>
+        <v>0.04551185000389524</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01797724947571347</v>
+        <v>0.03605167317778649</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05774066439704365</v>
+        <v>0.1033454330805953</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01757825188178734</v>
+        <v>0.03609010985213762</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09250032293690047</v>
+        <v>0.1626609908794495</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01761616031198026</v>
+        <v>0.03595961497008129</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02747749055410294</v>
+        <v>0.01735483144712355</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01438766029721044</v>
+        <v>0.03737606226571965</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02300815276047126</v>
+        <v>0.0460621006514173</v>
       </c>
       <c r="K88" t="n">
-        <v>0.018794397179155</v>
+        <v>0.0376903855949586</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05856759154579072</v>
+        <v>0.1050120155229975</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01837726333095949</v>
+        <v>0.03773056939087115</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09532290579365021</v>
+        <v>0.1648756651011945</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01841689487161572</v>
+        <v>0.03759414292326681</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02839676240712885</v>
+        <v>0.01854987239455008</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01501321074491525</v>
+        <v>0.03900110845118572</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02383545865347939</v>
+        <v>0.04688622563979751</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01961154488259652</v>
+        <v>0.03932909801213071</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06066915089054475</v>
+        <v>0.1067205601705861</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01917627478013165</v>
+        <v>0.03937102892960467</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09803881749653015</v>
+        <v>0.1663915371961063</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01921762943125119</v>
+        <v>0.03922867087645232</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02929860789649115</v>
+        <v>0.01773047614245555</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01563876119262005</v>
+        <v>0.0406261546366518</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0249158559708786</v>
+        <v>0.04738031477595238</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0207476408990837</v>
+        <v>0.04096781042930282</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06163171800701128</v>
+        <v>0.10786212005211</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0199752862293038</v>
+        <v>0.04101148846833821</v>
       </c>
       <c r="N90" t="n">
-        <v>0.102635570295975</v>
+        <v>0.1686947869392203</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02001836399088665</v>
+        <v>0.04086319882963783</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03018439156445213</v>
+        <v>0.01789507644833718</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01626431164032485</v>
+        <v>0.04225120082211787</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02522376323207019</v>
+        <v>0.04784045786679837</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02124584028947956</v>
+        <v>0.04260652284647494</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06384166847089578</v>
+        <v>0.1079277481963187</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02077429767847595</v>
+        <v>0.04265194800707173</v>
       </c>
       <c r="N91" t="n">
-        <v>0.10450067644242</v>
+        <v>0.1697715941055718</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02081909855052212</v>
+        <v>0.04249772678282335</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03105547795327412</v>
+        <v>0.01804210706969217</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01688986208802966</v>
+        <v>0.04387624700758394</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02591463240409639</v>
+        <v>0.04796274471925199</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02206298799292108</v>
+        <v>0.04424523526364705</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06568537785790382</v>
+        <v>0.1090084976319613</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0215733091276481</v>
+        <v>0.04429240754580526</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1085216481863001</v>
+        <v>0.1714081384701962</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02161983311015759</v>
+        <v>0.04413225473600886</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03191323160521947</v>
+        <v>0.01917000176401772</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01751541253573445</v>
+        <v>0.04550129319305001</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02707062259498268</v>
+        <v>0.04844326514022969</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0228801356963626</v>
+        <v>0.04588394768081917</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06654922174374076</v>
+        <v>0.1096954213877872</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02237232057682025</v>
+        <v>0.04593286708453879</v>
       </c>
       <c r="N93" t="n">
-        <v>0.11248599777805</v>
+        <v>0.1734905998081289</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02242056766979305</v>
+        <v>0.04576678268919437</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03275901706255049</v>
+        <v>0.02027719428881106</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01814096298343926</v>
+        <v>0.04712633937851608</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02818404009064912</v>
+        <v>0.04877810893664797</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02369728339980412</v>
+        <v>0.04752266009799128</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06881957570411212</v>
+        <v>0.1109795724925454</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02317133202599241</v>
+        <v>0.04757332662327231</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1149812374681051</v>
+        <v>0.1740051578944051</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02322130222942852</v>
+        <v>0.04740131064237989</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03359419886752954</v>
+        <v>0.02036211840156938</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01876651343114406</v>
+        <v>0.04875138556398215</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02894719117701586</v>
+        <v>0.04886336591542334</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02451443110324565</v>
+        <v>0.04916137251516339</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07168281531472348</v>
+        <v>0.1112520039749852</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02397034347516456</v>
+        <v>0.04921378616200584</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1184948795069001</v>
+        <v>0.1747379925040604</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02402203678906398</v>
+        <v>0.0490358385955654</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0344201415624189</v>
+        <v>0.0204232078597899</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01939206387884886</v>
+        <v>0.05037643174944822</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03005238214000296</v>
+        <v>0.04939512588347225</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02533157880668717</v>
+        <v>0.0508000849323355</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07382531615128021</v>
+        <v>0.112003768863856</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02476935492433671</v>
+        <v>0.05085424570073938</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1234144361448702</v>
+        <v>0.17567528341213</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02482277134869945</v>
+        <v>0.05067036654875091</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03523820968948095</v>
+        <v>0.02046810881880896</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02001761432655366</v>
+        <v>0.0520014779349143</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03139191926553048</v>
+        <v>0.04926947864771121</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02614872651012869</v>
+        <v>0.05243879734950761</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07533345378948786</v>
+        <v>0.1131259201879068</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02556836637350886</v>
+        <v>0.0524947052394729</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1257274196324502</v>
+        <v>0.1754032103936493</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02562350590833492</v>
+        <v>0.05230489450193643</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03604976779097796</v>
+        <v>0.02046786988811406</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02064316477425846</v>
+        <v>0.05362652412038037</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03235810883951855</v>
+        <v>0.04983171194175721</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02696587421357021</v>
+        <v>0.05407750976667972</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07799360380505191</v>
+        <v>0.1136567701238655</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02636737782268101</v>
+        <v>0.05413516477820644</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1294213422200752</v>
+        <v>0.1774818283059737</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02642424046797038</v>
+        <v>0.05393942245512194</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0368561804091723</v>
+        <v>0.02045860080379707</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02126871522196327</v>
+        <v>0.05525157030584644</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03384325714788729</v>
+        <v>0.04953032179242518</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02778302191701174</v>
+        <v>0.05571622218385184</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07989214177367784</v>
+        <v>0.112645594256546</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02716638927185317</v>
+        <v>0.05577562431693996</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1339837161581801</v>
+        <v>0.1765788462188947</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02722497502760585</v>
+        <v>0.05557395040830746</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03774234313200997</v>
+        <v>0.01843646859479765</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0219594943227754</v>
+        <v>0.05687661649131251</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03503967047655672</v>
+        <v>0.04972091573221013</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02860016962045326</v>
+        <v>0.05735493460102395</v>
       </c>
       <c r="L100" t="n">
-        <v>0.08281544327107113</v>
+        <v>0.1132416776588359</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02796540072102531</v>
+        <v>0.05741608385567348</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1371020536972001</v>
+        <v>0.1757933606027723</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02802570958724131</v>
+        <v>0.05720847836149296</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03847469340355383</v>
+        <v>0.0184022987160827</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02251981611737287</v>
+        <v>0.05850166267677858</v>
       </c>
       <c r="J101" t="n">
-        <v>0.036339655111447</v>
+        <v>0.04977818569345771</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02941731732389478</v>
+        <v>0.05899364701819607</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0845498838729373</v>
+        <v>0.1130567595344049</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02876441217019747</v>
+        <v>0.05905654339440701</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1401638670875699</v>
+        <v>0.1763953437340692</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02882644414687678</v>
+        <v>0.05884300631467848</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03932175064082215</v>
+        <v>0.01835691662261912</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02314536656507767</v>
+        <v>0.06012670886224465</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03743551733847816</v>
+        <v>0.04960489596711434</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0302344650273363</v>
+        <v>0.06063235943536818</v>
       </c>
       <c r="L102" t="n">
-        <v>0.08708183915498183</v>
+        <v>0.1128011732328237</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02956342361936962</v>
+        <v>0.06069700293314054</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1424566685797248</v>
+        <v>0.1757920792698953</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02962717870651225</v>
+        <v>0.06047753426786399</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04019054236995868</v>
+        <v>0.02030114776937381</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02377091701278248</v>
+        <v>0.06175175504771074</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03851956344357034</v>
+        <v>0.0493031073376988</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03105161273077782</v>
+        <v>0.06227107185254029</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08919768469291017</v>
+        <v>0.1129796340659578</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03036243506854177</v>
+        <v>0.06233746247187408</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1461679704240995</v>
+        <v>0.1762908508673599</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03042791326614771</v>
+        <v>0.06211206222104951</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04107139485408701</v>
+        <v>0.01923581761131368</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02439646746048728</v>
+        <v>0.06337680123317681</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03988409971264363</v>
+        <v>0.04907488058972978</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03186876043421934</v>
+        <v>0.0639097842697124</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0918837960624278</v>
+        <v>0.1117968573456726</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03116144651771393</v>
+        <v>0.0639779220106076</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1499852848711292</v>
+        <v>0.1743989421835727</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03122864782578318</v>
+        <v>0.06374659017423502</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04195463435633069</v>
+        <v>0.01816175160340561</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02502201790819208</v>
+        <v>0.06500184741864287</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04082143243161809</v>
+        <v>0.04892227650772601</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03268590813766087</v>
+        <v>0.06554849668688452</v>
       </c>
       <c r="L105" t="n">
-        <v>0.09362654883924026</v>
+        <v>0.1123575583838338</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03196045796688608</v>
+        <v>0.06561838154934113</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1527961241712489</v>
+        <v>0.1741236368756431</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03202938238541864</v>
+        <v>0.06538111812742053</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04283058713981333</v>
+        <v>0.01807977520061654</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02564756835589688</v>
+        <v>0.06662689360410895</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04182386788641385</v>
+        <v>0.04884735587620624</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03350305584110238</v>
+        <v>0.06718720910405664</v>
       </c>
       <c r="L106" t="n">
-        <v>0.09561231859905303</v>
+        <v>0.1118664524923066</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03275946941605823</v>
+        <v>0.06725884108807466</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1553880005748934</v>
+        <v>0.1745722186006808</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03283011694505411</v>
+        <v>0.06701564608060605</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04368957946765847</v>
+        <v>0.01799071385791332</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02627311880360168</v>
+        <v>0.06825193978957501</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04308371236295097</v>
+        <v>0.04865217947968917</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0343202035445439</v>
+        <v>0.06882592152122875</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09822748091757158</v>
+        <v>0.1106282549829568</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03355848086523038</v>
+        <v>0.06889930062680819</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1586484263324979</v>
+        <v>0.1739519710157952</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03363085150468958</v>
+        <v>0.06865017403379156</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04452193760298968</v>
+        <v>0.0198953930302629</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02689866925130649</v>
+        <v>0.06987698597504109</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04399327214714956</v>
+        <v>0.04873880810269354</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03513735124798543</v>
+        <v>0.07046463393840086</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1004584113705014</v>
+        <v>0.1108476811676496</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03435749231440253</v>
+        <v>0.07053976016554171</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1604649136944972</v>
+        <v>0.1730701777780961</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03443158606432504</v>
+        <v>0.07028470198697707</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04531798780893058</v>
+        <v>0.01879463817263215</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02752421969901129</v>
+        <v>0.07150203216050716</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04504485352492969</v>
+        <v>0.04820930252973808</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03595449895142695</v>
+        <v>0.07210334635557297</v>
       </c>
       <c r="L109" t="n">
-        <v>0.102191485533548</v>
+        <v>0.1107294463582508</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03515650376357469</v>
+        <v>0.07218021970427524</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1625249749113264</v>
+        <v>0.1722341225446928</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03523232062396051</v>
+        <v>0.07191922994016259</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04606805634860468</v>
+        <v>0.01868927473998799</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02814977014671609</v>
+        <v>0.07312707834597323</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0456307627822115</v>
+        <v>0.04826572354534153</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03677164665486847</v>
+        <v>0.07374205877274508</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1042130789824168</v>
+        <v>0.1099782658666258</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03595551521274683</v>
+        <v>0.07382067924300877</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1654161222334206</v>
+        <v>0.171551088972695</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03603305518359597</v>
+        <v>0.0735537578933481</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04676246948513559</v>
+        <v>0.0175801281872973</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02877532059442089</v>
+        <v>0.0747521245314393</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04664330620491502</v>
+        <v>0.04801013193402261</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03758879435830999</v>
+        <v>0.07538077118991719</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1057095672928134</v>
+        <v>0.10879885500464</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03675452666191899</v>
+        <v>0.07546113878174229</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1683258679112145</v>
+        <v>0.1700283607192122</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03683378974323144</v>
+        <v>0.07518828584653361</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04739155348164685</v>
+        <v>0.01746802396952701</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0294008710421257</v>
+        <v>0.07637717071690538</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0474747900789604</v>
+        <v>0.04744458848030005</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03840594206175151</v>
+        <v>0.07701948360708931</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1070673260404432</v>
+        <v>0.1086959290841589</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03755353811109114</v>
+        <v>0.07710159832047582</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1700417241951434</v>
+        <v>0.1692732214413539</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03763452430286691</v>
+        <v>0.07682281379971913</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04794563460126208</v>
+        <v>0.017353787541644</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0300264214898305</v>
+        <v>0.07800221690237144</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04801752069026768</v>
+        <v>0.04717115396869258</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03922308976519304</v>
+        <v>0.07865819602426143</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1086727308010116</v>
+        <v>0.1078742034170482</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03835254956026329</v>
+        <v>0.07874205785920935</v>
       </c>
       <c r="N113" t="n">
-        <v>0.171651203335642</v>
+        <v>0.1671929547962298</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03843525886250237</v>
+        <v>0.07845734175290464</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04841503910710482</v>
+        <v>0.01923824435861518</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0306519719375353</v>
+        <v>0.07962726308783752</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04876380432475701</v>
+        <v>0.04699188918371891</v>
       </c>
       <c r="K114" t="n">
-        <v>0.04004023746863455</v>
+        <v>0.08029690844143353</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1097121571502244</v>
+        <v>0.1067383933151732</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03915156100943545</v>
+        <v>0.08038251739794287</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1725418175831456</v>
+        <v>0.1669948444409494</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03923599342213784</v>
+        <v>0.08009186970609015</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04879009326229865</v>
+        <v>0.01912221987540745</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0312775223852401</v>
+        <v>0.0812523092733036</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04880594726834844</v>
+        <v>0.0466088549098978</v>
       </c>
       <c r="K115" t="n">
-        <v>0.04085738517207608</v>
+        <v>0.08193562085860565</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1111719806637867</v>
+        <v>0.1070932140903994</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03995057245860759</v>
+        <v>0.08202297693667641</v>
       </c>
       <c r="N115" t="n">
-        <v>0.174401079188089</v>
+        <v>0.1660861740326222</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0400367279817733</v>
+        <v>0.08172639765927567</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04908752894381066</v>
+        <v>0.01800653954698771</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0319030728329449</v>
+        <v>0.08287735545876966</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04953625580696207</v>
+        <v>0.04642411193174795</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0416745328755176</v>
+        <v>0.08357433327577776</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1117385769174042</v>
+        <v>0.1057433810545924</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04074958390777975</v>
+        <v>0.08366343647540994</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1749165004009072</v>
+        <v>0.1653742272283577</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04083746254140877</v>
+        <v>0.08336092561246118</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04937608948955063</v>
+        <v>0.01789202882832286</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0325286232806497</v>
+        <v>0.08450240164423574</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04983171194175721</v>
+        <v>0.04613972103378812</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04249168057895912</v>
+        <v>0.08521304569294988</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1121983214867824</v>
+        <v>0.1057936095196176</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0415485953569519</v>
+        <v>0.08530389601414347</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1764755934720352</v>
+        <v>0.1646662876852656</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04163819710104424</v>
+        <v>0.08499545356564669</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04965994891375443</v>
+        <v>0.01677250050382768</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0331541737283545</v>
+        <v>0.0861274478297018</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04973059481293629</v>
+        <v>0.04565774300053702</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04330882828240065</v>
+        <v>0.08685175811012198</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1130375899476268</v>
+        <v>0.1051486147973406</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04234760680612405</v>
+        <v>0.086944355552877</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1774818283059737</v>
+        <v>0.1623696390604555</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0424389316606797</v>
+        <v>0.08662998151883221</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04993904812441527</v>
+        <v>0.01663629746848283</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03377972417605931</v>
+        <v>0.08775249401516788</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04952628424054693</v>
+        <v>0.04537102066605275</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04412597598584217</v>
+        <v>0.0884904705272941</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1136567701238655</v>
+        <v>0.1035015336087158</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04314661825529621</v>
+        <v>0.08858481509161052</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1769748441909607</v>
+        <v>0.1623061705792225</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04323966622031517</v>
+        <v>0.08826450947201772</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.05021332802952647</v>
+        <v>0.01748576082664383</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03440527462376411</v>
+        <v>0.08937754020063395</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04950702684805977</v>
+        <v>0.04544507297819839</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04494312368928369</v>
+        <v>0.09012918294446622</v>
       </c>
       <c r="L120" t="n">
-        <v>0.113550668826967</v>
+        <v>0.1027716563541293</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04394562970446836</v>
+        <v>0.09022527463034405</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1773651213277626</v>
+        <v>0.1601970924914303</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04404040077995064</v>
+        <v>0.08989903742520323</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.05048272953708122</v>
+        <v>0.0173235800092638</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03503082507146891</v>
+        <v>0.09100258638610002</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04957440458194244</v>
+        <v>0.04478223431694363</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0457602713927252</v>
+        <v>0.09176789536163833</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1127189886935302</v>
+        <v>0.1025551020902755</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0447446411536405</v>
+        <v>0.09186573416907758</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1758961435195993</v>
+        <v>0.1590660411418054</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0448411353395861</v>
+        <v>0.09153356537838875</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05074719355507286</v>
+        <v>0.01715244444729583</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03565637551917372</v>
+        <v>0.09262763257156609</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04962900160129302</v>
+        <v>0.04428921896458682</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04657741909616673</v>
+        <v>0.09340660777881045</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1129610787198946</v>
+        <v>0.101367233866858</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04554365260281266</v>
+        <v>0.0935061937078111</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1758754680307874</v>
+        <v>0.1579367475558646</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04564186989922157</v>
+        <v>0.09316809333157426</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05100666099149462</v>
+        <v>0.01597504357169304</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03628192596687851</v>
+        <v>0.09425267875703217</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04947140206520949</v>
+        <v>0.04417274120342632</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04739456679960825</v>
+        <v>0.09504532019598255</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1126778434160903</v>
+        <v>0.1007234147335804</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04634266405198481</v>
+        <v>0.09514665324654463</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1770049717248717</v>
+        <v>0.1559329427591243</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04644260445885703</v>
+        <v>0.09480262128475977</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05126107275433976</v>
+        <v>0.01579406681340854</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03690747641458331</v>
+        <v>0.09587772494249824</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04950219013278989</v>
+        <v>0.04363951531576052</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04821171450304977</v>
+        <v>0.09668403261315466</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1130701872921476</v>
+        <v>0.09913900774014661</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04714167550115696</v>
+        <v>0.09678711278527816</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1756865314653968</v>
+        <v>0.1540783577771009</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0472433390184925</v>
+        <v>0.09643714923794529</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05151036975160156</v>
+        <v>0.01561220360339544</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03753302686228812</v>
+        <v>0.09750277112796431</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04922194996313226</v>
+        <v>0.04309625558388774</v>
       </c>
       <c r="K125" t="n">
-        <v>0.0490288622064913</v>
+        <v>0.09832274503032677</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1123390148580967</v>
+        <v>0.09902937593626004</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04794068695032912</v>
+        <v>0.09842757232401168</v>
       </c>
       <c r="N125" t="n">
-        <v>0.174922024115907</v>
+        <v>0.1536967236353112</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04804407357812797</v>
+        <v>0.0980716771911308</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05175449289127329</v>
+        <v>0.01543214337260684</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03815857730999293</v>
+        <v>0.09912781731343039</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04933126571533457</v>
+        <v>0.04254967629010636</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04984600990993281</v>
+        <v>0.09996145744749889</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1125852306239677</v>
+        <v>0.09720988237162437</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04873969839950126</v>
+        <v>0.1000680318627452</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1762133265399472</v>
+        <v>0.1521117713592715</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04884480813776343</v>
+        <v>0.09970620514431631</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0519933830813482</v>
+        <v>0.01625657555199587</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03878412775769773</v>
+        <v>0.1007528634988964</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0493307215484949</v>
+        <v>0.04210649171671474</v>
       </c>
       <c r="K127" t="n">
-        <v>0.05066315761337434</v>
+        <v>0.101600169864671</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1126097390997909</v>
+        <v>0.09619589009594343</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04953870984867342</v>
+        <v>0.1017084914014788</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1748623156010618</v>
+        <v>0.1502472319744984</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0496455426973989</v>
+        <v>0.1013407330975018</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05222698122981954</v>
+        <v>0.01708818957251562</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03940967820540252</v>
+        <v>0.1023779096843625</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04882090162171124</v>
+        <v>0.04177341614601122</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05148030531681586</v>
+        <v>0.1032388822818431</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1126134447955967</v>
+        <v>0.09550276215892067</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05033772129784557</v>
+        <v>0.1033489509402123</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1741708681627955</v>
+        <v>0.1480268365065083</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05044627725703436</v>
+        <v>0.1029752610506873</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05245522824468062</v>
+        <v>0.01692290415516291</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04003522865310732</v>
+        <v>0.1040029558698286</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04870239009408163</v>
+        <v>0.04125716386029417</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05229745302025738</v>
+        <v>0.1048775946990152</v>
       </c>
       <c r="L129" t="n">
-        <v>0.111597252221415</v>
+        <v>0.09474586161025983</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05113673274701772</v>
+        <v>0.1049894104789458</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1744408610886929</v>
+        <v>0.1468743159808178</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05124701181666983</v>
+        <v>0.1046097890038729</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05267806503392469</v>
+        <v>0.01574263950287806</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04066077910081213</v>
+        <v>0.1056280020552947</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04897577112470405</v>
+        <v>0.04115355591494912</v>
       </c>
       <c r="K130" t="n">
-        <v>0.0531146007236989</v>
+        <v>0.1065163071161873</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1117620658872763</v>
+        <v>0.09372700922975025</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05193574419618988</v>
+        <v>0.1066298700176793</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1739741712422985</v>
+        <v>0.1459109740714056</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0520477463763053</v>
+        <v>0.1062443169570584</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.052895432505545</v>
+        <v>0.01454966872787626</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04128632954851693</v>
+        <v>0.1072530482407607</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04844162887267658</v>
+        <v>0.04041547760314532</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05393174842714042</v>
+        <v>0.1081550195333594</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1111087903032106</v>
+        <v>0.09223914547835202</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05273475564536203</v>
+        <v>0.1082703295564129</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1740726754871571</v>
+        <v>0.1441113816673136</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05284848093594077</v>
+        <v>0.1078788449102439</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05310727156753484</v>
+        <v>0.01634784175135476</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04191187999622173</v>
+        <v>0.1088780944262268</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04860054749709722</v>
+        <v>0.04014481301050678</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05474889613058195</v>
+        <v>0.1097937319505316</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1115383299792482</v>
+        <v>0.09217368483577679</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05353376709453418</v>
+        <v>0.1099107890951464</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1719382506868131</v>
+        <v>0.1414078877785194</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05364921549557623</v>
+        <v>0.1095133728634294</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05331352312788744</v>
+        <v>0.0151410084945108</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04253743044392654</v>
+        <v>0.1105031406116929</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04835311115706398</v>
+        <v>0.03945117363411062</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05556604383402347</v>
+        <v>0.1114324443677037</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1112515894254194</v>
+        <v>0.09015261951217587</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05433277854370634</v>
+        <v>0.1115512486338799</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1714727737048111</v>
+        <v>0.1409344633750019</v>
       </c>
       <c r="O133" t="n">
-        <v>0.0544499500552117</v>
+        <v>0.1111479008166149</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0535141280945961</v>
+        <v>0.01393301887854163</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04316298089163134</v>
+        <v>0.112128186797159</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04799990401167491</v>
+        <v>0.03894417097103388</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05638319153746499</v>
+        <v>0.1130711567848758</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1103494731517543</v>
+        <v>0.08939794171770085</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05513178999287849</v>
+        <v>0.1131917081726134</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1724781214046958</v>
+        <v>0.1387250794267401</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05525068461484716</v>
+        <v>0.1127824287698004</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05370902737565407</v>
+        <v>0.01472772282464451</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04378853133933614</v>
+        <v>0.113753232982625</v>
       </c>
       <c r="J135" t="n">
-        <v>0.047841510220028</v>
+        <v>0.0385334165183536</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05720033924090651</v>
+        <v>0.1147098692020479</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1101328856682831</v>
+        <v>0.08803164366250296</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05593080144205063</v>
+        <v>0.114832167711347</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1704561706500117</v>
+        <v>0.136613706903713</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05605141917448262</v>
+        <v>0.1144169567229859</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05389816187905462</v>
+        <v>0.01552897025401669</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04441408178704094</v>
+        <v>0.1153782791680911</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04797851394122128</v>
+        <v>0.03802852177314688</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05801748694434803</v>
+        <v>0.11634858161922</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1096027314850361</v>
+        <v>0.08687571755673368</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05672981289122279</v>
+        <v>0.1164726272500805</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1701087983043034</v>
+        <v>0.1345343167758993</v>
       </c>
       <c r="O136" t="n">
-        <v>0.0568521537341181</v>
+        <v>0.1160514846761714</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05408147251279101</v>
+        <v>0.01434061108785539</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04503963223474574</v>
+        <v>0.1170033253535572</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04771149933435279</v>
+        <v>0.03783909823249072</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05883463464778955</v>
+        <v>0.1179872940363921</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1091599151120435</v>
+        <v>0.08545215561054445</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05752882434039494</v>
+        <v>0.118113086788814</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1688378812311157</v>
+        <v>0.1325208800132782</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05765288829375356</v>
+        <v>0.117686012629357</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0542589001848565</v>
+        <v>0.0141664952473579</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04566518268245055</v>
+        <v>0.1186283715390232</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04754105055852054</v>
+        <v>0.03717475739346224</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05965178235123108</v>
+        <v>0.1196260064535642</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1094053410593355</v>
+        <v>0.08428295003408662</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05832783578956709</v>
+        <v>0.1197535463275476</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1686452962939929</v>
+        <v>0.1318073675858283</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05845362285338902</v>
+        <v>0.1193205405825425</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05443038580324437</v>
+        <v>0.01301047265372143</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04629073313015535</v>
+        <v>0.1202534177244893</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04736775177282256</v>
+        <v>0.03674511075313845</v>
       </c>
       <c r="K139" t="n">
-        <v>0.0604689300546726</v>
+        <v>0.1212647188707364</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1086399138369424</v>
+        <v>0.08329009303751161</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05912684723873925</v>
+        <v>0.1213940058662811</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1676329203564797</v>
+        <v>0.1303277504635289</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0592543574130245</v>
+        <v>0.120955068535728</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05459587027594788</v>
+        <v>0.01487639322814326</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04691628357786015</v>
+        <v>0.1218784639099554</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04739218713635686</v>
+        <v>0.03645976980859643</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06128607775811412</v>
+        <v>0.1229034312879085</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1083645379548943</v>
+        <v>0.08289557683097085</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05992585868791139</v>
+        <v>0.1230344654050146</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1680026302821208</v>
+        <v>0.1283159996163587</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06005509197265996</v>
+        <v>0.1225895964889135</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05475529451096031</v>
+        <v>0.01276810689182061</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04754183402556495</v>
+        <v>0.1235035100954215</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04721494080822146</v>
+        <v>0.03582834605691326</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06210322546155565</v>
+        <v>0.1245421437050806</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1085801179232215</v>
+        <v>0.08192139362461567</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06072487013708355</v>
+        <v>0.1246749249437482</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1661563029344607</v>
+        <v>0.1285060860142967</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06085582653229542</v>
+        <v>0.124224124442099</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05490859941627489</v>
+        <v>0.01368946356595075</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04816738447326976</v>
+        <v>0.1251285562808875</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04683659694751441</v>
+        <v>0.03556045099516594</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06292037316499717</v>
+        <v>0.1261808561222527</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1080875582519542</v>
+        <v>0.08208953562859758</v>
       </c>
       <c r="M142" t="n">
-        <v>0.0615238815862557</v>
+        <v>0.1263153844824817</v>
       </c>
       <c r="N142" t="n">
-        <v>0.166095815177044</v>
+        <v>0.1271319806273218</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06165656109193089</v>
+        <v>0.1258586523952845</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05505572589988492</v>
+        <v>0.01364431317173092</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04879293492097456</v>
+        <v>0.1267536024663536</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04685773971333369</v>
+        <v>0.03566569612043156</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06373752086843869</v>
+        <v>0.1278195685394248</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1071877634511225</v>
+        <v>0.08052199505306795</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06232289303542785</v>
+        <v>0.1279558440212152</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1661230438734154</v>
+        <v>0.1261276544254129</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06245729565156636</v>
+        <v>0.12749318034847</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05519661486978365</v>
+        <v>0.01363495765752647</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04941848536867936</v>
+        <v>0.1283786486518197</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04667895326477736</v>
+        <v>0.03525369292978718</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06455466857188021</v>
+        <v>0.1294582809565969</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1068816380307567</v>
+        <v>0.08104076410817815</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06312190448460001</v>
+        <v>0.1295963035599487</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1652398658871193</v>
+        <v>0.126527078378549</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06325803021120183</v>
+        <v>0.1291277083016556</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05533120723396437</v>
+        <v>0.01463952115389247</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05004403581638416</v>
+        <v>0.1300036948372857</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04620082176094345</v>
+        <v>0.03523030347048126</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06537181627532174</v>
+        <v>0.131096993373769</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1059700865008871</v>
+        <v>0.08106505986633705</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06392091593377215</v>
+        <v>0.1312367630986823</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1644481580817004</v>
+        <v>0.1258086742872135</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06405876477083729</v>
+        <v>0.1307622362548411</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0554594439004203</v>
+        <v>0.01464955596924519</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05066958626408896</v>
+        <v>0.1316287410227518</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04632392936092992</v>
+        <v>0.03524155417936267</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06618896397876324</v>
+        <v>0.1327357057909412</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1064540133715439</v>
+        <v>0.08068672727035781</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0647199273829443</v>
+        <v>0.1328772226374158</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1635497973207034</v>
+        <v>0.1258634631404905</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06485949933047276</v>
+        <v>0.1323967642080266</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05558126577714474</v>
+        <v>0.01266477921277744</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05129513671179377</v>
+        <v>0.1332537872082179</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04574886022383487</v>
+        <v>0.03556634500452985</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06700611168220476</v>
+        <v>0.1343744182081133</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1060343231527573</v>
+        <v>0.08053954610502881</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06551893883211646</v>
+        <v>0.1345176821761493</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1628466604676727</v>
+        <v>0.1264654767710459</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06566023389010822</v>
+        <v>0.1340312921612121</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05569661377213093</v>
+        <v>0.01468490799368209</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05192068715949857</v>
+        <v>0.134878833393684</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04577619850875626</v>
+        <v>0.03550396969667872</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06782325938564629</v>
+        <v>0.1360131306252854</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1058119203545574</v>
+        <v>0.08122190039075919</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06631795028128862</v>
+        <v>0.1361581417148829</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1607406243861529</v>
+        <v>0.1267122190043802</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06646096844974368</v>
+        <v>0.1356658201143976</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05580542879337216</v>
+        <v>0.01470965942115195</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05254623760720337</v>
+        <v>0.13650387957915</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04580652837479214</v>
+        <v>0.03535372200650524</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06864040708908781</v>
+        <v>0.1376518430424575</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1050877094869745</v>
+        <v>0.08133217414795815</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06711696173046076</v>
+        <v>0.1377986012536164</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1598335659396888</v>
+        <v>0.127101193665994</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06726170300937916</v>
+        <v>0.1373003480675831</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05590765174886168</v>
+        <v>0.01273875060437983</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05317178805490817</v>
+        <v>0.1381289257646161</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04534043398104055</v>
+        <v>0.03581489568470533</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06945755479252932</v>
+        <v>0.1392905554596296</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1047625950600389</v>
+        <v>0.0814687513970348</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06791597317963291</v>
+        <v>0.1394390607923499</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1600273619918249</v>
+        <v>0.1275299045813877</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06806243756901462</v>
+        <v>0.1389348760207686</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05600322354659276</v>
+        <v>0.01277189865255859</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05379733850261297</v>
+        <v>0.1397539719500822</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04517849948659948</v>
+        <v>0.03558678448197494</v>
       </c>
       <c r="K151" t="n">
-        <v>0.07027470249597086</v>
+        <v>0.1409292678768017</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1041374815837807</v>
+        <v>0.08083001615839824</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06871498462880506</v>
+        <v>0.1410795203310834</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1593238894061058</v>
+        <v>0.1267958555760618</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06886317212865008</v>
+        <v>0.1405694039739541</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05609208509455869</v>
+        <v>0.01280882067488105</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05442288895031777</v>
+        <v>0.1413790181355482</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04522130905056695</v>
+        <v>0.03566868214901001</v>
       </c>
       <c r="K152" t="n">
-        <v>0.07109185019941237</v>
+        <v>0.1425679802939738</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1032132735682302</v>
+        <v>0.08121435245245764</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06951399607797722</v>
+        <v>0.142719979869817</v>
       </c>
       <c r="N152" t="n">
-        <v>0.157925025046076</v>
+        <v>0.1273965504755167</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06966390668828555</v>
+        <v>0.1422039319271397</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05617417730075271</v>
+        <v>0.01284923378054003</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05504843939802257</v>
+        <v>0.1430040643210143</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04506944683204103</v>
+        <v>0.03565988243650647</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07190899790285389</v>
+        <v>0.1442066927111459</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1036908755234176</v>
+        <v>0.08192014429962213</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07031300752714938</v>
+        <v>0.1443604394085505</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1564326457752802</v>
+        <v>0.1279294931052531</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07046464124792103</v>
+        <v>0.1438384598803252</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05624944107316808</v>
+        <v>0.01389285507872837</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05567398984572738</v>
+        <v>0.1446291105064804</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04462349699011969</v>
+        <v>0.03575967909516026</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07272614560629542</v>
+        <v>0.1458454051283181</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1028711919593731</v>
+        <v>0.08154577572030081</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07111201897632152</v>
+        <v>0.146000898947284</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1572486284572629</v>
+        <v>0.1282921872907713</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07126537580755649</v>
+        <v>0.1454729878335107</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05631781731979807</v>
+        <v>0.01293940167863889</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05629954029343218</v>
+        <v>0.1462541566919465</v>
       </c>
       <c r="J155" t="n">
-        <v>0.04448404368390099</v>
+        <v>0.03586736587566733</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07354329330973694</v>
+        <v>0.1474841175454902</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1022551273861269</v>
+        <v>0.08248963073490287</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07191103042549367</v>
+        <v>0.1476413584860175</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1558748499555688</v>
+        <v>0.1290821368575719</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07206611036719195</v>
+        <v>0.1471075157866962</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05637924694863596</v>
+        <v>0.01498959482731702</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05692509074113698</v>
+        <v>0.1478792028774125</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04445167107248292</v>
+        <v>0.0362822365287236</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07436044101317846</v>
+        <v>0.1491228299626623</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1016435863137092</v>
+        <v>0.08295009336383738</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07271004187466583</v>
+        <v>0.149281818024751</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1549131871337424</v>
+        <v>0.1286968456311554</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07286684492682742</v>
+        <v>0.1487420437398817</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05643367086767499</v>
+        <v>0.01507434901586739</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05755064118884178</v>
+        <v>0.1495042490628786</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04462696331496352</v>
+        <v>0.03650906343696815</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07517758871661999</v>
+        <v>0.1507615423798344</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1013374732521503</v>
+        <v>0.08293032794799421</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07350905332383798</v>
+        <v>0.1509222775634846</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1538655168553285</v>
+        <v>0.1302045373973352</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07366757948646288</v>
+        <v>0.1503765716930672</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05648102998490845</v>
+        <v>0.01320209972517742</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05817619163654659</v>
+        <v>0.1511292952483447</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04450899473047175</v>
+        <v>0.03672912297930761</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07599473642006151</v>
+        <v>0.1524002547970065</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1011284547027481</v>
+        <v>0.08280269411246224</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07430806477301014</v>
+        <v>0.1525627371022181</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1531153070371469</v>
+        <v>0.1298944414158856</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07446831404609834</v>
+        <v>0.1520110996462527</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0565212652083296</v>
+        <v>0.01436430716455992</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05880174208425139</v>
+        <v>0.1527543414338108</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04399531144970505</v>
+        <v>0.03675333469303266</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07681188412350302</v>
+        <v>0.1540389672141786</v>
       </c>
       <c r="L159" t="n">
-        <v>0.100701297492638</v>
+        <v>0.08411862577065757</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07510707622218228</v>
+        <v>0.1542031966409516</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1524322908557419</v>
+        <v>0.1319329560145421</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07526904860573382</v>
+        <v>0.1536456275994383</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.0565543174459317</v>
+        <v>0.01555243154332774</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05942729253195619</v>
+        <v>0.1543793876192768</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04408554317307982</v>
+        <v>0.03706037861624717</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07762903182694454</v>
+        <v>0.1556776796313507</v>
       </c>
       <c r="L160" t="n">
-        <v>0.100456529787902</v>
+        <v>0.08512934039903761</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07590608767135443</v>
+        <v>0.1558436561796852</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1521177697934398</v>
+        <v>0.1328447277098964</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07606978316536928</v>
+        <v>0.1552801555526238</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05658012760570802</v>
+        <v>0.0157579330707937</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06005284297966099</v>
+        <v>0.1560044338047429</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04407935474633604</v>
+        <v>0.03782893478705507</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07844617953038607</v>
+        <v>0.1573163920485229</v>
       </c>
       <c r="L161" t="n">
-        <v>0.0997949705572389</v>
+        <v>0.08548605547405994</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07670509912052659</v>
+        <v>0.1574841157184187</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1517736328398614</v>
+        <v>0.1339544030185403</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07687051772500475</v>
+        <v>0.1569146835058093</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05659863659565181</v>
+        <v>0.01397227195627063</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06067839342736579</v>
+        <v>0.157629479990209</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04407641101521352</v>
+        <v>0.0384376832435602</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07926332723382759</v>
+        <v>0.158955104465695</v>
       </c>
       <c r="L162" t="n">
-        <v>0.0989174387693473</v>
+        <v>0.08663998847218221</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07750411056969873</v>
+        <v>0.1591245752571522</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1500017689846277</v>
+        <v>0.1373866284570655</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07767125228464022</v>
+        <v>0.1585492114589948</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05660978532375638</v>
+        <v>0.01618690840907138</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0613039438750706</v>
+        <v>0.159254526175675</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04367637682545224</v>
+        <v>0.03856530402386646</v>
       </c>
       <c r="K163" t="n">
-        <v>0.08008047493726911</v>
+        <v>0.1605938168828671</v>
       </c>
       <c r="L163" t="n">
-        <v>0.09912475339292576</v>
+        <v>0.08824235686986204</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07830312201887089</v>
+        <v>0.1607650347958857</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1487040672173595</v>
+        <v>0.1381660505420637</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07847198684427568</v>
+        <v>0.1601837394121803</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05661351469801496</v>
+        <v>0.01439330263850876</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0619294943227754</v>
+        <v>0.1608795723611411</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04367891702279203</v>
+        <v>0.03909047716607772</v>
       </c>
       <c r="K164" t="n">
-        <v>0.08089762264071064</v>
+        <v>0.1622325293000392</v>
       </c>
       <c r="L164" t="n">
-        <v>0.09781773339667285</v>
+        <v>0.08994437814355688</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07910213346804304</v>
+        <v>0.1624054943346193</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1476824165276778</v>
+        <v>0.1408173157901265</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07927272140391114</v>
+        <v>0.1618182673653658</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05661351469801496</v>
+        <v>0.01458291485389561</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0619294943227754</v>
+        <v>0.1625046185466072</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04338369645297287</v>
+        <v>0.03979188270829785</v>
       </c>
       <c r="K165" t="n">
-        <v>0.08171477034415216</v>
+        <v>0.1638712417172113</v>
       </c>
       <c r="L165" t="n">
-        <v>0.09809719774928721</v>
+        <v>0.09029726976972446</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07990114491721519</v>
+        <v>0.1640459538733528</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1476387059052033</v>
+        <v>0.1421650707178457</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08007345596354661</v>
+        <v>0.1634527953185513</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05568519095505471</v>
+        <v>0.01674742742056216</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06192922579431138</v>
+        <v>0.1641296647320733</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04339037996173459</v>
+        <v>0.04024820068863076</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08253191804759367</v>
+        <v>0.1655099541343834</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0966639654194674</v>
+        <v>0.0917522492248222</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08070015636638735</v>
+        <v>0.1656864134120863</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1471748243395572</v>
+        <v>0.1444339618418129</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08087419052318208</v>
+        <v>0.1650873232717369</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05476702180639993</v>
+        <v>0.01689789058555407</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06192895726584737</v>
+        <v>0.1657547109175393</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04339863239481712</v>
+        <v>0.04054153432258853</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08334906575103521</v>
+        <v>0.1671486665515555</v>
       </c>
       <c r="L167" t="n">
-        <v>0.09621885537591199</v>
+        <v>0.09196391075936763</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08149916781555949</v>
+        <v>0.1673268729508199</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1450926608203602</v>
+        <v>0.1449896449541689</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08167492508281754</v>
+        <v>0.1667218512249224</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0538594410500743</v>
+        <v>0.01504465084857207</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06192868873738334</v>
+        <v>0.1673797571030054</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04330811859796035</v>
+        <v>0.04120916932747037</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08416621345447672</v>
+        <v>0.1687873789687276</v>
       </c>
       <c r="L168" t="n">
-        <v>0.09606268658731967</v>
+        <v>0.09290552198557137</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08229817926473165</v>
+        <v>0.1689673324895534</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1441941043372332</v>
+        <v>0.1464875436544415</v>
       </c>
       <c r="O168" t="n">
-        <v>0.082475659642453</v>
+        <v>0.1683563791781079</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05296288248421978</v>
+        <v>0.01718797911747964</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06192842020891933</v>
+        <v>0.1690048032884715</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04341850341690423</v>
+        <v>0.0413677661888459</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08498336115791824</v>
+        <v>0.1704260913858998</v>
       </c>
       <c r="L169" t="n">
-        <v>0.09529627802238896</v>
+        <v>0.09472631670321449</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0830971907139038</v>
+        <v>0.1706077920282869</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1433810438797973</v>
+        <v>0.1481540035564297</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08327639420208847</v>
+        <v>0.1699909071312934</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05207777990685962</v>
+        <v>0.01532814630014034</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06192815168045531</v>
+        <v>0.1706298494739376</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04292945169738861</v>
+        <v>0.04161800124007492</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08580050886135977</v>
+        <v>0.1720648038030718</v>
       </c>
       <c r="L170" t="n">
-        <v>0.09442044864981852</v>
+        <v>0.09492784244076863</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08389620216307594</v>
+        <v>0.1722482515670205</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1419553684376731</v>
+        <v>0.1483914150994247</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08407712876172395</v>
+        <v>0.1716254350844789</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0512045671160568</v>
+        <v>0.01546542330441766</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0619278831519913</v>
+        <v>0.1722548956594036</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04294062828515342</v>
+        <v>0.04216055081451726</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08661765656480129</v>
+        <v>0.173703516220244</v>
       </c>
       <c r="L171" t="n">
-        <v>0.09443601743830685</v>
+        <v>0.09561164672670533</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0846952136122481</v>
+        <v>0.173888711105754</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1421189670004818</v>
+        <v>0.1506021687227181</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08487786332135941</v>
+        <v>0.1732599630376644</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.05034367790983708</v>
+        <v>0.01560008103817514</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06192761462352727</v>
+        <v>0.1738799418448697</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04305169802593851</v>
+        <v>0.04259609124553274</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08743480426824281</v>
+        <v>0.1753422286374161</v>
       </c>
       <c r="L172" t="n">
-        <v>0.09434380335655262</v>
+        <v>0.09697927708949627</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08549422506142025</v>
+        <v>0.1755291706444875</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1399737285578442</v>
+        <v>0.151688654865601</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08567859788099488</v>
+        <v>0.1748944909908499</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0494955460863384</v>
+        <v>0.01573239040927628</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06192734609506326</v>
+        <v>0.1755049880303358</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04296232576548385</v>
+        <v>0.04272529886648115</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08825195197168434</v>
+        <v>0.1769809410545882</v>
       </c>
       <c r="L173" t="n">
-        <v>0.09304462537325439</v>
+        <v>0.096732281057613</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08629323651059241</v>
+        <v>0.177169630183221</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1391215420993812</v>
+        <v>0.1518532639673652</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08647933244063034</v>
+        <v>0.1765290189440354</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04866060544358596</v>
+        <v>0.01686262232558461</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06192707756659924</v>
+        <v>0.1771300342158018</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04267217634952931</v>
+        <v>0.04304885001072234</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08906909967512586</v>
+        <v>0.1786196534717603</v>
       </c>
       <c r="L174" t="n">
-        <v>0.09213930245711086</v>
+        <v>0.09757220615952719</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08709224795976456</v>
+        <v>0.1788100897219546</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1377642966147136</v>
+        <v>0.1525983864673019</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0872800670002658</v>
+        <v>0.178163546897221</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04783928977964275</v>
+        <v>0.01799104769496365</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06192680903813523</v>
+        <v>0.1787550804012679</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04268091462381478</v>
+        <v>0.04356742101161611</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08988624737856737</v>
+        <v>0.1802583658889324</v>
       </c>
       <c r="L175" t="n">
-        <v>0.09182865357682043</v>
+        <v>0.09920059992371036</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08789125940893672</v>
+        <v>0.1804505492606881</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1377038810934624</v>
+        <v>0.1537264128047024</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08808080155990128</v>
+        <v>0.1797980748504065</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04703203289253689</v>
+        <v>0.01611793742527692</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0619265405096712</v>
+        <v>0.180380126586734</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04278820543408017</v>
+        <v>0.04368168820252227</v>
       </c>
       <c r="K176" t="n">
-        <v>0.09070339508200891</v>
+        <v>0.1818970783061045</v>
       </c>
       <c r="L176" t="n">
-        <v>0.09081349770108191</v>
+        <v>0.09901900987863416</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08869027085810886</v>
+        <v>0.1820910087994216</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1368421845252485</v>
+        <v>0.1553397334188583</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08888153611953674</v>
+        <v>0.181432602803592</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04623926858040167</v>
+        <v>0.01724356242438794</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06192627198120719</v>
+        <v>0.1820051727722</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04259371362606541</v>
+        <v>0.04389232791680069</v>
       </c>
       <c r="K177" t="n">
-        <v>0.09152054278545041</v>
+        <v>0.1835357907232767</v>
       </c>
       <c r="L177" t="n">
-        <v>0.09089465379859371</v>
+        <v>0.09992898355277027</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08948928230728101</v>
+        <v>0.1837314683381552</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1343810958996929</v>
+        <v>0.1575407387490607</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0896822706791722</v>
+        <v>0.1830671307567775</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04546143064126458</v>
+        <v>0.01837145953388447</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06192600345274318</v>
+        <v>0.1836302189576661</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04219710404551036</v>
+        <v>0.04440005357751232</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09233769048889193</v>
+        <v>0.1851745031404488</v>
       </c>
       <c r="L178" t="n">
-        <v>0.09047294083805457</v>
+        <v>0.1014320684745902</v>
       </c>
       <c r="M178" t="n">
-        <v>0.09028829375645317</v>
+        <v>0.1853719278768887</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1344225042064163</v>
+        <v>0.1583355755073117</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09048300523880766</v>
+        <v>0.184701658709963</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0446989528731886</v>
+        <v>0.01850669213576116</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06192573492427916</v>
+        <v>0.1852552651431322</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04249804153815494</v>
+        <v>0.04451968757201048</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09315483819233346</v>
+        <v>0.1868132155576209</v>
       </c>
       <c r="L179" t="n">
-        <v>0.08984917778816301</v>
+        <v>0.1017573478986309</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09108730520562532</v>
+        <v>0.1870123874156222</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1333682984350398</v>
+        <v>0.1596867718293203</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09128373979844313</v>
+        <v>0.1863361866631485</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04395226907420456</v>
+        <v>0.01664492900324958</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06192546639581514</v>
+        <v>0.1868803113285983</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04229619094973905</v>
+        <v>0.0447549950703891</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09397198589577498</v>
+        <v>0.188451927974793</v>
       </c>
       <c r="L180" t="n">
-        <v>0.08942418361761761</v>
+        <v>0.1020207975635563</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09188631665479748</v>
+        <v>0.1886528469543557</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1326203675751843</v>
+        <v>0.1607845709766105</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09208447435807861</v>
+        <v>0.187970714616334</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04322181304244044</v>
+        <v>0.01678151641706234</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06192519786735112</v>
+        <v>0.1885053575140643</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04199121712600259</v>
+        <v>0.04519435785839486</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09478913359921649</v>
+        <v>0.1900906403919651</v>
       </c>
       <c r="L181" t="n">
-        <v>0.08799877729511704</v>
+        <v>0.1026958945464042</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09268532810396962</v>
+        <v>0.1902933064930893</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1314806006164705</v>
+        <v>0.1605879094182416</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09288520891771407</v>
+        <v>0.1896052425695195</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04250801857592634</v>
+        <v>0.01791180065791202</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0619249293388871</v>
+        <v>0.1901304036995304</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04188278491268548</v>
+        <v>0.04562615772177431</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09560628130265802</v>
+        <v>0.1917293528091372</v>
       </c>
       <c r="L182" t="n">
-        <v>0.08717377778935984</v>
+        <v>0.1042560550374522</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09348433955314177</v>
+        <v>0.1919337660318228</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1290508865485195</v>
+        <v>0.1629557236232728</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09368594347734954</v>
+        <v>0.191239770522705</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04181131947272525</v>
+        <v>0.01803112800651124</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06192466081042309</v>
+        <v>0.1917554498849965</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04177055915552758</v>
+        <v>0.04573877644627414</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09642342900609954</v>
+        <v>0.1933680652263093</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08715000406904463</v>
+        <v>0.1044746952269778</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09428335100231393</v>
+        <v>0.1935742255705563</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1293331143609521</v>
+        <v>0.1630469500607635</v>
       </c>
       <c r="O183" t="n">
-        <v>0.094486678036985</v>
+        <v>0.1928742984758906</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04113214953087095</v>
+        <v>0.01713484474357258</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06192439228195906</v>
+        <v>0.1933804960704626</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04165420470026882</v>
+        <v>0.04612059581764091</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09724057670954106</v>
+        <v>0.1950067776434815</v>
       </c>
       <c r="L184" t="n">
-        <v>0.08602827510287001</v>
+        <v>0.1057252313052586</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09508236245148609</v>
+        <v>0.1952146851092899</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1277291730433893</v>
+        <v>0.1646205251997728</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09528741259662046</v>
+        <v>0.1945088264290761</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04047094254848554</v>
+        <v>0.01821829714980867</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06192412375349505</v>
+        <v>0.1950055422559286</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0415333863926491</v>
+        <v>0.04625999762162127</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09805772441298259</v>
+        <v>0.1966454900606535</v>
       </c>
       <c r="L185" t="n">
-        <v>0.08590940985953455</v>
+        <v>0.105881079462572</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09588137390065823</v>
+        <v>0.1968551446480234</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1275409515854519</v>
+        <v>0.1663353855093602</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09608814715625594</v>
+        <v>0.1961433543822616</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03982813232360209</v>
+        <v>0.01727746939876335</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06192385522503104</v>
+        <v>0.1966305884413947</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0413077690784083</v>
+        <v>0.0466453636439618</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09887487211642411</v>
+        <v>0.1982842024778257</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0854942273077369</v>
+        <v>0.1060156558891958</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09668038534983038</v>
+        <v>0.1984956041867569</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1254703389767609</v>
+        <v>0.1661504674585848</v>
       </c>
       <c r="O186" t="n">
-        <v>0.0968888817158914</v>
+        <v>0.1977778823354471</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03920415265428351</v>
+        <v>0.01932745232135401</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06192358669656702</v>
+        <v>0.1982556346268608</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04157701760328637</v>
+        <v>0.04677616579237528</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09969201981986563</v>
+        <v>0.1999229148949978</v>
       </c>
       <c r="L187" t="n">
-        <v>0.08488354641617554</v>
+        <v>0.106020735672775</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09747939679900253</v>
+        <v>0.2001360637254904</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1245192242069371</v>
+        <v>0.1666974704381128</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09768961627552686</v>
+        <v>0.1994124102886326</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03859943733856691</v>
+        <v>0.01837635071814663</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06192331816810299</v>
+        <v>0.1998806808123268</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04124079681302316</v>
+        <v>0.04699793288729259</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1005091675233071</v>
+        <v>0.2015616273121699</v>
       </c>
       <c r="L188" t="n">
-        <v>0.0835781861535492</v>
+        <v>0.1065992581755467</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09827840824817469</v>
+        <v>0.201776523264224</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1240894962656016</v>
+        <v>0.1672281897074832</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09849035083516233</v>
+        <v>0.2010469382418181</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0380144201745679</v>
+        <v>0.01742414746282448</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06192304963963898</v>
+        <v>0.2015057269977929</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04129877155335861</v>
+        <v>0.04701699969563096</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1013263152267487</v>
+        <v>0.203200339729342</v>
       </c>
       <c r="L189" t="n">
-        <v>0.08277896548855643</v>
+        <v>0.1069716166111918</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09907741969734685</v>
+        <v>0.2034169828029575</v>
       </c>
       <c r="N189" t="n">
-        <v>0.122483044142375</v>
+        <v>0.1670493112222144</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09929108539479781</v>
+        <v>0.2026814661950037</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03744776361823236</v>
+        <v>0.01847082542907089</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06192278111117497</v>
+        <v>0.203130773183259</v>
       </c>
       <c r="J190" t="n">
-        <v>0.0409506066700326</v>
+        <v>0.0471333234607898</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1021434629301902</v>
+        <v>0.2048390521465141</v>
       </c>
       <c r="L190" t="n">
-        <v>0.0822867033898958</v>
+        <v>0.1074377131476932</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09987643114651899</v>
+        <v>0.205057442341691</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1224017568268784</v>
+        <v>0.167260683862956</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1000918199544333</v>
+        <v>0.2043159941481892</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03688927341508044</v>
+        <v>0.01951636749056913</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06192251258271095</v>
+        <v>0.2047558193687251</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04099596700878504</v>
+        <v>0.04704686142616851</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1029606106336317</v>
+        <v>0.2064777645636862</v>
       </c>
       <c r="L191" t="n">
-        <v>0.08220221882626594</v>
+        <v>0.1073974499530339</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1006754425956911</v>
+        <v>0.2066979018804246</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1206475233087327</v>
+        <v>0.1690621565103574</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1008925545140687</v>
+        <v>0.2059505221013747</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03633761202106064</v>
+        <v>0.01756075652100251</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06192224405424693</v>
+        <v>0.2063808655541911</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04083451741535581</v>
+        <v>0.0472575708351665</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1037777583370732</v>
+        <v>0.2081164769808584</v>
       </c>
       <c r="L192" t="n">
-        <v>0.08192633076636538</v>
+        <v>0.1078507291951968</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1014744540448633</v>
+        <v>0.2083383614191581</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1211222325775589</v>
+        <v>0.1682535780450684</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1016932890737042</v>
+        <v>0.2075850500545602</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03579321323428396</v>
+        <v>0.01860397539405432</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06192197552578291</v>
+        <v>0.2080059117396572</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04055378345559542</v>
+        <v>0.04756540893118318</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1045949060405148</v>
+        <v>0.2097551893980305</v>
       </c>
       <c r="L193" t="n">
-        <v>0.08114429940524534</v>
+        <v>0.1081974530421649</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1022734654940354</v>
+        <v>0.2099788209578916</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1195135601485501</v>
+        <v>0.168434797347738</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1024940236333397</v>
+        <v>0.2092195780077457</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03525651085278918</v>
+        <v>0.01964600698340784</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06192170699731889</v>
+        <v>0.2096309579251233</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04044035218975942</v>
+        <v>0.04757033295761794</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1054120537439563</v>
+        <v>0.2113939018152026</v>
       </c>
       <c r="L194" t="n">
-        <v>0.08033873424913307</v>
+        <v>0.1083375236619213</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1030724769432076</v>
+        <v>0.2116192804966252</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1186042104566186</v>
+        <v>0.1688056632990164</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1032947581929751</v>
+        <v>0.2108541059609312</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0347279386746393</v>
+        <v>0.01868683416274638</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06192143846885488</v>
+        <v>0.2112560041105893</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04009612397050398</v>
+        <v>0.0474723001578702</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1062292014473978</v>
+        <v>0.2130326142323747</v>
       </c>
       <c r="L195" t="n">
-        <v>0.08001160529452572</v>
+        <v>0.1081708432224489</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1038714883923798</v>
+        <v>0.2132597400353587</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1177946980715828</v>
+        <v>0.1699660247795528</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1040954927526106</v>
+        <v>0.2124886339141167</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03420793049787481</v>
+        <v>0.01772643980575324</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06192116994039085</v>
+        <v>0.2128810502960554</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03972302841206239</v>
+        <v>0.04787126777533934</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1070463491508393</v>
+        <v>0.2146713266495468</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07906492849015601</v>
+        <v>0.1089973138917306</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1046704998415519</v>
+        <v>0.2149001995740922</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1176856100333051</v>
+        <v>0.1699157306699968</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1048962273122461</v>
+        <v>0.2141231618673022</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.033696920120604</v>
+        <v>0.0197648067861117</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06192090141192684</v>
+        <v>0.2145060964815215</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03922299512866789</v>
+        <v>0.04776719305342481</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1078634968542808</v>
+        <v>0.2163100390667189</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07800071978475648</v>
+        <v>0.1096168378377496</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1054695112907241</v>
+        <v>0.2165406591128257</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1161775333816479</v>
+        <v>0.1700546298509979</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1056969618718815</v>
+        <v>0.2157576898204878</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.033195341340867</v>
+        <v>0.01780191797750506</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06192063288346283</v>
+        <v>0.2161311426669875</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03909795373455374</v>
+        <v>0.04796003323552597</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1086806445577224</v>
+        <v>0.217948751483891</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07732099512705984</v>
+        <v>0.1095293172284886</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1062685227398962</v>
+        <v>0.2181811186515593</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1155710551564732</v>
+        <v>0.1701825712032057</v>
       </c>
       <c r="O198" t="n">
-        <v>0.106497696431517</v>
+        <v>0.2173922177736733</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03270362795672681</v>
+        <v>0.01783775625361663</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06192036435499881</v>
+        <v>0.2177561888524536</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03864983384395321</v>
+        <v>0.04814974556504227</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1094977922611639</v>
+        <v>0.2195874639010632</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07662777046579877</v>
+        <v>0.1098346542319308</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1070675341890684</v>
+        <v>0.2198215781902928</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1150667623976435</v>
+        <v>0.1709994036072696</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1072984309911525</v>
+        <v>0.2190267457268588</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03222221376622562</v>
+        <v>0.01787230448812968</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06192009582653479</v>
+        <v>0.2193812350379197</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03828056507109952</v>
+        <v>0.04803628728537308</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1103149399646054</v>
+        <v>0.2212261763182353</v>
       </c>
       <c r="L200" t="n">
-        <v>0.0765230617497058</v>
+        <v>0.110132751016059</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1078665456382405</v>
+        <v>0.2214620377290263</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1138652421450208</v>
+        <v>0.1709049759438394</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1080991655507879</v>
+        <v>0.2206612736800443</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03175153256746836</v>
+        <v>0.01790554555472752</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06191982729807077</v>
+        <v>0.2210062812233858</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03779207703022591</v>
+        <v>0.04841961563991783</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1111320876680469</v>
+        <v>0.2228648887354074</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07600888492751365</v>
+        <v>0.1097235097488564</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1086655570874127</v>
+        <v>0.2231024972677599</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1138670814384675</v>
+        <v>0.1707991370935646</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1088999001104234</v>
+        <v>0.2222958016332298</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03129201815849679</v>
+        <v>0.01993746232709345</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06191955876960676</v>
+        <v>0.2226313274088518</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03768629933556568</v>
+        <v>0.0484996878720759</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1119492353714885</v>
+        <v>0.2245036011525795</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07538725594795498</v>
+        <v>0.1101068325983057</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1094645685365848</v>
+        <v>0.2247429568064934</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1120728673178458</v>
+        <v>0.1717817359370945</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1097006346700589</v>
+        <v>0.2239303295864153</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03084410433737393</v>
+        <v>0.01896803767891075</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06191929024114275</v>
+        <v>0.2242563735943179</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03706516160135209</v>
+        <v>0.04827646122524672</v>
       </c>
       <c r="K203" t="n">
-        <v>0.11276638307493</v>
+        <v>0.2261423135697516</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07466019075976235</v>
+        <v>0.1100826217323901</v>
       </c>
       <c r="M203" t="n">
-        <v>0.110263579985757</v>
+        <v>0.2263834163452269</v>
       </c>
       <c r="N203" t="n">
-        <v>0.112483186823018</v>
+        <v>0.1729526213550789</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1105013692296943</v>
+        <v>0.2255648575396009</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03040822490214401</v>
+        <v>0.01899725448386272</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06191902171267872</v>
+        <v>0.225881419779784</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03653059344181833</v>
+        <v>0.04864989294282966</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1135835307783715</v>
+        <v>0.2277810259869237</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07292970531166845</v>
+        <v>0.1103507793190925</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1110625914349291</v>
+        <v>0.2280238758839604</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1099986269938463</v>
+        <v>0.1720116422281671</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1113021037893298</v>
+        <v>0.2271993854927864</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02998481365090795</v>
+        <v>0.01902509561563266</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06191875318421471</v>
+        <v>0.22750646596525</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03618452447119772</v>
+        <v>0.04871994026822414</v>
       </c>
       <c r="K205" t="n">
-        <v>0.114400678481813</v>
+        <v>0.2294197384040958</v>
       </c>
       <c r="L205" t="n">
-        <v>0.0721978155524059</v>
+        <v>0.1101112075263959</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1118616028841013</v>
+        <v>0.2296643354226939</v>
       </c>
       <c r="N205" t="n">
-        <v>0.110319774870193</v>
+        <v>0.1735586474370089</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1121028383489652</v>
+        <v>0.2288339134459718</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02957430438170952</v>
+        <v>0.02005154394790386</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06191848465575069</v>
+        <v>0.2291315121507161</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03572888430372348</v>
+        <v>0.04878656044482961</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1152178261852545</v>
+        <v>0.2310584508212679</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07146653743070736</v>
+        <v>0.1104638085222833</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1126606143332734</v>
+        <v>0.2313047949614274</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1091472174919203</v>
+        <v>0.1731934858622537</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1129035729086007</v>
+        <v>0.2304684413991574</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02917713089261165</v>
+        <v>0.02007658235435961</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06191821612728667</v>
+        <v>0.2307565583361822</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03556560255362887</v>
+        <v>0.04844971071604542</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1160349738886961</v>
+        <v>0.2326971632384401</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07073788689530547</v>
+        <v>0.1107084844747376</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1134596257824456</v>
+        <v>0.232945254500161</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1086815418988906</v>
+        <v>0.1730160063845511</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1137043074682362</v>
+        <v>0.2321029693523429</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02879372698166094</v>
+        <v>0.01810019370868323</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06191794759882265</v>
+        <v>0.2323816045216482</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03499660883514712</v>
+        <v>0.048609348325271</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1168521215921376</v>
+        <v>0.2343358756556121</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07091387989493284</v>
+        <v>0.1114451375517418</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1142586372316177</v>
+        <v>0.2345857140388945</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1076233351309658</v>
+        <v>0.1739260578845506</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1145050420278717</v>
+        <v>0.2337374973055284</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02842452644695376</v>
+        <v>0.02012236088455799</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06191767907035863</v>
+        <v>0.2340066507071143</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03442383276251153</v>
+        <v>0.04876543051590575</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1176692692955791</v>
+        <v>0.2359745880727843</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07029653237832215</v>
+        <v>0.111473669921279</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1150576486807899</v>
+        <v>0.236226173577628</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1072731842280086</v>
+        <v>0.1735234892429017</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1153057765875071</v>
+        <v>0.2353720252587139</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02806996308653609</v>
+        <v>0.01914306675566717</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06191741054189462</v>
+        <v>0.2356316968925804</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03394920394995532</v>
+        <v>0.04861791453134907</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1184864169990206</v>
+        <v>0.2376133004899564</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06958786029420602</v>
+        <v>0.110693983751332</v>
       </c>
       <c r="M210" t="n">
-        <v>0.115856660129962</v>
+        <v>0.2378666331163616</v>
       </c>
       <c r="N210" t="n">
-        <v>0.105431676229881</v>
+        <v>0.174308149340254</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1161065111471426</v>
+        <v>0.2370065532118995</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02773047069847087</v>
+        <v>0.01816229419569412</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06191714201343061</v>
+        <v>0.2372567430780465</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03327465201171174</v>
+        <v>0.04896675761500038</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1193035647024622</v>
+        <v>0.2392520129071285</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06798987959131714</v>
+        <v>0.111905981209884</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1166556715791342</v>
+        <v>0.2395070926550951</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1046993981764453</v>
+        <v>0.1747798870572572</v>
       </c>
       <c r="O211" t="n">
-        <v>0.116907245706778</v>
+        <v>0.238641081165085</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02740648308080737</v>
+        <v>0.02018002607832208</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06191687348496658</v>
+        <v>0.2388817892635125</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03300210656201406</v>
+        <v>0.04901191701025909</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1201207124059037</v>
+        <v>0.2408907253243006</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06790460621838804</v>
+        <v>0.1120095644649177</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1174546830283063</v>
+        <v>0.2411475521938286</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1047769371075638</v>
+        <v>0.1733385512745605</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1177079802664135</v>
+        <v>0.2402756091182705</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02709843403163673</v>
+        <v>0.02019624527723438</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06191660495650256</v>
+        <v>0.2405068354489786</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03263349721509556</v>
+        <v>0.04875334996052456</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1209378601093452</v>
+        <v>0.2425294377414727</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06743405612415146</v>
+        <v>0.1117046356844162</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1182536944774785</v>
+        <v>0.2427880117325621</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1042648800630985</v>
+        <v>0.1742839908728138</v>
       </c>
       <c r="O213" t="n">
-        <v>0.118508714826049</v>
+        <v>0.241910137071456</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02680675734900748</v>
+        <v>0.01821093466611428</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06191633642803855</v>
+        <v>0.2421318816344447</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03207075358518943</v>
+        <v>0.04889101370919625</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1217550078127867</v>
+        <v>0.2441681501586448</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06658024525733999</v>
+        <v>0.1117910970363626</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1190527059266506</v>
+        <v>0.2444284712712957</v>
       </c>
       <c r="N214" t="n">
-        <v>0.103763814082912</v>
+        <v>0.1748160547326663</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1193094493856845</v>
+        <v>0.2435446650246415</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02680675734900748</v>
+        <v>0.02022407711864511</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06191633642803855</v>
+        <v>0.2437569278199108</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03151580528652898</v>
+        <v>0.04902486549967353</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1225721555162282</v>
+        <v>0.245806862575817</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06584518956668631</v>
+        <v>0.1111688506887398</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1198517173758228</v>
+        <v>0.2460689308100292</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1025743262068664</v>
+        <v>0.1736345917347679</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1201101839453199</v>
+        <v>0.245179192977827</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02614552119757725</v>
+        <v>0.01923565550851015</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06182785396373137</v>
+        <v>0.2453819740053769</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03097058193334744</v>
+        <v>0.04915486257535583</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1233893032196698</v>
+        <v>0.2474455749929891</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06543090500092305</v>
+        <v>0.1116377988095307</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1206507288249949</v>
+        <v>0.2477093903487627</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1015970034748239</v>
+        <v>0.1741394507597678</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1209109185049554</v>
+        <v>0.2468137209310125</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02549130816616807</v>
+        <v>0.02024565270939269</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06173937149942418</v>
+        <v>0.2470070201908429</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03073701313987803</v>
+        <v>0.04908096217964251</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1242064509231113</v>
+        <v>0.2490842874101612</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06433940750878281</v>
+        <v>0.1118978435667183</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1214497402741671</v>
+        <v>0.2493498498874963</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1014324329266469</v>
+        <v>0.1738304806883159</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1217116530645908</v>
+        <v>0.248448248884198</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02484438909555693</v>
+        <v>0.02025405159497604</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06165088903511701</v>
+        <v>0.248632066376309</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03031702852035405</v>
+        <v>0.04910312155593304</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1250235986265528</v>
+        <v>0.2507229998273333</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06377271303899826</v>
+        <v>0.1122488871282857</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1222487517233393</v>
+        <v>0.2509903094262298</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1007812016021975</v>
+        <v>0.1748075304010613</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1225123876242263</v>
+        <v>0.2500827768373835</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02420503482652059</v>
+        <v>0.01926083503894349</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06156240657080982</v>
+        <v>0.2502571125617751</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03001255768900876</v>
+        <v>0.0489212979476268</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1258407463299943</v>
+        <v>0.2523617122445054</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06313283754030202</v>
+        <v>0.1114908316622158</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1230477631725114</v>
+        <v>0.2526307689649633</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1009438965413381</v>
+        <v>0.173970448778654</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1233131221838618</v>
+        <v>0.2517173047905691</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02357351619983587</v>
+        <v>0.01826598591497831</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06147392410650265</v>
+        <v>0.2518821587472411</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02972553026007538</v>
+        <v>0.04913544859812316</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1266578940334359</v>
+        <v>0.2540004246616775</v>
       </c>
       <c r="L220" t="n">
-        <v>0.0627217969614268</v>
+        <v>0.1119235793364916</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1238467746216835</v>
+        <v>0.2542712285036968</v>
       </c>
       <c r="N220" t="n">
-        <v>0.09892110478393079</v>
+        <v>0.1743190847017432</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1241138567434973</v>
+        <v>0.2533518327437546</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02295010405627961</v>
+        <v>0.02026948709676384</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06138544164219547</v>
+        <v>0.2535072049327072</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02935787584778719</v>
+        <v>0.04934553075082158</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1274750417368774</v>
+        <v>0.2556391370788496</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06264160725110515</v>
+        <v>0.112347032319096</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1246457860708557</v>
+        <v>0.2559116880424304</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09821341336983797</v>
+        <v>0.1756532870509786</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1249145913031327</v>
+        <v>0.2549863606969401</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02233506923662856</v>
+        <v>0.01827132145798334</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06129695917788828</v>
+        <v>0.2551322511181733</v>
       </c>
       <c r="J222" t="n">
-        <v>0.0290115240663774</v>
+        <v>0.04935150164912143</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1282921894403189</v>
+        <v>0.2572778494960217</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06239428435806976</v>
+        <v>0.111761092778012</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1254447975200279</v>
+        <v>0.2575521475811639</v>
       </c>
       <c r="N222" t="n">
-        <v>0.09832140933892169</v>
+        <v>0.1750729047070098</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1257153258627682</v>
+        <v>0.2566208886501256</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02172868258165971</v>
+        <v>0.01926715448068147</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0612084767135811</v>
+        <v>0.2567572973036394</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02838840453007933</v>
+        <v>0.04925304431642913</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1291093371437604</v>
+        <v>0.2589165619131938</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06178184423105326</v>
+        <v>0.112565594004259</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1262438089692</v>
+        <v>0.2591926071198974</v>
       </c>
       <c r="N223" t="n">
-        <v>0.09774567973104442</v>
+        <v>0.1751712039347387</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1265160604224037</v>
+        <v>0.2582554166033111</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02113121493214981</v>
+        <v>0.01922076837368938</v>
       </c>
       <c r="G224" t="n">
-        <v>0.06111999424927392</v>
+        <v>0.2583823434891054</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02829044685312618</v>
+        <v>0.04908069217243345</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1299264848472019</v>
+        <v>0.260555274330366</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06120630281878836</v>
+        <v>0.1119127689279883</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1270428204183721</v>
+        <v>0.260833066658631</v>
       </c>
       <c r="N224" t="n">
-        <v>0.09678681158606833</v>
+        <v>0.1745684235187486</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1273167949820391</v>
+        <v>0.2598899445564966</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02054293712887569</v>
+        <v>0.02012830689142583</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06103151178496674</v>
+        <v>0.2600073896745715</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02811958064975122</v>
+        <v>0.0486898237544736</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1307436325506435</v>
+        <v>0.2621939867475381</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06056967607000754</v>
+        <v>0.1109877545449469</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1278418318675443</v>
+        <v>0.2624735261973645</v>
       </c>
       <c r="N225" t="n">
-        <v>0.09664539194385563</v>
+        <v>0.1747505098461859</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1281175295416746</v>
+        <v>0.2615244725096821</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01996412001261412</v>
+        <v>0.01999510904979036</v>
       </c>
       <c r="G226" t="n">
-        <v>0.06094302932065956</v>
+        <v>0.2616324358600376</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02787773553418771</v>
+        <v>0.04859376814984347</v>
       </c>
       <c r="K226" t="n">
-        <v>0.131560780254085</v>
+        <v>0.2638326991647102</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06037397993344362</v>
+        <v>0.1113210493390382</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1286408433167165</v>
+        <v>0.264113985736098</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09692200784426863</v>
+        <v>0.1730645733745241</v>
       </c>
       <c r="O226" t="n">
-        <v>0.12891826410131</v>
+        <v>0.2631590004628677</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01939503442414207</v>
+        <v>0.01782651386468248</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06085454685635237</v>
+        <v>0.2632574820455036</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0276668411206689</v>
+        <v>0.0483058544458369</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1323779279575265</v>
+        <v>0.2654714115818823</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05992123035782909</v>
+        <v>0.1104431517941659</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1294398547658886</v>
+        <v>0.2657544452748316</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09621724632716966</v>
+        <v>0.172257724561237</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1297189986609455</v>
+        <v>0.2647935284160531</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01883595120423631</v>
+        <v>0.01862786035200172</v>
       </c>
       <c r="G228" t="n">
-        <v>0.0607660643920452</v>
+        <v>0.2648825282309697</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02718882702342805</v>
+        <v>0.04793941172974781</v>
       </c>
       <c r="K228" t="n">
-        <v>0.133195075660968</v>
+        <v>0.2671101239990544</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06061344329189669</v>
+        <v>0.1089845603942332</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1302388662150608</v>
+        <v>0.2673949048135651</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09513169443242075</v>
+        <v>0.1695770738637981</v>
       </c>
       <c r="O228" t="n">
-        <v>0.130519733220581</v>
+        <v>0.2664280563692387</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01828714119367365</v>
+        <v>0.01740448752764762</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06067758192773802</v>
+        <v>0.2665075744164358</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02734562285669838</v>
+        <v>0.04710776908887004</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1340122233644095</v>
+        <v>0.2687488364162265</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06005263468437902</v>
+        <v>0.1076757736231438</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1310378776642329</v>
+        <v>0.2690353643522986</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09466593919988436</v>
+        <v>0.1679697317396812</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1313204677802164</v>
+        <v>0.2680625843224242</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01774887523323086</v>
+        <v>0.01916173440751971</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06058909946343083</v>
+        <v>0.2681326206019018</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02683889809715831</v>
+        <v>0.04672425561049749</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1348293710678511</v>
+        <v>0.2703875488333987</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06034051374820285</v>
+        <v>0.1062472899648014</v>
       </c>
       <c r="M230" t="n">
-        <v>0.131836889113405</v>
+        <v>0.2706758238910321</v>
       </c>
       <c r="N230" t="n">
-        <v>0.09362048229923603</v>
+        <v>0.1648828086463597</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1321212023398519</v>
+        <v>0.2696971122756097</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01722142416368493</v>
+        <v>0.0179049400075175</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06050061699912365</v>
+        <v>0.269757666787368</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02704774927295599</v>
+        <v>0.04600220038192405</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1356465187712926</v>
+        <v>0.2720262612505707</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05974932047271658</v>
+        <v>0.1054296079031092</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1326359005625772</v>
+        <v>0.2723162834297657</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09328541123563361</v>
+        <v>0.1627634150413075</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1329219368994874</v>
+        <v>0.2713316402287952</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.0167050588258126</v>
+        <v>0.01763944334354054</v>
       </c>
       <c r="G232" t="n">
-        <v>0.06041213453481648</v>
+        <v>0.271382712972834</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02685805846539095</v>
+        <v>0.04545493249044359</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1364636664747341</v>
+        <v>0.2736649736677428</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06026003791895493</v>
+        <v>0.103053225921971</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1334349120117494</v>
+        <v>0.2739567429684992</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09345385753816826</v>
+        <v>0.1619586613819982</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1337226714591228</v>
+        <v>0.2729661681819808</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01620005006039071</v>
+        <v>0.01637058343148834</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06032365207050929</v>
+        <v>0.2730077591583001</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02696990339387562</v>
+        <v>0.04459578102334996</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1372808141781756</v>
+        <v>0.275303686084915</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05977271602708509</v>
+        <v>0.1020486425052903</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1342339234609215</v>
+        <v>0.2755972025072327</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09362613466611147</v>
+        <v>0.1590156581259053</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1345234060187583</v>
+        <v>0.2746006961351662</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01570666870819602</v>
+        <v>0.01710369928726044</v>
       </c>
       <c r="G234" t="n">
-        <v>0.0602351696062021</v>
+        <v>0.2746328053437662</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02668336177782249</v>
+        <v>0.0440380750679371</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1380979618816171</v>
+        <v>0.2769423985020871</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06008740473727434</v>
+        <v>0.1008463561369704</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1350329349100937</v>
+        <v>0.2772376620459663</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09170255607873495</v>
+        <v>0.1565815157305027</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1353241405783938</v>
+        <v>0.2762352240883518</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01522518561000551</v>
+        <v>0.01584412992675637</v>
       </c>
       <c r="G235" t="n">
-        <v>0.06014668714189492</v>
+        <v>0.2762578515292322</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02669851133664403</v>
+        <v>0.04339514371149882</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1389151095850586</v>
+        <v>0.2785811109192592</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05970415398968995</v>
+        <v>0.09897686530091501</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1358319463592658</v>
+        <v>0.2788781215846998</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09168343523531042</v>
+        <v>0.1538033446532639</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1361248751380292</v>
+        <v>0.2778697520415372</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01475587160659593</v>
+        <v>0.01659721436587565</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06005820467758775</v>
+        <v>0.2778828977146983</v>
       </c>
       <c r="J236" t="n">
-        <v>0.0264154297897527</v>
+        <v>0.04278031604132905</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1397322572885002</v>
+        <v>0.2802198233364313</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05932301372449922</v>
+        <v>0.09747066848102767</v>
       </c>
       <c r="M236" t="n">
-        <v>0.136630957808438</v>
+        <v>0.2805185811234333</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09126908559510938</v>
+        <v>0.1520282553516626</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1369256096976647</v>
+        <v>0.2795042799947228</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01429899753874412</v>
+        <v>0.01536829162051781</v>
       </c>
       <c r="G237" t="n">
-        <v>0.05996972221328057</v>
+        <v>0.2795079439001644</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02623419485656095</v>
+        <v>0.04220692114472165</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1405494049919417</v>
+        <v>0.2818585357536034</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05984403388186929</v>
+        <v>0.09565826416121184</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1374299692576101</v>
+        <v>0.2821590406621668</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09085982061740366</v>
+        <v>0.1502033582831724</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1377263442573002</v>
+        <v>0.2811388079479083</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01385483424722685</v>
+        <v>0.01515628410403157</v>
       </c>
       <c r="G238" t="n">
-        <v>0.05988123974897338</v>
+        <v>0.2811329900856304</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02625488425648127</v>
+        <v>0.04168110919013707</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1413665526953832</v>
+        <v>0.2834972481707755</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05976726440196756</v>
+        <v>0.09475569094516623</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1382289807067823</v>
+        <v>0.2837995002009004</v>
       </c>
       <c r="N238" t="n">
-        <v>0.0904559537614647</v>
+        <v>0.1475422561031277</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1385270788169356</v>
+        <v>0.2827733359010938</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01342365257282107</v>
+        <v>0.01494470393797525</v>
       </c>
       <c r="G239" t="n">
-        <v>0.0597927572846662</v>
+        <v>0.2827580362710965</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02607757570892615</v>
+        <v>0.04136208146197981</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1421837003988247</v>
+        <v>0.2851359605879477</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05959275522496121</v>
+        <v>0.09427074586045478</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1390279921559544</v>
+        <v>0.2854399597396339</v>
       </c>
       <c r="N239" t="n">
-        <v>0.08985779848656422</v>
+        <v>0.1461979407716398</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1393278133765711</v>
+        <v>0.2844078638542794</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01300461742313148</v>
+        <v>0.01673232233520527</v>
       </c>
       <c r="G240" t="n">
-        <v>0.05970427482035903</v>
+        <v>0.2843830824565626</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02600234693330802</v>
+        <v>0.04044107618153409</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1430008481022663</v>
+        <v>0.2867746730051198</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05862055629101753</v>
+        <v>0.09278128265160621</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1398270036051266</v>
+        <v>0.2870804192783674</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09016566825197392</v>
+        <v>0.1452466109235434</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1401285479362066</v>
+        <v>0.2860423918074648</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01259136403990255</v>
+        <v>0.01651912664739497</v>
       </c>
       <c r="G241" t="n">
-        <v>0.05961579235605184</v>
+        <v>0.2860081286420286</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02612927564903939</v>
+        <v>0.04031806177169782</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1438179958057078</v>
+        <v>0.2884133854222919</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05935071754030377</v>
+        <v>0.09118722906658105</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1406260150542988</v>
+        <v>0.288720878817101</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08917987651696535</v>
+        <v>0.1425881549524176</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1409292824958421</v>
+        <v>0.2876769197606504</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01218305733073898</v>
+        <v>0.01530510422621768</v>
       </c>
       <c r="G242" t="n">
-        <v>0.05952730989174465</v>
+        <v>0.2876331748274947</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02595843957553272</v>
+        <v>0.03939300665536892</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1446351435091493</v>
+        <v>0.290052097839464</v>
       </c>
       <c r="L242" t="n">
-        <v>0.0592832889129872</v>
+        <v>0.08988851285334001</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1414250265034709</v>
+        <v>0.2903613383558345</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08990073674081028</v>
+        <v>0.1403224612518418</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1417300170554775</v>
+        <v>0.2893114477138359</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01177996813641772</v>
+        <v>0.01609024242334677</v>
       </c>
       <c r="G243" t="n">
-        <v>0.05943882742743747</v>
+        <v>0.2892582210129608</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02598991643220043</v>
+        <v>0.0388658792554453</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1454522912125908</v>
+        <v>0.2916908102566361</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05921832034923508</v>
+        <v>0.08948506175984378</v>
       </c>
       <c r="M243" t="n">
-        <v>0.142224037952643</v>
+        <v>0.292001797894568</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08882856238278014</v>
+        <v>0.1380494182153951</v>
       </c>
       <c r="O243" t="n">
-        <v>0.142530751615113</v>
+        <v>0.2909459756670214</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01138236729771554</v>
+        <v>0.01487452859045554</v>
       </c>
       <c r="G244" t="n">
-        <v>0.0593503449631303</v>
+        <v>0.2908832671984268</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02612378393845508</v>
+        <v>0.03833664799482485</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1462694389160324</v>
+        <v>0.2933295226738082</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05855586178921474</v>
+        <v>0.08777680353405293</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1430230494018152</v>
+        <v>0.2936422574333015</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08806366690214679</v>
+        <v>0.1362689142366567</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1433314861747484</v>
+        <v>0.2925805036202069</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01099052565540927</v>
+        <v>0.01565795007921739</v>
       </c>
       <c r="G245" t="n">
-        <v>0.05926186249882312</v>
+        <v>0.2925083133838929</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02586011981370906</v>
+        <v>0.0381052812964055</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1470865866194739</v>
+        <v>0.2949682350909803</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0592959631730933</v>
+        <v>0.08716366592392805</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1438220608509873</v>
+        <v>0.2952827169720351</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08740636375818184</v>
+        <v>0.1354808377092058</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1441322207343839</v>
+        <v>0.2942150315733924</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01060471405027569</v>
+        <v>0.01544049424130563</v>
       </c>
       <c r="G246" t="n">
-        <v>0.05917338003451593</v>
+        <v>0.294133359569359</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02579900177737486</v>
+        <v>0.03757174758308517</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1479037343229154</v>
+        <v>0.2966069475081524</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05873867444103814</v>
+        <v>0.08524557667742988</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1446210723001595</v>
+        <v>0.2969231765107686</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08845696641015682</v>
+        <v>0.1325850770266218</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1449329552940194</v>
+        <v>0.2958495595265779</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01022520332309174</v>
+        <v>0.0132221484283936</v>
       </c>
       <c r="G247" t="n">
-        <v>0.05908489757020875</v>
+        <v>0.295758405754825</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02584050754886498</v>
+        <v>0.03683601527776176</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1487208820263569</v>
+        <v>0.2982456599253245</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05888404553321649</v>
+        <v>0.08432246354251907</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1454200837493317</v>
+        <v>0.2985636360495021</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08701578831734347</v>
+        <v>0.1305815205824837</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1457336898536548</v>
+        <v>0.2974840874797634</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009852264314634207</v>
+        <v>0.01300289999215466</v>
       </c>
       <c r="G248" t="n">
-        <v>0.05899641510590157</v>
+        <v>0.2973834519402911</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02558471484759185</v>
+        <v>0.03659805280333318</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1495380297297984</v>
+        <v>0.2998843723424967</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05843212638979559</v>
+        <v>0.08349425426715618</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1462190951985038</v>
+        <v>0.3002040955882357</v>
       </c>
       <c r="N248" t="n">
-        <v>0.0862831429390134</v>
+        <v>0.1288700567703709</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1465344244132903</v>
+        <v>0.2991186154329489</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.009486167865679913</v>
+        <v>0.01478273628426217</v>
       </c>
       <c r="G249" t="n">
-        <v>0.05890793264159439</v>
+        <v>0.2990084981257572</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02583170139296796</v>
+        <v>0.03575782858269735</v>
       </c>
       <c r="K249" t="n">
-        <v>0.15035517743324</v>
+        <v>0.3015230847596688</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05858296695094273</v>
+        <v>0.08166087659930193</v>
       </c>
       <c r="M249" t="n">
-        <v>0.147018106647676</v>
+        <v>0.3018445551269692</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08655934373443824</v>
+        <v>0.1268505739838626</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1473351589729258</v>
+        <v>0.3007531433861345</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.009127184817005647</v>
+        <v>0.01456164465638943</v>
       </c>
       <c r="G250" t="n">
-        <v>0.0588194501772872</v>
+        <v>0.3006335443112233</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02578154490440579</v>
+        <v>0.03541531103875217</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1511723251366815</v>
+        <v>0.3031617971768409</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05873661715682518</v>
+        <v>0.08042225828691693</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1478171180968481</v>
+        <v>0.3034850146657027</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08604470416288956</v>
+        <v>0.125722960616538</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1481358935325612</v>
+        <v>0.30238767133932</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008775586009388332</v>
+        <v>0.01433961246020984</v>
       </c>
       <c r="G251" t="n">
-        <v>0.05873096771298002</v>
+        <v>0.3022585904966893</v>
       </c>
       <c r="J251" t="n">
-        <v>0.0254343231013178</v>
+        <v>0.03477046859439556</v>
       </c>
       <c r="K251" t="n">
-        <v>0.151989472840123</v>
+        <v>0.304800509594013</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05789312694761012</v>
+        <v>0.07957832707796178</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1486161295460203</v>
+        <v>0.3051254742044362</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08633953768363922</v>
+        <v>0.1232871050619762</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1489366280921967</v>
+        <v>0.3040221992925055</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.008431642283604761</v>
+        <v>0.01411662704739669</v>
       </c>
       <c r="G252" t="n">
-        <v>0.05864248524867285</v>
+        <v>0.3038836366821554</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02549011370311643</v>
+        <v>0.03442326967252543</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1528066205435645</v>
+        <v>0.3064392220111851</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05825254626346493</v>
+        <v>0.07842901072039718</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1494151409951924</v>
+        <v>0.3067659337431698</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08674415775595862</v>
+        <v>0.1211428957137566</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1497373626518322</v>
+        <v>0.305656727245691</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.008095624480431746</v>
+        <v>0.01389267576962337</v>
       </c>
       <c r="G253" t="n">
-        <v>0.05855400278436567</v>
+        <v>0.3055086828676215</v>
       </c>
       <c r="J253" t="n">
-        <v>0.0255489944292142</v>
+        <v>0.03357368269603973</v>
       </c>
       <c r="K253" t="n">
-        <v>0.153623768247006</v>
+        <v>0.3080779344283572</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05891492504455681</v>
+        <v>0.07637423696218376</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1502141524443646</v>
+        <v>0.3084063932819033</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0859588778391196</v>
+        <v>0.1190902209654583</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1505380972114676</v>
+        <v>0.3072912551988765</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007767803440646093</v>
+        <v>0.01366774597856319</v>
       </c>
       <c r="G254" t="n">
-        <v>0.05846552032005848</v>
+        <v>0.3071337290530876</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02541104299902354</v>
+        <v>0.03292167608783629</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1544409159504476</v>
+        <v>0.3097166468455294</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05788031323105303</v>
+        <v>0.07561393355128218</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1510131638935367</v>
+        <v>0.3100468528206368</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08578401139239367</v>
+        <v>0.1169289692106606</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1513388317711031</v>
+        <v>0.308925783152062</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007448450005024712</v>
+        <v>0.01144182502588952</v>
       </c>
       <c r="G255" t="n">
-        <v>0.0583770378557513</v>
+        <v>0.3087587752385536</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02537633713195696</v>
+        <v>0.03266721827081308</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1552580636538891</v>
+        <v>0.3113553592627015</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05854876076312088</v>
+        <v>0.07384802823565303</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1518121753427089</v>
+        <v>0.3116873123593704</v>
       </c>
       <c r="N255" t="n">
-        <v>0.08431987187505258</v>
+        <v>0.1160590288429428</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1521395663307386</v>
+        <v>0.3105603111052475</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.007137835014344403</v>
+        <v>0.01221490026327569</v>
       </c>
       <c r="G256" t="n">
-        <v>0.05828855539144412</v>
+        <v>0.3103838214240197</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02524495454742688</v>
+        <v>0.03181027766786799</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1560752113573306</v>
+        <v>0.3129940716798736</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05852031758092757</v>
+        <v>0.07317644876325702</v>
       </c>
       <c r="M256" t="n">
-        <v>0.152611186791881</v>
+        <v>0.3133277718981039</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08506677274636792</v>
+        <v>0.112980288255884</v>
       </c>
       <c r="O256" t="n">
-        <v>0.152940300890374</v>
+        <v>0.3121948390584331</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006836229309381985</v>
+        <v>0.01298695904239506</v>
       </c>
       <c r="G257" t="n">
-        <v>0.05820007292713694</v>
+        <v>0.3120088676094858</v>
       </c>
       <c r="J257" t="n">
-        <v>0.0254169729648458</v>
+        <v>0.03165082270189896</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1568923590607721</v>
+        <v>0.3146327840970457</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05839503362464038</v>
+        <v>0.07129912288205476</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1534101982410532</v>
+        <v>0.3149682314368374</v>
       </c>
       <c r="N257" t="n">
-        <v>0.08462502746561124</v>
+        <v>0.1115926358430635</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1537410354500095</v>
+        <v>0.3138293670116186</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006543903730914263</v>
+        <v>0.01175798871492095</v>
       </c>
       <c r="G258" t="n">
-        <v>0.05811159046282975</v>
+        <v>0.3136339137949519</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02539247010362619</v>
+        <v>0.03068882179580387</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1577095067642137</v>
+        <v>0.3162714965142178</v>
       </c>
       <c r="L258" t="n">
-        <v>0.0579729588344266</v>
+        <v>0.06991597834000685</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1542092096902253</v>
+        <v>0.316608690975571</v>
       </c>
       <c r="N258" t="n">
-        <v>0.08499494949205433</v>
+        <v>0.1089959599980604</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1545417700096449</v>
+        <v>0.315463894964804</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006261129119718142</v>
+        <v>0.01152797663252672</v>
       </c>
       <c r="G259" t="n">
-        <v>0.05802310799852257</v>
+        <v>0.315258959980418</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02527152368318052</v>
+        <v>0.03052424337248066</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1585266544676552</v>
+        <v>0.3179102089313899</v>
       </c>
       <c r="L259" t="n">
-        <v>0.0579541431504535</v>
+        <v>0.06862694288507404</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1550082211393975</v>
+        <v>0.3182491505143045</v>
       </c>
       <c r="N259" t="n">
-        <v>0.08417685228496863</v>
+        <v>0.1075901491144541</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1553425045692804</v>
+        <v>0.3170984229179896</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005988176316570407</v>
+        <v>0.01229691014688573</v>
       </c>
       <c r="G260" t="n">
-        <v>0.0579346255342154</v>
+        <v>0.316884006165884</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02545421142292123</v>
+        <v>0.02975705585482721</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1593438021710967</v>
+        <v>0.319548921348562</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05793863651288828</v>
+        <v>0.06833194426521683</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1558072325885696</v>
+        <v>0.319889610053038</v>
       </c>
       <c r="N260" t="n">
-        <v>0.08407104930362613</v>
+        <v>0.1059750915858237</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1561432391289159</v>
+        <v>0.3187329508711751</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005725316162247897</v>
+        <v>0.01206477660967129</v>
       </c>
       <c r="G261" t="n">
-        <v>0.05784614306990822</v>
+        <v>0.3185090523513501</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02504061104226084</v>
+        <v>0.02918722766574144</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1601609498745382</v>
+        <v>0.3211876337657341</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05822648886189827</v>
+        <v>0.06633091022839599</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1566062440377418</v>
+        <v>0.3215300695917715</v>
       </c>
       <c r="N261" t="n">
-        <v>0.08367785400729805</v>
+        <v>0.1042506758057484</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1569439736885514</v>
+        <v>0.3203674788243606</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005472819497527405</v>
+        <v>0.01083156337255678</v>
       </c>
       <c r="G262" t="n">
-        <v>0.05775766060560103</v>
+        <v>0.3201340985368162</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02533080026061177</v>
+        <v>0.02861472722812128</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1609780975779798</v>
+        <v>0.3228263461829062</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05821775013765068</v>
+        <v>0.06482376852257205</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1574052554869139</v>
+        <v>0.3231705291305051</v>
       </c>
       <c r="N262" t="n">
-        <v>0.08379757985525643</v>
+        <v>0.1009167901678076</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1577447082481868</v>
+        <v>0.3220020067775461</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005230957163185841</v>
+        <v>0.009597257787215513</v>
       </c>
       <c r="G263" t="n">
-        <v>0.05766917814129385</v>
+        <v>0.3217591447222822</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02502485679738653</v>
+        <v>0.02823952296486465</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1617952452814213</v>
+        <v>0.3244650586000784</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05781247028031278</v>
+        <v>0.06361044689570577</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1582042669360861</v>
+        <v>0.3248109886692386</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08423054030677263</v>
+        <v>0.1004733230655804</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1585454428078223</v>
+        <v>0.3236365347307317</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01136184720532086</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05758069567698667</v>
+        <v>0.3233841909077483</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02522285837199757</v>
+        <v>0.02746158329886943</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1626123929848628</v>
+        <v>0.3261037710172505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0584106992300519</v>
+        <v>0.06239087309575772</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1590032783852582</v>
+        <v>0.3264514482079721</v>
       </c>
       <c r="N264" t="n">
-        <v>0.08257704882111844</v>
+        <v>0.09772016289264596</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1593461773674577</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.05756753778224982</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005700897623526033</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.05756780631071384</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006398205280249543</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.05756807483917786</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007091886377591179</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05756834336764188</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007781904322881082</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.0575686118961059</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008468222523540042</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.05756888042456991</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009150804386958603</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05756914895303392</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009829613320556721</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.05756941748149795</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01050461273166587</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05756968600996196</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01117576602770618</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05756995453842598</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.0118430366160682</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.05757022306688999</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01250638790417122</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.05757049159535402</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01316578329934803</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.05757076012381803</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01382118620901813</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.05757102865228205</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01447256004057202</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.05757129718074606</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01511986820142833</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05757156570921009</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01576307409892123</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.0575718342376741</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01640214114046951</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05757210276613812</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01703703273346372</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05757237129460213</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01766771228532171</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.05757263982306616</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01829414320337912</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.05757290835153017</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01891628889505403</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05757317687999419</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01953411276773695</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.0575734454084582</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.02014757822884503</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05757371393692223</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.02075664868571538</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.05757398246538624</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02136143696558732</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.05757425099385025</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.0219628029947835</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05757451952231427</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02256085960054241</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.05757478805077829</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02315557019020252</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.05757505657924231</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02374689817118047</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.05757532510770633</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02433480695086677</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.05757559363617034</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02491925993667732</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.05757586216463437</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02550022053595176</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.05757613069309838</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02607765215610615</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.05757639922156239</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02665151820453102</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.05757666775002641</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02722178208864159</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.05757693627849043</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02778840721577878</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05757720480695445</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02835135699335806</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.05757747333541846</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02891059482876987</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.05757774186388248</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02946608412942889</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.0575780103923465</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.03001778830267726</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.05757827892081052</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.03056567075592978</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.05757854744927453</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03110969489657701</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.05757881597773855</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03164982413203285</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.05757908450620258</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03218602186964083</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.05757935303466659</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03271825151681507</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.0575796215631306</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03324647648094609</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05757989009159462</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03377066016944713</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.05758015862005864</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03429076598966312</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05758042714852266</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03480675734900747</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05758069567698667</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03480675734900748</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05756753778224982</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03534354480779477</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05765655730348505</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.0358756329939032</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.05774557682472025</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03640290943716655</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05783459634595547</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03692526166741845</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.05792361586719069</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03744257721449254</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.05801263538842591</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03795474360822244</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.05810165490966111</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.0384616483784419</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.05819067443089634</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03896317905498457</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.05827969395213155</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03945922316768408</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.05836871347336677</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03994966824637405</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.05845773299460198</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.04043440182088825</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.0585467525158372</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.04091331142106029</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.05863577203707242</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.04138628457672384</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.05872479155830763</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.04185320881771251</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.05881381107954285</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04231397167386004</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.05890283060077806</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04276846067500008</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.05899185012201328</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04321656335096623</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.05908086964324849</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04365816723159224</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.05916988916448371</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04409315984671174</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.05925890868571893</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04452142872615839</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.05934792820695414</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04494286139976579</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.05943694772818935</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04535734539736772</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.05952596724942457</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.0457647682487978</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.05961498677065979</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04616501748388967</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.05970400629189501</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04655843988565615</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.05979302581313022</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04694767850300628</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.05988204533436543</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04733308011895286</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.05997106485560065</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04771453226332957</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06006008437683587</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04809192246596999</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06014910389807108</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04846513825670791</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.0602381234193063</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04883406716537694</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06032714294054151</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04919859672181073</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06041616246177674</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04955861445584293</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06050518198301194</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04991400789730728</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06059420150424716</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.05026466457603736</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06068322102548238</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.05061047202186683</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06077224054671759</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.05095131776462945</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.0608612600679528</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.05128708933415881</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06095027958918803</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.05161767426028858</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06103929911042325</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.0519429600728524</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06112831863165845</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.05226283430168398</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.06121733815289367</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.05257718447661698</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06130635767412889</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05288589812748505</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06139537719536411</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.0531888627841218</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06148439671659931</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.053485965976361</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06157341623783454</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05377709523403626</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06166243575906975</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.05406213808698118</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06175145528030496</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05434098206502955</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06184047480154018</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05461351469801494</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.0619294943227754</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.05274234313200997</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.0619294943227754</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.0548328512573841</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06363380907071355</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05503553518719391</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06533812381865167</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05522222392980834</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.06704243856658981</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05539357492759139</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.06874675331452795</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.0555502456229071</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.07045106806246611</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05569289345811941</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07215538281040423</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05582217587559236</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.07385969755834237</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05593875031768994</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.07556401230628051</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05604327422677614</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.07726832705421866</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05613640504521501</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.0789726418021568</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05621880021537047</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.08067695655009494</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05629111717960658</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.08238127129803308</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05635401338028732</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.08408558604597122</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05640814625977669</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.08578990079390936</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05645417326043869</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.0874942155418475</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05649275182463732</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.08919853028978564</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.05652453939473658</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.09090284503772378</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05655019341310046</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.09260715978566192</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05657037132209299</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.09431147453360006</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05658573056407812</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.0960157892815382</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.0565969285814199</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.09772010402947634</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05660462281648232</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.09942441877741448</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05660947071162935</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1011287335253526</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05661212970922502</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1028330482732908</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05661325725163331</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1045373630212289</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05661351078121825</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.106241677769167</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05659076344879164</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1079459925171052</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05647576200000529</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1096503072650433</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05627029678693836</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1113546220129814</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.05598177835067888</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1130589367609196</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.05561761723231484</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1147632515088577</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.05518522397293428</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1164675662567959</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.05469200911362515</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.118171881004734</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.0541453831954755</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1198761957526722</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.05355275675957334</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1215805105006103</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.05292154034700663</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1232848252485484</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.05225914449886342</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1249891399964866</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.05157297975623171</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1266934547444247</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.05087045666019949</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1283977694923629</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.05015898575185475</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.130102084240301</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04944597757228554</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1318063989882391</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04873884266257984</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1335107137361773</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04804499156382568</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1352150284841154</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04737183481711103</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1369193432320536</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04672678296352391</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1386236579799917</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04611724654415235</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1403279727279298</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04555063610008431</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.142032287475868</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04503436217240783</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1437366022238061</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.0445758353022109</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1454409169717443</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.04418246603058155</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1471452317196824</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.04382666882981975</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1488495464676205</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04346583453431987</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04310133360836967</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1522581759634968</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.04273475525123333</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.153962490711435</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.042367688662175</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1556668054593731</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.04200172304045885</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1573711202073112</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.04163844758534908</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1590754349552494</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.0412794514961098</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1607797497031875</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.04092632397200521</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1624840644511256</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.04058065421229948</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1641883791990638</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.04024403141625675</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1658926939470019</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.0399180447831412</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1675970086949401</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.039604283512217</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1693013234428782</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03930433680274829</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1710056381908164</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03901979385399927</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1727099529387545</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03875224386523408</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1744142676866927</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.0385032760357169</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1761185824346308</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03827447956471189</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1778228971825689</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03806744365148321</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1795272119305071</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03788375749529502</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1812315266784452</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03772501029541152</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1829358414263834</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03759279125109682</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1846401561743215</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03748868956161513</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1863444709222596</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03741429442623059</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1880487856701978</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.0373711950442074</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1897531004181359</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03736031627227596</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.191457415166074</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03736031885754788</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1931617299140122</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.0373603323187582</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1948660446619503</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03736036574252391</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.1965703594098885</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03736042821546205</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.1982746741578266</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03736052882418966</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.1999789889057647</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03736067665532378</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2016833036537029</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03736088079548139</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.203387618401641</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03736115033127956</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2050919331495792</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03736149434933528</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2067962478975173</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03736192193626561</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2085005626454554</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03736244217868756</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2102048773933936</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03736306416321816</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2119091921413317</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03736379697647445</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2136135068892699</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03736464970507344</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.215317821637208</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03736563143563217</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2170221363851461</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03736675125476764</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2187264511330843</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03736801824909691</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2204307658810224</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03736944150523698</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2221350806289606</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.0373710301098049</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2238393953768987</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03737279314941769</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2255437101248368</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03737473971069237</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.227248024872775</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03737687888024598</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2289523396207131</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03737921974469553</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2306566543686513</v>
-      </c>
-    </row>
+        <v>0.3252710626839171</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1198.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1198.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.00269015354390241</v>
+        <v>0.001170615775094877</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001625046185466072</v>
+        <v>0.0004898180039444227</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002771107787323306</v>
+        <v>0.001563899076525696</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001638712417172113</v>
+        <v>0.0008914560126713876</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.009588038762720463</v>
+        <v>0.005405720329397706</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001640459538733528</v>
+        <v>0.0008592560048199649</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.0172401091413058</v>
+        <v>0.007899219454259199</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001634527953185513</v>
+        <v>0.0008679211105379214</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.005685585783002489</v>
+        <v>0.002306252939013043</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002840660796832619</v>
+        <v>0.0009796360078888455</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.003897850953960016</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003747187499999996</v>
+        <v>0.001782912025342775</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02249999999999999</v>
+        <v>0.01238571496017984</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003863079896907215</v>
+        <v>0.00171851200963993</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03749999999999998</v>
+        <v>0.01706861258756798</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003469618055555553</v>
+        <v>0.001735842221075843</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.007764969447511066</v>
+        <v>0.003371932880577772</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004875138556398215</v>
+        <v>0.001469454011833268</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01009595109630643</v>
+        <v>0.005589922957171381</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004916137251516339</v>
+        <v>0.002674368038014163</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02750960828761601</v>
+        <v>0.01793222141437684</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004921378616200584</v>
+        <v>0.002577768014459894</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.04969996337123511</v>
+        <v>0.0252954857329093</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00490358385955654</v>
+        <v>0.002603763331613764</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007007232700125564</v>
+        <v>0.004332676988612345</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006500184741864287</v>
+        <v>0.001959272015777691</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01430665843427488</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006554849668688452</v>
+        <v>0.003747187499999996</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03522436491254605</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006561838154934113</v>
+        <v>0.003406534090909089</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06255659004836039</v>
+        <v>0.03216714522326536</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006538111812742053</v>
+        <v>0.003471684442151686</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.005685585783002489</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01023405440940448</v>
+        <v>0.005153506651940053</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008521982390497855</v>
+        <v>0.002449090019722114</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01845732741636454</v>
+        <v>0.008406333679003952</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008193562085860565</v>
+        <v>0.004457280063356938</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04344500597298256</v>
+        <v>0.02555808341298726</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008202297693667641</v>
+        <v>0.004296280024099825</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.07446664843542744</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008172639765927567</v>
+        <v>0.004073029891304346</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008906841420772985</v>
+        <v>0.005685585783002489</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00975027711279643</v>
+        <v>0.002840660796832619</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02203543390245072</v>
+        <v>0.009497079058184477</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009832274503032678</v>
+        <v>0.005348736076028326</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04994639120441857</v>
+        <v>0.02896800596057483</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009842757232401168</v>
+        <v>0.005155536028919789</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.08874091415298685</v>
+        <v>0.04405224766794885</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.01040885416666666</v>
+        <v>0.005207526663227529</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009769108874715868</v>
+        <v>0.006374557578645627</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.0113753232982625</v>
+        <v>0.003428726027610959</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0249158559708786</v>
+        <v>0.01071387070190905</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01124156249999999</v>
+        <v>0.006240192088699713</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05682838506193275</v>
+        <v>0.03280569575647549</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01158923969072164</v>
+        <v>0.006014792033739755</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.0922260960117956</v>
+        <v>0.0473559928925964</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01144169567229859</v>
+        <v>0.00607544777376545</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01259657697374254</v>
+        <v>0.006919805624602114</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01300036948372857</v>
+        <v>0.003918544031555382</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02740489684472937</v>
+        <v>0.01146409280244021</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.0131096993373769</v>
+        <v>0.007131648101371101</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.06092253535179215</v>
+        <v>0.03560891703057004</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01312367630986823</v>
+        <v>0.006874048038559719</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.1006621745330439</v>
+        <v>0.05189644914951647</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01307622362548411</v>
+        <v>0.006943368884303371</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01338587950143709</v>
+        <v>0.007435998817476308</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01462541566919465</v>
+        <v>0.004408362035499805</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02955430405049884</v>
+        <v>0.01265512955204041</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01474841175454902</v>
+        <v>0.008023104114042489</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.06537736347705156</v>
+        <v>0.03761543401273928</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01476413584860175</v>
+        <v>0.007733304043379683</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.1083656980987069</v>
+        <v>0.05692577341974048</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01471075157866962</v>
+        <v>0.007811289994841293</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01213365024138359</v>
+        <v>0.007920282847279338</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01625046185466072</v>
+        <v>0.004898180039444228</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03148582904782983</v>
+        <v>0.0136943651429722</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01638712417172113</v>
+        <v>0.008914560126713876</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.0696488210114948</v>
+        <v>0.04016301093286417</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01640459538733528</v>
+        <v>0.00859256004819965</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.1147113768265037</v>
+        <v>0.05989612268430006</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01634527953185513</v>
+        <v>0.008679211105379213</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01483652297716616</v>
+        <v>0.008369803404022311</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01787550804012679</v>
+        <v>0.005387998043388651</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03329549076671666</v>
+        <v>0.01458918376749804</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01802583658889324</v>
+        <v>0.009806016139385263</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.07421505951235169</v>
+        <v>0.04338941202082547</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01804505492606881</v>
+        <v>0.009451816053019613</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.1219739208341534</v>
+        <v>0.06325965392422661</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01797980748504065</v>
+        <v>0.009547132215917136</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01549113149236888</v>
+        <v>0.00878170617771639</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01950055422559286</v>
+        <v>0.005877816047333073</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03527930813715362</v>
+        <v>0.01534696961788047</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01966454900606536</v>
+        <v>0.01069747215205665</v>
       </c>
       <c r="L77" t="n">
-        <v>0.07905423053685195</v>
+        <v>0.04473240150650401</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01968551446480234</v>
+        <v>0.01031107205783958</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1274280402393748</v>
+        <v>0.06566852412055185</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01961433543822616</v>
+        <v>0.01041505332645506</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01609410957057585</v>
+        <v>0.009153136858372692</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02112560041105893</v>
+        <v>0.006367634051277496</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03693330008913503</v>
+        <v>0.01597510688638197</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02130326142323747</v>
+        <v>0.01158892816472804</v>
       </c>
       <c r="L78" t="n">
-        <v>0.08244448564222545</v>
+        <v>0.04712974361978059</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02132597400353587</v>
+        <v>0.01117032806265954</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1337484451598872</v>
+        <v>0.07047489025430698</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02124886339141167</v>
+        <v>0.01128297443699298</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01564209099537115</v>
+        <v>0.009481241136002329</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02275064659652501</v>
+        <v>0.006857452055221918</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0385534855526552</v>
+        <v>0.01718097976526502</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02294197384040958</v>
+        <v>0.01248038417739943</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0860639763857019</v>
+        <v>0.04981920259053618</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02296643354226939</v>
+        <v>0.01202958406747951</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1388098457134094</v>
+        <v>0.07253090930652362</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02288339134459719</v>
+        <v>0.0121508955475309</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01613170955033889</v>
+        <v>0.009763164700616445</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02437569278199108</v>
+        <v>0.007347270059166342</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03973588345770843</v>
+        <v>0.01757197244679215</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02458068625758169</v>
+        <v>0.01337184019007081</v>
       </c>
       <c r="L80" t="n">
-        <v>0.08909085432451111</v>
+        <v>0.0521385426486515</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02460689308100292</v>
+        <v>0.01288884007229947</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1437869520176606</v>
+        <v>0.07598873825823327</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0245179192977827</v>
+        <v>0.01301881665806882</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01655959901906315</v>
+        <v>0.009996053242226154</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02600073896745715</v>
+        <v>0.007837088063110764</v>
       </c>
       <c r="J81" t="n">
-        <v>0.04107651273428904</v>
+        <v>0.01865546912322583</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02621939867475381</v>
+        <v>0.0142632962027422</v>
       </c>
       <c r="L81" t="n">
-        <v>0.09310327101588287</v>
+        <v>0.05442552802400741</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02624735261973645</v>
+        <v>0.01374809607711944</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1482544741903598</v>
+        <v>0.07870053409046746</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02615244725096821</v>
+        <v>0.01388673776860674</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01592239318512802</v>
+        <v>0.01023405440940448</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02762578515292322</v>
+        <v>0.008521982390497855</v>
       </c>
       <c r="J82" t="n">
-        <v>0.04207139231239132</v>
+        <v>0.01933885398682859</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02785811109192592</v>
+        <v>0.01515475221541359</v>
       </c>
       <c r="L82" t="n">
-        <v>0.09477937801704697</v>
+        <v>0.05682838506193275</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02788781215846998</v>
+        <v>0.01433983933665058</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1503871223492261</v>
+        <v>0.08341845378425772</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02778697520415373</v>
+        <v>0.01475465887914466</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01621672583211761</v>
+        <v>0.01031319133545822</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02925083133838929</v>
+        <v>0.00881672407099961</v>
       </c>
       <c r="J83" t="n">
-        <v>0.04291654112200963</v>
+        <v>0.02012951122986295</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02949682350909803</v>
+        <v>0.01604620822808498</v>
       </c>
       <c r="L83" t="n">
-        <v>0.09729732688523321</v>
+        <v>0.05915394885925948</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02952827169720351</v>
+        <v>0.01546660808675937</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1540596066119784</v>
+        <v>0.0866946543206355</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02942150315733924</v>
+        <v>0.01562257998968259</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01646162051226284</v>
+        <v>0.01044321667237663</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03087587752385537</v>
+        <v>0.009306542074944033</v>
       </c>
       <c r="J84" t="n">
-        <v>0.04370797809313821</v>
+        <v>0.02073482504459134</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03113553592627015</v>
+        <v>0.01693766424075636</v>
       </c>
       <c r="L84" t="n">
-        <v>0.09923526917767131</v>
+        <v>0.06301885613775476</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03116873123593704</v>
+        <v>0.01632586409157933</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1562466370963357</v>
+        <v>0.08874091415298685</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03105603111052475</v>
+        <v>0.01606419537452394</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01669874783274562</v>
+        <v>0.01057138825958139</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03250092370932144</v>
+        <v>0.009796360078888455</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04434861250375965</v>
+        <v>0.02186217962327633</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03277424834344226</v>
+        <v>0.01782912025342775</v>
       </c>
       <c r="L85" t="n">
-        <v>0.1007739426963525</v>
+        <v>0.06489235417176362</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03280919077467057</v>
+        <v>0.0171851200963993</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1591905169553184</v>
+        <v>0.09304857978001851</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03269055906371027</v>
+        <v>0.01735842221075843</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01692770292371854</v>
+        <v>0.01069771209785846</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03412596989478751</v>
+        <v>0.01028617808283288</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04493938389031485</v>
+        <v>0.02281895915818039</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03441296076061438</v>
+        <v>0.01872057626609914</v>
       </c>
       <c r="L86" t="n">
-        <v>0.10182975981463</v>
+        <v>0.0687531729125343</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03444965031340409</v>
+        <v>0.01804437610121926</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1609613347558358</v>
+        <v>0.09875258698540806</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03432508701689578</v>
+        <v>0.01822634332129635</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01814691954267879</v>
+        <v>0.01082219418799387</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03575101608025358</v>
+        <v>0.0107759960867773</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04551185000389524</v>
+        <v>0.023312547841566</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03605167317778649</v>
+        <v>0.01961203227877053</v>
       </c>
       <c r="L87" t="n">
-        <v>0.1033454330805953</v>
+        <v>0.07128004231131507</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03609010985213762</v>
+        <v>0.01890363210603923</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1626609908794495</v>
+        <v>0.1022617713463962</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03595961497008129</v>
+        <v>0.01909426443183427</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01735483144712355</v>
+        <v>0.01094484053077358</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03737606226571965</v>
+        <v>0.01126581409072172</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0460621006514173</v>
+        <v>0.0249158559708786</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0376903855949586</v>
+        <v>0.0207476408990837</v>
       </c>
       <c r="L88" t="n">
-        <v>0.1050120155229975</v>
+        <v>0.07495169231935422</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03773056939087115</v>
+        <v>0.01976288811085919</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1648756651011945</v>
+        <v>0.1063390424904844</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03759414292326681</v>
+        <v>0.01996218554237219</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01854987239455008</v>
+        <v>0.01106565712698358</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03900110845118572</v>
+        <v>0.01175563209466615</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04688622563979751</v>
+        <v>0.02535140509917722</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03932909801213071</v>
+        <v>0.0213949443041133</v>
       </c>
       <c r="L89" t="n">
-        <v>0.1067205601705861</v>
+        <v>0.0779468528879001</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03937102892960467</v>
+        <v>0.02062214411567916</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1663915371961063</v>
+        <v>0.1121473100451736</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03922867087645232</v>
+        <v>0.02083010665291012</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01773047614245555</v>
+        <v>0.01118464997740987</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0406261546366518</v>
+        <v>0.01224545009861057</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04738031477595238</v>
+        <v>0.02644448364485974</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04096781042930282</v>
+        <v>0.02228640031678469</v>
       </c>
       <c r="L90" t="n">
-        <v>0.10786212005211</v>
+        <v>0.0807442539682009</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04101148846833821</v>
+        <v>0.02148140012049912</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1686947869392203</v>
+        <v>0.1157494836379651</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04086319882963783</v>
+        <v>0.02169802776344804</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01789507644833718</v>
+        <v>0.01130182508283843</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04225120082211787</v>
+        <v>0.01273526810255499</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04784045786679837</v>
+        <v>0.02751926267093376</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04260652284647494</v>
+        <v>0.02317785632945608</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1079277481963187</v>
+        <v>0.083222625511505</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04265194800707173</v>
+        <v>0.02234065612531909</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1697715941055718</v>
+        <v>0.1219084728963599</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04249772678282335</v>
+        <v>0.02256594887398596</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01804210706969217</v>
+        <v>0.01141718844405525</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04387624700758394</v>
+        <v>0.01322508610649941</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04796274471925199</v>
+        <v>0.02906352756092452</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04424523526364705</v>
+        <v>0.02406931234212746</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1090084976319613</v>
+        <v>0.08616069746906058</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04429240754580526</v>
+        <v>0.02319991213013905</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1714081384701962</v>
+        <v>0.1263871874478595</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04413225473600886</v>
+        <v>0.02343386998452388</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01917000176401772</v>
+        <v>0.01153074606184631</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04550129319305001</v>
+        <v>0.01371490411044384</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04844326514022969</v>
+        <v>0.03026506369835734</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04588394768081917</v>
+        <v>0.02496076835479885</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1096954213877872</v>
+        <v>0.08983719979211593</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04593286708453879</v>
+        <v>0.02405916813495902</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1734905998081289</v>
+        <v>0.1305485369199648</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04576678268919437</v>
+        <v>0.0243017910950618</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02027719428881106</v>
+        <v>0.01164250393699762</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04712633937851608</v>
+        <v>0.01420472211438826</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04877810893664797</v>
+        <v>0.03141165646675748</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04752266009799128</v>
+        <v>0.02585222436747024</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1109795724925454</v>
+        <v>0.09313086243191945</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04757332662327231</v>
+        <v>0.02491842413977898</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1740051578944051</v>
+        <v>0.1356554309401771</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04740131064237989</v>
+        <v>0.02516971220559972</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02036211840156938</v>
+        <v>0.01175246807029515</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04875138556398215</v>
+        <v>0.01469454011833268</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04886336591542334</v>
+        <v>0.03309109124965018</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04916137251516339</v>
+        <v>0.02674368038014163</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1112520039749852</v>
+        <v>0.09582041533971936</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04921378616200584</v>
+        <v>0.02577768014459895</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1747379925040604</v>
+        <v>0.1411707791359977</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0490358385955654</v>
+        <v>0.02603763331613764</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0204232078597899</v>
+        <v>0.01186064446252488</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05037643174944822</v>
+        <v>0.01518435812227711</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04939512588347225</v>
+        <v>0.03449115343056075</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0508000849323355</v>
+        <v>0.02763513639281302</v>
       </c>
       <c r="L96" t="n">
-        <v>0.112003768863856</v>
+        <v>0.09778458846676388</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05085424570073938</v>
+        <v>0.02663693614941891</v>
       </c>
       <c r="N96" t="n">
-        <v>0.17567528341213</v>
+        <v>0.1458574911349275</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05067036654875091</v>
+        <v>0.02690555442667556</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02046810881880896</v>
+        <v>0.01196703911447283</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0520014779349143</v>
+        <v>0.01567417612622153</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04926947864771121</v>
+        <v>0.03599962839301446</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05243879734950761</v>
+        <v>0.0285265924054844</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1131259201879068</v>
+        <v>0.1004021117643014</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0524947052394729</v>
+        <v>0.02749619215423888</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1754032103936493</v>
+        <v>0.149678476564468</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05230489450193643</v>
+        <v>0.02777347553721348</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02046786988811406</v>
+        <v>0.01207165802692495</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05362652412038037</v>
+        <v>0.01616399413016595</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04983171194175721</v>
+        <v>0.03700430152053658</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05407750976667972</v>
+        <v>0.02941804841815579</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1136567701238655</v>
+        <v>0.1029517151835801</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05413516477820644</v>
+        <v>0.02835544815905884</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1774818283059737</v>
+        <v>0.1536966450521202</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05393942245512194</v>
+        <v>0.02864139664775141</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02045860080379707</v>
+        <v>0.01217450720066726</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05525157030584644</v>
+        <v>0.01665381213411037</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04953032179242518</v>
+        <v>0.03839295819665238</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05571622218385184</v>
+        <v>0.03030950443082718</v>
       </c>
       <c r="L99" t="n">
-        <v>0.112645594256546</v>
+        <v>0.1045121286758484</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05577562431693996</v>
+        <v>0.02921470416387881</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1765788462188947</v>
+        <v>0.1572749062253852</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05557395040830746</v>
+        <v>0.02950931775828933</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.01843646859479765</v>
+        <v>0.01227559263648572</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05687661649131251</v>
+        <v>0.0171436301380548</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04972091573221013</v>
+        <v>0.03975338380488715</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05735493460102395</v>
+        <v>0.03120096044349857</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1132416776588359</v>
+        <v>0.1066620821923543</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05741608385567348</v>
+        <v>0.03007396016869877</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1757933606027723</v>
+        <v>0.1607761697117644</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05720847836149296</v>
+        <v>0.03037723886882725</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0184022987160827</v>
+        <v>0.01237492033516634</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05850166267677858</v>
+        <v>0.01763344814199922</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04977818569345771</v>
+        <v>0.04117336372876612</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05899364701819607</v>
+        <v>0.03209241645616995</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1130567595344049</v>
+        <v>0.1086803056843466</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05905654339440701</v>
+        <v>0.03093321617351873</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1763953437340692</v>
+        <v>0.1651633451387589</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05884300631467848</v>
+        <v>0.03124515997936517</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.01835691662261912</v>
+        <v>0.01247249629749511</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06012670886224465</v>
+        <v>0.01812326614594365</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04960489596711434</v>
+        <v>0.04244068335181458</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06063235943536818</v>
+        <v>0.03298387246884134</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1128011732328237</v>
+        <v>0.109945529103073</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06069700293314054</v>
+        <v>0.0317924721783387</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1757920792698953</v>
+        <v>0.1682993421338698</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06047753426786399</v>
+        <v>0.03211308108990309</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02030114776937381</v>
+        <v>0.012568326524258</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06175175504771074</v>
+        <v>0.01861308414988807</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0493031073376988</v>
+        <v>0.04374312805755784</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06227107185254029</v>
+        <v>0.03387532848151273</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1129796340659578</v>
+        <v>0.1116364823997821</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06233746247187408</v>
+        <v>0.03265172818315867</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1762908508673599</v>
+        <v>0.1697470703245984</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06211206222104951</v>
+        <v>0.03298100220044101</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01923581761131368</v>
+        <v>0.01266241701624101</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06337680123317681</v>
+        <v>0.01910290215383249</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04907488058972978</v>
+        <v>0.04496848322952114</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0639097842697124</v>
+        <v>0.03476678449418411</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1117968573456726</v>
+        <v>0.1120318955257222</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0639779220106076</v>
+        <v>0.03351098418797863</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1743989421835727</v>
+        <v>0.1720694393384458</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06374659017423502</v>
+        <v>0.03384892331097894</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.01816175160340561</v>
+        <v>0.01275477377423012</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06500184741864287</v>
+        <v>0.01959272015777691</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04892227650772601</v>
+        <v>0.04600453425122977</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06554849668688452</v>
+        <v>0.0356582405068555</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1123575583838338</v>
+        <v>0.1128104984321415</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06561838154934113</v>
+        <v>0.0343702401927986</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1741236368756431</v>
+        <v>0.1747293588029132</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06538111812742053</v>
+        <v>0.03471684442151685</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01807977520061654</v>
+        <v>0.01284540279901134</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06662689360410895</v>
+        <v>0.02008253816172133</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04884735587620624</v>
+        <v>0.046839066506209</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06718720910405664</v>
+        <v>0.03654969651952689</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1118664524923066</v>
+        <v>0.1136567701238655</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06725884108807466</v>
+        <v>0.03522949619761856</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1745722186006808</v>
+        <v>0.1762897383455018</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06701564608060605</v>
+        <v>0.03558476553205478</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01799071385791332</v>
+        <v>0.01293431009137062</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06825193978957501</v>
+        <v>0.02057235616566576</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04865217947968917</v>
+        <v>0.04775986537798409</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06882592152122875</v>
+        <v>0.03744115253219828</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1106282549829568</v>
+        <v>0.1133567701238655</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06889930062680819</v>
+        <v>0.03608875220243853</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1739519710157952</v>
+        <v>0.1774818283059737</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06865017403379156</v>
+        <v>0.0364526866425927</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.0198953930302629</v>
+        <v>0.01302150165209397</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06987698597504109</v>
+        <v>0.02106217416961018</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04873880810269354</v>
+        <v>0.04845471625008033</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07046463393840086</v>
+        <v>0.03833260854486967</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1108476811676496</v>
+        <v>0.1128567701238655</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07053976016554171</v>
+        <v>0.03694800820725849</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1730701777780961</v>
+        <v>0.1766818283059737</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07028470198697707</v>
+        <v>0.03732060775313062</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01879463817263215</v>
+        <v>0.0131069834819674</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07150203216050716</v>
+        <v>0.0215519921735546</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04820930252973808</v>
+        <v>0.04891140450602298</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07210334635557297</v>
+        <v>0.03922406455754105</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1107294463582508</v>
+        <v>0.1135567701238655</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07218021970427524</v>
+        <v>0.03780726421207845</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1722341225446928</v>
+        <v>0.1774818283059737</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07191922994016259</v>
+        <v>0.03818852886366855</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01868927473998799</v>
+        <v>0.01319076158177686</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07312707834597323</v>
+        <v>0.02204181017749902</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04826572354534153</v>
+        <v>0.04921771552933735</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07374205877274508</v>
+        <v>0.04011552057021244</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1099782658666258</v>
+        <v>0.1128567701238655</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07382067924300877</v>
+        <v>0.03866652021689842</v>
       </c>
       <c r="N110" t="n">
-        <v>0.171551088972695</v>
+        <v>0.1766818283059737</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0735537578933481</v>
+        <v>0.03905644997420647</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0175801281872973</v>
+        <v>0.01327284195230835</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0747521245314393</v>
+        <v>0.02253162818144345</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04801013193402261</v>
+        <v>0.04983171194175721</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07538077118991719</v>
+        <v>0.04100697658288383</v>
       </c>
       <c r="L111" t="n">
-        <v>0.10879885500464</v>
+        <v>0.1125567701238655</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07546113878174229</v>
+        <v>0.03952577622171839</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1700283607192122</v>
+        <v>0.1762818283059737</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07518828584653361</v>
+        <v>0.03992437108474439</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01746802396952701</v>
+        <v>0.01335323059434788</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07637717071690538</v>
+        <v>0.02302144618538787</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04744458848030005</v>
+        <v>0.04953171194175722</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07701948360708931</v>
+        <v>0.04189843259555522</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1086959290841589</v>
+        <v>0.1128567701238655</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07710159832047582</v>
+        <v>0.04038503222653835</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1692732214413539</v>
+        <v>0.1761818283059737</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07682281379971913</v>
+        <v>0.04079229219528231</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.017353787541644</v>
+        <v>0.01343193350868141</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07800221690237144</v>
+        <v>0.02351126418933229</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04717115396869258</v>
+        <v>0.04943171194175722</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07865819602426143</v>
+        <v>0.04278988860822661</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1078742034170482</v>
+        <v>0.1133567701238655</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07874205785920935</v>
+        <v>0.04124428823135831</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1671929547962298</v>
+        <v>0.1771818283059737</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07845734175290464</v>
+        <v>0.04166021330582023</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01923824435861518</v>
+        <v>0.01350895669609493</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07962726308783752</v>
+        <v>0.02400108219327672</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04699188918371891</v>
+        <v>0.04973171194175721</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08029690844143353</v>
+        <v>0.04368134462089799</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1067383933151732</v>
+        <v>0.1127567701238655</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08038251739794287</v>
+        <v>0.04210354423617828</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1669948444409494</v>
+        <v>0.1762818283059737</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08009186970609015</v>
+        <v>0.04252813441635814</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01912221987540745</v>
+        <v>0.01358430615737444</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0812523092733036</v>
+        <v>0.02449090019722114</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0466088549098978</v>
+        <v>0.04973171194175721</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08193562085860565</v>
+        <v>0.04457280063356938</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1070932140903994</v>
+        <v>0.1128567701238655</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08202297693667641</v>
+        <v>0.04296280024099824</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1660861740326222</v>
+        <v>0.1758818283059737</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08172639765927567</v>
+        <v>0.04339605552689607</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01800653954698771</v>
+        <v>0.01365798789330593</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08287735545876966</v>
+        <v>0.02498071820116556</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04642411193174795</v>
+        <v>0.04953171194175722</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08357433327577776</v>
+        <v>0.04546425664624077</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1057433810545924</v>
+        <v>0.1130567701238655</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08366343647540994</v>
+        <v>0.04382205624581821</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1653742272283577</v>
+        <v>0.1759818283059737</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08336092561246118</v>
+        <v>0.04426397663743399</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01789202882832286</v>
+        <v>0.01373000790467539</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08450240164423574</v>
+        <v>0.02547053620510998</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04613972103378812</v>
+        <v>0.04953171194175722</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08521304569294988</v>
+        <v>0.04635571265891216</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1057936095196176</v>
+        <v>0.1130567701238655</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08530389601414347</v>
+        <v>0.04468131225063818</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1646662876852656</v>
+        <v>0.1760818283059737</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08499545356564669</v>
+        <v>0.04513189774797191</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01677250050382768</v>
+        <v>0.01380037219226878</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0861274478297018</v>
+        <v>0.02596035420905441</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04565774300053702</v>
+        <v>0.04953171194175722</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08685175811012198</v>
+        <v>0.04724716867158354</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1051486147973406</v>
+        <v>0.1127567701238655</v>
       </c>
       <c r="M118" t="n">
-        <v>0.086944355552877</v>
+        <v>0.04554056825545814</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1623696390604555</v>
+        <v>0.1757818283059737</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08662998151883221</v>
+        <v>0.04599981885850984</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01663629746848283</v>
+        <v>0.01386908675687213</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08775249401516788</v>
+        <v>0.02645017221299883</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04537102066605275</v>
+        <v>0.04983171194175721</v>
       </c>
       <c r="K119" t="n">
-        <v>0.0884904705272941</v>
+        <v>0.04813862468425493</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1035015336087158</v>
+        <v>0.1135567701238655</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08858481509161052</v>
+        <v>0.0463998242602781</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1623061705792225</v>
+        <v>0.1762818283059737</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08826450947201772</v>
+        <v>0.04686773996904775</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01748576082664383</v>
+        <v>0.01393615759927139</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08937754020063395</v>
+        <v>0.02693999021694326</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04544507297819839</v>
+        <v>0.04943171194175722</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09012918294446622</v>
+        <v>0.04903008069692632</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1027716563541293</v>
+        <v>0.1133567701238655</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09022527463034405</v>
+        <v>0.04725908026509807</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1601970924914303</v>
+        <v>0.1764818283059737</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08989903742520323</v>
+        <v>0.04773566107958568</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.0173235800092638</v>
+        <v>0.01400159072025258</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09100258638610002</v>
+        <v>0.02742980822088767</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04478223431694363</v>
+        <v>0.04973171194175721</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09176789536163833</v>
+        <v>0.0499215367095977</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1025551020902755</v>
+        <v>0.1125567701238655</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09186573416907758</v>
+        <v>0.04811833626991804</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1590660411418054</v>
+        <v>0.1770818283059737</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09153356537838875</v>
+        <v>0.0486035821901236</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01715244444729583</v>
+        <v>0.01406539212060166</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09262763257156609</v>
+        <v>0.0279196262248321</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04428921896458682</v>
+        <v>0.04963171194175721</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09340660777881045</v>
+        <v>0.05081299272226909</v>
       </c>
       <c r="L122" t="n">
-        <v>0.101367233866858</v>
+        <v>0.1128567701238655</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0935061937078111</v>
+        <v>0.048977592274738</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1579367475558646</v>
+        <v>0.1771818283059737</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09316809333157426</v>
+        <v>0.04947150330066152</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01597504357169304</v>
+        <v>0.01412756780110465</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09425267875703217</v>
+        <v>0.02840944422877652</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04417274120342632</v>
+        <v>0.04943171194175722</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09504532019598255</v>
+        <v>0.05170444873494048</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1007234147335804</v>
+        <v>0.1129567701238655</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09514665324654463</v>
+        <v>0.04983684827955796</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1559329427591243</v>
+        <v>0.1772818283059737</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09480262128475977</v>
+        <v>0.05033942441119944</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01579406681340854</v>
+        <v>0.0141881237625475</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09587772494249824</v>
+        <v>0.02889926223272095</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04363951531576052</v>
+        <v>0.04983171194175721</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09668403261315466</v>
+        <v>0.05259590474761187</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09913900774014661</v>
+        <v>0.1136567701238655</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09678711278527816</v>
+        <v>0.05069610428437793</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1540783577771009</v>
+        <v>0.1763818283059737</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09643714923794529</v>
+        <v>0.05120734552173736</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01561220360339544</v>
+        <v>0.01424706600571622</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09750277112796431</v>
+        <v>0.02938908023666537</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04309625558388774</v>
+        <v>0.04973171194175721</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09832274503032677</v>
+        <v>0.05348736076028325</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09902937593626004</v>
+        <v>0.1129567701238655</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09842757232401168</v>
+        <v>0.0515553602891979</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1536967236353112</v>
+        <v>0.1773818283059737</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0980716771911308</v>
+        <v>0.05207526663227528</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01543214337260684</v>
+        <v>0.01430440053139681</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09912781731343039</v>
+        <v>0.02987889824060979</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04254967629010636</v>
+        <v>0.04983171194175721</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09996145744749889</v>
+        <v>0.05437881677295464</v>
       </c>
       <c r="L126" t="n">
-        <v>0.09720988237162437</v>
+        <v>0.1125567701238655</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1000680318627452</v>
+        <v>0.05241461629401786</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1521117713592715</v>
+        <v>0.1757818283059737</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09970620514431631</v>
+        <v>0.05294318774281321</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01625657555199587</v>
+        <v>0.01436013334037523</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1007528634988964</v>
+        <v>0.03036871624455421</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04210649171671474</v>
+        <v>0.04973171194175721</v>
       </c>
       <c r="K127" t="n">
-        <v>0.101600169864671</v>
+        <v>0.05527027278562603</v>
       </c>
       <c r="L127" t="n">
-        <v>0.09619589009594343</v>
+        <v>0.1135567701238655</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1017084914014788</v>
+        <v>0.05327387229883782</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1502472319744984</v>
+        <v>0.1771818283059737</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1013407330975018</v>
+        <v>0.05381110885335112</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01708818957251562</v>
+        <v>0.01441427043343749</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1023779096843625</v>
+        <v>0.03085853424849863</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04177341614601122</v>
+        <v>0.04983171194175721</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1032388822818431</v>
+        <v>0.05616172879829742</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09550276215892067</v>
+        <v>0.1133567701238655</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1033489509402123</v>
+        <v>0.05413312830365779</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1480268365065083</v>
+        <v>0.1757818283059737</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1029752610506873</v>
+        <v>0.05467902996388905</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01692290415516291</v>
+        <v>0.01446681781136957</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1040029558698286</v>
+        <v>0.03134835225244306</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04125716386029417</v>
+        <v>0.04973171194175721</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1048775946990152</v>
+        <v>0.05705318481096881</v>
       </c>
       <c r="L129" t="n">
-        <v>0.09474586161025983</v>
+        <v>0.1132567701238655</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1049894104789458</v>
+        <v>0.05499238430847776</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1468743159808178</v>
+        <v>0.1770818283059737</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1046097890038729</v>
+        <v>0.05554695107442697</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01574263950287806</v>
+        <v>0.01451778147495746</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1056280020552947</v>
+        <v>0.03183817025638749</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04115355591494912</v>
+        <v>0.04973171194175721</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1065163071161873</v>
+        <v>0.0579446408236402</v>
       </c>
       <c r="L130" t="n">
-        <v>0.09372700922975025</v>
+        <v>0.1128567701238655</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1066298700176793</v>
+        <v>0.05585164031329772</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1459109740714056</v>
+        <v>0.1766818283059737</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1062443169570584</v>
+        <v>0.0564148721849649</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01454966872787626</v>
+        <v>0.01456716742498713</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1072530482407607</v>
+        <v>0.0323279882603319</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04041547760314532</v>
+        <v>0.04963171194175721</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1081550195333594</v>
+        <v>0.05883609683631158</v>
       </c>
       <c r="L131" t="n">
-        <v>0.09223914547835202</v>
+        <v>0.1125567701238655</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1082703295564129</v>
+        <v>0.05671089631811768</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1441113816673136</v>
+        <v>0.1764818283059737</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1078788449102439</v>
+        <v>0.05728279329550282</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01634784175135476</v>
+        <v>0.0146149816622446</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1088780944262268</v>
+        <v>0.03281780626427633</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04014481301050678</v>
+        <v>0.04973171194175721</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1097937319505316</v>
+        <v>0.05972755284898297</v>
       </c>
       <c r="L132" t="n">
-        <v>0.09217368483577679</v>
+        <v>0.1125567701238655</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1099107890951464</v>
+        <v>0.05757015232293765</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1414078877785194</v>
+        <v>0.1772818283059737</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1095133728634294</v>
+        <v>0.05815071440604073</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0151410084945108</v>
+        <v>0.01466123018751585</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1105031406116929</v>
+        <v>0.03330762426822075</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03945117363411062</v>
+        <v>0.04963171194175721</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1114324443677037</v>
+        <v>0.06061900886165436</v>
       </c>
       <c r="L133" t="n">
-        <v>0.09015261951217587</v>
+        <v>0.1132567701238655</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1115512486338799</v>
+        <v>0.05842940832775761</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1409344633750019</v>
+        <v>0.1761818283059737</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1111479008166149</v>
+        <v>0.05901863551657865</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01393301887854163</v>
+        <v>0.01470591900158685</v>
       </c>
       <c r="G134" t="n">
-        <v>0.112128186797159</v>
+        <v>0.03379744227216517</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03894417097103388</v>
+        <v>0.04963171194175721</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1130711567848758</v>
+        <v>0.06151046487432574</v>
       </c>
       <c r="L134" t="n">
-        <v>0.08939794171770085</v>
+        <v>0.1126567701238655</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1131917081726134</v>
+        <v>0.05928866433257757</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1387250794267401</v>
+        <v>0.1765818283059737</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1127824287698004</v>
+        <v>0.05988655662711657</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01472772282464451</v>
+        <v>0.0147490541052436</v>
       </c>
       <c r="G135" t="n">
-        <v>0.113753232982625</v>
+        <v>0.03428726027610959</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0385334165183536</v>
+        <v>0.04973171194175721</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1147098692020479</v>
+        <v>0.06240192088699714</v>
       </c>
       <c r="L135" t="n">
-        <v>0.08803164366250296</v>
+        <v>0.1126567701238655</v>
       </c>
       <c r="M135" t="n">
-        <v>0.114832167711347</v>
+        <v>0.06014792033739754</v>
       </c>
       <c r="N135" t="n">
-        <v>0.136613706903713</v>
+        <v>0.1766818283059737</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1144169567229859</v>
+        <v>0.0607544777376545</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01552897025401669</v>
+        <v>0.01479064149927208</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1153782791680911</v>
+        <v>0.03477707828005402</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03802852177314688</v>
+        <v>0.04943171194175722</v>
       </c>
       <c r="K136" t="n">
-        <v>0.11634858161922</v>
+        <v>0.06329337689966852</v>
       </c>
       <c r="L136" t="n">
-        <v>0.08687571755673368</v>
+        <v>0.1129567701238655</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1164726272500805</v>
+        <v>0.06100717634221751</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1345343167758993</v>
+        <v>0.1759818283059737</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1160514846761714</v>
+        <v>0.06162239884819242</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01434061108785539</v>
+        <v>0.01483068718445829</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1170033253535572</v>
+        <v>0.03526689628399844</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03783909823249072</v>
+        <v>0.04983171194175721</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1179872940363921</v>
+        <v>0.06418483291233991</v>
       </c>
       <c r="L137" t="n">
-        <v>0.08545215561054445</v>
+        <v>0.1126567701238655</v>
       </c>
       <c r="M137" t="n">
-        <v>0.118113086788814</v>
+        <v>0.06186643234703747</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1325208800132782</v>
+        <v>0.1766818283059737</v>
       </c>
       <c r="O137" t="n">
-        <v>0.117686012629357</v>
+        <v>0.06249031995873035</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0141664952473579</v>
+        <v>0.01486919716158822</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1186283715390232</v>
+        <v>0.03575671428794286</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03717475739346224</v>
+        <v>0.04943171194175722</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1196260064535642</v>
+        <v>0.06507628892501129</v>
       </c>
       <c r="L138" t="n">
-        <v>0.08428295003408662</v>
+        <v>0.1133567701238655</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1197535463275476</v>
+        <v>0.06272568835185743</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1318073675858283</v>
+        <v>0.1764818283059737</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1193205405825425</v>
+        <v>0.06335824106926825</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01301047265372143</v>
+        <v>0.01490617743144785</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1202534177244893</v>
+        <v>0.03624653229188729</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03674511075313845</v>
+        <v>0.04953171194175722</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1212647188707364</v>
+        <v>0.06596774493768268</v>
       </c>
       <c r="L139" t="n">
-        <v>0.08329009303751161</v>
+        <v>0.1133567701238655</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1213940058662811</v>
+        <v>0.0635849443566774</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1303277504635289</v>
+        <v>0.1766818283059737</v>
       </c>
       <c r="O139" t="n">
-        <v>0.120955068535728</v>
+        <v>0.06422616217980619</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01487639322814326</v>
+        <v>0.01494163399482316</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1218784639099554</v>
+        <v>0.03673635029583171</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03645976980859643</v>
+        <v>0.04953171194175722</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1229034312879085</v>
+        <v>0.06685920095035407</v>
       </c>
       <c r="L140" t="n">
-        <v>0.08289557683097085</v>
+        <v>0.1129567701238655</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1230344654050146</v>
+        <v>0.06444420036149738</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1283159996163587</v>
+        <v>0.1771818283059737</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1225895964889135</v>
+        <v>0.06509408329034411</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01276810689182061</v>
+        <v>0.01497557285250015</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1235035100954215</v>
+        <v>0.03722616829977613</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03582834605691326</v>
+        <v>0.04973171194175721</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1245421437050806</v>
+        <v>0.06775065696302546</v>
       </c>
       <c r="L141" t="n">
-        <v>0.08192139362461567</v>
+        <v>0.1128567701238655</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1246749249437482</v>
+        <v>0.06530345636631733</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1285060860142967</v>
+        <v>0.1773818283059737</v>
       </c>
       <c r="O141" t="n">
-        <v>0.124224124442099</v>
+        <v>0.06596200440088203</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01368946356595075</v>
+        <v>0.01500800000526482</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1251285562808875</v>
+        <v>0.03771598630372056</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03556045099516594</v>
+        <v>0.04963171194175721</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1261808561222527</v>
+        <v>0.06864211297569685</v>
       </c>
       <c r="L142" t="n">
-        <v>0.08208953562859758</v>
+        <v>0.1135567701238655</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1263153844824817</v>
+        <v>0.0661627123711373</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1271319806273218</v>
+        <v>0.1772818283059737</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1258586523952845</v>
+        <v>0.06682992551141995</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01364431317173092</v>
+        <v>0.01503892145390313</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1267536024663536</v>
+        <v>0.03820580430766498</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03566569612043156</v>
+        <v>0.04973171194175721</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1278195685394248</v>
+        <v>0.06953356898836822</v>
       </c>
       <c r="L143" t="n">
-        <v>0.08052199505306795</v>
+        <v>0.1133567701238655</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1279558440212152</v>
+        <v>0.06702196837595727</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1261276544254129</v>
+        <v>0.1772818283059737</v>
       </c>
       <c r="O143" t="n">
-        <v>0.12749318034847</v>
+        <v>0.06769784662195788</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01363495765752647</v>
+        <v>0.01506834319920108</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1283786486518197</v>
+        <v>0.0386956223116094</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03525369292978718</v>
+        <v>0.04943171194175722</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1294582809565969</v>
+        <v>0.07042502500103962</v>
       </c>
       <c r="L144" t="n">
-        <v>0.08104076410817815</v>
+        <v>0.1132567701238655</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1295963035599487</v>
+        <v>0.06788122438077723</v>
       </c>
       <c r="N144" t="n">
-        <v>0.126527078378549</v>
+        <v>0.1767818283059737</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1291277083016556</v>
+        <v>0.06856576773249579</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01463952115389247</v>
+        <v>0.01509627124194467</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1300036948372857</v>
+        <v>0.03918544031555382</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03523030347048126</v>
+        <v>0.04953171194175722</v>
       </c>
       <c r="K145" t="n">
-        <v>0.131096993373769</v>
+        <v>0.07131648101371101</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08106505986633705</v>
+        <v>0.1130567701238655</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1312367630986823</v>
+        <v>0.0687404803855972</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1258086742872135</v>
+        <v>0.1763818283059737</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1307622362548411</v>
+        <v>0.06943368884303371</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01464955596924519</v>
+        <v>0.01512271158291987</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1316287410227518</v>
+        <v>0.03967525831949825</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03524155417936267</v>
+        <v>0.04963171194175721</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1327357057909412</v>
+        <v>0.0722079370263824</v>
       </c>
       <c r="L146" t="n">
-        <v>0.08068672727035781</v>
+        <v>0.1131567701238655</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1328772226374158</v>
+        <v>0.06959973639041717</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1258634631404905</v>
+        <v>0.1762818283059737</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1323967642080266</v>
+        <v>0.07030160995357164</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01266477921277744</v>
+        <v>0.01514767022291268</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1332537872082179</v>
+        <v>0.04016507632344266</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03556634500452985</v>
+        <v>0.04983171194175721</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1343744182081133</v>
+        <v>0.07309939303905379</v>
       </c>
       <c r="L147" t="n">
-        <v>0.08053954610502881</v>
+        <v>0.1135567701238655</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1345176821761493</v>
+        <v>0.07045899239523712</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1264654767710459</v>
+        <v>0.1764818283059737</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1340312921612121</v>
+        <v>0.07116953106410956</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01468490799368209</v>
+        <v>0.01517115316270909</v>
       </c>
       <c r="G148" t="n">
-        <v>0.134878833393684</v>
+        <v>0.04065489432738709</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03550396969667872</v>
+        <v>0.04973171194175721</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1360131306252854</v>
+        <v>0.07399084905172518</v>
       </c>
       <c r="L148" t="n">
-        <v>0.08122190039075919</v>
+        <v>0.1133567701238655</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1361581417148829</v>
+        <v>0.07131824840005709</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1267122190043802</v>
+        <v>0.1763818283059737</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1356658201143976</v>
+        <v>0.07203745217464748</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01470965942115195</v>
+        <v>0.01519316640309507</v>
       </c>
       <c r="G149" t="n">
-        <v>0.13650387957915</v>
+        <v>0.04114471233133152</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03535372200650524</v>
+        <v>0.04983171194175721</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1376518430424575</v>
+        <v>0.07488230506439657</v>
       </c>
       <c r="L149" t="n">
-        <v>0.08133217414795815</v>
+        <v>0.1129567701238655</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1377986012536164</v>
+        <v>0.07217750440487705</v>
       </c>
       <c r="N149" t="n">
-        <v>0.127101193665994</v>
+        <v>0.1763818283059737</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1373003480675831</v>
+        <v>0.0729053732851854</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01273875060437983</v>
+        <v>0.01521371594485663</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1381289257646161</v>
+        <v>0.04163453033527593</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03581489568470533</v>
+        <v>0.04953171194175722</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1392905554596296</v>
+        <v>0.07577376107706794</v>
       </c>
       <c r="L150" t="n">
-        <v>0.0814687513970348</v>
+        <v>0.1136563806983939</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1394390607923499</v>
+        <v>0.07303676040969702</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1275299045813877</v>
+        <v>0.1768818283059737</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1389348760207686</v>
+        <v>0.07377329439572332</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01277189865255859</v>
+        <v>0.01523280778877975</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1397539719500822</v>
+        <v>0.04212434833922036</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03558678448197494</v>
+        <v>0.04973171194175721</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1409292678768017</v>
+        <v>0.07666521708973933</v>
       </c>
       <c r="L151" t="n">
-        <v>0.08083001615839824</v>
+        <v>0.1126501887335021</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1410795203310834</v>
+        <v>0.07389601641451699</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1267958555760618</v>
+        <v>0.1766816357615517</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1405694039739541</v>
+        <v>0.07464121550626124</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01280882067488105</v>
+        <v>0.01525044793565042</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1413790181355482</v>
+        <v>0.04261416634316478</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03566868214901001</v>
+        <v>0.04963171194175721</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1425679802939738</v>
+        <v>0.07755667310241073</v>
       </c>
       <c r="L152" t="n">
-        <v>0.08121435245245764</v>
+        <v>0.1136366857802407</v>
       </c>
       <c r="M152" t="n">
-        <v>0.142719979869817</v>
+        <v>0.07475527241933695</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1273965504755167</v>
+        <v>0.1769734558253054</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1422039319271397</v>
+        <v>0.07550913661679916</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01284923378054003</v>
+        <v>0.01526664238625461</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1430040643210143</v>
+        <v>0.04310398434710921</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03565988243650647</v>
+        <v>0.04943171194175722</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1442066927111459</v>
+        <v>0.0784481291150821</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08192014429962213</v>
+        <v>0.1131161652896852</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1443604394085505</v>
+        <v>0.0756145284241569</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1279294931052531</v>
+        <v>0.176153567400234</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1438384598803252</v>
+        <v>0.07637705772733709</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01389285507872837</v>
+        <v>0.01528139714137833</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1446291105064804</v>
+        <v>0.04359380235105362</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03575967909516026</v>
+        <v>0.04943164690715791</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1458454051283181</v>
+        <v>0.07933958512775349</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08154577572030081</v>
+        <v>0.1125889207129111</v>
       </c>
       <c r="M154" t="n">
-        <v>0.146000898947284</v>
+        <v>0.07647378442897687</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1282921872907713</v>
+        <v>0.1773224427312824</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1454729878335107</v>
+        <v>0.07724497883787501</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01293940167863889</v>
+        <v>0.01529471820180757</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1462541566919465</v>
+        <v>0.04408362035499805</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03586736587566733</v>
+        <v>0.0496291823840424</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1474841175454902</v>
+        <v>0.08023104114042488</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08248963073490287</v>
+        <v>0.1124552455009942</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1476413584860175</v>
+        <v>0.07733304043379684</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1290821368575719</v>
+        <v>0.1763805540633951</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1471075157866962</v>
+        <v>0.07811289994841293</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01498959482731702</v>
+        <v>0.01530661156832831</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1478792028774125</v>
+        <v>0.04457343835894247</v>
       </c>
       <c r="J156" t="n">
-        <v>0.0362822365287236</v>
+        <v>0.04972325595543833</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1491228299626623</v>
+        <v>0.08112249715309627</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08295009336383738</v>
+        <v>0.1130154331050099</v>
       </c>
       <c r="M156" t="n">
-        <v>0.149281818024751</v>
+        <v>0.0781922964386168</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1286968456311554</v>
+        <v>0.1771283736415169</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1487420437398817</v>
+        <v>0.07898082105895084</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01507434901586739</v>
+        <v>0.01531708324172652</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1495042490628786</v>
+        <v>0.0450632563628869</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03650906343696815</v>
+        <v>0.04941401129536152</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1507615423798344</v>
+        <v>0.08201395316576765</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08293032794799421</v>
+        <v>0.1127697769760339</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1509222775634846</v>
+        <v>0.07905155244343677</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1302045373973352</v>
+        <v>0.1755663737105921</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1503765716930672</v>
+        <v>0.07984874216948877</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01320209972517742</v>
+        <v>0.01532613922278821</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1511292952483447</v>
+        <v>0.04555307436683132</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03672912297930761</v>
+        <v>0.04940159207782786</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1524002547970065</v>
+        <v>0.08290540917843904</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08280269411246224</v>
+        <v>0.1125185705651416</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1525627371022181</v>
+        <v>0.07991080844825674</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1298944414158856</v>
+        <v>0.1764950265155657</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1520110996462527</v>
+        <v>0.08071666328002669</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01436430716455992</v>
+        <v>0.01533378551229938</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1527543414338108</v>
+        <v>0.04604289237077574</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03675333469303266</v>
+        <v>0.04938614197685319</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1540389672141786</v>
+        <v>0.08379686519111043</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08411862577065757</v>
+        <v>0.1129621073234088</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1542031966409516</v>
+        <v>0.0807700644530767</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1319329560145421</v>
+        <v>0.1760148043013821</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1536456275994383</v>
+        <v>0.08158458439056461</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01555243154332774</v>
+        <v>0.01534002811104599</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1543793876192768</v>
+        <v>0.04653271037472016</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03706037861624717</v>
+        <v>0.04966780466645333</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1556776796313507</v>
+        <v>0.08468832120378182</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08512934039903761</v>
+        <v>0.112400680701911</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1558436561796852</v>
+        <v>0.08162932045789666</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1328447277098964</v>
+        <v>0.1763261793129859</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1552801555526238</v>
+        <v>0.08245250550110254</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0157579330707937</v>
+        <v>0.01534487301981405</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1560044338047429</v>
+        <v>0.04702252837866459</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03782893478705507</v>
+        <v>0.04944672382064419</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1573163920485229</v>
+        <v>0.08557977721645321</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08548605547405994</v>
+        <v>0.1128345841517238</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1574841157184187</v>
+        <v>0.08248857646271662</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1339544030185403</v>
+        <v>0.176729623795322</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1569146835058093</v>
+        <v>0.08332042661164046</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01397227195627063</v>
+        <v>0.01534832623938952</v>
       </c>
       <c r="G162" t="n">
-        <v>0.157629479990209</v>
+        <v>0.04751234638260901</v>
       </c>
       <c r="J162" t="n">
-        <v>0.0384376832435602</v>
+        <v>0.04952304311344159</v>
       </c>
       <c r="K162" t="n">
-        <v>0.158955104465695</v>
+        <v>0.0864712332291246</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08663998847218221</v>
+        <v>0.1129641111239227</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1591245752571522</v>
+        <v>0.0833478324675366</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1373866284570655</v>
+        <v>0.1761256099933348</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1585492114589948</v>
+        <v>0.08418834772217837</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01618690840907138</v>
+        <v>0.01535039377055843</v>
       </c>
       <c r="G163" t="n">
-        <v>0.159254526175675</v>
+        <v>0.04800216438655344</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03856530402386646</v>
+        <v>0.04939690621886141</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1605938168828671</v>
+        <v>0.08736268924179598</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08824235686986204</v>
+        <v>0.1122895550695833</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1607650347958857</v>
+        <v>0.08420708847235657</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1381660505420637</v>
+        <v>0.176714610151969</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1601837394121803</v>
+        <v>0.08505626883271629</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01439330263850876</v>
+        <v>0.01535108161410673</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1608795723611411</v>
+        <v>0.04849198239049785</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03909047716607772</v>
+        <v>0.0496684568109195</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1622325293000392</v>
+        <v>0.08825414525446737</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08994437814355688</v>
+        <v>0.1130112094397812</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1624054943346193</v>
+        <v>0.08506634447717654</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1408173157901265</v>
+        <v>0.1755970965161693</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1618182673653658</v>
+        <v>0.08592418994325422</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01458291485389561</v>
+        <v>0.01535108161410672</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1625046185466072</v>
+        <v>0.04849198239049785</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03979188270829785</v>
+        <v>0.04933783856363168</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1638712417172113</v>
+        <v>0.08914560126713876</v>
       </c>
       <c r="L165" t="n">
-        <v>0.09029726976972446</v>
+        <v>0.1125293676855921</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1640459538733528</v>
+        <v>0.08592560048199649</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1421650707178457</v>
+        <v>0.1755735413308802</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1634527953185513</v>
+        <v>0.08679211105379214</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01674742742056216</v>
+        <v>0.01496717545353516</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1641296647320733</v>
+        <v>0.04849171386203384</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04024820068863076</v>
+        <v>0.04940519515101384</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1655099541343834</v>
+        <v>0.09003705727981015</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0917522492248222</v>
+        <v>0.1120443232580914</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1656864134120863</v>
+        <v>0.08678485648681646</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1444339618418129</v>
+        <v>0.1759444168410465</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1650873232717369</v>
+        <v>0.08766003216433006</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01689789058555407</v>
+        <v>0.0145876032942346</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1657547109175393</v>
+        <v>0.04849144533356982</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04054153432258853</v>
+        <v>0.04927067024708183</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1671486665515555</v>
+        <v>0.09092851329248154</v>
       </c>
       <c r="L167" t="n">
-        <v>0.09196391075936763</v>
+        <v>0.1118563696083549</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1673268729508199</v>
+        <v>0.08764411249163642</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1449896449541689</v>
+        <v>0.1761101952916128</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1667218512249224</v>
+        <v>0.08852795327486798</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01504465084857207</v>
+        <v>0.01421289171620281</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1673797571030054</v>
+        <v>0.04849117680510581</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04120916932747037</v>
+        <v>0.04923440752585151</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1687873789687276</v>
+        <v>0.09181996930515293</v>
       </c>
       <c r="L168" t="n">
-        <v>0.09290552198557137</v>
+        <v>0.1125658001874579</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1689673324895534</v>
+        <v>0.08850336849645639</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1464875436544415</v>
+        <v>0.1758713489275236</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1683563791781079</v>
+        <v>0.0893958743854059</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01718797911747964</v>
+        <v>0.01384356729940475</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1690048032884715</v>
+        <v>0.04849090827664179</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0413677661888459</v>
+        <v>0.04909655066133871</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1704260913858998</v>
+        <v>0.09271142531782432</v>
       </c>
       <c r="L169" t="n">
-        <v>0.09472631670321449</v>
+        <v>0.1121729084464761</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1706077920282869</v>
+        <v>0.08936262450127636</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1481540035564297</v>
+        <v>0.1742283499937236</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1699909071312934</v>
+        <v>0.09026379549594382</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01532814630014034</v>
+        <v>0.0134801566238377</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1706298494739376</v>
+        <v>0.04849063974817777</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04161800124007492</v>
+        <v>0.04915724332755932</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1720648038030718</v>
+        <v>0.0936028813304957</v>
       </c>
       <c r="L170" t="n">
-        <v>0.09492784244076863</v>
+        <v>0.1119779878364853</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1722482515670205</v>
+        <v>0.09022188050609632</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1483914150994247</v>
+        <v>0.1745816707351575</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1716254350844789</v>
+        <v>0.09113171660648174</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01546542330441766</v>
+        <v>0.01312318626946713</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1722548956594036</v>
+        <v>0.04849037121971375</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04216055081451726</v>
+        <v>0.04931662919852917</v>
       </c>
       <c r="K171" t="n">
-        <v>0.173703516220244</v>
+        <v>0.09449433734316708</v>
       </c>
       <c r="L171" t="n">
-        <v>0.09561164672670533</v>
+        <v>0.1114813318085607</v>
       </c>
       <c r="M171" t="n">
-        <v>0.173888711105754</v>
+        <v>0.09108113651091627</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1506021687227181</v>
+        <v>0.1740317833967699</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1732599630376644</v>
+        <v>0.09199963771701967</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01560008103817514</v>
+        <v>0.01277318281628979</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1738799418448697</v>
+        <v>0.04849010269124974</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04259609124553274</v>
+        <v>0.04907485194826414</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1753422286374161</v>
+        <v>0.09538579335583847</v>
       </c>
       <c r="L172" t="n">
-        <v>0.09697927708949627</v>
+        <v>0.1119832338137782</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1755291706444875</v>
+        <v>0.09194039251573624</v>
       </c>
       <c r="N172" t="n">
-        <v>0.151688654865601</v>
+        <v>0.1743791602235054</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1748944909908499</v>
+        <v>0.09286755882755759</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01573239040927628</v>
+        <v>0.01243067284427173</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1755049880303358</v>
+        <v>0.04848983416278572</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04272529886648115</v>
+        <v>0.04903205525078004</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1769809410545882</v>
+        <v>0.09627724936850986</v>
       </c>
       <c r="L173" t="n">
-        <v>0.096732281057613</v>
+        <v>0.1117839873032132</v>
       </c>
       <c r="M173" t="n">
-        <v>0.177169630183221</v>
+        <v>0.09279964852055621</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1518532639673652</v>
+        <v>0.1736242734603087</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1765290189440354</v>
+        <v>0.0937354799380955</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01686262232558461</v>
+        <v>0.01209618293340908</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1771300342158018</v>
+        <v>0.0484895656343217</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04304885001072234</v>
+        <v>0.04888838278009276</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1786196534717603</v>
+        <v>0.09716870538118125</v>
       </c>
       <c r="L174" t="n">
-        <v>0.09757220615952719</v>
+        <v>0.1111838857279414</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1788100897219546</v>
+        <v>0.09365890452537617</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1525983864673019</v>
+        <v>0.1735675953521244</v>
       </c>
       <c r="O174" t="n">
-        <v>0.178163546897221</v>
+        <v>0.09460340104863343</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01799104769496365</v>
+        <v>0.01177023966366853</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1787550804012679</v>
+        <v>0.04848929710585768</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04356742101161611</v>
+        <v>0.04914397821021815</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1802583658889324</v>
+        <v>0.09806016139385264</v>
       </c>
       <c r="L175" t="n">
-        <v>0.09920059992371036</v>
+        <v>0.1115832225390383</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1804505492606881</v>
+        <v>0.09451816053019614</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1537264128047024</v>
+        <v>0.1743095981438972</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1797980748504065</v>
+        <v>0.09547132215917135</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01611793742527692</v>
+        <v>0.01145336961504551</v>
       </c>
       <c r="G176" t="n">
-        <v>0.180380126586734</v>
+        <v>0.04848902857739366</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04368168820252227</v>
+        <v>0.04889898521517207</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1818970783061045</v>
+        <v>0.09895161740652403</v>
       </c>
       <c r="L176" t="n">
-        <v>0.09901900987863416</v>
+        <v>0.1111756819298292</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1820910087994216</v>
+        <v>0.09537741653501611</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1553397334188583</v>
+        <v>0.1732507540805716</v>
       </c>
       <c r="O176" t="n">
-        <v>0.181432602803592</v>
+        <v>0.09633924326970927</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01724356242438794</v>
+        <v>0.0111460993675075</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1820051727722</v>
+        <v>0.04848876004892964</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04389232791680069</v>
+        <v>0.04885354746897037</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1835357907232767</v>
+        <v>0.09984307341919541</v>
       </c>
       <c r="L177" t="n">
-        <v>0.09992898355277027</v>
+        <v>0.1115430289892963</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1837314683381552</v>
+        <v>0.09623667253983607</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1575407387490607</v>
+        <v>0.1731772755346976</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1830671307567775</v>
+        <v>0.09720716438024719</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01837145953388447</v>
+        <v>0.01084895550104908</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1836302189576661</v>
+        <v>0.04848849152046563</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04440005357751232</v>
+        <v>0.04880780864562891</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1851745031404488</v>
+        <v>0.1007345294318668</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1014320684745902</v>
+        <v>0.1104869340505749</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1853719278768887</v>
+        <v>0.09709592854465603</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1583355755073117</v>
+        <v>0.1744630554017745</v>
       </c>
       <c r="O178" t="n">
-        <v>0.184701658709963</v>
+        <v>0.09807508549078513</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01850669213576116</v>
+        <v>0.01056246459563859</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1852552651431322</v>
+        <v>0.04848822299200161</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04451968757201048</v>
+        <v>0.04896035314158041</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1868132155576209</v>
+        <v>0.1016259854445382</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1017573478986309</v>
+        <v>0.1108104495294707</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1870123874156222</v>
+        <v>0.09795518454947599</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1596867718293203</v>
+        <v>0.1733121326948274</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1863361866631485</v>
+        <v>0.09894300660132303</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01664492900324958</v>
+        <v>0.01028715323126975</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1868803113285983</v>
+        <v>0.0484879544635376</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0447549950703891</v>
+        <v>0.04900192877350974</v>
       </c>
       <c r="K180" t="n">
-        <v>0.188451927974793</v>
+        <v>0.1025174414572096</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1020207975635563</v>
+        <v>0.1101166278417893</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1886528469543557</v>
+        <v>0.09881444055429596</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1607845709766105</v>
+        <v>0.1726294196055404</v>
       </c>
       <c r="O180" t="n">
-        <v>0.187970714616334</v>
+        <v>0.09981092771186095</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01678151641706234</v>
+        <v>0.01002354798791182</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1885053575140643</v>
+        <v>0.04848768593507358</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04519435785839486</v>
+        <v>0.04883222877741442</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1900906403919651</v>
+        <v>0.103408897469881</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1026958945464042</v>
+        <v>0.1106085214033362</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1902933064930893</v>
+        <v>0.09967369655911593</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1605879094182416</v>
+        <v>0.1734198283255975</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1896052425695195</v>
+        <v>0.1006788488223989</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01791180065791202</v>
+        <v>0.009772175445557502</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1901304036995304</v>
+        <v>0.04848741740660956</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04562615772177431</v>
+        <v>0.04855274761991372</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1917293528091372</v>
+        <v>0.1043003534825524</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1042560550374522</v>
+        <v>0.109889182629917</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1919337660318228</v>
+        <v>0.1005329525639359</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1629557236232728</v>
+        <v>0.1724882710466827</v>
       </c>
       <c r="O182" t="n">
-        <v>0.191239770522705</v>
+        <v>0.1015467699329368</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01803112800651124</v>
+        <v>0.009533562184182179</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1917554498849965</v>
+        <v>0.04848714887814555</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04573877644627414</v>
+        <v>0.04856497976762696</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1933680652263093</v>
+        <v>0.1051918094952237</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1044746952269778</v>
+        <v>0.1105616639373375</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1935742255705563</v>
+        <v>0.1013922085687559</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1630469500607635</v>
+        <v>0.1721396599604798</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1928742984758906</v>
+        <v>0.1024146910434747</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01713484474357258</v>
+        <v>0.009308234783762304</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1933804960704626</v>
+        <v>0.04848688034968153</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04612059581764091</v>
+        <v>0.04827041968717342</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1950067776434815</v>
+        <v>0.1060832655078951</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1057252313052586</v>
+        <v>0.1103290177414032</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1952146851092899</v>
+        <v>0.1022514645735758</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1646205251997728</v>
+        <v>0.171478907258673</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1945088264290761</v>
+        <v>0.1032826121540126</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01821829714980867</v>
+        <v>0.009096719824288946</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1950055422559286</v>
+        <v>0.04848661182121752</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04625999762162127</v>
+        <v>0.04827056184517238</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1966454900606535</v>
+        <v>0.1069747215205665</v>
       </c>
       <c r="L185" t="n">
-        <v>0.105881079462572</v>
+        <v>0.1098942964579198</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1968551446480234</v>
+        <v>0.1031107205783958</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1663353855093602</v>
+        <v>0.1720109251329461</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1961433543822616</v>
+        <v>0.1041505332645506</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01727746939876335</v>
+        <v>0.008899543885734142</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1966305884413947</v>
+        <v>0.0484863432927535</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0466453636439618</v>
+        <v>0.04846690070824314</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1982842024778257</v>
+        <v>0.1078661775332379</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1060156558891958</v>
+        <v>0.1088605525026928</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1984956041867569</v>
+        <v>0.1039699765832158</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1661504674585848</v>
+        <v>0.1708406257749833</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1977778823354471</v>
+        <v>0.1050184543750885</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01932745232135401</v>
+        <v>0.008717233548087712</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1982556346268608</v>
+        <v>0.04848607476428948</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04677616579237528</v>
+        <v>0.04806093074300501</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1999229148949978</v>
+        <v>0.1087576335459093</v>
       </c>
       <c r="L187" t="n">
-        <v>0.106020735672775</v>
+        <v>0.1090308382915279</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2001360637254904</v>
+        <v>0.1048292325880357</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1666974704381128</v>
+        <v>0.1710729213764683</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1994124102886326</v>
+        <v>0.1058863754856264</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01837635071814663</v>
+        <v>0.008550315391322977</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1998806808123268</v>
+        <v>0.04848580623582546</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04699793288729259</v>
+        <v>0.04795414641607725</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2015616273121699</v>
+        <v>0.1096490895585807</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1065992581755467</v>
+        <v>0.1093082062402307</v>
       </c>
       <c r="M188" t="n">
-        <v>0.201776523264224</v>
+        <v>0.1056884885928557</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1672281897074832</v>
+        <v>0.1705127241290854</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2010469382418181</v>
+        <v>0.1067542965961643</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01742414746282448</v>
+        <v>0.008399315995428445</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2015057269977929</v>
+        <v>0.04848553770736144</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04701699969563096</v>
+        <v>0.04794804219407917</v>
       </c>
       <c r="K189" t="n">
-        <v>0.203200339729342</v>
+        <v>0.1105405455712521</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1069716166111918</v>
+        <v>0.1083957087646068</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2034169828029575</v>
+        <v>0.1065477445976756</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1670493112222144</v>
+        <v>0.1690649462245182</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2026814661950037</v>
+        <v>0.1076222177067022</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01847082542907089</v>
+        <v>0.008262725549016435</v>
       </c>
       <c r="G190" t="n">
-        <v>0.203130773183259</v>
+        <v>0.04848526917889742</v>
       </c>
       <c r="J190" t="n">
-        <v>0.0471333234607898</v>
+        <v>0.04794411254363007</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2048390521465141</v>
+        <v>0.1114320015839235</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1074377131476932</v>
+        <v>0.1088963982804619</v>
       </c>
       <c r="M190" t="n">
-        <v>0.205057442341691</v>
+        <v>0.1074070006024956</v>
       </c>
       <c r="N190" t="n">
-        <v>0.167260683862956</v>
+        <v>0.169534499854451</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2043159941481892</v>
+        <v>0.1084901388172402</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01951636749056913</v>
+        <v>0.008128809605065512</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2047558193687251</v>
+        <v>0.04848500065043341</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04704686142616851</v>
+        <v>0.04794385193134924</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2064777645636862</v>
+        <v>0.1123234575965948</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1073974499530339</v>
+        <v>0.1086133272036015</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2066979018804246</v>
+        <v>0.1082662566073156</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1690621565103574</v>
+        <v>0.1690262972105676</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2059505221013747</v>
+        <v>0.1093580599277781</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01756075652100251</v>
+        <v>0.007995949284053873</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2063808655541911</v>
+        <v>0.04848473212196939</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0472575708351665</v>
+        <v>0.04764875482385596</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2081164769808584</v>
+        <v>0.1132149136092662</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1078507291951968</v>
+        <v>0.1082495479498312</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2083383614191581</v>
+        <v>0.1091255126121355</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1682535780450684</v>
+        <v>0.1698452504845521</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2075850500545602</v>
+        <v>0.110225981038316</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01860397539405432</v>
+        <v>0.007864557355740695</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2080059117396572</v>
+        <v>0.04848446359350538</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04756540893118318</v>
+        <v>0.04756031568776953</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2097551893980305</v>
+        <v>0.1141063696219376</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1081974530421649</v>
+        <v>0.1075081129349568</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2099788209578916</v>
+        <v>0.1099847686169555</v>
       </c>
       <c r="N193" t="n">
-        <v>0.168434797347738</v>
+        <v>0.1679962718680884</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2092195780077457</v>
+        <v>0.1110939021488539</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01964600698340784</v>
+        <v>0.007735046589873631</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2096309579251233</v>
+        <v>0.04848419506504136</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04757033295761794</v>
+        <v>0.04738002898970924</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2113939018152026</v>
+        <v>0.114997825634609</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1083375236619213</v>
+        <v>0.1075920745747837</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2116192804966252</v>
+        <v>0.1108440246217755</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1688056632990164</v>
+        <v>0.1685842735528604</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2108541059609312</v>
+        <v>0.1119618232593919</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01868683416274638</v>
+        <v>0.007607829756211708</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2112560041105893</v>
+        <v>0.04848392653657734</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0474723001578702</v>
+        <v>0.04740938919629437</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2130326142323747</v>
+        <v>0.1158892816472804</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1081708432224489</v>
+        <v>0.1078960280079043</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2132597400353587</v>
+        <v>0.1117032806265954</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1699660247795528</v>
+        <v>0.1682139667382902</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2124886339141167</v>
+        <v>0.1128297443699298</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01772643980575324</v>
+        <v>0.007483319624502771</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2128810502960554</v>
+        <v>0.04848365800811332</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04787126777533934</v>
+        <v>0.04714989077414425</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2146713266495468</v>
+        <v>0.1167807376599518</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1089973138917306</v>
+        <v>0.1072036091295273</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2149001995740922</v>
+        <v>0.1125625366314154</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1699157306699968</v>
+        <v>0.1689648439225366</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2141231618673022</v>
+        <v>0.1136976654804677</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0197648067861117</v>
+        <v>0.007361928964505625</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2145060964815215</v>
+        <v>0.04848338947964931</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04776719305342481</v>
+        <v>0.04720256310823877</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2163100390667189</v>
+        <v>0.1176721936726232</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1096168378377496</v>
+        <v>0.1071141819025341</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2165406591128257</v>
+        <v>0.1134217926362354</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1700546298509979</v>
+        <v>0.1678205943076456</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2157576898204878</v>
+        <v>0.1145655865910056</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01780191797750506</v>
+        <v>0.007244070545970885</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2161311426669875</v>
+        <v>0.04848312095118529</v>
       </c>
       <c r="J198" t="n">
-        <v>0.04796003323552597</v>
+        <v>0.04725983843184942</v>
       </c>
       <c r="K198" t="n">
-        <v>0.217948751483891</v>
+        <v>0.1185636496852945</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1095293172284886</v>
+        <v>0.1076276485156408</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2181811186515593</v>
+        <v>0.1142810486410553</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1701825712032057</v>
+        <v>0.168081060487875</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2173922177736733</v>
+        <v>0.1154335077015436</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01783775625361663</v>
+        <v>0.0071301571386495</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2177561888524536</v>
+        <v>0.04848285242272127</v>
       </c>
       <c r="J199" t="n">
-        <v>0.04814974556504227</v>
+        <v>0.04711854741226014</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2195874639010632</v>
+        <v>0.1194551056979659</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1098346542319308</v>
+        <v>0.1069439111575633</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2198215781902928</v>
+        <v>0.1151403046458753</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1709994036072696</v>
+        <v>0.1684460850574827</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2190267457268588</v>
+        <v>0.1163014288120815</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01787230448812968</v>
+        <v>0.007020601512299808</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2193812350379197</v>
+        <v>0.04848258389425725</v>
       </c>
       <c r="J200" t="n">
-        <v>0.04803628728537308</v>
+        <v>0.04707864216094318</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2212261763182353</v>
+        <v>0.1203465617106373</v>
       </c>
       <c r="L200" t="n">
-        <v>0.110132751016059</v>
+        <v>0.1076628720170178</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2214620377290263</v>
+        <v>0.1159995606506953</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1709049759438394</v>
+        <v>0.167215510610726</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2206612736800443</v>
+        <v>0.1171693499226194</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01790554555472752</v>
+        <v>0.006915816436670413</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2210062812233858</v>
+        <v>0.04848231536579323</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04841961563991783</v>
+        <v>0.04694007478937083</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2228648887354074</v>
+        <v>0.1212380177233087</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1097235097488564</v>
+        <v>0.1074844332827202</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2231024972677599</v>
+        <v>0.1168588166555152</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1707991370935646</v>
+        <v>0.1668891797418631</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2222958016332298</v>
+        <v>0.1180372710331573</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01993746232709345</v>
+        <v>0.006816214681519273</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2226313274088518</v>
+        <v>0.04848204683732922</v>
       </c>
       <c r="J202" t="n">
-        <v>0.0484996878720759</v>
+        <v>0.04730279740901543</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2245036011525795</v>
+        <v>0.1221294737359801</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1101068325983057</v>
+        <v>0.1070084971433868</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2247429568064934</v>
+        <v>0.1177180726603352</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1717817359370945</v>
+        <v>0.1678669350451514</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2239303295864153</v>
+        <v>0.1189051921436952</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01896803767891075</v>
+        <v>0.006722209016595433</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2242563735943179</v>
+        <v>0.0484817783088652</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04827646122524672</v>
+        <v>0.04686676213134927</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2261423135697516</v>
+        <v>0.1230209297486515</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1100826217323901</v>
+        <v>0.1076349657877333</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2263834163452269</v>
+        <v>0.1185773286651551</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1729526213550789</v>
+        <v>0.1678486191148488</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2255648575396009</v>
+        <v>0.1197731132542331</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01899725448386272</v>
+        <v>0.00663421221165636</v>
       </c>
       <c r="G204" t="n">
-        <v>0.225881419779784</v>
+        <v>0.04848150978040119</v>
       </c>
       <c r="J204" t="n">
-        <v>0.04864989294282966</v>
+        <v>0.04723192106784463</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2277810259869237</v>
+        <v>0.1239123857613229</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1103507793190925</v>
+        <v>0.1064637414044762</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2280238758839604</v>
+        <v>0.1194365846699751</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1720116422281671</v>
+        <v>0.167534074545213</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2271993854927864</v>
+        <v>0.1206410343647711</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01902509561563266</v>
+        <v>0.006552637036451613</v>
       </c>
       <c r="G205" t="n">
-        <v>0.22750646596525</v>
+        <v>0.04848124125193717</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04871994026822414</v>
+        <v>0.04679822632997387</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2294197384040958</v>
+        <v>0.1248038417739943</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1101112075263959</v>
+        <v>0.1070947261823311</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2296643354226939</v>
+        <v>0.1202958406747951</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1735586474370089</v>
+        <v>0.1676231439305015</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2288339134459718</v>
+        <v>0.121508955475309</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02005154394790386</v>
+        <v>0.006477896260738129</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2291315121507161</v>
+        <v>0.04848097272347315</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04878656044482961</v>
+        <v>0.04686563002920921</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2310584508212679</v>
+        <v>0.1256952977866657</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1104638085222833</v>
+        <v>0.1071278223100143</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2313047949614274</v>
+        <v>0.121155096679615</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1731934858622537</v>
+        <v>0.1669156698649724</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2304684413991574</v>
+        <v>0.1223768765858469</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02007658235435961</v>
+        <v>0.006410402654266026</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2307565583361822</v>
+        <v>0.04848070419500913</v>
       </c>
       <c r="J207" t="n">
-        <v>0.04844971071604542</v>
+        <v>0.04703408427702301</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2326971632384401</v>
+        <v>0.126586753799337</v>
       </c>
       <c r="L207" t="n">
-        <v>0.1107084844747376</v>
+        <v>0.1065629319762417</v>
       </c>
       <c r="M207" t="n">
-        <v>0.232945254500161</v>
+        <v>0.122014352684435</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1730160063845511</v>
+        <v>0.1677114949428831</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2321029693523429</v>
+        <v>0.1232447976963848</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01810019370868323</v>
+        <v>0.006350568986791642</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2323816045216482</v>
+        <v>0.04848043566654512</v>
       </c>
       <c r="J208" t="n">
-        <v>0.048609348325271</v>
+        <v>0.04710354118488755</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2343358756556121</v>
+        <v>0.1274782098120084</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1114451375517418</v>
+        <v>0.1063999573697295</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2345857140388945</v>
+        <v>0.122873608689255</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1739260578845506</v>
+        <v>0.1674104617584916</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2337374973055284</v>
+        <v>0.1241127188069228</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02012236088455799</v>
+        <v>0.006298808028065747</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2340066507071143</v>
+        <v>0.0484801671380811</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04876543051590575</v>
+        <v>0.04707395286427511</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2359745880727843</v>
+        <v>0.1283696658246798</v>
       </c>
       <c r="L209" t="n">
-        <v>0.111473669921279</v>
+        <v>0.1068388006791937</v>
       </c>
       <c r="M209" t="n">
-        <v>0.236226173577628</v>
+        <v>0.1237328646940749</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1735234892429017</v>
+        <v>0.1668124129060553</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2353720252587139</v>
+        <v>0.1249806399174607</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01914306675566717</v>
+        <v>0.00625553254784398</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2356316968925804</v>
+        <v>0.04847989860961708</v>
       </c>
       <c r="J210" t="n">
-        <v>0.04861791453134907</v>
+        <v>0.04664527142665806</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2376133004899564</v>
+        <v>0.1292611218373512</v>
       </c>
       <c r="L210" t="n">
-        <v>0.110693983751332</v>
+        <v>0.1065793640933504</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2378666331163616</v>
+        <v>0.1245921206988949</v>
       </c>
       <c r="N210" t="n">
-        <v>0.174308149340254</v>
+        <v>0.1669171909798321</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2370065532118995</v>
+        <v>0.1258485610279986</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01816229419569412</v>
+        <v>0.00622115531587783</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2372567430780465</v>
+        <v>0.04847963008115306</v>
       </c>
       <c r="J211" t="n">
-        <v>0.04896675761500038</v>
+        <v>0.04661744898350864</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2392520129071285</v>
+        <v>0.1301525778500226</v>
       </c>
       <c r="L211" t="n">
-        <v>0.111905981209884</v>
+        <v>0.1060215498009155</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2395070926550951</v>
+        <v>0.1254513767037149</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1747798870572572</v>
+        <v>0.1659246385740797</v>
       </c>
       <c r="O211" t="n">
-        <v>0.238641081165085</v>
+        <v>0.1267164821385365</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02018002607832208</v>
+        <v>0.006196089101922195</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2388817892635125</v>
+        <v>0.04847936155268905</v>
       </c>
       <c r="J212" t="n">
-        <v>0.04901191701025909</v>
+        <v>0.04699043764629918</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2408907253243006</v>
+        <v>0.131044033862694</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1120095644649177</v>
+        <v>0.1063652599906051</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2411475521938286</v>
+        <v>0.1263106327085348</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1733385512745605</v>
+        <v>0.1657345982830559</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2402756091182705</v>
+        <v>0.1275844032490744</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02019624527723438</v>
+        <v>0.006180746675729355</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2405068354489786</v>
+        <v>0.04847909302422503</v>
       </c>
       <c r="J213" t="n">
-        <v>0.04875334996052456</v>
+        <v>0.04676418952650195</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2425294377414727</v>
+        <v>0.1319354898753654</v>
       </c>
       <c r="L213" t="n">
-        <v>0.1117046356844162</v>
+        <v>0.1064103968511353</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2427880117325621</v>
+        <v>0.1271698887133548</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1742839908728138</v>
+        <v>0.1661469127010184</v>
       </c>
       <c r="O213" t="n">
-        <v>0.241910137071456</v>
+        <v>0.1284523243596124</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01821093466611428</v>
+        <v>0.006175540807053362</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2421318816344447</v>
+        <v>0.04847882449576101</v>
       </c>
       <c r="J214" t="n">
-        <v>0.04889101370919625</v>
+        <v>0.04673865673558927</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2441681501586448</v>
+        <v>0.1328269458880368</v>
       </c>
       <c r="L214" t="n">
-        <v>0.1117910970363626</v>
+        <v>0.1060568625712222</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2444284712712957</v>
+        <v>0.1280291447181748</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1748160547326663</v>
+        <v>0.1659614244222249</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2435446650246415</v>
+        <v>0.1293202454701503</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02022407711864511</v>
+        <v>0.006175540807053362</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2437569278199108</v>
+        <v>0.04847882449576101</v>
       </c>
       <c r="J215" t="n">
-        <v>0.04902486549967353</v>
+        <v>0.04651379138503348</v>
       </c>
       <c r="K215" t="n">
-        <v>0.245806862575817</v>
+        <v>0.1337184019007081</v>
       </c>
       <c r="L215" t="n">
-        <v>0.1111688506887398</v>
+        <v>0.1061045593395817</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2460689308100292</v>
+        <v>0.1288884007229948</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1736345917347679</v>
+        <v>0.166077976040933</v>
       </c>
       <c r="O215" t="n">
-        <v>0.245179192977827</v>
+        <v>0.1301881665806882</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01923565550851015</v>
+        <v>0.005976716690172558</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2453819740053769</v>
+        <v>0.04846302675872081</v>
       </c>
       <c r="J216" t="n">
-        <v>0.04915486257535583</v>
+        <v>0.04668954558630679</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2474455749929891</v>
+        <v>0.1346098579133795</v>
       </c>
       <c r="L216" t="n">
-        <v>0.1116377988095307</v>
+        <v>0.10615338934493</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2477093903487627</v>
+        <v>0.1297476567278147</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1741394507597678</v>
+        <v>0.1658964101514006</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2468137209310125</v>
+        <v>0.1310560876912261</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02024565270939269</v>
+        <v>0.005783419554595472</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2470070201908429</v>
+        <v>0.04844722902168059</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04908096217964251</v>
+        <v>0.04676587145088161</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2490842874101612</v>
+        <v>0.1355013139260509</v>
       </c>
       <c r="L217" t="n">
-        <v>0.1118978435667183</v>
+        <v>0.106503254775983</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2493498498874963</v>
+        <v>0.1306069127326347</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1738304806883159</v>
+        <v>0.1657165693478853</v>
       </c>
       <c r="O217" t="n">
-        <v>0.248448248884198</v>
+        <v>0.1319240088017641</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02025405159497604</v>
+        <v>0.005595889206690068</v>
       </c>
       <c r="G218" t="n">
-        <v>0.248632066376309</v>
+        <v>0.04843143128464038</v>
       </c>
       <c r="J218" t="n">
-        <v>0.04910312155593304</v>
+        <v>0.04654272109023018</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2507229998273333</v>
+        <v>0.1363927699387223</v>
       </c>
       <c r="L218" t="n">
-        <v>0.1122488871282857</v>
+        <v>0.1062540578214569</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2509903094262298</v>
+        <v>0.1314661687374546</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1748075304010613</v>
+        <v>0.1653382962246449</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2500827768373835</v>
+        <v>0.132791929912302</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01926083503894349</v>
+        <v>0.005414365452824033</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2502571125617751</v>
+        <v>0.04841563354760017</v>
       </c>
       <c r="J219" t="n">
-        <v>0.0489212979476268</v>
+        <v>0.0467200466158248</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2523617122445054</v>
+        <v>0.1372842259513937</v>
       </c>
       <c r="L219" t="n">
-        <v>0.1114908316622158</v>
+        <v>0.1064057006700677</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2526307689649633</v>
+        <v>0.1323254247422746</v>
       </c>
       <c r="N219" t="n">
-        <v>0.173970448778654</v>
+        <v>0.1657614333759371</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2517173047905691</v>
+        <v>0.1336598510228399</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01826598591497831</v>
+        <v>0.005239088099365345</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2518821587472411</v>
+        <v>0.04839983581055996</v>
       </c>
       <c r="J220" t="n">
-        <v>0.04913544859812316</v>
+        <v>0.04679780013913779</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2540004246616775</v>
+        <v>0.1381756819640651</v>
       </c>
       <c r="L220" t="n">
-        <v>0.1119235793364916</v>
+        <v>0.1066580855105314</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2542712285036968</v>
+        <v>0.1331846807470946</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1743190847017432</v>
+        <v>0.1653858233960196</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2533518327437546</v>
+        <v>0.1345277721333778</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02026948709676384</v>
+        <v>0.005070296952681713</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2535072049327072</v>
+        <v>0.04838403807351974</v>
       </c>
       <c r="J221" t="n">
-        <v>0.04934553075082158</v>
+        <v>0.04657593377164142</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2556391370788496</v>
+        <v>0.1390671379767364</v>
       </c>
       <c r="L221" t="n">
-        <v>0.112347032319096</v>
+        <v>0.1062111145315641</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2559116880424304</v>
+        <v>0.1340439367519145</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1756532870509786</v>
+        <v>0.1651113088791501</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2549863606969401</v>
+        <v>0.1353956932439158</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01827132145798334</v>
+        <v>0.004908231819141087</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2551322511181733</v>
+        <v>0.04836824033647954</v>
       </c>
       <c r="J222" t="n">
-        <v>0.04935150164912143</v>
+        <v>0.04645439962480802</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2572778494960217</v>
+        <v>0.1399585939894079</v>
       </c>
       <c r="L222" t="n">
-        <v>0.111761092778012</v>
+        <v>0.1057646899218817</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2575521475811639</v>
+        <v>0.1349031927567345</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1750729047070098</v>
+        <v>0.1658377324195865</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2566208886501256</v>
+        <v>0.1362636143544537</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01926715448068147</v>
+        <v>0.004753132505111189</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2567572973036394</v>
+        <v>0.04835244259943933</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04925304431642913</v>
+        <v>0.0463331498101099</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2589165619131938</v>
+        <v>0.1408500500020792</v>
       </c>
       <c r="L223" t="n">
-        <v>0.112565594004259</v>
+        <v>0.1063187138702005</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2591926071198974</v>
+        <v>0.1357624487615545</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1751712039347387</v>
+        <v>0.1654649366115862</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2582554166033111</v>
+        <v>0.1371315354649916</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01922076837368938</v>
+        <v>0.004605238816959963</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2583823434891054</v>
+        <v>0.04833664486239912</v>
       </c>
       <c r="J224" t="n">
-        <v>0.04908069217243345</v>
+        <v>0.04651213643901934</v>
       </c>
       <c r="K224" t="n">
-        <v>0.260555274330366</v>
+        <v>0.1417415060147506</v>
       </c>
       <c r="L224" t="n">
-        <v>0.1119127689279883</v>
+        <v>0.1059730885652364</v>
       </c>
       <c r="M224" t="n">
-        <v>0.260833066658631</v>
+        <v>0.1366217047663744</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1745684235187486</v>
+        <v>0.1651927640494072</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2598899445564966</v>
+        <v>0.1379994565755295</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02012830689142583</v>
+        <v>0.004464790561055129</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2600073896745715</v>
+        <v>0.0483208471253589</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0486898237544736</v>
+        <v>0.04669131162300867</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2621939867475381</v>
+        <v>0.142632962027422</v>
       </c>
       <c r="L225" t="n">
-        <v>0.1109877545449469</v>
+        <v>0.1056277161957055</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2624735261973645</v>
+        <v>0.1374809607711944</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1747505098461859</v>
+        <v>0.1657210573273072</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2615244725096821</v>
+        <v>0.1388673776860674</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01999510904979036</v>
+        <v>0.004332027543764633</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2616324358600376</v>
+        <v>0.04830504938831869</v>
       </c>
       <c r="J226" t="n">
-        <v>0.04859376814984347</v>
+        <v>0.04667062747355015</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2638326991647102</v>
+        <v>0.1435244180400934</v>
       </c>
       <c r="L226" t="n">
-        <v>0.1113210493390382</v>
+        <v>0.1053824989503238</v>
       </c>
       <c r="M226" t="n">
-        <v>0.264113985736098</v>
+        <v>0.1383402167760144</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1730645733745241</v>
+        <v>0.1653496590395437</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2631590004628677</v>
+        <v>0.1397352987966053</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01782651386468248</v>
+        <v>0.004207189571456195</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2632574820455036</v>
+        <v>0.04828925165127848</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0483058544458369</v>
+        <v>0.0463500361021161</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2654714115818823</v>
+        <v>0.1444158740527648</v>
       </c>
       <c r="L227" t="n">
-        <v>0.1104431517941659</v>
+        <v>0.1060373390178073</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2657544452748316</v>
+        <v>0.1391994727808343</v>
       </c>
       <c r="N227" t="n">
-        <v>0.172257724561237</v>
+        <v>0.1647784117803747</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2647935284160531</v>
+        <v>0.1406032199071433</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01862786035200172</v>
+        <v>0.004090516450497766</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2648825282309697</v>
+        <v>0.04827345391423827</v>
       </c>
       <c r="J228" t="n">
-        <v>0.04793941172974781</v>
+        <v>0.04662948962017884</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2671101239990544</v>
+        <v>0.1453073300654362</v>
       </c>
       <c r="L228" t="n">
-        <v>0.1089845603942332</v>
+        <v>0.1054921385868722</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2673949048135651</v>
+        <v>0.1400587287856543</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1695770738637981</v>
+        <v>0.1656071581440577</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2664280563692387</v>
+        <v>0.1414711410176812</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01740448752764762</v>
+        <v>0.003982247987257076</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2665075744164358</v>
+        <v>0.04825765617719806</v>
       </c>
       <c r="J229" t="n">
-        <v>0.04710776908887004</v>
+        <v>0.04660894013921063</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2687488364162265</v>
+        <v>0.1461987860781076</v>
       </c>
       <c r="L229" t="n">
-        <v>0.1076757736231438</v>
+        <v>0.1057467998462345</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2690353643522986</v>
+        <v>0.1409179847904742</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1679697317396812</v>
+        <v>0.1658357407248506</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2680625843224242</v>
+        <v>0.1423390621282191</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01916173440751971</v>
+        <v>0.003882623988102039</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2681326206019018</v>
+        <v>0.04824185844015785</v>
       </c>
       <c r="J230" t="n">
-        <v>0.04672425561049749</v>
+        <v>0.04648833977068383</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2703875488333987</v>
+        <v>0.1470902420907789</v>
       </c>
       <c r="L230" t="n">
-        <v>0.1062472899648014</v>
+        <v>0.1057012249846102</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2706758238910321</v>
+        <v>0.1417772407952942</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1648828086463597</v>
+        <v>0.165664002117011</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2696971122756097</v>
+        <v>0.143206983238757</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.0179049400075175</v>
+        <v>0.00379188425940042</v>
       </c>
       <c r="G231" t="n">
-        <v>0.269757666787368</v>
+        <v>0.04822606070311763</v>
       </c>
       <c r="J231" t="n">
-        <v>0.04600220038192405</v>
+        <v>0.04616764062607068</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2720262612505707</v>
+        <v>0.1479816981034504</v>
       </c>
       <c r="L231" t="n">
-        <v>0.1054296079031092</v>
+        <v>0.1050553161907153</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2723162834297657</v>
+        <v>0.1426364968001142</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1627634150413075</v>
+        <v>0.1645917849147968</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2713316402287952</v>
+        <v>0.144074904349295</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01763944334354054</v>
+        <v>0.003710268607520134</v>
       </c>
       <c r="G232" t="n">
-        <v>0.271382712972834</v>
+        <v>0.04821026296607742</v>
       </c>
       <c r="J232" t="n">
-        <v>0.04545493249044359</v>
+        <v>0.04634679481684351</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2736649736677428</v>
+        <v>0.1488731541161217</v>
       </c>
       <c r="L232" t="n">
-        <v>0.103053225921971</v>
+        <v>0.105008975653266</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2739567429684992</v>
+        <v>0.1434957528049342</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1619586613819982</v>
+        <v>0.1647189317124654</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2729661681819808</v>
+        <v>0.1449428254598329</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01637058343148834</v>
+        <v>0.003638016838828952</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2730077591583001</v>
+        <v>0.04819446522903722</v>
       </c>
       <c r="J233" t="n">
-        <v>0.04459578102334996</v>
+        <v>0.04652575445447465</v>
       </c>
       <c r="K233" t="n">
-        <v>0.275303686084915</v>
+        <v>0.1497646101287931</v>
       </c>
       <c r="L233" t="n">
-        <v>0.1020486425052903</v>
+        <v>0.1053621489758104</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2755972025072327</v>
+        <v>0.1443550088097541</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1590156581259053</v>
+        <v>0.1650452851042748</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2746006961351662</v>
+        <v>0.1458107465703708</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01710369928726044</v>
+        <v>0.003575368759694691</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2746328053437662</v>
+        <v>0.04817866749199701</v>
       </c>
       <c r="J234" t="n">
-        <v>0.0440380750679371</v>
+        <v>0.04610447791468984</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2769423985020871</v>
+        <v>0.1506560661414645</v>
       </c>
       <c r="L234" t="n">
-        <v>0.1008463561369704</v>
+        <v>0.1049154865501922</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2772376620459663</v>
+        <v>0.1452142648145741</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1565815157305027</v>
+        <v>0.1648714841271794</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2762352240883518</v>
+        <v>0.1466786676809087</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01584412992675637</v>
+        <v>0.003522564176485256</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2762578515292322</v>
+        <v>0.0481628697549568</v>
       </c>
       <c r="J235" t="n">
-        <v>0.04339514371149882</v>
+        <v>0.04608323270622243</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2785811109192592</v>
+        <v>0.1515475221541359</v>
       </c>
       <c r="L235" t="n">
-        <v>0.09897686530091501</v>
+        <v>0.1058692426242827</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2788781215846998</v>
+        <v>0.146073520819394</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1538033446532639</v>
+        <v>0.1642983454922037</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2778697520415372</v>
+        <v>0.1475465887914466</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01659721436587565</v>
+        <v>0.003479842895568415</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2778828977146983</v>
+        <v>0.04814707201791658</v>
       </c>
       <c r="J236" t="n">
-        <v>0.04278031604132905</v>
+        <v>0.04646218464716963</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2802198233364313</v>
+        <v>0.1524389781668073</v>
       </c>
       <c r="L236" t="n">
-        <v>0.09747066848102767</v>
+        <v>0.1059234256862448</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2805185811234333</v>
+        <v>0.146932776824214</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1520282553516626</v>
+        <v>0.1646258831850906</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2795042799947228</v>
+        <v>0.1484145099019845</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01536829162051781</v>
+        <v>0.00344744472331205</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2795079439001644</v>
+        <v>0.04813127428087637</v>
       </c>
       <c r="J237" t="n">
-        <v>0.04220692114472165</v>
+        <v>0.04604133789334676</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2818585357536034</v>
+        <v>0.1533304341794787</v>
       </c>
       <c r="L237" t="n">
-        <v>0.09565826416121184</v>
+        <v>0.1049780442242417</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2821590406621668</v>
+        <v>0.147792032829034</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1502033582831724</v>
+        <v>0.1650541108656715</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2811388079479083</v>
+        <v>0.1492824310125225</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01515628410403157</v>
+        <v>0.003425609466083959</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2811329900856304</v>
+        <v>0.04811547654383616</v>
       </c>
       <c r="J238" t="n">
-        <v>0.04168110919013707</v>
+        <v>0.04612069660056917</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2834972481707755</v>
+        <v>0.15422189019215</v>
       </c>
       <c r="L238" t="n">
-        <v>0.09475569094516623</v>
+        <v>0.1058331067264365</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2837995002009004</v>
+        <v>0.1486512888338539</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1475422561031277</v>
+        <v>0.1652830421937773</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2827733359010938</v>
+        <v>0.1501503521230604</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01494470393797525</v>
+        <v>0.003414576930252003</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2827580362710965</v>
+        <v>0.04809967880679595</v>
       </c>
       <c r="J239" t="n">
-        <v>0.04136208146197981</v>
+        <v>0.04620026492465215</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2851359605879477</v>
+        <v>0.1551133462048215</v>
       </c>
       <c r="L239" t="n">
-        <v>0.09427074586045478</v>
+        <v>0.1050886216809924</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2854399597396339</v>
+        <v>0.1495105448386739</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1461979407716398</v>
+        <v>0.164612690829239</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2844078638542794</v>
+        <v>0.1510182732335983</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01673232233520527</v>
+        <v>0.003413607712848668</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2843830824565626</v>
+        <v>0.04808388106975574</v>
       </c>
       <c r="J240" t="n">
-        <v>0.04044107618153409</v>
+        <v>0.04628004702141109</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2867746730051198</v>
+        <v>0.1560048022174928</v>
       </c>
       <c r="L240" t="n">
-        <v>0.09278128265160621</v>
+        <v>0.1057445975760723</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2870804192783674</v>
+        <v>0.1503698008434939</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1452466109235434</v>
+        <v>0.1637430704318876</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2860423918074648</v>
+        <v>0.1518861943441362</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01651912664739497</v>
+        <v>0.003417066364229886</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2860081286420286</v>
+        <v>0.04806808333271553</v>
       </c>
       <c r="J241" t="n">
-        <v>0.04031806177169782</v>
+        <v>0.04606004704666129</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2884133854222919</v>
+        <v>0.1568962582301642</v>
       </c>
       <c r="L241" t="n">
-        <v>0.09118722906658105</v>
+        <v>0.1051010428998393</v>
       </c>
       <c r="M241" t="n">
-        <v>0.288720878817101</v>
+        <v>0.1512290568483138</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1425881549524176</v>
+        <v>0.1647741946615544</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2876769197606504</v>
+        <v>0.1527541154546742</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01530510422621768</v>
+        <v>0.00342421348142815</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2876331748274947</v>
+        <v>0.04805228559567531</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03939300665536892</v>
+        <v>0.04594026915621809</v>
       </c>
       <c r="K242" t="n">
-        <v>0.290052097839464</v>
+        <v>0.1577877142428356</v>
       </c>
       <c r="L242" t="n">
-        <v>0.08988851285334001</v>
+        <v>0.1050579661404567</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2903613383558345</v>
+        <v>0.1520883128531338</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1403224612518418</v>
+        <v>0.1649060771780702</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2893114477138359</v>
+        <v>0.1536220365652121</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01609024242334677</v>
+        <v>0.0034352888708113</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2892582210129608</v>
+        <v>0.0480364878586351</v>
       </c>
       <c r="J243" t="n">
-        <v>0.0388658792554453</v>
+        <v>0.04632071750589681</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2916908102566361</v>
+        <v>0.158679170255507</v>
       </c>
       <c r="L243" t="n">
-        <v>0.08948506175984378</v>
+        <v>0.1049153757860874</v>
       </c>
       <c r="M243" t="n">
-        <v>0.292001797894568</v>
+        <v>0.1529475688579537</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1380494182153951</v>
+        <v>0.163538731641266</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2909459756670214</v>
+        <v>0.15448995767575</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01487452859045554</v>
+        <v>0.003450532338747182</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2908832671984268</v>
+        <v>0.04802069012159489</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03833664799482485</v>
+        <v>0.0462013962515128</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2933295226738082</v>
+        <v>0.1595706262681784</v>
       </c>
       <c r="L244" t="n">
-        <v>0.08777680353405293</v>
+        <v>0.1055732803248945</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2936422574333015</v>
+        <v>0.1538068248627737</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1362689142366567</v>
+        <v>0.163672171710973</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2925805036202069</v>
+        <v>0.1553578787862879</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01565795007921739</v>
+        <v>0.003470183691603596</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2925083133838929</v>
+        <v>0.04800489238455469</v>
       </c>
       <c r="J245" t="n">
-        <v>0.0381052812964055</v>
+        <v>0.0459823095488814</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2949682350909803</v>
+        <v>0.1604620822808498</v>
       </c>
       <c r="L245" t="n">
-        <v>0.08716366592392805</v>
+        <v>0.1044316882450413</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2952827169720351</v>
+        <v>0.1546660808675937</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1354808377092058</v>
+        <v>0.1642064110470223</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2942150315733924</v>
+        <v>0.1562257998968259</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01544049424130563</v>
+        <v>0.003494482735748421</v>
       </c>
       <c r="G246" t="n">
-        <v>0.294133359569359</v>
+        <v>0.04798909464751447</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03757174758308517</v>
+        <v>0.04606346155381791</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2966069475081524</v>
+        <v>0.1613535382935212</v>
       </c>
       <c r="L246" t="n">
-        <v>0.08524557667742988</v>
+        <v>0.1054906080346907</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2969231765107686</v>
+        <v>0.1555253368724137</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1325850770266218</v>
+        <v>0.1640414633092447</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2958495595265779</v>
+        <v>0.1570937210073638</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.0132221484283936</v>
+        <v>0.003523669277549449</v>
       </c>
       <c r="G247" t="n">
-        <v>0.295758405754825</v>
+        <v>0.04797329691047426</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03683601527776176</v>
+        <v>0.0461448564221377</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2982456599253245</v>
+        <v>0.1622449943061925</v>
       </c>
       <c r="L247" t="n">
-        <v>0.08432246354251907</v>
+        <v>0.1053500481820059</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2985636360495021</v>
+        <v>0.1563845928772336</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1305815205824837</v>
+        <v>0.1637773421574714</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2974840874797634</v>
+        <v>0.1579616421179017</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01300289999215466</v>
+        <v>0.003557983123374527</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2973834519402911</v>
+        <v>0.04795749917343405</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03659805280333318</v>
+        <v>0.04602649830965609</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2998843723424967</v>
+        <v>0.1631364503188639</v>
       </c>
       <c r="L248" t="n">
-        <v>0.08349425426715618</v>
+        <v>0.1046100171751499</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3002040955882357</v>
+        <v>0.1572438488820536</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1288700567703709</v>
+        <v>0.1645140612515334</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2991186154329489</v>
+        <v>0.1588295632284396</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01478273628426217</v>
+        <v>0.003597664079591521</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2990084981257572</v>
+        <v>0.04794170143639384</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03575782858269735</v>
+        <v>0.04590839137218843</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3015230847596688</v>
+        <v>0.1640279063315353</v>
       </c>
       <c r="L249" t="n">
-        <v>0.08166087659930193</v>
+        <v>0.1050705235022859</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3018445551269692</v>
+        <v>0.1581031048868735</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1268505739838626</v>
+        <v>0.1635516342512618</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3007531433861345</v>
+        <v>0.1596974843389775</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01456164465638943</v>
+        <v>0.003642951952568224</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3006335443112233</v>
+        <v>0.04792590369935363</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03541531103875217</v>
+        <v>0.04589053976555001</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3031617971768409</v>
+        <v>0.1649193623442067</v>
       </c>
       <c r="L250" t="n">
-        <v>0.08042225828691693</v>
+        <v>0.104431575651577</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3034850146657027</v>
+        <v>0.1589623608916935</v>
       </c>
       <c r="N250" t="n">
-        <v>0.125722960616538</v>
+        <v>0.1628900748164877</v>
       </c>
       <c r="O250" t="n">
-        <v>0.30238767133932</v>
+        <v>0.1605654054495154</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01433961246020984</v>
+        <v>0.003694086548672489</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3022585904966893</v>
+        <v>0.04791010596231342</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03477046859439556</v>
+        <v>0.04597294764555615</v>
       </c>
       <c r="K251" t="n">
-        <v>0.304800509594013</v>
+        <v>0.1658108183568781</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07957832707796178</v>
+        <v>0.1048931821111861</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3051254742044362</v>
+        <v>0.1598216168965135</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1232871050619762</v>
+        <v>0.163729396607042</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3040221992925055</v>
+        <v>0.1614333265600534</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01411662704739669</v>
+        <v>0.00375130767427214</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3038836366821554</v>
+        <v>0.04789430822527321</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03442326967252543</v>
+        <v>0.04615561916802224</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3064392220111851</v>
+        <v>0.1667022743695495</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07842901072039718</v>
+        <v>0.1041553513692766</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3067659337431698</v>
+        <v>0.1606808729013334</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1211428957137566</v>
+        <v>0.1642696132827557</v>
       </c>
       <c r="O252" t="n">
-        <v>0.305656727245691</v>
+        <v>0.1623012476705913</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01389267576962337</v>
+        <v>0.003814855135735026</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3055086828676215</v>
+        <v>0.04787851048823299</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03357368269603973</v>
+        <v>0.04603855848876362</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3080779344283572</v>
+        <v>0.1675937303822209</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07637423696218376</v>
+        <v>0.1052180919140113</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3084063932819033</v>
+        <v>0.1615401289061534</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1190902209654583</v>
+        <v>0.16391073850346</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3072912551988765</v>
+        <v>0.1631691687811292</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01366774597856319</v>
+        <v>0.003884968739428951</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3071337290530876</v>
+        <v>0.04786271275119278</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03292167608783629</v>
+        <v>0.04592176976359556</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3097166468455294</v>
+        <v>0.1684851863948923</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07561393355128218</v>
+        <v>0.1049814122335535</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3100468528206368</v>
+        <v>0.1623993849109734</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1169289692106606</v>
+        <v>0.1640527859289859</v>
       </c>
       <c r="O254" t="n">
-        <v>0.308925783152062</v>
+        <v>0.1640370898916672</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01144182502588952</v>
+        <v>0.003961888291721803</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3087587752385536</v>
+        <v>0.04784691501415257</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03266721827081308</v>
+        <v>0.04570525714833344</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3113553592627015</v>
+        <v>0.1693766424075636</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07384802823565303</v>
+        <v>0.1042453208160662</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3116873123593704</v>
+        <v>0.1632586409157933</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1160590288429428</v>
+        <v>0.1624957692191644</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3105603111052475</v>
+        <v>0.1649050110022051</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01221490026327569</v>
+        <v>0.004045853598981339</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3103838214240197</v>
+        <v>0.04783111727711237</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03181027766786799</v>
+        <v>0.04588902479879259</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3129940716798736</v>
+        <v>0.170268098420235</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07317644876325702</v>
+        <v>0.1051098261497126</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3133277718981039</v>
+        <v>0.1641178969206133</v>
       </c>
       <c r="N256" t="n">
-        <v>0.112980288255884</v>
+        <v>0.1634397020338265</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3121948390584331</v>
+        <v>0.165772932112743</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01298695904239506</v>
+        <v>0.004137104467575467</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3120088676094858</v>
+        <v>0.04781531954007215</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03165082270189896</v>
+        <v>0.04607307687078832</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3146327840970457</v>
+        <v>0.1711595544329064</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07129912288205476</v>
+        <v>0.1047749367226557</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3149682314368374</v>
+        <v>0.1649771529254332</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1115926358430635</v>
+        <v>0.1629845980328034</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3138293670116186</v>
+        <v>0.1666408532232809</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01175798871492095</v>
+        <v>0.004235880703871958</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3136339137949519</v>
+        <v>0.04779952180303194</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03068882179580387</v>
+        <v>0.04605741752013599</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3162714965142178</v>
+        <v>0.1720510104455778</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06991597834000685</v>
+        <v>0.1049406610230586</v>
       </c>
       <c r="M258" t="n">
-        <v>0.316608690975571</v>
+        <v>0.1658364089302532</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1089959599980604</v>
+        <v>0.162530470875926</v>
       </c>
       <c r="O258" t="n">
-        <v>0.315463894964804</v>
+        <v>0.1675087743338188</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01152797663252672</v>
+        <v>0.004342422114238721</v>
       </c>
       <c r="G259" t="n">
-        <v>0.315258959980418</v>
+        <v>0.04778372406599173</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03052424337248066</v>
+        <v>0.0456420509026509</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3179102089313899</v>
+        <v>0.1729424664582492</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06862694288507404</v>
+        <v>0.1045070075390845</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3182491505143045</v>
+        <v>0.1666956649350732</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1075901491144541</v>
+        <v>0.1625773342230254</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3170984229179896</v>
+        <v>0.1683766954443567</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01229691014688573</v>
+        <v>0.004456968505043506</v>
       </c>
       <c r="G260" t="n">
-        <v>0.316884006165884</v>
+        <v>0.04776792632895152</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02975705585482721</v>
+        <v>0.04572698117414843</v>
       </c>
       <c r="K260" t="n">
-        <v>0.319548921348562</v>
+        <v>0.1738339224709206</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06833194426521683</v>
+        <v>0.1045739847588963</v>
       </c>
       <c r="M260" t="n">
-        <v>0.319889610053038</v>
+        <v>0.1675549209398932</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1059750915858237</v>
+        <v>0.1637252017339327</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3187329508711751</v>
+        <v>0.1692446165548947</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01206477660967129</v>
+        <v>0.004579759682654221</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3185090523513501</v>
+        <v>0.0477521285919113</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02918722766574144</v>
+        <v>0.04601221249044386</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3211876337657341</v>
+        <v>0.174725378483592</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06633091022839599</v>
+        <v>0.1041416011706573</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3215300695917715</v>
+        <v>0.1684141769447131</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1042506758057484</v>
+        <v>0.1636740870684787</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3203674788243606</v>
+        <v>0.1701125376654326</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01083156337255678</v>
+        <v>0.004711035453438615</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3201340985368162</v>
+        <v>0.0477363308548711</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02861472722812128</v>
+        <v>0.04569774900735253</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3228263461829062</v>
+        <v>0.1756168344962633</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06482376852257205</v>
+        <v>0.1045098652625305</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3231705291305051</v>
+        <v>0.1692734329495331</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1009167901678076</v>
+        <v>0.1625240038864947</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3220020067775461</v>
+        <v>0.1709804587759705</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.009597257787215513</v>
+        <v>0.004851035623764641</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3217591447222822</v>
+        <v>0.04772053311783089</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02823952296486465</v>
+        <v>0.04568359488068982</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3244650586000784</v>
+        <v>0.1765082905089347</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06361044689570577</v>
+        <v>0.104478785522679</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3248109886692386</v>
+        <v>0.1701326889543531</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1004733230655804</v>
+        <v>0.1633749658478117</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3236365347307317</v>
+        <v>0.1718483798865084</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01136184720532086</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3233841909077483</v>
+        <v>0.04770473538079067</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02746158329886943</v>
+        <v>0.04556975426627102</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3261037710172505</v>
+        <v>0.1773997465216061</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06239087309575772</v>
+        <v>0.1046483704392659</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3264514482079721</v>
+        <v>0.170991944959173</v>
       </c>
       <c r="N264" t="n">
-        <v>0.09772016289264596</v>
+        <v>0.1628269866122607</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3252710626839171</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1727163009970464</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04769157748605383</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005263525208947545</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04769184601451785</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005524460619109495</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04769211454298187</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005782725998718236</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04769238307144588</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.00603824111602877</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.0476926515999099</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006290925739273708</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04769292012837392</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006540699636707788</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04769318865683794</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.006787482576563898</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04769345718530196</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007031194327096507</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04769372571376598</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007271754656538759</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04769399424222999</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007509083333144859</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04769426277069401</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.007743100125148228</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04769453129915802</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.007973724800802814</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04769479982762204</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.00820087712834229</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04769506835608606</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008424476876020298</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04769533688455008</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.008644443812070864</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04769560541301409</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.008860697704747296</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04769587394147811</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009073158322283927</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04769614246994212</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009281745432929242</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04769641099840614</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.009486378804931417</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04769667952687016</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.009686978206525268</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04769694805533418</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.009883463405963286</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.0476972165837982</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01007575417148066</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04769748511226221</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.0102637702713295</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04769775364072623</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01044743147374536</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04769802216919024</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01062698515998469</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04769829069765427</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01080431677631167</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04769855922611828</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01097967370398249</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.0476988277545823</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01115297571123325</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04769909628304631</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01132414256631525</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04769936481151033</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01149309403746478</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04769963333997435</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01165974989293294</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04769990186843837</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01182402990095623</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04770017039690239</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01198585382978202</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0477004389253664</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01214514144765752</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04770070745383042</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01230181252281953</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04770097598229443</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01245578682351862</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04770124451075845</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01260698411799183</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04770151303922247</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01275532417448948</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04770178156768649</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01290072676124886</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.0477020500961505</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01304311164652005</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04770231862461452</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01318239859854058</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04770258715307853</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01331850738556028</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04770285568154255</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01345135777581694</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04770312421000657</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01358086953756012</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04770339273847059</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.0137069624390279</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04770366126693461</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01382955624846952</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04770392979539863</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01394857073412339</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04770419832386264</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01406392566423843</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04770446685232666</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01417554080705337</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04770473538079067</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01417554080705337</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04769157748605383</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01424068949303606</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04770791228002208</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01430118979307413</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04772424707399033</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01435720989406779</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04774058186795857</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01440891798291737</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04775691666192682</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01445648224652311</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04777325145589506</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01450007087178531</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04778958624986331</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01453985204560425</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04780592104383155</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.0145759939548802</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.0478222558377998</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01460866478651344</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04783859063176804</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01463803272740422</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04785492542573629</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01466426596445284</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04787126021970453</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.0146875326845596</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04788759501367278</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01470800107462474</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04790392980764102</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01472583932154856</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04792026460160927</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01474121561223132</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04793659939557751</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01475429813357333</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04795293418954576</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01476525507247482</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.047969268983514</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.0147742546158361</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04798560377748225</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01478146495055743</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.0480019385714505</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01478705426353911</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04801827336541874</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01479119074168139</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04803460815938699</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01479404257188457</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04805094295335523</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01479577794104892</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04806727774732347</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01479656503607471</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04808361254129172</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01479588528068609</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04809994733525996</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01478978628272654</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04811628212922821</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01477774946592021</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04813261692319646</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01475994301716739</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0481489517171647</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01473653512336833</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04816528651113295</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01470769397142333</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.0481816213051012</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01467358774823265</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04819795609906944</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01463438464069659</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04821429089303769</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.0145902528357154</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04823062568700592</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01454136052018936</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04824696048097418</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01448787588101878</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04826329527494242</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01442996710510389</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04827963006891067</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01436780237934502</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04829596486287891</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.0143015498906424</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04831229965684716</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01423137782589633</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.0483286344508154</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01415745437200711</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04834496924478365</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01407994771587495</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04836130403875189</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01399902604440019</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04837763883272014</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01391485754448307</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04839397362668838</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.0138276104030239</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04841030842065663</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01373745280692295</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04842664321462487</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01364455294308045</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04844297800859312</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01354907899839675</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04845931280256136</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01345119915977207</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04847564759652961</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01335108161410672</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04849198239049785</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01335108161410672</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04849198239049785</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01369659642933734</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05007432689173546</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01403548905058782</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05165667139297305</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.014367597743268</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05323901589421065</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01469276077278768</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05482136039544825</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0150108164045567</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05640370489668586</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01532160290398486</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.05798604939792346</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01562495853648199</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.05956839389916105</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01592072156745792</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06115073840039865</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.01620873026232245</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06273308290163626</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01648882288648543</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06431542740287385</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.01676083770535665</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06589777190411146</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.01702461298434594</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06748011640534905</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.01727998698886313</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.06906246090658666</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.01752679798431803</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07064480540782425</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.01776488423612047</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07222714990906186</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.01799408400968026</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07380949441029946</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.01821423557040722</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07539183891153706</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.01842517718371118</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07697418341277466</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.01862674711500195</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.07855652791401226</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.01881878362968935</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08013887241524985</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.01900112499318323</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08172121691648747</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.01917360947089338</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08330356141772506</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.01933607532822962</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08488590591896265</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.01948836083060178</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08646825042020026</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.01963030424341967</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.08805059492143785</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.01976174383209314</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.08963293942267547</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.01988251786203196</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09121528392391305</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.019992464598646</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09279762842515066</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02009142230734504</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09437997292638826</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02017922925353895</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09596231742762586</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.0202557237026375</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09754466192886346</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02032074392005053</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.09912700643010106</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02037412817118787</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1007093509313387</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02041571472145933</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1022916954325763</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02044534183627474</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1038740399338139</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02046810881880896</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1054563844350515</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02046809448079803</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1070387289362891</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02046544525024407</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1086210734375267</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02045845057452862</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1102034179387642</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02044744048372182</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1117857624400019</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02043274500789388</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1133681069412395</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02041469417711493</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1149504514424771</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02039361802145516</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1165327959437147</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02036984657098473</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1181151404449523</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02034370985577381</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1196974849461899</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02031553790589258</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1212798294474274</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02028566075141119</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1228621739486651</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02025440842239983</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1244445184499027</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02022211094892865</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1260268629511402</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02018909836106784</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1276092074523779</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02015547811355835</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1291915519536155</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02011136012829409</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1307738964548531</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02005376117276572</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1323562409560907</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.01998611414971699</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1339385854573283</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.0199118519618916</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1355209299585659</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.01983440751203327</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1371032744598034</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.01975721370288572</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1386856189610411</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.01968370343719269</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1402679634622787</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.01961730961769789</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1418503079635162</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.01956146514714504</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1434326524647539</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.01951960292827785</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1450149969659915</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.01948830595394455</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1465973414672291</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.01945892154071034</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1481796859684667</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.01943126233072824</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.01940521832043175</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1513443749709419</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.01938067950625437</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1529267194721795</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.01935753588462961</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1545090639734171</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.01933567745199097</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1560914084746547</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.01931499420477197</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1576737529758923</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.01929537613940611</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1592560974771299</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.01927671325232688</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1608384419783675</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.0192588955399678</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1624207864796051</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.01924181299876238</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1640031309808427</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.0192253556251441</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1655854754820803</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.0192094134155465</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1671678199833178</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.01919387636640306</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1687501644845555</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0191786344741473</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1703325089857931</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.01916357773521273</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1719148534870306</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.01914859614603284</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1734971979882683</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.01913357970304114</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1750795424895059</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.01911841840267114</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1766618869907435</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.01910300224135634</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1782442314919811</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.01908754341405631</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1798265759932187</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.01907234293031993</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1814089204944563</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.01905741035347402</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1829912649956938</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.01904275522974037</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1845736094969315</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.01902838710534085</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1861559539981691</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.01901431552649725</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1877382984994067</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.01900055003943141</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1893206430006443</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.01898710019036515</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1909029875018819</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.0189739755255203</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1924853320031195</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.01896118559111868</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1940676765043571</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.01894873993338213</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1956500210055947</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.01893664809853245</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1972323655068323</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.01892491963279149</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.1988147100080699</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.01891356408238107</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2003970545093075</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.01890259099352301</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2019793990105451</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.01889200991243913</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2035617435117827</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.01888183038535127</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2051440880130203</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
